--- a/refair-server/datasets/few shot dataset/FSDataset.xlsx
+++ b/refair-server/datasets/few shot dataset/FSDataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morel\Desktop\Refair\ReFair-App\refair-server\datasets\few shot dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8E09DC-DB4A-47EF-953A-182E2B2CDD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204CE33E-88A1-494D-A291-B60BEC871D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80773445-FB61-4F04-A882-1600FD96C55A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="68">
   <si>
     <t>Domain cluster</t>
   </si>
@@ -177,6 +177,69 @@
   </si>
   <si>
     <t>document classification</t>
+  </si>
+  <si>
+    <t>Literature</t>
+  </si>
+  <si>
+    <t>As a literary scholar, I want to implement CNNs for text classification tasks to automatically categorize literary texts into genres or subgenres based on stylistic features and thematic content, facilitating comprehensive literary analysis.</t>
+  </si>
+  <si>
+    <t>As a literary critic, I want to apply adversarial learning techniques to analyze and detect stylistic forgeries or plagiarized passages in digital texts, ensuring the integrity and authenticity of literary works in online archives.</t>
+  </si>
+  <si>
+    <t>As a literature enthusiast, I want to interact with a conversational agent that can discuss and recommend books based on my preferences and past readings, providing personalized literary suggestions and insights.</t>
+  </si>
+  <si>
+    <t>As a literary analyst, I want to employ a decision tree model to classify and categorize literary texts into thematic genres or periods based on their stylistic features, facilitating comprehensive literary analysis and comparative studies.</t>
+  </si>
+  <si>
+    <t>As a literature enthusiast, I want to use entity extraction techniques to automatically identify and extract character names, relationships, and attributes from complex narrative structures such as multi-volume novels or interconnected story collections, enhancing reader comprehension and engagement.</t>
+  </si>
+  <si>
+    <t>As a literary critic, I want to utilize document classification algorithms to analyze and classify critical reviews and analyses of literary works into categories such as thematic interpretations, stylistic critiques, and cultural reflections, aiding in comprehensive literary criticism.</t>
+  </si>
+  <si>
+    <t>As a literary critic, I want to utilize feature selection techniques to identify and rank linguistic markers of literary movements or genres within a large corpus of novels or poems, supporting comprehensive genre analysis and literary classification.</t>
+  </si>
+  <si>
+    <t>As a literature curator, I want to manage imbalanced datasets in genre classification models, where niche or emerging literary genres are underrepresented compared to mainstream genres, to promote diversity and inclusivity in digital library collections and recommendations.</t>
+  </si>
+  <si>
+    <t>As a literary researcher, I want to use keyword extraction techniques to automatically identify and extract key themes and motifs from a collection of classic novels, facilitating thematic analysis and comparative literature studies.</t>
+  </si>
+  <si>
+    <t>As a literature researcher, I want to employ k-NN clustering to analyze and categorize literary genres and subgenres based on shared characteristics such as narrative style, thematic content, and cultural influences, supporting systematic genre classification and literary taxonomy.</t>
+  </si>
+  <si>
+    <t>As a literary researcher, I want to implement multi-label classification techniques to categorize novels into multiple genres simultaneously, recognizing hybrid genres or overlapping thematic elements in literary works.</t>
+  </si>
+  <si>
+    <t>As a literature researcher, I want to develop a neural network architecture for authorship attribution tasks, accurately identifying the authorship of anonymous or disputed literary texts based on deep linguistic analysis and stylometric features.</t>
+  </si>
+  <si>
+    <t>As a literary researcher, I want to employ a random forest algorithm to classify literary texts into different literary movements or periods based on a combination of stylistic features such as vocabulary usage, sentence structure, and thematic elements.</t>
+  </si>
+  <si>
+    <t>As a literary researcher, I want to develop semantic similarity metrics to quantify and compare the stylistic similarities between authors or literary movements, uncovering influences and stylistic evolution within the literary canon.</t>
+  </si>
+  <si>
+    <t>As a literature educator, I want to integrate speech to text tools in educational settings to transcribe classroom discussions and oral presentations, facilitating documentation of student interactions and supporting inclusive learning environments for literary studies.</t>
+  </si>
+  <si>
+    <t>As a literary researcher, I want to use text categorization algorithms to classify novels into different genres automatically, based on textual features such as plot structure, character development, and thematic elements, to support genre-based analysis and recommendation systems.</t>
+  </si>
+  <si>
+    <t>As a literary critic, I want to perform sentiment analysis on book reviews to automatically classify the emotional tone (positive, negative, neutral) of reader feedback, providing insights into public reception and critical acclaim of literary works.</t>
+  </si>
+  <si>
+    <t>As a literature researcher, I want to employ unsupervised clustering algorithms to analyze and categorize literary blogs and online discussions into thematic clusters such as literary criticism, author interviews, and reader responses, facilitating content analysis and trend identification in digital literary communities.</t>
+  </si>
+  <si>
+    <t>As a literary critic, I want to use voice recognition technology to analyze audiobook recordings of classic novels and contemporary literature, extracting and comparing narrative styles and expressive techniques used by different authors.</t>
+  </si>
+  <si>
+    <t>As a literature researcher, I want to employ word embedding algorithms to identify and analyze shifts in literary themes and motifs across different periods and genres, uncovering evolutionary patterns in the use of language within the literary canon.</t>
   </si>
 </sst>
 </file>
@@ -576,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DF0B04-8323-4309-B759-D1CDDA1FBB0E}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -632,13 +695,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -652,10 +715,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -666,13 +729,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -686,10 +749,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -700,13 +763,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -720,10 +783,10 @@
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -734,13 +797,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -754,10 +817,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -768,13 +831,13 @@
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -788,10 +851,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -802,13 +865,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -822,10 +885,10 @@
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -836,13 +899,13 @@
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -856,10 +919,10 @@
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -870,13 +933,13 @@
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -890,10 +953,10 @@
         <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -904,13 +967,13 @@
         <v>5</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -924,10 +987,10 @@
         <v>5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -938,18 +1001,358 @@
         <v>5</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="3">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="3">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="3">
+        <v>5</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3">
+        <v>5</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="3">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3">
+        <v>5</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="3">
+        <v>5</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="3">
+        <v>5</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3">
+        <v>5</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="3">
+        <v>5</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="3">
+        <v>5</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="3">
+        <v>5</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="3">
+        <v>5</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="3">
+        <v>5</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="3">
+        <v>5</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E21">
-    <sortCondition ref="D1:D21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E41">
+    <sortCondition ref="D4:D41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/refair-server/datasets/few shot dataset/FSDataset.xlsx
+++ b/refair-server/datasets/few shot dataset/FSDataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morel\Desktop\Refair\ReFair-App\refair-server\datasets\few shot dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204CE33E-88A1-494D-A291-B60BEC871D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EE34A9-5330-42A1-9575-011CE9DDA2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80773445-FB61-4F04-A882-1600FD96C55A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="70">
   <si>
     <t>Domain cluster</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>As a literature researcher, I want to employ word embedding algorithms to identify and analyze shifts in literary themes and motifs across different periods and genres, uncovering evolutionary patterns in the use of language within the literary canon.</t>
+  </si>
+  <si>
+    <t>Prompt used</t>
+  </si>
+  <si>
+    <t>Domain_FSPrompt</t>
   </si>
 </sst>
 </file>
@@ -300,11 +306,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -639,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DF0B04-8323-4309-B759-D1CDDA1FBB0E}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -650,27 +659,31 @@
     <col min="1" max="3" width="26" style="1" customWidth="1"/>
     <col min="4" max="4" width="26" style="2" customWidth="1"/>
     <col min="5" max="5" width="255.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="26.5546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -686,8 +699,11 @@
       <c r="E2" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -703,8 +719,11 @@
       <c r="E3" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -720,8 +739,11 @@
       <c r="E4" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -737,8 +759,11 @@
       <c r="E5" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -754,8 +779,11 @@
       <c r="E6" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -771,8 +799,11 @@
       <c r="E7" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -788,8 +819,11 @@
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -805,8 +839,11 @@
       <c r="E9" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -822,8 +859,11 @@
       <c r="E10" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -839,8 +879,11 @@
       <c r="E11" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -856,8 +899,11 @@
       <c r="E12" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
@@ -873,8 +919,11 @@
       <c r="E13" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -890,8 +939,11 @@
       <c r="E14" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
@@ -907,8 +959,11 @@
       <c r="E15" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
@@ -924,8 +979,11 @@
       <c r="E16" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -941,8 +999,11 @@
       <c r="E17" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -958,8 +1019,11 @@
       <c r="E18" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -975,8 +1039,11 @@
       <c r="E19" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -992,8 +1059,11 @@
       <c r="E20" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1009,8 +1079,11 @@
       <c r="E21" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1026,8 +1099,11 @@
       <c r="E22" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>4</v>
       </c>
@@ -1043,8 +1119,11 @@
       <c r="E23" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1060,8 +1139,11 @@
       <c r="E24" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -1077,8 +1159,11 @@
       <c r="E25" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
@@ -1094,8 +1179,11 @@
       <c r="E26" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
@@ -1111,8 +1199,11 @@
       <c r="E27" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
@@ -1128,8 +1219,11 @@
       <c r="E28" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>4</v>
       </c>
@@ -1145,8 +1239,11 @@
       <c r="E29" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>4</v>
       </c>
@@ -1162,8 +1259,11 @@
       <c r="E30" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -1179,8 +1279,11 @@
       <c r="E31" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1196,8 +1299,11 @@
       <c r="E32" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>4</v>
       </c>
@@ -1213,8 +1319,11 @@
       <c r="E33" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>4</v>
       </c>
@@ -1230,8 +1339,11 @@
       <c r="E34" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
@@ -1247,8 +1359,11 @@
       <c r="E35" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
@@ -1264,8 +1379,11 @@
       <c r="E36" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
@@ -1281,8 +1399,11 @@
       <c r="E37" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
@@ -1298,8 +1419,11 @@
       <c r="E38" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>4</v>
       </c>
@@ -1315,8 +1439,11 @@
       <c r="E39" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>4</v>
       </c>
@@ -1332,8 +1459,11 @@
       <c r="E40" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>4</v>
       </c>
@@ -1348,6 +1478,9 @@
       </c>
       <c r="E41" s="1" t="s">
         <v>67</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/refair-server/datasets/few shot dataset/FSDataset.xlsx
+++ b/refair-server/datasets/few shot dataset/FSDataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morel\Desktop\Refair\ReFair-App\refair-server\datasets\few shot dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EE34A9-5330-42A1-9575-011CE9DDA2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB6A4E8-185F-4286-8C4D-D0E0D947AAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80773445-FB61-4F04-A882-1600FD96C55A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="91">
   <si>
     <t>Domain cluster</t>
   </si>
@@ -246,6 +246,69 @@
   </si>
   <si>
     <t>Domain_FSPrompt</t>
+  </si>
+  <si>
+    <t>Linguistics</t>
+  </si>
+  <si>
+    <t>As a linguist, I want to employ adversarial learning techniques to detect and mitigate dialectal biases in automated transcription systems, ensuring accurate representation of regional language variations.</t>
+  </si>
+  <si>
+    <t>As a linguist, I want to utilize CNNs to automatically analyze and categorize handwritten manuscripts based on historical writing styles and script variations, aiding in the classification and digitization of ancient texts.</t>
+  </si>
+  <si>
+    <t>As a linguist, I want to create a conversational agent capable of simulating dialogues in multiple languages, allowing users to practice conversational fluency and cultural expressions in a natural setting.</t>
+  </si>
+  <si>
+    <t>As a linguist, I want to apply decision tree algorithms to categorize language samples into phonetic groups, facilitating the study of phonological evolution and dialectal variations over time.</t>
+  </si>
+  <si>
+    <t>As a linguist, I want to apply document classification techniques to categorize language corpora into historical periods, facilitating chronological studies of language evolution and linguistic changes.</t>
+  </si>
+  <si>
+    <t>As a linguist, I want to develop entity extraction algorithms to automatically detect and categorize named entities such as proper names and geographic locations in historical texts, aiding in geographical and historical linguistic research.</t>
+  </si>
+  <si>
+    <t>As a linguist, I want to use feature selection techniques to optimize the selection of discourse markers and pragmatic features in spoken dialogues, enhancing the analysis of conversational strategies and communicative intentions.</t>
+  </si>
+  <si>
+    <t>As a linguist, I want to address imbalanced datasets in historical language corpora by applying techniques that balance the representation of under-documented languages, ensuring fair and comprehensive linguistic analysis.</t>
+  </si>
+  <si>
+    <t>As a linguist, I want to employ keyword extraction techniques on multilingual dictionaries to identify semantic clusters and cross-linguistic equivalences, supporting comparative lexical studies.</t>
+  </si>
+  <si>
+    <t>As a linguist, I want to utilize k-NN models to identify similar linguistic patterns across different languages based on shared morphological and syntactic features, supporting typological studies.</t>
+  </si>
+  <si>
+    <t>As a linguist, I want to use neural networks for automatic language identification in multilingual texts, improving the efficiency of language documentation and corpus compilation efforts.</t>
+  </si>
+  <si>
+    <t>As a linguist, I want to use multi-label classification algorithms to categorize language learning materials into proficiency levels (beginner, intermediate, advanced) and language skills (listening, speaking, reading, writing).</t>
+  </si>
+  <si>
+    <t>As a linguist, I want to use a random forest algorithm to classify texts based on syntactic structures, enabling automated categorization of sentences into grammatical types (e.g., declarative, interrogative, imperative).</t>
+  </si>
+  <si>
+    <t>As a linguist, I want to use semantic similarity algorithms to identify synonymous terms in multilingual dictionaries, facilitating the compilation of comprehensive lexical resources.</t>
+  </si>
+  <si>
+    <t>As a linguist, I want to use sentiment analysis techniques to analyze student feedback on language courses and teaching methodologies, improving instructional practices and student satisfaction.</t>
+  </si>
+  <si>
+    <t>As a linguist, I want to use a speech to text system to transcribe language learning sessions, allowing for detailed analysis of pronunciation and speech patterns to enhance teaching methods.</t>
+  </si>
+  <si>
+    <t>As a linguist, I want to use text categorization algorithms to classify research papers into linguistic subfields such as phonetics, syntax, and semantics, facilitating targeted literature reviews.</t>
+  </si>
+  <si>
+    <t>As a linguist, I want to apply unsupervised clustering algorithms to categorize phonetic data from different dialects, identifying distinct phonological patterns and variations.</t>
+  </si>
+  <si>
+    <t>As a linguist, I want to use voice recognition technology to create language learning tools that provide real-time feedback on pronunciation accuracy and intonation.</t>
+  </si>
+  <si>
+    <t>As a linguist, I want to use word embedding techniques to map words from different languages into a shared semantic space, allowing for cross-linguistic comparison of lexical semantics and conceptual structures.</t>
   </si>
 </sst>
 </file>
@@ -648,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DF0B04-8323-4309-B759-D1CDDA1FBB0E}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1483,6 +1546,406 @@
         <v>69</v>
       </c>
     </row>
+    <row r="42" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="3">
+        <v>5</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="3">
+        <v>5</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="3">
+        <v>5</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="3">
+        <v>5</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="3">
+        <v>5</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="3">
+        <v>5</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="3">
+        <v>5</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="3">
+        <v>5</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="3">
+        <v>5</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="3">
+        <v>5</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
+        <v>80</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="3">
+        <v>5</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" t="s">
+        <v>82</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="3">
+        <v>5</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" t="s">
+        <v>81</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="3">
+        <v>5</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" t="s">
+        <v>83</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="3">
+        <v>5</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" t="s">
+        <v>84</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="3">
+        <v>5</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E56" t="s">
+        <v>85</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="3">
+        <v>5</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" t="s">
+        <v>86</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="3">
+        <v>5</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" t="s">
+        <v>87</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="3">
+        <v>5</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" t="s">
+        <v>88</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="3">
+        <v>5</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" t="s">
+        <v>89</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="3">
+        <v>5</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" t="s">
+        <v>90</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E41">
     <sortCondition ref="D4:D41"/>

--- a/refair-server/datasets/few shot dataset/FSDataset.xlsx
+++ b/refair-server/datasets/few shot dataset/FSDataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morel\Desktop\Refair\ReFair-App\refair-server\datasets\few shot dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB6A4E8-185F-4286-8C4D-D0E0D947AAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963F4CA1-6CC7-4DD3-95E6-BD645D33B997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80773445-FB61-4F04-A882-1600FD96C55A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="113">
   <si>
     <t>Domain cluster</t>
   </si>
@@ -309,13 +309,79 @@
   </si>
   <si>
     <t>As a linguist, I want to use word embedding techniques to map words from different languages into a shared semantic space, allowing for cross-linguistic comparison of lexical semantics and conceptual structures.</t>
+  </si>
+  <si>
+    <t>Law &amp; Politycs</t>
+  </si>
+  <si>
+    <t>Political Science</t>
+  </si>
+  <si>
+    <t>As a political scientist, I want to apply adversarial learning techniques to detect and mitigate fake news and misinformation in political discourse, improving the integrity of public information and democratic processes.</t>
+  </si>
+  <si>
+    <t>As a political scientist, I want to utilize CNNs to analyze historical voting patterns across regions, identifying spatial trends and correlations that can enhance our understanding of electoral dynamics and constituency behavior.</t>
+  </si>
+  <si>
+    <t>As a political scientist, I want to develop a conversational agent using natural language processing to engage with citizens and collect opinions on public policies, facilitating more inclusive and informed decision-making processes.</t>
+  </si>
+  <si>
+    <t>As a political scientist, I want to develop decision trees to classify political ideologies based on textual analysis of party manifestos and policy statements, aiding in comparative political analysis across different countries.</t>
+  </si>
+  <si>
+    <t>As a political scientist, I want to use document classification techniques to categorize legislative texts into different policy domains (e.g., healthcare, education, defense) to facilitate comparative analysis of legislative agendas across sessions.</t>
+  </si>
+  <si>
+    <t>As a political scientist, I want to develop entity extraction models to automatically identify and classify mentions of political ideologies (e.g., socialism, capitalism, populism) in public opinion surveys and electoral manifestos, enabling systematic analysis of ideological shifts among voters.</t>
+  </si>
+  <si>
+    <t>As a political scientist, I want to use feature selection methods on social media data to pinpoint the key linguistic and behavioral traits (e.g., sentiment, topic engagement) that correlate with voter sentiment and political polarization, informing strategies for public opinion management.</t>
+  </si>
+  <si>
+    <t>As a political scientist, I want to address class imbalance in datasets containing public opinion survey responses to accurately model minority viewpoints and ensure fair representation in predictive models of voter behavior and policy preferences.</t>
+  </si>
+  <si>
+    <t>As a political scientist, I want to develop a keyword extraction model to identify and categorize key policy terms from legislative texts, enabling rapid analysis of legislative agendas and policy priorities across different sessions.</t>
+  </si>
+  <si>
+    <t>As a political scientist, I want to utilize k-NN clustering to group political speeches and debates into thematic clusters based on linguistic features and topic modeling, facilitating comparative analysis of political rhetoric and discourse strategies.</t>
+  </si>
+  <si>
+    <t>As a political scientist, I want to use multi-label classification techniques to classify political speeches and statements into multiple issue categories (e.g., economy, foreign policy, social welfare) to analyze politicians' policy focus and priorities over time.</t>
+  </si>
+  <si>
+    <t>As a political scientist, I want to develop a neural network architecture to analyze sentiment and public opinion from social media data during election periods, predicting electoral outcomes and understanding voter sentiment dynamics in real-time.</t>
+  </si>
+  <si>
+    <t>As a political scientist, I want to build a random forest model to classify news articles and editorials into different political ideologies (e.g., liberalism, conservatism, socialism) based on textual content and thematic analysis, facilitating media bias detection and analysis.</t>
+  </si>
+  <si>
+    <t>As a political scientist, I want to implement semantic similarity algorithms to compare public statements and policy positions of political candidates, assessing the consistency and coherence of their campaign messaging across different platforms.</t>
+  </si>
+  <si>
+    <t>As a political scientist, I want to apply sentiment analysis to analyze news articles and editorials discussing political scandals, to understand media sentiment and its impact on public trust in governmental institutions.</t>
+  </si>
+  <si>
+    <t>As a political scientist, I want to develop a speech-to-text system to transcribe and analyze parliamentary debates and committee hearings, to automate the process of documenting legislative proceedings and facilitate analysis of legislative discourse.</t>
+  </si>
+  <si>
+    <t>As a political scientist, I want to implement text categorization algorithms to classify news articles and media reports into different political topics (e.g., elections, foreign policy, economic reform) for tracking and analyzing media coverage trends across various political issues.</t>
+  </si>
+  <si>
+    <t>As a political scientist, I want to develop an unsupervised clustering model to group political speeches and debates into thematic clusters based on linguistic patterns and topic modeling, facilitating comparative analysis of political rhetoric and discourse strategies.</t>
+  </si>
+  <si>
+    <t>As a political scientist, I want to develop a voice recognition system to transcribe and analyze speeches by political leaders and candidates during election campaigns, enabling automated analysis of campaign messaging and rhetoric.</t>
+  </si>
+  <si>
+    <t>As a political scientist, I want to use word embedding models to analyze historical texts and speeches by political leaders, tracing the evolution of political ideologies and rhetoric over time to understand the shaping of political narratives and public discourse.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,8 +408,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +425,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF1155CC"/>
         <bgColor rgb="FF1155CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6B8AF"/>
+        <bgColor rgb="FFE6B8AF"/>
       </patternFill>
     </fill>
   </fills>
@@ -369,13 +446,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,1245 +797,1646 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DF0B04-8323-4309-B759-D1CDDA1FBB0E}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="26" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26" style="6" customWidth="1"/>
     <col min="5" max="5" width="255.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="26.5546875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="4">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="4">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="4">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="4">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="4">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="4">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="4">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="4">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="4">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="4">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="F22" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="F23" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="F24" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D25" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="F25" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="F26" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="F27" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="F28" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="F29" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="F30" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="3">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="F31" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2">
+        <v>5</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3">
-        <v>5</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="F32" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="2">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="3">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="F33" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="2">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="3">
-        <v>5</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="F34" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="2">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D35" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="3">
-        <v>5</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="F35" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="2">
+        <v>5</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="3">
-        <v>5</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="F36" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2">
+        <v>5</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D37" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="3">
-        <v>5</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="F37" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="2">
+        <v>5</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3">
-        <v>5</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="F38" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="2">
+        <v>5</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D39" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="3">
-        <v>5</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="F39" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="2">
+        <v>5</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="3">
-        <v>5</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="F40" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="2">
+        <v>5</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D41" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="3">
-        <v>5</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="F41" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="2">
+        <v>5</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="3">
-        <v>5</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="F42" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="2">
+        <v>5</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D43" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="3">
-        <v>5</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="F43" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="2">
+        <v>5</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="3">
-        <v>5</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="F44" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="2">
+        <v>5</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D45" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="3">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="F45" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="2">
+        <v>5</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="3">
-        <v>5</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="F46" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="2">
+        <v>5</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D47" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="3">
-        <v>5</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="F47" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="2">
+        <v>5</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="3">
-        <v>5</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="F48" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="2">
+        <v>5</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D49" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="3">
-        <v>5</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="F49" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="2">
+        <v>5</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="3">
-        <v>5</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="F50" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="2">
+        <v>5</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D51" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="3">
-        <v>5</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="F51" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="2">
+        <v>5</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="3">
-        <v>5</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="F52" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="2">
+        <v>5</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D53" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="3">
-        <v>5</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="F53" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="2">
+        <v>5</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="3">
-        <v>5</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="F54" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="2">
+        <v>5</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D55" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="3">
-        <v>5</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="F55" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="2">
+        <v>5</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="3">
-        <v>5</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="F56" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="2">
+        <v>5</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D57" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="3">
-        <v>5</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="F57" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="2">
+        <v>5</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="3">
-        <v>5</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="F58" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="2">
+        <v>5</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D59" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="3">
-        <v>5</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="F59" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="2">
+        <v>5</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="3">
-        <v>5</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="F60" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="2">
+        <v>5</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D61" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="3">
-        <v>5</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="F61" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="2">
+        <v>5</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D62" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E62" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="3">
-        <v>5</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="F62" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="2">
+        <v>5</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D63" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E63" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="3">
-        <v>5</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="F63" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="2">
+        <v>5</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D64" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E64" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="3">
-        <v>5</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="F64" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="2">
+        <v>5</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D65" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E65" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="3">
-        <v>5</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="F65" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="2">
+        <v>5</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D66" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E66" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="3">
-        <v>5</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="F66" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="2">
+        <v>5</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D67" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E67" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="3">
-        <v>5</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="F67" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="2">
+        <v>5</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D68" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E68" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="3">
-        <v>5</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="F68" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="2">
+        <v>5</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D69" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E69" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="3">
-        <v>5</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="F69" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="2">
+        <v>5</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D70" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="3">
-        <v>5</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="F70" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="2">
+        <v>5</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D71" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E71" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="3">
-        <v>5</v>
-      </c>
-      <c r="C52" s="3" t="s">
+      <c r="F71" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="2">
+        <v>5</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D72" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E72" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="3">
-        <v>5</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="F72" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="2">
+        <v>5</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D73" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E73" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="3">
-        <v>5</v>
-      </c>
-      <c r="C54" s="3" t="s">
+      <c r="F73" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="2">
+        <v>5</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D74" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E74" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="3">
-        <v>5</v>
-      </c>
-      <c r="C55" s="3" t="s">
+      <c r="F74" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="2">
+        <v>5</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D75" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E75" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" s="3">
-        <v>5</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="F75" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="2">
+        <v>5</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D76" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E76" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="3">
-        <v>5</v>
-      </c>
-      <c r="C57" s="3" t="s">
+      <c r="F76" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="2">
+        <v>5</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D77" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E77" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="3">
-        <v>5</v>
-      </c>
-      <c r="C58" s="3" t="s">
+      <c r="F77" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="2">
+        <v>5</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D78" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E78" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="3">
-        <v>5</v>
-      </c>
-      <c r="C59" s="3" t="s">
+      <c r="F78" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="2">
+        <v>5</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D79" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E79" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="3">
-        <v>5</v>
-      </c>
-      <c r="C60" s="3" t="s">
+      <c r="F79" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="2">
+        <v>5</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D80" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E80" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" s="3">
-        <v>5</v>
-      </c>
-      <c r="C61" s="3" t="s">
+      <c r="F80" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="2">
+        <v>5</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D81" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E81" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E41">
-    <sortCondition ref="D4:D41"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A22:E61">
+    <sortCondition ref="D24:D61"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/refair-server/datasets/few shot dataset/FSDataset.xlsx
+++ b/refair-server/datasets/few shot dataset/FSDataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morel\Desktop\Refair\ReFair-App\refair-server\datasets\few shot dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963F4CA1-6CC7-4DD3-95E6-BD645D33B997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63F4E66-D898-4B15-9CFC-5D297CFD5D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80773445-FB61-4F04-A882-1600FD96C55A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="134">
   <si>
     <t>Domain cluster</t>
   </si>
@@ -375,13 +375,76 @@
   </si>
   <si>
     <t>As a political scientist, I want to use word embedding models to analyze historical texts and speeches by political leaders, tracing the evolution of political ideologies and rhetoric over time to understand the shaping of political narratives and public discourse.</t>
+  </si>
+  <si>
+    <t>Law</t>
+  </si>
+  <si>
+    <t>As a legal researcher, I want to apply adversarial learning techniques to identify potential vulnerabilities in legal text classifiers, so that I can enhance the robustness of legal document analysis systems against adversarial attacks.</t>
+  </si>
+  <si>
+    <t>As a lawyer, I want to utilize convolutional neural networks to analyze the sentiment and context of legal texts in public opinion, providing insights into public perceptions that could influence case strategy and client counseling.</t>
+  </si>
+  <si>
+    <t>As a legal researcher, I want to develop a conversational agent powered by natural language processing to provide legal advice and guidance to clients, enhancing access to legal information and services.</t>
+  </si>
+  <si>
+    <t>As a legal researcher, I want to develop decision tree models to classify legal documents based on case types and legal issues, enabling automated document sorting and categorization for law firms.</t>
+  </si>
+  <si>
+    <t>As a legal researcher, I want to implement document classification algorithms to categorize legal documents based on case types (e.g., civil, criminal, administrative) for efficient document management and retrieval in law firms.</t>
+  </si>
+  <si>
+    <t>As a lawyer, I aim to implement entity extraction algorithms to extract crucial information such as court decisions, judges' names, and legal citations from judicial opinions, supporting comprehensive case law analysis and citation tracking.</t>
+  </si>
+  <si>
+    <t>As a legal researcher, I want to implement feature selection techniques to identify discriminatory factors in legal decision-making processes, helping to mitigate bias and promote fairness in legal judgments.</t>
+  </si>
+  <si>
+    <t>As a legal researcher, I want to address class imbalance in legal datasets related to case outcomes (e.g., favorable vs. unfavorable judgments) using techniques like oversampling or undersampling, to improve the accuracy of predictive models used in legal prediction tasks.</t>
+  </si>
+  <si>
+    <t>As a lawyer, I aim to leverage keyword extraction methods to automatically tag and organize legal contracts based on important clauses and terms, supporting contract management and review processes in law firms.</t>
+  </si>
+  <si>
+    <t>As a lawyer, I aim to implement k-nearest neighbor models to identify similar historical cases with favorable outcomes for strategic case preparation and argumentation, enhancing the likelihood of success in litigation.</t>
+  </si>
+  <si>
+    <t>As a legal researcher, I want to develop a multi-label classification system to categorize legal documents according to multiple relevant legal topics (e.g., contracts, intellectual property, torts), enhancing the organization and retrieval of legal information.</t>
+  </si>
+  <si>
+    <t>As a legal researcher, I want to develop a neural network model to predict court case outcomes based on various legal factors such as case type, jurisdiction, and historical precedents, providing insights into potential case strategies and outcomes.</t>
+  </si>
+  <si>
+    <t>As a legal researcher, I want to use a random forest algorithm to classify legal documents into different categories such as case types (e.g., civil, criminal, administrative), improving the efficiency of document management systems in law firms.</t>
+  </si>
+  <si>
+    <t>As a legal researcher, I want to develop semantic similarity models to compare legal texts such as contracts and agreements, identifying similarities in language and clauses to support contract analysis and negotiation processes.</t>
+  </si>
+  <si>
+    <t>As a lawyer, I aim to utilize sentiment analysis to assess the sentiment expressed in legal documents such as complaints and motions, helping to understand emotional tones and implications for case strategy.</t>
+  </si>
+  <si>
+    <t>As a legal researcher, I want to develop speech to text models to transcribe courtroom proceedings and depositions accurately, enabling efficient documentation and retrieval of legal transcripts for case preparation.</t>
+  </si>
+  <si>
+    <t>As a legal researcher, I want to develop a text categorization system to classify legal documents into different practice areas (e.g., corporate law, family law, intellectual property), facilitating efficient document retrieval and management in law firms.</t>
+  </si>
+  <si>
+    <t>As a legal researcher, I want to apply unsupervised clustering techniques to group similar legal cases based on factual similarities and legal issues, enabling clustering of case law for comparative legal analysis and precedent identification.</t>
+  </si>
+  <si>
+    <t>As a legal researcher, I want to implement voice recognition algorithms to transcribe interviews and witness testimonies, enabling thorough analysis and documentation of legal evidence and statements.</t>
+  </si>
+  <si>
+    <t>As a legal researcher, I want to apply word embedding models to automate the extraction of key legal concepts and trends from large volumes of legislative texts and regulatory documents, aiding in regulatory compliance analysis and policy research.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,11 +470,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -453,7 +511,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -463,6 +520,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -797,16 +855,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DF0B04-8323-4309-B759-D1CDDA1FBB0E}">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="26" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26" style="6" customWidth="1"/>
+    <col min="4" max="4" width="26" style="5" customWidth="1"/>
     <col min="5" max="5" width="255.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="26.5546875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
@@ -822,7 +880,7 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -833,800 +891,800 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="4">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="7">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="7">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="4">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="F3" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="7">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="7">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="4">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="F5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="4">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="F7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="7">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="7">
+        <v>4</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="F9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="7">
+        <v>4</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="7">
+        <v>4</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="F11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="7">
+        <v>4</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="7">
+        <v>4</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="F13" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="7">
+        <v>4</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="7">
+        <v>4</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="4">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="F15" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="7">
+        <v>4</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="7">
+        <v>4</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="4">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="F17" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="7">
+        <v>4</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="7">
+        <v>4</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="4">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="F19" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="7">
+        <v>4</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="7">
+        <v>4</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="4">
-        <v>4</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="F21" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="7">
+        <v>4</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="7">
+        <v>4</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="4">
-        <v>4</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="F23" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="7">
+        <v>4</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="7">
+        <v>4</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="4">
-        <v>4</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="F25" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="7">
+        <v>4</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="7">
+        <v>4</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="4">
-        <v>4</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="F27" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="7">
+        <v>4</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="7">
+        <v>4</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="4">
-        <v>4</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="F29" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="7">
+        <v>4</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="7">
+        <v>4</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="4">
-        <v>4</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="F31" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="7">
+        <v>4</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="7">
+        <v>4</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="4">
-        <v>4</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="F33" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="7">
+        <v>4</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="7">
+        <v>4</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E35" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="4">
-        <v>4</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="F35" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="7">
+        <v>4</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="7">
+        <v>4</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="4">
-        <v>4</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="F37" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="7">
+        <v>4</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="7">
+        <v>4</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="4">
-        <v>4</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="F39" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="7">
+        <v>4</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="7">
+        <v>4</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="2">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="2">
-        <v>5</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="2">
-        <v>5</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="2">
-        <v>5</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="2">
-        <v>5</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="2">
-        <v>5</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="2">
-        <v>5</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="2">
-        <v>5</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="2">
-        <v>5</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="2">
-        <v>5</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="2">
-        <v>5</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="2">
-        <v>5</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="2">
-        <v>5</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="2">
-        <v>5</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="2">
-        <v>5</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="2">
-        <v>5</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="2">
-        <v>5</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="2">
-        <v>5</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="2">
-        <v>5</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="2">
-        <v>5</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>69</v>
@@ -1642,11 +1700,11 @@
       <c r="C42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>40</v>
+      <c r="D42" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>69</v>
@@ -1662,11 +1720,11 @@
       <c r="C43" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>40</v>
+      <c r="D43" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>69</v>
@@ -1682,11 +1740,11 @@
       <c r="C44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>18</v>
+      <c r="D44" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>69</v>
@@ -1702,11 +1760,11 @@
       <c r="C45" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>18</v>
+      <c r="D45" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>69</v>
@@ -1722,11 +1780,11 @@
       <c r="C46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>20</v>
+      <c r="D46" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>69</v>
@@ -1742,11 +1800,11 @@
       <c r="C47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>20</v>
+      <c r="D47" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>69</v>
@@ -1762,11 +1820,11 @@
       <c r="C48" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>22</v>
+      <c r="D48" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>69</v>
@@ -1782,11 +1840,11 @@
       <c r="C49" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>22</v>
+      <c r="D49" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>69</v>
@@ -1802,11 +1860,11 @@
       <c r="C50" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>38</v>
+      <c r="D50" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>69</v>
@@ -1822,11 +1880,11 @@
       <c r="C51" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>38</v>
+      <c r="D51" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>69</v>
@@ -1842,11 +1900,11 @@
       <c r="C52" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>24</v>
+      <c r="D52" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>69</v>
@@ -1862,11 +1920,11 @@
       <c r="C53" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>24</v>
+      <c r="D53" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>69</v>
@@ -1882,11 +1940,11 @@
       <c r="C54" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>26</v>
+      <c r="D54" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>69</v>
@@ -1902,11 +1960,11 @@
       <c r="C55" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>26</v>
+      <c r="D55" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>69</v>
@@ -1922,11 +1980,11 @@
       <c r="C56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>31</v>
+      <c r="D56" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>69</v>
@@ -1942,11 +2000,11 @@
       <c r="C57" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>31</v>
+      <c r="D57" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>69</v>
@@ -1962,11 +2020,11 @@
       <c r="C58" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>7</v>
+      <c r="D58" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>69</v>
@@ -1982,11 +2040,11 @@
       <c r="C59" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>7</v>
+      <c r="D59" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>69</v>
@@ -2002,11 +2060,11 @@
       <c r="C60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>9</v>
+      <c r="D60" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>69</v>
@@ -2022,11 +2080,11 @@
       <c r="C61" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>9</v>
+      <c r="D61" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>69</v>
@@ -2040,13 +2098,13 @@
         <v>5</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>28</v>
+        <v>5</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>69</v>
@@ -2060,13 +2118,13 @@
         <v>5</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>69</v>
@@ -2080,13 +2138,13 @@
         <v>5</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>69</v>
@@ -2100,13 +2158,13 @@
         <v>5</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>13</v>
+        <v>47</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>69</v>
@@ -2120,13 +2178,13 @@
         <v>5</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>46</v>
+        <v>5</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>69</v>
@@ -2140,13 +2198,13 @@
         <v>5</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>69</v>
@@ -2160,13 +2218,13 @@
         <v>5</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>69</v>
@@ -2180,13 +2238,13 @@
         <v>5</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>14</v>
+        <v>47</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>69</v>
@@ -2200,13 +2258,13 @@
         <v>5</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>34</v>
+        <v>5</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>69</v>
@@ -2220,13 +2278,13 @@
         <v>5</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>16</v>
+        <v>47</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>69</v>
@@ -2240,13 +2298,13 @@
         <v>5</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>40</v>
+        <v>5</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>69</v>
@@ -2260,13 +2318,13 @@
         <v>5</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>18</v>
+        <v>47</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>69</v>
@@ -2280,13 +2338,13 @@
         <v>5</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>69</v>
@@ -2300,13 +2358,13 @@
         <v>5</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>22</v>
+        <v>47</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>69</v>
@@ -2320,13 +2378,13 @@
         <v>5</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>69</v>
@@ -2340,13 +2398,13 @@
         <v>5</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>24</v>
+        <v>47</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>69</v>
@@ -2360,13 +2418,13 @@
         <v>5</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>69</v>
@@ -2380,13 +2438,13 @@
         <v>5</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>31</v>
+        <v>47</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>69</v>
@@ -2400,13 +2458,13 @@
         <v>5</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>69</v>
@@ -2420,21 +2478,421 @@
         <v>5</v>
       </c>
       <c r="C81" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="2">
+        <v>5</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D82" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="2">
+        <v>5</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="2">
+        <v>5</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" s="2">
+        <v>5</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="2">
+        <v>5</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="2">
+        <v>5</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="2">
+        <v>5</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="2">
+        <v>5</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="2">
+        <v>5</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="2">
+        <v>5</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="2">
+        <v>5</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="2">
+        <v>5</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="2">
+        <v>5</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="2">
+        <v>5</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="2">
+        <v>5</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="2">
+        <v>5</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="2">
+        <v>5</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="2">
+        <v>5</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="2">
+        <v>5</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="2">
+        <v>5</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D101" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F101" s="1" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A22:E61">
-    <sortCondition ref="D24:D61"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A42:E81">
+    <sortCondition ref="D44:D81"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/refair-server/datasets/few shot dataset/FSDataset.xlsx
+++ b/refair-server/datasets/few shot dataset/FSDataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morel\Desktop\Refair\ReFair-App\refair-server\datasets\few shot dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63F4E66-D898-4B15-9CFC-5D297CFD5D0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D1C4FE-242D-462A-AD80-1E121E26918A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80773445-FB61-4F04-A882-1600FD96C55A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="156">
   <si>
     <t>Domain cluster</t>
   </si>
@@ -438,13 +438,79 @@
   </si>
   <si>
     <t>As a legal researcher, I want to apply word embedding models to automate the extraction of key legal concepts and trends from large volumes of legislative texts and regulatory documents, aiding in regulatory compliance analysis and policy research.</t>
+  </si>
+  <si>
+    <t>Information Systems &amp; News</t>
+  </si>
+  <si>
+    <t>Information Systems</t>
+  </si>
+  <si>
+    <t>As an information systems analyst, I want to apply adversarial learning techniques to enhance cybersecurity measures, specifically to detect and mitigate advanced persistent threats (APTs), in order to safeguard sensitive organizational data and maintain operational continuity.</t>
+  </si>
+  <si>
+    <t>As an IT professional, I want to integrate CNNs into video surveillance systems for real-time object detection and tracking, enhancing security monitoring capabilities and ensuring prompt response to potential security incidents.</t>
+  </si>
+  <si>
+    <t>As an information systems manager, I want to integrate a conversational agent into our knowledge management system to facilitate collaborative problem-solving among team members, fostering innovation and knowledge sharing within our organization</t>
+  </si>
+  <si>
+    <t>As an information systems analyst, I want to employ decision trees to optimize resource allocation in IT infrastructure management, ensuring efficient use of hardware and software resources based on workload and performance metrics.</t>
+  </si>
+  <si>
+    <t>As an information systems analyst, I want to develop document classification algorithms to categorize technical documentation based on product features and specifications, improving accessibility and usability for engineering teams.</t>
+  </si>
+  <si>
+    <t>As an IT professional, I want to develop entity extraction capabilities to parse and extract relevant information from customer emails and support tickets, enabling automated routing and efficient resolution of customer inquiries.</t>
+  </si>
+  <si>
+    <t>As an IT professional, I want to implement feature selection methods in network traffic analysis to identify and prioritize key network parameters affecting performance and security, optimizing resource allocation and enhancing cybersecurity measures.</t>
+  </si>
+  <si>
+    <t>As an information systems manager, I want to implement solutions for imbalanced datasets in healthcare data analysis to improve disease prediction models and early diagnosis capabilities, enhancing patient care and healthcare outcomes.</t>
+  </si>
+  <si>
+    <t>As an information systems analyst, I aim to implement keyword extraction algorithms to analyze technical documents and extract essential terms related to software specifications, facilitating effective documentation and knowledge management within our IT department.</t>
+  </si>
+  <si>
+    <t>As an information systems analyst, I aim to deploy k-Nearest Neighbor models to classify customer support tickets based on similarity to resolved cases, automating ticket routing and improving efficiency in resolving customer inquiries.</t>
+  </si>
+  <si>
+    <t>As an IT professional, I want to deploy multi-label classification models in content moderation systems to classify social media posts into multiple categories such as hate speech, misinformation, and spam, ensuring a safer online environment.</t>
+  </si>
+  <si>
+    <t>As an information systems analyst, I aim to develop a neural network-based recommendation system that suggests personalized news articles to readers based on their browsing history and preferences, enhancing user engagement and retention on our news platform.</t>
+  </si>
+  <si>
+    <t>As an information systems manager, I aim to integrate random forest models into our healthcare analytics system to predict patient outcomes based on medical history and treatment data, supporting personalized healthcare delivery and improving patient care.</t>
+  </si>
+  <si>
+    <t>As an information systems analyst, I aim to develop a semantic similarity model to automatically match job descriptions with candidate resumes, streamlining the recruitment process and improving efficiency in talent acquisition.</t>
+  </si>
+  <si>
+    <t>As an IT professional, I want to integrate sentiment analysis algorithms into our product review system to automatically classify customer sentiments (positive, negative, neutral), providing actionable insights for product improvement and marketing strategies.</t>
+  </si>
+  <si>
+    <t>As an information systems analyst, I aim to develop a speech to text application for converting recorded meetings and discussions into text format, facilitating easier documentation and knowledge sharing within our organization.</t>
+  </si>
+  <si>
+    <t>As an information systems analyst, I aim to implement text categorization algorithms to automatically classify incoming emails and support tickets based on their topics and urgency, improving response times and customer satisfaction.</t>
+  </si>
+  <si>
+    <t>As an IT professional, I want to implement unsupervised clustering models to analyze user behavior patterns on our website, segmenting users into clusters based on their browsing habits to personalize user experiences and optimize website navigation.</t>
+  </si>
+  <si>
+    <t>As an information systems analyst, I aim to integrate voice recognition technology into our customer service platform to enable hands-free interaction for users, improving accessibility and user satisfaction.</t>
+  </si>
+  <si>
+    <t>As an information systems analyst, I aim to implement word embedding models to map technical documentation and software manuals into a semantic space, facilitating better search and retrieval capabilities for our engineering team.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,8 +537,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -491,6 +562,12 @@
         <bgColor rgb="FFE6B8AF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -504,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -521,6 +598,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -855,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DF0B04-8323-4309-B759-D1CDDA1FBB0E}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -891,400 +969,400 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="7">
-        <v>4</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="A2" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="8">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="7">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>28</v>
+      <c r="A3" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="8">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="7">
-        <v>4</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>43</v>
+      <c r="A4" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="8">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="7">
-        <v>4</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>43</v>
+      <c r="A5" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="7">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>30</v>
+      <c r="A6" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="8">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="7">
-        <v>4</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>30</v>
+      <c r="A7" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="8">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="7">
-        <v>4</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>13</v>
+      <c r="A8" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="7">
-        <v>4</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>13</v>
+      <c r="A9" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="8">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="7">
-        <v>4</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>46</v>
+      <c r="A10" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="8">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="7">
-        <v>4</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>46</v>
+      <c r="A11" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="8">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="7">
-        <v>4</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>33</v>
+      <c r="A12" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="8">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="7">
-        <v>4</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>33</v>
+      <c r="A13" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="8">
+        <v>3</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="7">
-        <v>4</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>36</v>
+      <c r="A14" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="8">
+        <v>3</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="7">
-        <v>4</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>36</v>
+      <c r="A15" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="8">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="7">
-        <v>4</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>14</v>
+      <c r="A16" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="8">
+        <v>3</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="7">
-        <v>4</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>14</v>
+      <c r="A17" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="8">
+        <v>3</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="7">
-        <v>4</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>34</v>
+      <c r="A18" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="8">
+        <v>3</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="7">
-        <v>4</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>34</v>
+      <c r="A19" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="8">
+        <v>3</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="7">
-        <v>4</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>16</v>
+      <c r="A20" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="8">
+        <v>3</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="7">
-        <v>4</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>16</v>
+      <c r="A21" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="8">
+        <v>3</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>69</v>
@@ -1301,10 +1379,10 @@
         <v>113</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>69</v>
@@ -1321,10 +1399,10 @@
         <v>92</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>69</v>
@@ -1341,10 +1419,10 @@
         <v>113</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>69</v>
@@ -1361,10 +1439,10 @@
         <v>92</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>69</v>
@@ -1381,10 +1459,10 @@
         <v>113</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>69</v>
@@ -1401,10 +1479,10 @@
         <v>92</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>69</v>
@@ -1421,10 +1499,10 @@
         <v>113</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>69</v>
@@ -1441,10 +1519,10 @@
         <v>92</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>69</v>
@@ -1461,10 +1539,10 @@
         <v>113</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>69</v>
@@ -1481,10 +1559,10 @@
         <v>92</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>69</v>
@@ -1501,10 +1579,10 @@
         <v>113</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>69</v>
@@ -1521,10 +1599,10 @@
         <v>92</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>69</v>
@@ -1541,10 +1619,10 @@
         <v>113</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>69</v>
@@ -1561,10 +1639,10 @@
         <v>92</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>109</v>
+        <v>36</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>69</v>
@@ -1581,10 +1659,10 @@
         <v>113</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>69</v>
@@ -1601,10 +1679,10 @@
         <v>92</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>69</v>
@@ -1621,10 +1699,10 @@
         <v>113</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>69</v>
@@ -1641,10 +1719,10 @@
         <v>92</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>69</v>
@@ -1661,10 +1739,10 @@
         <v>113</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>69</v>
@@ -1681,410 +1759,410 @@
         <v>92</v>
       </c>
       <c r="D41" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="7">
+        <v>4</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="7">
+        <v>4</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="7">
+        <v>4</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="7">
+        <v>4</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="7">
+        <v>4</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="7">
+        <v>4</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="7">
+        <v>4</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="7">
+        <v>4</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="7">
+        <v>4</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="7">
+        <v>4</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="7">
+        <v>4</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="7">
+        <v>4</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="7">
+        <v>4</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="7">
+        <v>4</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="7">
+        <v>4</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57" s="7">
+        <v>4</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" s="7">
+        <v>4</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="7">
+        <v>4</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" s="7">
+        <v>4</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E60" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="7">
+        <v>4</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="2">
-        <v>5</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="2">
-        <v>5</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="2">
-        <v>5</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="2">
-        <v>5</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="2">
-        <v>5</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="2">
-        <v>5</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="2">
-        <v>5</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="2">
-        <v>5</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="2">
-        <v>5</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="2">
-        <v>5</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="2">
-        <v>5</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="2">
-        <v>5</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="2">
-        <v>5</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="2">
-        <v>5</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" s="2">
-        <v>5</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="2">
-        <v>5</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="2">
-        <v>5</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="2">
-        <v>5</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="2">
-        <v>5</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" s="2">
-        <v>5</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>69</v>
@@ -2101,10 +2179,10 @@
         <v>5</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>69</v>
@@ -2121,10 +2199,10 @@
         <v>47</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>69</v>
@@ -2141,10 +2219,10 @@
         <v>5</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>69</v>
@@ -2161,10 +2239,10 @@
         <v>47</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>69</v>
@@ -2181,10 +2259,10 @@
         <v>5</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>69</v>
@@ -2201,10 +2279,10 @@
         <v>47</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>69</v>
@@ -2221,10 +2299,10 @@
         <v>5</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>69</v>
@@ -2241,10 +2319,10 @@
         <v>47</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>69</v>
@@ -2261,10 +2339,10 @@
         <v>5</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>69</v>
@@ -2281,10 +2359,10 @@
         <v>47</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>69</v>
@@ -2301,10 +2379,10 @@
         <v>5</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>69</v>
@@ -2321,10 +2399,10 @@
         <v>47</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>69</v>
@@ -2341,10 +2419,10 @@
         <v>5</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>69</v>
@@ -2361,10 +2439,10 @@
         <v>47</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>69</v>
@@ -2381,10 +2459,10 @@
         <v>5</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>69</v>
@@ -2401,10 +2479,10 @@
         <v>47</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>69</v>
@@ -2421,10 +2499,10 @@
         <v>5</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>69</v>
@@ -2441,10 +2519,10 @@
         <v>47</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>69</v>
@@ -2461,10 +2539,10 @@
         <v>5</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>69</v>
@@ -2481,10 +2559,10 @@
         <v>47</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>69</v>
@@ -2498,13 +2576,13 @@
         <v>5</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>69</v>
@@ -2518,13 +2596,13 @@
         <v>5</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>69</v>
@@ -2538,13 +2616,13 @@
         <v>5</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>69</v>
@@ -2558,13 +2636,13 @@
         <v>5</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>69</v>
@@ -2578,13 +2656,13 @@
         <v>5</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>69</v>
@@ -2598,13 +2676,13 @@
         <v>5</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>69</v>
@@ -2618,13 +2696,13 @@
         <v>5</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>69</v>
@@ -2638,13 +2716,13 @@
         <v>5</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>69</v>
@@ -2658,13 +2736,13 @@
         <v>5</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>69</v>
@@ -2678,13 +2756,13 @@
         <v>5</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>69</v>
@@ -2698,13 +2776,13 @@
         <v>5</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>69</v>
@@ -2718,13 +2796,13 @@
         <v>5</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>69</v>
@@ -2738,13 +2816,13 @@
         <v>5</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>69</v>
@@ -2758,13 +2836,13 @@
         <v>5</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>69</v>
@@ -2778,13 +2856,13 @@
         <v>5</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>69</v>
@@ -2798,13 +2876,13 @@
         <v>5</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>69</v>
@@ -2818,13 +2896,13 @@
         <v>5</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>69</v>
@@ -2838,13 +2916,13 @@
         <v>5</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>69</v>
@@ -2858,13 +2936,13 @@
         <v>5</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>69</v>
@@ -2878,21 +2956,421 @@
         <v>5</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E101" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="2">
+        <v>5</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" s="2">
+        <v>5</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" s="2">
+        <v>5</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" s="2">
+        <v>5</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" s="2">
+        <v>5</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" s="2">
+        <v>5</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" s="2">
+        <v>5</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" s="2">
+        <v>5</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="2">
+        <v>5</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" s="2">
+        <v>5</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" s="2">
+        <v>5</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" s="2">
+        <v>5</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="2">
+        <v>5</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="2">
+        <v>5</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" s="2">
+        <v>5</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" s="2">
+        <v>5</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" s="2">
+        <v>5</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" s="2">
+        <v>5</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" s="2">
+        <v>5</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" s="2">
+        <v>5</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F121" s="1" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A42:E81">
-    <sortCondition ref="D44:D81"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:E101">
+    <sortCondition ref="D64:D101"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/refair-server/datasets/few shot dataset/FSDataset.xlsx
+++ b/refair-server/datasets/few shot dataset/FSDataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morel\Desktop\Refair\ReFair-App\refair-server\datasets\few shot dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D1C4FE-242D-462A-AD80-1E121E26918A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C6B2FC-0718-4391-B56F-A6954D62325F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80773445-FB61-4F04-A882-1600FD96C55A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="177">
   <si>
     <t>Domain cluster</t>
   </si>
@@ -504,6 +504,69 @@
   </si>
   <si>
     <t>As an information systems analyst, I aim to implement word embedding models to map technical documentation and software manuals into a semantic space, facilitating better search and retrieval capabilities for our engineering team.</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>As a journalist, I want to employ adversarial learning models to identify malicious attempts to manipulate public opinion through comment sections and social media interactions on news articles.</t>
+  </si>
+  <si>
+    <t>As a news organization, I want to deploy CNN models to classify and categorize news images based on content and relevance, improving the visual storytelling capabilities of our news platform.</t>
+  </si>
+  <si>
+    <t>As a news editor, I want to implement a conversational agent that can conduct interviews with newsmakers and automatically generate summaries or transcripts, accelerating the news reporting process and enhancing coverage depth.</t>
+  </si>
+  <si>
+    <t>As a journalist, I want to use decision tree models to classify news articles into relevant categories such as politics, sports, and entertainment, optimizing content organization for our news website.</t>
+  </si>
+  <si>
+    <t>As a news editor, I want to implement document classification algorithms to automatically categorize incoming news articles into sections such as politics, business, sports, and entertainment, facilitating efficient content management and navigation for our readers.</t>
+  </si>
+  <si>
+    <t>As a journalist, I want to utilize entity extraction models to automatically identify and extract named entities such as people, organizations, and locations mentioned in news articles, enhancing the accuracy and comprehensiveness of our reporting.</t>
+  </si>
+  <si>
+    <t>As a journalist, I want to apply feature selection algorithms to prioritize and extract key information from multimedia elements (images, videos) accompanying news articles, enhancing the visual storytelling impact of our news reports.</t>
+  </si>
+  <si>
+    <t>As a news organization, I want to develop strategies to handle imbalanced datasets in news article classification tasks, ensuring that minority topics or less-covered issues receive adequate representation and visibility.</t>
+  </si>
+  <si>
+    <t>As a news editor, I want to integrate keyword extraction capabilities into our editorial workflow to automatically suggest relevant hashtags for social media promotion of news articles, enhancing visibility and engagement across digital platforms.</t>
+  </si>
+  <si>
+    <t>As a journalist, I want to apply k-nearest neighbor techniques to identify and connect related news stories across different languages or regions, enabling cross-linguistic or international news coverage on our global news platform.</t>
+  </si>
+  <si>
+    <t>As a news editor, I want to implement multi-label classification models to categorize news articles into multiple relevant topics such as politics, economy, and environment, ensuring comprehensive coverage and indexing for our readers.</t>
+  </si>
+  <si>
+    <t>As a news organization, I want to deploy neural network architectures for natural language processing tasks such as summarizing news articles or generating concise headlines, improving content readability and user engagement.</t>
+  </si>
+  <si>
+    <t>As a news editor, I want to utilize random forest algorithms to classify news articles into different categories such as politics, sports, and entertainment based on a combination of textual features and metadata, improving content organization and navigation on our news platform.</t>
+  </si>
+  <si>
+    <t>As a news editor, I want to implement semantic similarity algorithms to automatically detect and merge duplicate or highly similar news articles in our content management system, optimizing resource allocation and improving content quality.</t>
+  </si>
+  <si>
+    <t>As a journalist, I want to apply sentiment analysis to social media comments on news stories so that I can understand public opinion and incorporate it into my reporting.</t>
+  </si>
+  <si>
+    <t>As a journalist, I want to use speech-to-text technology to transcribe interviews and press conferences so that I can quickly produce accurate written content without manual transcription.</t>
+  </si>
+  <si>
+    <t>As a news editor, I want to integrate text categorization tools into our editorial workflow to ensure that breaking news stories are quickly and accurately categorized, allowing for timely and relevant news delivery to our audience.</t>
+  </si>
+  <si>
+    <t>As a journalist, I want to apply unsupervised clustering techniques to identify emerging trends and hot topics in the news so that I can stay ahead of the curve and provide timely coverage.</t>
+  </si>
+  <si>
+    <t>As a journalist, I want to use voice recognition technology to transcribe interviews and press conferences so that I can quickly and accurately produce written articles from spoken content.</t>
+  </si>
+  <si>
+    <t>As a news editor, I want to use word embedding techniques to analyze the semantic similarity between different news articles, allowing me to group related stories and provide comprehensive coverage on our platform.</t>
   </si>
 </sst>
 </file>
@@ -581,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -599,6 +662,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -933,10 +997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DF0B04-8323-4309-B759-D1CDDA1FBB0E}">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -996,13 +1060,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>43</v>
+        <v>156</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>69</v>
@@ -1019,10 +1083,10 @@
         <v>135</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>69</v>
@@ -1036,13 +1100,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
+        <v>156</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>69</v>
@@ -1059,10 +1123,10 @@
         <v>135</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>69</v>
@@ -1076,13 +1140,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>33</v>
+        <v>156</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>69</v>
@@ -1099,10 +1163,10 @@
         <v>135</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>69</v>
@@ -1116,13 +1180,13 @@
         <v>3</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>14</v>
+        <v>156</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>69</v>
@@ -1139,10 +1203,10 @@
         <v>135</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>69</v>
@@ -1156,13 +1220,13 @@
         <v>3</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>16</v>
+        <v>156</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>69</v>
@@ -1179,10 +1243,10 @@
         <v>135</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>69</v>
@@ -1196,13 +1260,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>18</v>
+        <v>156</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>69</v>
@@ -1219,10 +1283,10 @@
         <v>135</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>69</v>
@@ -1236,13 +1300,13 @@
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>22</v>
+        <v>156</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>69</v>
@@ -1259,10 +1323,10 @@
         <v>135</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>69</v>
@@ -1276,13 +1340,13 @@
         <v>3</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>24</v>
+        <v>156</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>69</v>
@@ -1299,10 +1363,10 @@
         <v>135</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>69</v>
@@ -1316,13 +1380,13 @@
         <v>3</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>31</v>
+        <v>156</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>69</v>
@@ -1339,10 +1403,10 @@
         <v>135</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>69</v>
@@ -1356,413 +1420,413 @@
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="8">
+        <v>3</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="8">
+        <v>3</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="8">
+        <v>3</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="8">
+        <v>3</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" s="8">
+        <v>3</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="8">
+        <v>3</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="8">
+        <v>3</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="8">
+        <v>3</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="8">
+        <v>3</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="8">
+        <v>3</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="8">
+        <v>3</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" s="8">
+        <v>3</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="8">
+        <v>3</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="8">
+        <v>3</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="8">
+        <v>3</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" s="8">
+        <v>3</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="8">
+        <v>3</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" s="8">
+        <v>3</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="8">
+        <v>3</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="7">
-        <v>4</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="7">
-        <v>4</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="7">
-        <v>4</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="7">
-        <v>4</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="7">
-        <v>4</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="7">
-        <v>4</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="7">
-        <v>4</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" s="7">
-        <v>4</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B30" s="7">
-        <v>4</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="7">
-        <v>4</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="7">
-        <v>4</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="7">
-        <v>4</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="7">
-        <v>4</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B35" s="7">
-        <v>4</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B36" s="7">
-        <v>4</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" s="7">
-        <v>4</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" s="7">
-        <v>4</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" s="7">
-        <v>4</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B40" s="7">
-        <v>4</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="F40" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" s="7">
-        <v>4</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>16</v>
+      <c r="A41" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="8">
+        <v>3</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>69</v>
@@ -1779,10 +1843,10 @@
         <v>113</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>69</v>
@@ -1799,10 +1863,10 @@
         <v>92</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>69</v>
@@ -1819,10 +1883,10 @@
         <v>113</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>69</v>
@@ -1839,10 +1903,10 @@
         <v>92</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>69</v>
@@ -1859,10 +1923,10 @@
         <v>113</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>69</v>
@@ -1879,10 +1943,10 @@
         <v>92</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>69</v>
@@ -1899,10 +1963,10 @@
         <v>113</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>69</v>
@@ -1919,10 +1983,10 @@
         <v>92</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>69</v>
@@ -1939,10 +2003,10 @@
         <v>113</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>69</v>
@@ -1959,10 +2023,10 @@
         <v>92</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>69</v>
@@ -1979,10 +2043,10 @@
         <v>113</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>69</v>
@@ -1999,10 +2063,10 @@
         <v>92</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>69</v>
@@ -2019,10 +2083,10 @@
         <v>113</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>69</v>
@@ -2039,10 +2103,10 @@
         <v>92</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>109</v>
+        <v>36</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>69</v>
@@ -2059,10 +2123,10 @@
         <v>113</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>69</v>
@@ -2079,10 +2143,10 @@
         <v>92</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>69</v>
@@ -2099,10 +2163,10 @@
         <v>113</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>69</v>
@@ -2119,10 +2183,10 @@
         <v>92</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>69</v>
@@ -2139,10 +2203,10 @@
         <v>113</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>69</v>
@@ -2159,410 +2223,410 @@
         <v>92</v>
       </c>
       <c r="D61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" s="7">
+        <v>4</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="7">
+        <v>4</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="7">
+        <v>4</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="7">
+        <v>4</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="7">
+        <v>4</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" s="7">
+        <v>4</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" s="7">
+        <v>4</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" s="7">
+        <v>4</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" s="7">
+        <v>4</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="7">
+        <v>4</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" s="7">
+        <v>4</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="7">
+        <v>4</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" s="7">
+        <v>4</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" s="7">
+        <v>4</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76" s="7">
+        <v>4</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" s="7">
+        <v>4</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B78" s="7">
+        <v>4</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B79" s="7">
+        <v>4</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80" s="7">
+        <v>4</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E80" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" s="7">
+        <v>4</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="2">
-        <v>5</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" s="2">
-        <v>5</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="2">
-        <v>5</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="2">
-        <v>5</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66" s="2">
-        <v>5</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67" s="2">
-        <v>5</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" s="2">
-        <v>5</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" s="2">
-        <v>5</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B70" s="2">
-        <v>5</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B71" s="2">
-        <v>5</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B72" s="2">
-        <v>5</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B73" s="2">
-        <v>5</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74" s="2">
-        <v>5</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B75" s="2">
-        <v>5</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B76" s="2">
-        <v>5</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" s="2">
-        <v>5</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B78" s="2">
-        <v>5</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B79" s="2">
-        <v>5</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80" s="2">
-        <v>5</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B81" s="2">
-        <v>5</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>69</v>
@@ -2579,10 +2643,10 @@
         <v>5</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>69</v>
@@ -2599,10 +2663,10 @@
         <v>47</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>69</v>
@@ -2616,13 +2680,13 @@
         <v>5</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>69</v>
@@ -2636,13 +2700,13 @@
         <v>5</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>69</v>
@@ -2656,13 +2720,13 @@
         <v>5</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>69</v>
@@ -2676,13 +2740,13 @@
         <v>5</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>69</v>
@@ -2699,10 +2763,10 @@
         <v>5</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>69</v>
@@ -2719,10 +2783,10 @@
         <v>47</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>69</v>
@@ -2736,13 +2800,13 @@
         <v>5</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>69</v>
@@ -2756,13 +2820,13 @@
         <v>5</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>69</v>
@@ -2776,13 +2840,13 @@
         <v>5</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>69</v>
@@ -2796,13 +2860,13 @@
         <v>5</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>69</v>
@@ -2819,10 +2883,10 @@
         <v>5</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>69</v>
@@ -2839,10 +2903,10 @@
         <v>47</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>69</v>
@@ -2856,13 +2920,13 @@
         <v>5</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>69</v>
@@ -2876,13 +2940,13 @@
         <v>5</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>69</v>
@@ -2896,13 +2960,13 @@
         <v>5</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>69</v>
@@ -2916,13 +2980,13 @@
         <v>5</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>69</v>
@@ -2939,10 +3003,10 @@
         <v>5</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>69</v>
@@ -2959,10 +3023,10 @@
         <v>47</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>69</v>
@@ -2979,10 +3043,10 @@
         <v>70</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>69</v>
@@ -2996,13 +3060,13 @@
         <v>5</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>69</v>
@@ -3016,13 +3080,13 @@
         <v>5</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>69</v>
@@ -3039,10 +3103,10 @@
         <v>70</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>69</v>
@@ -3056,13 +3120,13 @@
         <v>5</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>69</v>
@@ -3076,13 +3140,13 @@
         <v>5</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>69</v>
@@ -3099,10 +3163,10 @@
         <v>70</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>69</v>
@@ -3116,13 +3180,13 @@
         <v>5</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>69</v>
@@ -3136,13 +3200,13 @@
         <v>5</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>69</v>
@@ -3176,13 +3240,13 @@
         <v>5</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>69</v>
@@ -3196,13 +3260,13 @@
         <v>5</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>69</v>
@@ -3219,10 +3283,10 @@
         <v>70</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>69</v>
@@ -3236,13 +3300,13 @@
         <v>5</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>69</v>
@@ -3256,13 +3320,13 @@
         <v>5</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>69</v>
@@ -3279,10 +3343,10 @@
         <v>70</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>69</v>
@@ -3296,13 +3360,13 @@
         <v>5</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>69</v>
@@ -3316,13 +3380,13 @@
         <v>5</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>69</v>
@@ -3339,10 +3403,10 @@
         <v>70</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>69</v>
@@ -3356,21 +3420,421 @@
         <v>5</v>
       </c>
       <c r="C121" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B122" s="2">
+        <v>5</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" s="2">
+        <v>5</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D123" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="2">
+        <v>5</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="2">
+        <v>5</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" s="2">
+        <v>5</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" s="2">
+        <v>5</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" s="2">
+        <v>5</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B129" s="2">
+        <v>5</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" s="2">
+        <v>5</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" s="2">
+        <v>5</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="2">
+        <v>5</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" s="2">
+        <v>5</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" s="2">
+        <v>5</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" s="2">
+        <v>5</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" s="2">
+        <v>5</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" s="2">
+        <v>5</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" s="2">
+        <v>5</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" s="2">
+        <v>5</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="E139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" s="2">
+        <v>5</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" s="2">
+        <v>5</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E141" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="F141" s="1" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:E101">
-    <sortCondition ref="D64:D101"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A82:E121">
+    <sortCondition ref="D84:D121"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/refair-server/datasets/few shot dataset/FSDataset.xlsx
+++ b/refair-server/datasets/few shot dataset/FSDataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morel\Desktop\Refair\ReFair-App\refair-server\datasets\few shot dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C6B2FC-0718-4391-B56F-A6954D62325F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B859DB2D-0B7B-4DE6-A75C-D15ADA85659F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80773445-FB61-4F04-A882-1600FD96C55A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="199">
   <si>
     <t>Domain cluster</t>
   </si>
@@ -567,6 +567,72 @@
   </si>
   <si>
     <t>As a news editor, I want to use word embedding techniques to analyze the semantic similarity between different news articles, allowing me to group related stories and provide comprehensive coverage on our platform.</t>
+  </si>
+  <si>
+    <t>Economy &amp; Marketing</t>
+  </si>
+  <si>
+    <t>Finance &amp; Marketing</t>
+  </si>
+  <si>
+    <t>As a financial institution, I want to apply adversarial learning techniques to detect and mitigate fraudulent transactions in real-time, so that I can protect our customers' financial assets more effectively.</t>
+  </si>
+  <si>
+    <t>As a financial institution, I want to utilize CNNs to analyze time-series financial data and predict short-term market trends with higher accuracy, enabling us to optimize our investment strategies.</t>
+  </si>
+  <si>
+    <t>As a financial institution, I want to integrate a conversational agent into our mobile banking app to guide users through complex financial processes such as loan applications and investment portfolio management, simplifying the user experience and increasing adoption rates.</t>
+  </si>
+  <si>
+    <t>As a financial analyst, I want to develop a decision tree model to predict stock price movements based on historical market data and economic indicators, assisting investors in making informed trading decisions.</t>
+  </si>
+  <si>
+    <t>As a financial institution, I want to use document classification algorithms to automatically categorize and prioritize incoming financial reports and statements, enabling faster decision-making and compliance monitoring.</t>
+  </si>
+  <si>
+    <t>As a financial institution, I want to implement entity extraction models to automatically identify and extract key financial entities (e.g., company names, stock symbols, monetary amounts) from news articles and financial reports, enhancing our market analysis and investment strategies.</t>
+  </si>
+  <si>
+    <t>As a financial institution, I want to employ feature selection techniques to identify the most relevant financial indicators (such as volatility, liquidity ratios) from a large dataset for predicting stock prices, improving the accuracy of our investment models.</t>
+  </si>
+  <si>
+    <t>As a financial institution, I want to address imbalanced datasets in fraud detection by employing ensemble learning techniques like AdaBoost to enhance the detection of fraudulent transactions while minimizing false alarms.</t>
+  </si>
+  <si>
+    <t>As a financial institution, I want to implement keyword extraction algorithms to analyze customer reviews and identify recurring themes and concerns related to our financial products, enabling us to prioritize areas for improvement.</t>
+  </si>
+  <si>
+    <t>As a financial analyst, I want to implement KNN algorithms to classify stocks based on historical trading patterns and market indicators, helping investors identify similar stocks for portfolio diversification strategies.</t>
+  </si>
+  <si>
+    <t>As a financial institution, I want to develop multi-label classification models to categorize financial products based on risk levels, return potential, and investment duration, providing comprehensive recommendations to clients.</t>
+  </si>
+  <si>
+    <t>As a financial analyst, I want to build a neural network model to predict stock prices based on historical market data and economic indicators, providing accurate forecasts to guide investment decisions.</t>
+  </si>
+  <si>
+    <t>As a financial institution, I want to develop a random forest-based recommendation system for personalized financial products, suggesting suitable investment options based on customer profiles and financial goals.</t>
+  </si>
+  <si>
+    <t>As a financial institution, I want to apply semantic similarity algorithms to compare legal documents such as contracts and agreements, ensuring consistency and accuracy in regulatory compliance across different jurisdictions.</t>
+  </si>
+  <si>
+    <t>As a marketer, I want to use sentiment analysis to monitor customer sentiment towards our brand and products on social media platforms, identifying opportunities to enhance customer experience and address negative feedback promptly.</t>
+  </si>
+  <si>
+    <t>As a financial institution, I want to deploy speech to text systems for automated transcription of customer service calls and inquiries, improving efficiency in resolving customer issues and enhancing service quality.</t>
+  </si>
+  <si>
+    <t>As a financial analyst, I want to develop text categorization models to classify research papers and articles into relevant financial topics such as macroeconomics, stock analysis, and industry trends, supporting comprehensive market analysis.</t>
+  </si>
+  <si>
+    <t>As a marketer, I want to use unsupervised clustering techniques to group social media followers based on engagement behaviors and interests, optimizing social media marketing campaigns to increase brand awareness and customer engagement.</t>
+  </si>
+  <si>
+    <t>As a financial analyst, I want to develop voice recognition systems to transcribe and analyze financial podcasts and interviews with industry experts, extracting key insights and market predictions for investors.</t>
+  </si>
+  <si>
+    <t>As a marketer, I want to apply word embedding techniques to analyze customer reviews and social media comments about our products, identifying key product features and sentiments that influence consumer preferences and purchasing decisions.</t>
   </si>
 </sst>
 </file>
@@ -606,7 +672,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,6 +697,12 @@
         <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -644,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -663,6 +735,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -997,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DF0B04-8323-4309-B759-D1CDDA1FBB0E}">
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1033,400 +1106,400 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="8">
-        <v>3</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="A2" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="10">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="8">
-        <v>3</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>156</v>
+      <c r="A3" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="10">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="8">
-        <v>3</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>43</v>
+      <c r="A4" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="8">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>156</v>
+      <c r="A5" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="10">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="8">
-        <v>3</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>30</v>
+      <c r="A6" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="10">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="8">
-        <v>3</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>156</v>
+      <c r="A7" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="8">
-        <v>3</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>13</v>
+      <c r="A8" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="10">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" s="8">
-        <v>3</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>156</v>
+      <c r="A9" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="8">
-        <v>3</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>46</v>
+      <c r="A10" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="8">
-        <v>3</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>156</v>
+      <c r="A11" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="10">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12" s="8">
-        <v>3</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>33</v>
+      <c r="A12" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="10">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" s="8">
-        <v>3</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>156</v>
+      <c r="A13" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="10">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B14" s="8">
-        <v>3</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>36</v>
+      <c r="A14" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="10">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B15" s="8">
-        <v>3</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>156</v>
+      <c r="A15" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="10">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B16" s="8">
-        <v>3</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>14</v>
+      <c r="A16" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="10">
+        <v>2</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B17" s="8">
-        <v>3</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>156</v>
+      <c r="A17" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" s="10">
+        <v>2</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18" s="8">
-        <v>3</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>34</v>
+      <c r="A18" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="10">
+        <v>2</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B19" s="8">
-        <v>3</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>156</v>
+      <c r="A19" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" s="10">
+        <v>2</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20" s="8">
-        <v>3</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>16</v>
+      <c r="A20" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" s="10">
+        <v>2</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" s="8">
-        <v>3</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>156</v>
+      <c r="A21" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21" s="10">
+        <v>2</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>69</v>
@@ -1443,10 +1516,10 @@
         <v>135</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>69</v>
@@ -1463,10 +1536,10 @@
         <v>156</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>69</v>
@@ -1483,10 +1556,10 @@
         <v>135</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>69</v>
@@ -1503,10 +1576,10 @@
         <v>156</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>69</v>
@@ -1523,10 +1596,10 @@
         <v>135</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>69</v>
@@ -1543,10 +1616,10 @@
         <v>156</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>69</v>
@@ -1563,10 +1636,10 @@
         <v>135</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>69</v>
@@ -1583,10 +1656,10 @@
         <v>156</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>69</v>
@@ -1603,10 +1676,10 @@
         <v>135</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>69</v>
@@ -1623,10 +1696,10 @@
         <v>156</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>69</v>
@@ -1643,10 +1716,10 @@
         <v>135</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>69</v>
@@ -1663,10 +1736,10 @@
         <v>156</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>69</v>
@@ -1683,10 +1756,10 @@
         <v>135</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>69</v>
@@ -1703,10 +1776,10 @@
         <v>156</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>69</v>
@@ -1723,10 +1796,10 @@
         <v>135</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>69</v>
@@ -1743,10 +1816,10 @@
         <v>156</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>69</v>
@@ -1763,10 +1836,10 @@
         <v>135</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>69</v>
@@ -1783,10 +1856,10 @@
         <v>156</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>69</v>
@@ -1803,10 +1876,10 @@
         <v>135</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>69</v>
@@ -1823,410 +1896,410 @@
         <v>156</v>
       </c>
       <c r="D41" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B42" s="8">
+        <v>3</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" s="8">
+        <v>3</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" s="8">
+        <v>3</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="8">
+        <v>3</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="8">
+        <v>3</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" s="8">
+        <v>3</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" s="8">
+        <v>3</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B49" s="8">
+        <v>3</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50" s="8">
+        <v>3</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" s="8">
+        <v>3</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B52" s="8">
+        <v>3</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="8">
+        <v>3</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" s="8">
+        <v>3</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="8">
+        <v>3</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="8">
+        <v>3</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" s="8">
+        <v>3</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" s="8">
+        <v>3</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" s="8">
+        <v>3</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="8">
+        <v>3</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E60" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" s="8">
+        <v>3</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" s="7">
-        <v>4</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" s="7">
-        <v>4</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="7">
-        <v>4</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="7">
-        <v>4</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="7">
-        <v>4</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" s="7">
-        <v>4</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B48" s="7">
-        <v>4</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B49" s="7">
-        <v>4</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B50" s="7">
-        <v>4</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" s="7">
-        <v>4</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B52" s="7">
-        <v>4</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B53" s="7">
-        <v>4</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B54" s="7">
-        <v>4</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B55" s="7">
-        <v>4</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B56" s="7">
-        <v>4</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B57" s="7">
-        <v>4</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B58" s="7">
-        <v>4</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B59" s="7">
-        <v>4</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B60" s="7">
-        <v>4</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B61" s="7">
-        <v>4</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>69</v>
@@ -2243,10 +2316,10 @@
         <v>113</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>69</v>
@@ -2263,10 +2336,10 @@
         <v>92</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>69</v>
@@ -2283,10 +2356,10 @@
         <v>113</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>69</v>
@@ -2303,10 +2376,10 @@
         <v>92</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>69</v>
@@ -2323,10 +2396,10 @@
         <v>113</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>69</v>
@@ -2343,10 +2416,10 @@
         <v>92</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>69</v>
@@ -2363,10 +2436,10 @@
         <v>113</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>69</v>
@@ -2383,10 +2456,10 @@
         <v>92</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>69</v>
@@ -2403,10 +2476,10 @@
         <v>113</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>69</v>
@@ -2423,10 +2496,10 @@
         <v>92</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>69</v>
@@ -2443,10 +2516,10 @@
         <v>113</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>69</v>
@@ -2463,10 +2536,10 @@
         <v>92</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>69</v>
@@ -2483,10 +2556,10 @@
         <v>113</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>69</v>
@@ -2503,10 +2576,10 @@
         <v>92</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>109</v>
+        <v>36</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>69</v>
@@ -2523,10 +2596,10 @@
         <v>113</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>69</v>
@@ -2543,10 +2616,10 @@
         <v>92</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>69</v>
@@ -2563,10 +2636,10 @@
         <v>113</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>69</v>
@@ -2583,10 +2656,10 @@
         <v>92</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>69</v>
@@ -2603,10 +2676,10 @@
         <v>113</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>69</v>
@@ -2623,410 +2696,410 @@
         <v>92</v>
       </c>
       <c r="D81" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" s="7">
+        <v>4</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B83" s="7">
+        <v>4</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" s="7">
+        <v>4</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" s="7">
+        <v>4</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" s="7">
+        <v>4</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" s="7">
+        <v>4</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="7">
+        <v>4</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" s="7">
+        <v>4</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="7">
+        <v>4</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="7">
+        <v>4</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" s="7">
+        <v>4</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="7">
+        <v>4</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" s="7">
+        <v>4</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B95" s="7">
+        <v>4</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B96" s="7">
+        <v>4</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7">
+        <v>4</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B98" s="7">
+        <v>4</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B99" s="7">
+        <v>4</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B100" s="7">
+        <v>4</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D100" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E100" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B101" s="7">
+        <v>4</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B82" s="2">
-        <v>5</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B83" s="2">
-        <v>5</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B84" s="2">
-        <v>5</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B85" s="2">
-        <v>5</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B86" s="2">
-        <v>5</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B87" s="2">
-        <v>5</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B88" s="2">
-        <v>5</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B89" s="2">
-        <v>5</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B90" s="2">
-        <v>5</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B91" s="2">
-        <v>5</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B92" s="2">
-        <v>5</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B93" s="2">
-        <v>5</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B94" s="2">
-        <v>5</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B95" s="2">
-        <v>5</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B96" s="2">
-        <v>5</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B97" s="2">
-        <v>5</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B98" s="2">
-        <v>5</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B99" s="2">
-        <v>5</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B100" s="2">
-        <v>5</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B101" s="2">
-        <v>5</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>69</v>
@@ -3040,13 +3113,13 @@
         <v>5</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>69</v>
@@ -3060,13 +3133,13 @@
         <v>5</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>69</v>
@@ -3080,13 +3153,13 @@
         <v>5</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>69</v>
@@ -3100,13 +3173,13 @@
         <v>5</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>69</v>
@@ -3120,13 +3193,13 @@
         <v>5</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>69</v>
@@ -3140,13 +3213,13 @@
         <v>5</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>69</v>
@@ -3160,13 +3233,13 @@
         <v>5</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>69</v>
@@ -3180,13 +3253,13 @@
         <v>5</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>69</v>
@@ -3200,13 +3273,13 @@
         <v>5</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>69</v>
@@ -3220,13 +3293,13 @@
         <v>5</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>69</v>
@@ -3240,13 +3313,13 @@
         <v>5</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>69</v>
@@ -3260,13 +3333,13 @@
         <v>5</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>69</v>
@@ -3280,13 +3353,13 @@
         <v>5</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>69</v>
@@ -3300,13 +3373,13 @@
         <v>5</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>69</v>
@@ -3320,13 +3393,13 @@
         <v>5</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>69</v>
@@ -3340,13 +3413,13 @@
         <v>5</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>69</v>
@@ -3360,13 +3433,13 @@
         <v>5</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>69</v>
@@ -3380,13 +3453,13 @@
         <v>5</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>69</v>
@@ -3400,13 +3473,13 @@
         <v>5</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>69</v>
@@ -3420,13 +3493,13 @@
         <v>5</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>69</v>
@@ -3440,13 +3513,13 @@
         <v>5</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>69</v>
@@ -3460,13 +3533,13 @@
         <v>5</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>69</v>
@@ -3480,13 +3553,13 @@
         <v>5</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>69</v>
@@ -3500,13 +3573,13 @@
         <v>5</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>69</v>
@@ -3520,13 +3593,13 @@
         <v>5</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>69</v>
@@ -3540,13 +3613,13 @@
         <v>5</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>69</v>
@@ -3560,13 +3633,13 @@
         <v>5</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>69</v>
@@ -3580,13 +3653,13 @@
         <v>5</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>69</v>
@@ -3600,13 +3673,13 @@
         <v>5</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>69</v>
@@ -3620,13 +3693,13 @@
         <v>5</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>69</v>
@@ -3640,13 +3713,13 @@
         <v>5</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>69</v>
@@ -3660,13 +3733,13 @@
         <v>5</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>69</v>
@@ -3680,13 +3753,13 @@
         <v>5</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>69</v>
@@ -3700,13 +3773,13 @@
         <v>5</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>69</v>
@@ -3720,13 +3793,13 @@
         <v>5</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>69</v>
@@ -3740,13 +3813,13 @@
         <v>5</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>69</v>
@@ -3760,13 +3833,13 @@
         <v>5</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>69</v>
@@ -3780,13 +3853,13 @@
         <v>5</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>69</v>
@@ -3800,13 +3873,13 @@
         <v>5</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>69</v>
@@ -3820,21 +3893,421 @@
         <v>5</v>
       </c>
       <c r="C141" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" s="2">
+        <v>5</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" s="2">
+        <v>5</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="D143" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" s="2">
+        <v>5</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" s="2">
+        <v>5</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" s="2">
+        <v>5</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" s="2">
+        <v>5</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B148" s="2">
+        <v>5</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149" s="2">
+        <v>5</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" s="2">
+        <v>5</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" s="2">
+        <v>5</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" s="2">
+        <v>5</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="2">
+        <v>5</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B154" s="2">
+        <v>5</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" s="2">
+        <v>5</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B156" s="2">
+        <v>5</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" s="2">
+        <v>5</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" s="2">
+        <v>5</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" s="2">
+        <v>5</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D159" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E141" s="1" t="s">
+      <c r="E159" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" s="2">
+        <v>5</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" s="2">
+        <v>5</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E161" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F141" s="1" t="s">
+      <c r="F161" s="1" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A82:E121">
-    <sortCondition ref="D84:D121"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A102:E141">
+    <sortCondition ref="D104:D141"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/refair-server/datasets/few shot dataset/FSDataset.xlsx
+++ b/refair-server/datasets/few shot dataset/FSDataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morel\Desktop\Refair\ReFair-App\refair-server\datasets\few shot dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B859DB2D-0B7B-4DE6-A75C-D15ADA85659F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C520E58-8C61-420B-AF27-501CF1917991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80773445-FB61-4F04-A882-1600FD96C55A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="220">
   <si>
     <t>Domain cluster</t>
   </si>
@@ -633,6 +633,69 @@
   </si>
   <si>
     <t>As a marketer, I want to apply word embedding techniques to analyze customer reviews and social media comments about our products, identifying key product features and sentiments that influence consumer preferences and purchasing decisions.</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>As an economist, I want to apply adversarial learning techniques to detect anomalies and fraudulent activities in financial transactions, so that I can protect financial systems from cyber threats and maintain market integrity.</t>
+  </si>
+  <si>
+    <t>As an economist, I want to utilize CNNs to analyze historical economic data and extract spatial and temporal patterns, facilitating better understanding of economic cycles and trends</t>
+  </si>
+  <si>
+    <t>As an economist, I need a conversational agent capable of interpreting complex economic policies and explaining their implications to stakeholders, ensuring transparency and informed public discourse.</t>
+  </si>
+  <si>
+    <t>As an economist, I want to use decision trees to classify economic sectors based on their growth potential and risk profiles, aiding in portfolio diversification strategies for investment firms.</t>
+  </si>
+  <si>
+    <t>As an economist, I want to implement document classification systems to automatically organize and prioritize incoming economic research publications based on their relevance and impact, supporting efficient knowledge discovery and academic collaboration.</t>
+  </si>
+  <si>
+    <t>As an economist, I want to apply entity extraction techniques to automatically identify and categorize economic indicators (e.g., GDP, inflation rate, unemployment rate) mentioned in textual data such as news articles and economic reports, to facilitate quantitative analysis and trend monitoring.</t>
+  </si>
+  <si>
+    <t>As an economist, I want to employ feature selection techniques to identify the most relevant economic indicators (e.g., GDP growth rate, inflation index) for predicting stock market movements, optimizing forecasting models used by financial institutions.</t>
+  </si>
+  <si>
+    <t>As an economist, I need to handle imbalanced datasets when predicting economic downturns to improve the reliability of early warning systems, enabling proactive policy responses and mitigation measures.</t>
+  </si>
+  <si>
+    <t>As an economist, I want to apply keyword extraction techniques to analyze customer feedback and reviews related to economic products and services, extracting sentiments and key concerns to guide market strategies and product development.</t>
+  </si>
+  <si>
+    <t>As an economist, I need k-NN models to analyze regional economic data and identify neighboring regions with similar economic profiles, enabling comparative analysis and policy recommendations for regional development.</t>
+  </si>
+  <si>
+    <t>As an economist, I want to use multi-label classification techniques to segment economic indicators (e.g., inflation rate, unemployment rate, GDP growth) based on their impact on various demographic groups, aiding in equitable economic policy formulation.</t>
+  </si>
+  <si>
+    <t>As an economist, I want to leverage neural networks to predict stock market movements based on historical market data and economic indicators, enhancing investment decision-making and portfolio management.</t>
+  </si>
+  <si>
+    <t>As an economist, I aim to use random forest techniques to analyze the impact of environmental policies on industries such as renewable energy and sustainable agriculture, facilitating evidence-based policy evaluations for green economic growth.</t>
+  </si>
+  <si>
+    <t>As an economist, I want to utilize semantic similarity models to assess the coherence and consistency of economic forecasts generated by different analytical methods, enhancing the reliability of economic projections for strategic planning.</t>
+  </si>
+  <si>
+    <t>As an economist, I need sentiment analysis tools to analyze investor sentiment based on financial news and market reports, predicting market movements and investor behavior for effective risk management.</t>
+  </si>
+  <si>
+    <t>As an economist, I want to utilize speech to text technology to transcribe meetings with clients and stakeholders discussing economic forecasts and investment strategies, ensuring comprehensive and searchable records for future reference.</t>
+  </si>
+  <si>
+    <t>As an economist, I want to use text categorization techniques to classify research papers and articles into economic sub-disciplines such as behavioral economics, development economics, and monetary economics, facilitating targeted literature reviews and research synthesis.</t>
+  </si>
+  <si>
+    <t>As an economist, I aim to deploy unsupervised clustering models to group similar industries based on their economic contributions and market behaviors, facilitating sector-specific economic analysis and policy formulation.</t>
+  </si>
+  <si>
+    <t>As an economist, I want to utilize voice recognition technology to transcribe meetings with clients and stakeholders discussing economic strategies and investment opportunities, maintaining detailed records for strategic decision-making.</t>
+  </si>
+  <si>
+    <t>As an economist, I want to use word embedding techniques to analyze customer feedback and reviews on economic products and services, extracting underlying sentiments and preferences to guide product development and market positioning strategies.</t>
   </si>
 </sst>
 </file>
@@ -716,7 +779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -736,6 +799,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1070,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DF0B04-8323-4309-B759-D1CDDA1FBB0E}">
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1105,27 +1169,24 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>177</v>
       </c>
       <c r="B2" s="10">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>178</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>179</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>177</v>
       </c>
@@ -1133,19 +1194,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>177</v>
       </c>
@@ -1156,16 +1214,13 @@
         <v>178</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>177</v>
       </c>
@@ -1173,19 +1228,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>177</v>
       </c>
@@ -1196,16 +1248,13 @@
         <v>178</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>177</v>
       </c>
@@ -1213,19 +1262,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>177</v>
       </c>
@@ -1236,16 +1282,13 @@
         <v>178</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>177</v>
       </c>
@@ -1253,19 +1296,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>177</v>
       </c>
@@ -1276,16 +1316,13 @@
         <v>178</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>177</v>
       </c>
@@ -1293,19 +1330,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>177</v>
       </c>
@@ -1316,16 +1350,13 @@
         <v>178</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>177</v>
       </c>
@@ -1333,19 +1364,16 @@
         <v>2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>177</v>
       </c>
@@ -1356,16 +1384,13 @@
         <v>178</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>177</v>
       </c>
@@ -1373,19 +1398,16 @@
         <v>2</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>177</v>
       </c>
@@ -1396,16 +1418,13 @@
         <v>178</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>177</v>
       </c>
@@ -1413,19 +1432,16 @@
         <v>2</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>177</v>
       </c>
@@ -1436,16 +1452,13 @@
         <v>178</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>177</v>
       </c>
@@ -1453,19 +1466,16 @@
         <v>2</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>177</v>
       </c>
@@ -1476,16 +1486,13 @@
         <v>178</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>177</v>
       </c>
@@ -1493,413 +1500,410 @@
         <v>2</v>
       </c>
       <c r="C21" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" s="10">
+        <v>2</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>189</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="10">
+        <v>2</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
+        <v>210</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" s="10">
+        <v>2</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" s="10">
+        <v>2</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>211</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" s="10">
+        <v>2</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>191</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="10">
+        <v>2</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>212</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" s="10">
+        <v>2</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" s="10">
+        <v>2</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>213</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30" s="10">
+        <v>2</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" s="10">
+        <v>2</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" t="s">
+        <v>214</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" s="10">
+        <v>2</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>194</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B33" s="10">
+        <v>2</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>215</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B34" s="10">
+        <v>2</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" t="s">
+        <v>195</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B35" s="10">
+        <v>2</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" t="s">
+        <v>216</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" s="10">
+        <v>2</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" t="s">
+        <v>196</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37" s="10">
+        <v>2</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" t="s">
+        <v>217</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" s="10">
+        <v>2</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>197</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B39" s="10">
+        <v>2</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>218</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40" s="10">
+        <v>2</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E40" t="s">
         <v>198</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B22" s="8">
-        <v>3</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="8">
-        <v>3</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B24" s="8">
-        <v>3</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25" s="8">
-        <v>3</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B26" s="8">
-        <v>3</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B27" s="8">
-        <v>3</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B28" s="8">
-        <v>3</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B29" s="8">
-        <v>3</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B30" s="8">
-        <v>3</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31" s="8">
-        <v>3</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" s="8">
-        <v>3</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B33" s="8">
-        <v>3</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B34" s="8">
-        <v>3</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B35" s="8">
-        <v>3</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B36" s="8">
-        <v>3</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B37" s="8">
-        <v>3</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B38" s="8">
-        <v>3</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B39" s="8">
-        <v>3</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B40" s="8">
-        <v>3</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="F40" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B41" s="8">
-        <v>3</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>156</v>
+    <row r="41" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41" s="10">
+        <v>2</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>166</v>
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>219</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>69</v>
@@ -1916,10 +1920,10 @@
         <v>135</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>69</v>
@@ -1936,10 +1940,10 @@
         <v>156</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>69</v>
@@ -1956,10 +1960,10 @@
         <v>135</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>69</v>
@@ -1976,10 +1980,10 @@
         <v>156</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>69</v>
@@ -1996,10 +2000,10 @@
         <v>135</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>69</v>
@@ -2016,10 +2020,10 @@
         <v>156</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>69</v>
@@ -2036,10 +2040,10 @@
         <v>135</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>69</v>
@@ -2056,10 +2060,10 @@
         <v>156</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>69</v>
@@ -2076,10 +2080,10 @@
         <v>135</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>69</v>
@@ -2096,10 +2100,10 @@
         <v>156</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>69</v>
@@ -2116,10 +2120,10 @@
         <v>135</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>69</v>
@@ -2136,10 +2140,10 @@
         <v>156</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>69</v>
@@ -2156,10 +2160,10 @@
         <v>135</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>69</v>
@@ -2176,10 +2180,10 @@
         <v>156</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>69</v>
@@ -2196,10 +2200,10 @@
         <v>135</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>69</v>
@@ -2216,10 +2220,10 @@
         <v>156</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>69</v>
@@ -2236,10 +2240,10 @@
         <v>135</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>69</v>
@@ -2256,10 +2260,10 @@
         <v>156</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>69</v>
@@ -2276,10 +2280,10 @@
         <v>135</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>69</v>
@@ -2296,410 +2300,410 @@
         <v>156</v>
       </c>
       <c r="D61" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" s="8">
+        <v>3</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" s="8">
+        <v>3</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" s="8">
+        <v>3</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B65" s="8">
+        <v>3</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" s="8">
+        <v>3</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" s="8">
+        <v>3</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="8">
+        <v>3</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" s="8">
+        <v>3</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" s="8">
+        <v>3</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B71" s="8">
+        <v>3</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B72" s="8">
+        <v>3</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B73" s="8">
+        <v>3</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B74" s="8">
+        <v>3</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B75" s="8">
+        <v>3</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B76" s="8">
+        <v>3</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" s="8">
+        <v>3</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B78" s="8">
+        <v>3</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B79" s="8">
+        <v>3</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B80" s="8">
+        <v>3</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D80" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E80" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B81" s="8">
+        <v>3</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B62" s="7">
-        <v>4</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B63" s="7">
-        <v>4</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B64" s="7">
-        <v>4</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B65" s="7">
-        <v>4</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B66" s="7">
-        <v>4</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B67" s="7">
-        <v>4</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B68" s="7">
-        <v>4</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B69" s="7">
-        <v>4</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B70" s="7">
-        <v>4</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B71" s="7">
-        <v>4</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B72" s="7">
-        <v>4</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B73" s="7">
-        <v>4</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B74" s="7">
-        <v>4</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B75" s="7">
-        <v>4</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B76" s="7">
-        <v>4</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B77" s="7">
-        <v>4</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B78" s="7">
-        <v>4</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B79" s="7">
-        <v>4</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B80" s="7">
-        <v>4</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B81" s="7">
-        <v>4</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>69</v>
@@ -2716,10 +2720,10 @@
         <v>113</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>69</v>
@@ -2736,10 +2740,10 @@
         <v>92</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>69</v>
@@ -2756,10 +2760,10 @@
         <v>113</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>69</v>
@@ -2776,10 +2780,10 @@
         <v>92</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>69</v>
@@ -2796,10 +2800,10 @@
         <v>113</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>69</v>
@@ -2816,10 +2820,10 @@
         <v>92</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>69</v>
@@ -2836,10 +2840,10 @@
         <v>113</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>69</v>
@@ -2856,10 +2860,10 @@
         <v>92</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>69</v>
@@ -2876,10 +2880,10 @@
         <v>113</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>69</v>
@@ -2896,10 +2900,10 @@
         <v>92</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>69</v>
@@ -2916,10 +2920,10 @@
         <v>113</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>69</v>
@@ -2936,10 +2940,10 @@
         <v>92</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>69</v>
@@ -2956,10 +2960,10 @@
         <v>113</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>69</v>
@@ -2976,10 +2980,10 @@
         <v>92</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>109</v>
+        <v>36</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>69</v>
@@ -2996,10 +3000,10 @@
         <v>113</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>69</v>
@@ -3016,10 +3020,10 @@
         <v>92</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>69</v>
@@ -3036,10 +3040,10 @@
         <v>113</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>69</v>
@@ -3056,10 +3060,10 @@
         <v>92</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>69</v>
@@ -3076,10 +3080,10 @@
         <v>113</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>69</v>
@@ -3096,410 +3100,410 @@
         <v>92</v>
       </c>
       <c r="D101" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B102" s="7">
+        <v>4</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B103" s="7">
+        <v>4</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B104" s="7">
+        <v>4</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B105" s="7">
+        <v>4</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B106" s="7">
+        <v>4</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B107" s="7">
+        <v>4</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B108" s="7">
+        <v>4</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B109" s="7">
+        <v>4</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B110" s="7">
+        <v>4</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B111" s="7">
+        <v>4</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B112" s="7">
+        <v>4</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B113" s="7">
+        <v>4</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B114" s="7">
+        <v>4</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B115" s="7">
+        <v>4</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B116" s="7">
+        <v>4</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B117" s="7">
+        <v>4</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B118" s="7">
+        <v>4</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B119" s="7">
+        <v>4</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B120" s="7">
+        <v>4</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D120" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E120" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B121" s="7">
+        <v>4</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B102" s="2">
-        <v>5</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B103" s="2">
-        <v>5</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B104" s="2">
-        <v>5</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B105" s="2">
-        <v>5</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B106" s="2">
-        <v>5</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B107" s="2">
-        <v>5</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B108" s="2">
-        <v>5</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B109" s="2">
-        <v>5</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B110" s="2">
-        <v>5</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B111" s="2">
-        <v>5</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B112" s="2">
-        <v>5</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B113" s="2">
-        <v>5</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B114" s="2">
-        <v>5</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B115" s="2">
-        <v>5</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B116" s="2">
-        <v>5</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B117" s="2">
-        <v>5</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B118" s="2">
-        <v>5</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B119" s="2">
-        <v>5</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B120" s="2">
-        <v>5</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B121" s="2">
-        <v>5</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>69</v>
@@ -3513,13 +3517,13 @@
         <v>5</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>69</v>
@@ -3533,13 +3537,13 @@
         <v>5</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>69</v>
@@ -3553,13 +3557,13 @@
         <v>5</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>69</v>
@@ -3573,13 +3577,13 @@
         <v>5</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>69</v>
@@ -3593,13 +3597,13 @@
         <v>5</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>69</v>
@@ -3613,13 +3617,13 @@
         <v>5</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>69</v>
@@ -3633,13 +3637,13 @@
         <v>5</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>69</v>
@@ -3653,13 +3657,13 @@
         <v>5</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>69</v>
@@ -3673,13 +3677,13 @@
         <v>5</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>69</v>
@@ -3693,13 +3697,13 @@
         <v>5</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>69</v>
@@ -3713,13 +3717,13 @@
         <v>5</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>69</v>
@@ -3733,13 +3737,13 @@
         <v>5</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>69</v>
@@ -3753,13 +3757,13 @@
         <v>5</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>69</v>
@@ -3773,13 +3777,13 @@
         <v>5</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>69</v>
@@ -3793,13 +3797,13 @@
         <v>5</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>69</v>
@@ -3813,13 +3817,13 @@
         <v>5</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>69</v>
@@ -3833,13 +3837,13 @@
         <v>5</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>69</v>
@@ -3853,13 +3857,13 @@
         <v>5</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>69</v>
@@ -3873,13 +3877,13 @@
         <v>5</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>69</v>
@@ -3893,13 +3897,13 @@
         <v>5</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>69</v>
@@ -3913,13 +3917,13 @@
         <v>5</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>69</v>
@@ -3933,13 +3937,13 @@
         <v>5</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>69</v>
@@ -3953,13 +3957,13 @@
         <v>5</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>69</v>
@@ -3973,13 +3977,13 @@
         <v>5</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>69</v>
@@ -3993,13 +3997,13 @@
         <v>5</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>69</v>
@@ -4013,13 +4017,13 @@
         <v>5</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>69</v>
@@ -4033,13 +4037,13 @@
         <v>5</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>69</v>
@@ -4053,13 +4057,13 @@
         <v>5</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>69</v>
@@ -4073,13 +4077,13 @@
         <v>5</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>69</v>
@@ -4093,13 +4097,13 @@
         <v>5</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>69</v>
@@ -4113,13 +4117,13 @@
         <v>5</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>69</v>
@@ -4133,13 +4137,13 @@
         <v>5</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>69</v>
@@ -4153,13 +4157,13 @@
         <v>5</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>69</v>
@@ -4173,13 +4177,13 @@
         <v>5</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>69</v>
@@ -4193,13 +4197,13 @@
         <v>5</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>69</v>
@@ -4213,13 +4217,13 @@
         <v>5</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>69</v>
@@ -4233,13 +4237,13 @@
         <v>5</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>69</v>
@@ -4253,13 +4257,13 @@
         <v>5</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>69</v>
@@ -4273,13 +4277,13 @@
         <v>5</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>69</v>
@@ -4293,21 +4297,421 @@
         <v>5</v>
       </c>
       <c r="C161" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B162" s="2">
+        <v>5</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B163" s="2">
+        <v>5</v>
+      </c>
+      <c r="C163" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D161" s="5" t="s">
+      <c r="D163" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" s="2">
+        <v>5</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B165" s="2">
+        <v>5</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" s="2">
+        <v>5</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B167" s="2">
+        <v>5</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" s="2">
+        <v>5</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" s="2">
+        <v>5</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B170" s="2">
+        <v>5</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B171" s="2">
+        <v>5</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" s="2">
+        <v>5</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173" s="2">
+        <v>5</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" s="2">
+        <v>5</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" s="2">
+        <v>5</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" s="2">
+        <v>5</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B177" s="2">
+        <v>5</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178" s="2">
+        <v>5</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179" s="2">
+        <v>5</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D179" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="E179" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B180" s="2">
+        <v>5</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B181" s="2">
+        <v>5</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E181" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F161" s="1" t="s">
+      <c r="F181" s="1" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A102:E141">
-    <sortCondition ref="D104:D141"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A122:E161">
+    <sortCondition ref="D124:D161"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/refair-server/datasets/few shot dataset/FSDataset.xlsx
+++ b/refair-server/datasets/few shot dataset/FSDataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morel\Desktop\Refair\ReFair-App\refair-server\datasets\few shot dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C520E58-8C61-420B-AF27-501CF1917991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4005DB-21BB-4043-BDFB-AD864B8A211B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80773445-FB61-4F04-A882-1600FD96C55A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="242">
   <si>
     <t>Domain cluster</t>
   </si>
@@ -696,6 +696,72 @@
   </si>
   <si>
     <t>As an economist, I want to use word embedding techniques to analyze customer feedback and reviews on economic products and services, extracting underlying sentiments and preferences to guide product development and market positioning strategies.</t>
+  </si>
+  <si>
+    <t>Medicine &amp; Health</t>
+  </si>
+  <si>
+    <t>Cardiology</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to apply adversarial learning techniques to detect and mitigate potential adversarial attacks on ECG data classifiers, ensuring the reliability and robustness of heart abnormality diagnoses.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to explore CNN-based techniques for real-time analysis of wearable device data, such as continuous heart rate monitoring, to detect anomalies and provide timely alerts for patients with underlying cardiac conditions.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to integrate a conversational agent into electronic health records (EHR) systems, enabling patients to easily access and update their medical histories and symptoms, facilitating more efficient and accurate clinical assessments.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to construct decision tree models using patient demographics and medical history to predict the likelihood of adverse cardiac events within the next five years, aiding in early intervention and risk management strategies.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to develop a document classification system to classify electronic health records (EHRs) based on patient symptoms and diagnostic tests, aiding in the identification of patterns and trends in cardiovascular diseases.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to develop an entity extraction system to automatically identify and extract key cardiac parameters (e.g., ejection fraction, QT interval) from clinical notes and reports, enabling faster analysis and decision-making.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to apply feature selection methods to filter out irrelevant or redundant features from ECG data, so that I can enhance the performance of algorithms detecting cardiac arrhythmias.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to use keyword extraction algorithms to extract relevant terms from medical literature and clinical guidelines pertaining to cardiac rehabilitation protocols, aiding in the development of evidence-based treatment plans.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to address class imbalance in datasets used for predicting rare cardiac conditions using machine learning algorithms, ensuring accurate identification and early intervention for patients at higher risk.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to use k-NN models to predict patient-specific responses to different cardiac medications based on similar patient profiles, facilitating personalized treatment plans for heart disease management.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to implement multi-label classification algorithms to classify cardiac imaging studies (e.g., echocardiograms, CT scans) into multiple diagnostic categories (e.g., valve disease, myocardial infarction), aiding in accurate disease characterization.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to develop a neural network-based system to predict the progression of heart failure in patients based on dynamic changes in biomarkers and clinical indicators, guiding timely interventions and patient monitoring.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to deploy a random forest model to predict the likelihood of adverse drug reactions in cardiac patients based on medication history, comorbidities, and genetic predispositions, optimizing medication management strategies.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to develop a semantic similarity model to compare clinical notes and identify similar cases of coronary artery disease, aiding in pattern recognition and treatment planning.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to implement sentiment analysis on patient feedback from cardiac rehabilitation programs to assess overall patient satisfaction and identify areas for program improvement.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to develop a speech to text system to transcribe cardiology consultations and patient histories accurately, improving documentation efficiency and clinical workflow.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to develop a text categorization model to classify medical literature and research articles on various cardiac conditions (e.g., myocardial infarction, arrhythmias) for easier access and knowledge synthesis.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to apply unsupervised clustering algorithms to group patients based on similar risk factor profiles (e.g., smoking history, cholesterol levels), enabling targeted preventive interventions for cardiovascular diseases.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to develop a voice recognition system to accurately transcribe cardiology consultations and patient histories from audio recordings, improving documentation accuracy and efficiency.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to utilize word embedding techniques to represent clinical terms and medical concepts from cardiology literature, enabling more accurate semantic understanding and retrieval of relevant research findings.</t>
   </si>
 </sst>
 </file>
@@ -735,7 +801,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -766,6 +832,12 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6D9EEB"/>
+        <bgColor rgb="FF6D9EEB"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -779,7 +851,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -800,6 +872,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1134,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DF0B04-8323-4309-B759-D1CDDA1FBB0E}">
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D199" sqref="D199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1169,7 +1242,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>177</v>
       </c>
@@ -1182,11 +1255,11 @@
       <c r="D2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>177</v>
       </c>
@@ -1199,11 +1272,11 @@
       <c r="D3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>177</v>
       </c>
@@ -1216,11 +1289,11 @@
       <c r="D4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>177</v>
       </c>
@@ -1233,11 +1306,11 @@
       <c r="D5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>177</v>
       </c>
@@ -1250,11 +1323,11 @@
       <c r="D6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>177</v>
       </c>
@@ -1267,11 +1340,11 @@
       <c r="D7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>177</v>
       </c>
@@ -1284,11 +1357,11 @@
       <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>177</v>
       </c>
@@ -1301,11 +1374,11 @@
       <c r="D9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>177</v>
       </c>
@@ -1318,11 +1391,11 @@
       <c r="D10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>177</v>
       </c>
@@ -1335,11 +1408,11 @@
       <c r="D11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>177</v>
       </c>
@@ -1352,11 +1425,11 @@
       <c r="D12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>177</v>
       </c>
@@ -1369,11 +1442,11 @@
       <c r="D13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>177</v>
       </c>
@@ -1386,11 +1459,11 @@
       <c r="D14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>177</v>
       </c>
@@ -1403,11 +1476,11 @@
       <c r="D15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>177</v>
       </c>
@@ -1420,11 +1493,11 @@
       <c r="D16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>177</v>
       </c>
@@ -1437,11 +1510,11 @@
       <c r="D17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>177</v>
       </c>
@@ -1454,11 +1527,11 @@
       <c r="D18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>177</v>
       </c>
@@ -1471,11 +1544,11 @@
       <c r="D19" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>177</v>
       </c>
@@ -1488,11 +1561,11 @@
       <c r="D20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>177</v>
       </c>
@@ -1505,11 +1578,11 @@
       <c r="D21" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>177</v>
       </c>
@@ -1522,14 +1595,14 @@
       <c r="D22" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>189</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>177</v>
       </c>
@@ -1542,14 +1615,14 @@
       <c r="D23" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>210</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>177</v>
       </c>
@@ -1562,14 +1635,14 @@
       <c r="D24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>190</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>177</v>
       </c>
@@ -1582,14 +1655,14 @@
       <c r="D25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>211</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>177</v>
       </c>
@@ -1602,14 +1675,14 @@
       <c r="D26" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>191</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>177</v>
       </c>
@@ -1622,14 +1695,14 @@
       <c r="D27" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>212</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>177</v>
       </c>
@@ -1642,14 +1715,14 @@
       <c r="D28" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>192</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>177</v>
       </c>
@@ -1662,14 +1735,14 @@
       <c r="D29" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>213</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>177</v>
       </c>
@@ -1682,14 +1755,14 @@
       <c r="D30" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>193</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>177</v>
       </c>
@@ -1702,14 +1775,14 @@
       <c r="D31" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>214</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>177</v>
       </c>
@@ -1722,14 +1795,14 @@
       <c r="D32" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>194</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>177</v>
       </c>
@@ -1742,14 +1815,14 @@
       <c r="D33" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1" t="s">
         <v>215</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>177</v>
       </c>
@@ -1762,14 +1835,14 @@
       <c r="D34" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>195</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>177</v>
       </c>
@@ -1782,14 +1855,14 @@
       <c r="D35" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
         <v>216</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>177</v>
       </c>
@@ -1802,14 +1875,14 @@
       <c r="D36" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
         <v>196</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>177</v>
       </c>
@@ -1822,14 +1895,14 @@
       <c r="D37" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
         <v>217</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>177</v>
       </c>
@@ -1842,14 +1915,14 @@
       <c r="D38" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="1" t="s">
         <v>197</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>177</v>
       </c>
@@ -1862,14 +1935,14 @@
       <c r="D39" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="1" t="s">
         <v>218</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>177</v>
       </c>
@@ -1882,14 +1955,14 @@
       <c r="D40" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="1" t="s">
         <v>198</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>177</v>
       </c>
@@ -1902,7 +1975,7 @@
       <c r="D41" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="1" t="s">
         <v>219</v>
       </c>
       <c r="F41" s="1" t="s">
@@ -4706,6 +4779,406 @@
         <v>90</v>
       </c>
       <c r="F181" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B182" s="12">
+        <v>6</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D182" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B183" s="12">
+        <v>6</v>
+      </c>
+      <c r="C183" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D183" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B184" s="12">
+        <v>6</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D184" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B185" s="12">
+        <v>6</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B186" s="12">
+        <v>6</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D186" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B187" s="12">
+        <v>6</v>
+      </c>
+      <c r="C187" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D187" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B188" s="12">
+        <v>6</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D188" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B189" s="12">
+        <v>6</v>
+      </c>
+      <c r="C189" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D189" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B190" s="12">
+        <v>6</v>
+      </c>
+      <c r="C190" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D190" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B191" s="12">
+        <v>6</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D191" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B192" s="12">
+        <v>6</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D192" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B193" s="12">
+        <v>6</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D193" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B194" s="12">
+        <v>6</v>
+      </c>
+      <c r="C194" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D194" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B195" s="12">
+        <v>6</v>
+      </c>
+      <c r="C195" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D195" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B196" s="12">
+        <v>6</v>
+      </c>
+      <c r="C196" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D196" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B197" s="12">
+        <v>6</v>
+      </c>
+      <c r="C197" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D197" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B198" s="12">
+        <v>6</v>
+      </c>
+      <c r="C198" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D198" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B199" s="12">
+        <v>6</v>
+      </c>
+      <c r="C199" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B200" s="12">
+        <v>6</v>
+      </c>
+      <c r="C200" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D200" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B201" s="12">
+        <v>6</v>
+      </c>
+      <c r="C201" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D201" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F201" s="1" t="s">
         <v>69</v>
       </c>
     </row>

--- a/refair-server/datasets/few shot dataset/FSDataset.xlsx
+++ b/refair-server/datasets/few shot dataset/FSDataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morel\Desktop\Refair\ReFair-App\refair-server\datasets\few shot dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4005DB-21BB-4043-BDFB-AD864B8A211B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD81A2F-5595-45D7-8363-5DAC2B77152C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80773445-FB61-4F04-A882-1600FD96C55A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="263">
   <si>
     <t>Domain cluster</t>
   </si>
@@ -762,6 +762,69 @@
   </si>
   <si>
     <t>As a cardiologist, I want to utilize word embedding techniques to represent clinical terms and medical concepts from cardiology literature, enabling more accurate semantic understanding and retrieval of relevant research findings.</t>
+  </si>
+  <si>
+    <t>Dermatology</t>
+  </si>
+  <si>
+    <t>As a dermatologist, I want to apply adversarial learning techniques to detect and mitigate potential attacks on dermatological image recognition models, ensuring robustness and reliability in automated diagnosis systems.</t>
+  </si>
+  <si>
+    <t>As a dermatologist, I want to train a CNN model on a large dataset of dermatological images to accurately classify skin lesions into different diagnostic categories, improving diagnostic precision and reducing misdiagnosis rates.</t>
+  </si>
+  <si>
+    <t>As a dermatologist, I want to implement a conversational agent that can provide personalized skincare recommendations based on patient preferences, skin type, and specific dermatological concerns.</t>
+  </si>
+  <si>
+    <t>As a dermatologist, I want to utilize decision tree analysis to identify key risk factors for developing common dermatological conditions such as acne or eczema, enabling proactive preventive measures and patient education.</t>
+  </si>
+  <si>
+    <t>As a dermatologist, I want to develop a document classification model to automatically categorize research papers and clinical studies related to dermatological diseases, facilitating easier access to relevant literature for evidence-based practice.</t>
+  </si>
+  <si>
+    <t>As a dermatologist, I want to develop an entity extraction system to automatically identify and extract key information from dermatological patient records, such as symptoms, diagnoses, and treatment histories, to assist in comprehensive patient management.</t>
+  </si>
+  <si>
+    <t>As a dermatologist, I want to perform feature selection on dermatological image data to identify the most discriminative features that contribute to accurate classification of skin lesions, enhancing diagnostic precision.</t>
+  </si>
+  <si>
+    <t>As a dermatologist, I want to address class imbalance in dermatological datasets when developing AI models to detect rare skin conditions with limited training examples, ensuring robust and reliable diagnostic capabilities.</t>
+  </si>
+  <si>
+    <t>As a dermatologist, I want to develop a keyword extraction system to automatically identify and prioritize key terms from dermatological patient notes and reports, aiding in efficient data summarization and retrieval.</t>
+  </si>
+  <si>
+    <t>As a dermatologist, I want to implement a k-Nearest Neighbor algorithm to classify skin lesions based on their visual similarities to known dermatological conditions, aiding in accurate and rapid diagnosis.</t>
+  </si>
+  <si>
+    <t>As a dermatologist, I want to implement multi-label classification techniques to categorize skin lesions into multiple diagnostic categories (e.g., benign, malignant, inflammatory) based on clinical features and histopathological findings.</t>
+  </si>
+  <si>
+    <t>As a dermatologist, I want to train a neural network to analyze dermatological images and classify skin lesions with high accuracy, supporting early detection and treatment of melanoma and other malignancies.</t>
+  </si>
+  <si>
+    <t>As a dermatologist, I want to develop a random forest model to classify dermatological images into different diagnostic categories (e.g., melanoma, basal cell carcinoma) with high accuracy, aiding in early detection and treatment planning.</t>
+  </si>
+  <si>
+    <t>As a dermatologist, I want to implement semantic similarity algorithms to analyze dermatological research papers and identify relevant studies based on shared concepts and findings, facilitating literature review and evidence synthesis.</t>
+  </si>
+  <si>
+    <t>As a dermatologist, I want to develop a sentiment analysis model to analyze social media posts and reviews related to skincare products, identifying sentiments and trends among consumers to inform product recommendations.</t>
+  </si>
+  <si>
+    <t>As a dermatologist, I want to develop a speech-to-text system to transcribe verbal descriptions of skin conditions provided by patients during consultations, facilitating accurate documentation and diagnosis.</t>
+  </si>
+  <si>
+    <t>As a dermatologist, I want to develop a text categorization model to classify dermatological research articles into specific topics (e.g., melanoma, acne treatments) to facilitate literature review and evidence synthesis.</t>
+  </si>
+  <si>
+    <t>As a dermatologist, I want to apply unsupervised clustering algorithms to group dermatological patient profiles based on similar symptoms and disease progression patterns, enabling personalized treatment plans for patient clusters.</t>
+  </si>
+  <si>
+    <t>As a dermatologist, I want to implement voice recognition technology to capture patient-reported symptoms and medical histories accurately during dermatological consultations, enhancing data quality and clinical decision-making.</t>
+  </si>
+  <si>
+    <t>As a dermatologist, I want to develop word embedding models to capture semantic relationships between dermatological terms (e.g., skin conditions, treatment modalities) from medical literature, enhancing knowledge discovery and research.</t>
   </si>
 </sst>
 </file>
@@ -799,6 +862,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -872,7 +936,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1207,10 +1271,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DF0B04-8323-4309-B759-D1CDDA1FBB0E}">
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D199" sqref="D199"/>
+    <sheetView tabSelected="1" topLeftCell="A200" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H219" sqref="H219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4782,7 +4846,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A182" s="12" t="s">
         <v>220</v>
       </c>
@@ -4795,14 +4859,14 @@
       <c r="D182" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E182" s="1" t="s">
+      <c r="E182" t="s">
         <v>222</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A183" s="12" t="s">
         <v>220</v>
       </c>
@@ -4810,19 +4874,19 @@
         <v>6</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>223</v>
+        <v>28</v>
+      </c>
+      <c r="E183" t="s">
+        <v>243</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A184" s="12" t="s">
         <v>220</v>
       </c>
@@ -4833,16 +4897,16 @@
         <v>221</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>224</v>
+        <v>43</v>
+      </c>
+      <c r="E184" t="s">
+        <v>223</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A185" s="12" t="s">
         <v>220</v>
       </c>
@@ -4850,19 +4914,19 @@
         <v>6</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>225</v>
+        <v>43</v>
+      </c>
+      <c r="E185" t="s">
+        <v>244</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A186" s="12" t="s">
         <v>220</v>
       </c>
@@ -4873,16 +4937,16 @@
         <v>221</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>226</v>
+        <v>30</v>
+      </c>
+      <c r="E186" t="s">
+        <v>224</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A187" s="12" t="s">
         <v>220</v>
       </c>
@@ -4890,19 +4954,19 @@
         <v>6</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>227</v>
+        <v>30</v>
+      </c>
+      <c r="E187" t="s">
+        <v>245</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A188" s="12" t="s">
         <v>220</v>
       </c>
@@ -4913,16 +4977,16 @@
         <v>221</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>228</v>
+        <v>13</v>
+      </c>
+      <c r="E188" t="s">
+        <v>225</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A189" s="12" t="s">
         <v>220</v>
       </c>
@@ -4930,19 +4994,19 @@
         <v>6</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>229</v>
+        <v>13</v>
+      </c>
+      <c r="E189" t="s">
+        <v>246</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A190" s="12" t="s">
         <v>220</v>
       </c>
@@ -4953,16 +5017,16 @@
         <v>221</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>230</v>
+        <v>46</v>
+      </c>
+      <c r="E190" t="s">
+        <v>226</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A191" s="12" t="s">
         <v>220</v>
       </c>
@@ -4970,19 +5034,19 @@
         <v>6</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>231</v>
+        <v>46</v>
+      </c>
+      <c r="E191" t="s">
+        <v>247</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A192" s="12" t="s">
         <v>220</v>
       </c>
@@ -4993,16 +5057,16 @@
         <v>221</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>232</v>
+        <v>33</v>
+      </c>
+      <c r="E192" t="s">
+        <v>227</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A193" s="12" t="s">
         <v>220</v>
       </c>
@@ -5010,19 +5074,19 @@
         <v>6</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>233</v>
+        <v>33</v>
+      </c>
+      <c r="E193" t="s">
+        <v>248</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A194" s="12" t="s">
         <v>220</v>
       </c>
@@ -5033,16 +5097,16 @@
         <v>221</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>234</v>
+        <v>36</v>
+      </c>
+      <c r="E194" t="s">
+        <v>228</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A195" s="12" t="s">
         <v>220</v>
       </c>
@@ -5050,19 +5114,19 @@
         <v>6</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>235</v>
+        <v>36</v>
+      </c>
+      <c r="E195" t="s">
+        <v>249</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A196" s="12" t="s">
         <v>220</v>
       </c>
@@ -5073,16 +5137,16 @@
         <v>221</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>236</v>
+        <v>14</v>
+      </c>
+      <c r="E196" t="s">
+        <v>229</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A197" s="12" t="s">
         <v>220</v>
       </c>
@@ -5090,19 +5154,19 @@
         <v>6</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>237</v>
+        <v>14</v>
+      </c>
+      <c r="E197" t="s">
+        <v>250</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A198" s="12" t="s">
         <v>220</v>
       </c>
@@ -5113,16 +5177,16 @@
         <v>221</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>238</v>
+        <v>34</v>
+      </c>
+      <c r="E198" t="s">
+        <v>230</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A199" s="12" t="s">
         <v>220</v>
       </c>
@@ -5130,19 +5194,19 @@
         <v>6</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>239</v>
+        <v>34</v>
+      </c>
+      <c r="E199" t="s">
+        <v>251</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A200" s="12" t="s">
         <v>220</v>
       </c>
@@ -5153,16 +5217,16 @@
         <v>221</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>240</v>
+        <v>16</v>
+      </c>
+      <c r="E200" t="s">
+        <v>231</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A201" s="12" t="s">
         <v>220</v>
       </c>
@@ -5170,15 +5234,415 @@
         <v>6</v>
       </c>
       <c r="C201" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D201" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E201" t="s">
+        <v>252</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A202" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B202" s="12">
+        <v>6</v>
+      </c>
+      <c r="C202" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="D201" s="9" t="s">
+      <c r="D202" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E202" t="s">
+        <v>232</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A203" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B203" s="12">
+        <v>6</v>
+      </c>
+      <c r="C203" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D203" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E203" t="s">
+        <v>253</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A204" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B204" s="12">
+        <v>6</v>
+      </c>
+      <c r="C204" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E204" t="s">
+        <v>233</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A205" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B205" s="12">
+        <v>6</v>
+      </c>
+      <c r="C205" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D205" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E205" t="s">
+        <v>254</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A206" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B206" s="12">
+        <v>6</v>
+      </c>
+      <c r="C206" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D206" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E206" t="s">
+        <v>234</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A207" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B207" s="12">
+        <v>6</v>
+      </c>
+      <c r="C207" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D207" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E207" t="s">
+        <v>255</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A208" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B208" s="12">
+        <v>6</v>
+      </c>
+      <c r="C208" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D208" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E208" t="s">
+        <v>235</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A209" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B209" s="12">
+        <v>6</v>
+      </c>
+      <c r="C209" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D209" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E209" t="s">
+        <v>256</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A210" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B210" s="12">
+        <v>6</v>
+      </c>
+      <c r="C210" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D210" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E210" t="s">
+        <v>236</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A211" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B211" s="12">
+        <v>6</v>
+      </c>
+      <c r="C211" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D211" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E211" t="s">
+        <v>257</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A212" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B212" s="12">
+        <v>6</v>
+      </c>
+      <c r="C212" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D212" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E212" t="s">
+        <v>237</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A213" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B213" s="12">
+        <v>6</v>
+      </c>
+      <c r="C213" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D213" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E213" t="s">
+        <v>258</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A214" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B214" s="12">
+        <v>6</v>
+      </c>
+      <c r="C214" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D214" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E214" t="s">
+        <v>238</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A215" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B215" s="12">
+        <v>6</v>
+      </c>
+      <c r="C215" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D215" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E215" t="s">
+        <v>259</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A216" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B216" s="12">
+        <v>6</v>
+      </c>
+      <c r="C216" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D216" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E216" t="s">
+        <v>239</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A217" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B217" s="12">
+        <v>6</v>
+      </c>
+      <c r="C217" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D217" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E217" t="s">
+        <v>260</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A218" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B218" s="12">
+        <v>6</v>
+      </c>
+      <c r="C218" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D218" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E218" t="s">
+        <v>240</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A219" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B219" s="12">
+        <v>6</v>
+      </c>
+      <c r="C219" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D219" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E219" t="s">
+        <v>261</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A220" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220" s="12">
+        <v>6</v>
+      </c>
+      <c r="C220" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D220" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E201" s="1" t="s">
+      <c r="E220" t="s">
         <v>241</v>
       </c>
-      <c r="F201" s="1" t="s">
+      <c r="F220" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A221" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221" s="12">
+        <v>6</v>
+      </c>
+      <c r="C221" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D221" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E221" t="s">
+        <v>262</v>
+      </c>
+      <c r="F221" s="1" t="s">
         <v>69</v>
       </c>
     </row>

--- a/refair-server/datasets/few shot dataset/FSDataset.xlsx
+++ b/refair-server/datasets/few shot dataset/FSDataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morel\Desktop\Refair\ReFair-App\refair-server\datasets\few shot dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD81A2F-5595-45D7-8363-5DAC2B77152C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8EBB82-08A4-43B0-8791-1EC8CDADE1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80773445-FB61-4F04-A882-1600FD96C55A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="284">
   <si>
     <t>Domain cluster</t>
   </si>
@@ -825,6 +825,69 @@
   </si>
   <si>
     <t>As a dermatologist, I want to develop word embedding models to capture semantic relationships between dermatological terms (e.g., skin conditions, treatment modalities) from medical literature, enhancing knowledge discovery and research.</t>
+  </si>
+  <si>
+    <t>Endocrinology</t>
+  </si>
+  <si>
+    <t>As an endocrinologist, I want to apply adversarial learning techniques to identify and mitigate potential vulnerabilities in hormone imbalance prediction models, ensuring robustness against adversarial attacks.</t>
+  </si>
+  <si>
+    <t>As an endocrinologist, I want to utilize CNN architectures to classify histopathological images of endocrine tumors, aiding in accurate diagnosis and personalized treatment planning for patients.</t>
+  </si>
+  <si>
+    <t>As an endocrinologist, I want to develop a conversational agent powered by natural language processing to interact with patients, providing personalized guidance on managing diabetes through diet and lifestyle recommendations.</t>
+  </si>
+  <si>
+    <t>As an endocrinologist, I want to use a decision tree algorithm to predict the risk of developing type 2 diabetes based on patient demographics, lifestyle factors, and genetic predispositions, enabling early intervention strategies.</t>
+  </si>
+  <si>
+    <t>As an endocrinologist, I want to develop a document classification system to automatically categorize patient medical records based on hormone profile data, streamlining the retrieval of information for treatment planning and research purposes.</t>
+  </si>
+  <si>
+    <t>As an endocrinologist, I want to implement entity extraction techniques to extract relevant hormone biomarkers from patient laboratory reports, enabling comprehensive analysis and monitoring of hormone levels over time.</t>
+  </si>
+  <si>
+    <t>As an endocrinologist, I want to use feature selection algorithms to prioritize genetic markers linked to thyroid cancer susceptibility in familial studies, facilitating targeted screening and early detection strategies.</t>
+  </si>
+  <si>
+    <t>As an endocrinologist, I want to address class imbalance in datasets related to rare endocrine disorders such as acromegaly, by applying oversampling techniques to ensure robust model training and accurate diagnosis.</t>
+  </si>
+  <si>
+    <t>As an endocrinologist, I want to develop a keyword extraction system to automatically identify relevant terms from clinical notes and research articles related to hypothyroidism, facilitating comprehensive literature review and evidence synthesis.</t>
+  </si>
+  <si>
+    <t>As an endocrinologist, I want to implement k-Nearest Neighbor (k-NN) algorithms to predict insulin resistance in diabetic patients based on similar patient profiles, facilitating personalized treatment plans and monitoring strategies.</t>
+  </si>
+  <si>
+    <t>As an endocrinologist, I want to implement multi-label classification algorithms to classify patients with adrenal gland disorders into multiple categories (e.g., Cushing's syndrome, adrenal insufficiency), facilitating accurate diagnosis and tailored management approaches.</t>
+  </si>
+  <si>
+    <t>As an endocrinologist, I want to develop a neural network model to predict the risk of gestational diabetes mellitus based on maternal health data, enabling early interventions and personalized prenatal care plans.</t>
+  </si>
+  <si>
+    <t>As an endocrinologist, I want to use random forest models to classify patients with different subtypes of diabetes (e.g., type 1, type 2, gestational) based on clinical data and genetic predispositions, guiding tailored management strategies.</t>
+  </si>
+  <si>
+    <t>As an endocrinologist, I want to use semantic similarity techniques to match patient symptoms with known disease patterns in rare endocrine disorders, supporting early detection and personalized treatment approaches.</t>
+  </si>
+  <si>
+    <t>As an endocrinologist, I want to conduct sentiment analysis on social media posts related to weight management strategies in diabetes care, understanding patient attitudes towards dietary recommendations and lifestyle changes.</t>
+  </si>
+  <si>
+    <t>As an endocrinologist, I want to use speech to text capabilities to convert endocrine conference recordings into text format, enabling easy access to discussions on recent research findings and clinical case studies.</t>
+  </si>
+  <si>
+    <t>As an endocrinologist, I want to use text categorization techniques to classify patient electronic health records based on different types of hormonal disorders (e.g., adrenal gland disorders, pituitary gland disorders), enabling efficient retrieval and analysis of relevant patient data.</t>
+  </si>
+  <si>
+    <t>As an endocrinologist, I want to use unsupervised clustering techniques to cluster symptoms reported by patients with polycystic ovary syndrome (PCOS), identifying common symptom patterns and guiding individualized management plans.</t>
+  </si>
+  <si>
+    <t>As an endocrinologist, I want to implement voice recognition technology to transcribe patient conversations during consultations about diabetes management, improving documentation accuracy and workflow efficiency.</t>
+  </si>
+  <si>
+    <t>As an endocrinologist, I want to use word embedding techniques to analyze similarities and relationships between medical terms in research literature on insulin resistance, aiding in the discovery of novel associations and mechanisms.</t>
   </si>
 </sst>
 </file>
@@ -1271,10 +1334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DF0B04-8323-4309-B759-D1CDDA1FBB0E}">
-  <dimension ref="A1:F221"/>
+  <dimension ref="A1:F241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H219" sqref="H219"/>
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F181" sqref="F181:F241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4894,13 +4957,13 @@
         <v>6</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E184" t="s">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>69</v>
@@ -4914,13 +4977,13 @@
         <v>6</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="D185" s="9" t="s">
         <v>43</v>
       </c>
       <c r="E185" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>69</v>
@@ -4934,13 +4997,13 @@
         <v>6</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E186" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>69</v>
@@ -4954,13 +5017,13 @@
         <v>6</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E187" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>69</v>
@@ -4977,10 +5040,10 @@
         <v>221</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E188" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>69</v>
@@ -4997,10 +5060,10 @@
         <v>242</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E189" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>69</v>
@@ -5014,13 +5077,13 @@
         <v>6</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E190" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>69</v>
@@ -5034,13 +5097,13 @@
         <v>6</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E191" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>69</v>
@@ -5054,13 +5117,13 @@
         <v>6</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E192" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>69</v>
@@ -5074,13 +5137,13 @@
         <v>6</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E193" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>69</v>
@@ -5097,10 +5160,10 @@
         <v>221</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E194" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>69</v>
@@ -5117,10 +5180,10 @@
         <v>242</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E195" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>69</v>
@@ -5134,13 +5197,13 @@
         <v>6</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E196" t="s">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>69</v>
@@ -5154,13 +5217,13 @@
         <v>6</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E197" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>69</v>
@@ -5174,13 +5237,13 @@
         <v>6</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E198" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>69</v>
@@ -5194,13 +5257,13 @@
         <v>6</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E199" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>69</v>
@@ -5217,10 +5280,10 @@
         <v>221</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E200" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>69</v>
@@ -5237,10 +5300,10 @@
         <v>242</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E201" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>69</v>
@@ -5254,13 +5317,13 @@
         <v>6</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E202" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>69</v>
@@ -5274,13 +5337,13 @@
         <v>6</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E203" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>69</v>
@@ -5294,13 +5357,13 @@
         <v>6</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E204" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>69</v>
@@ -5314,13 +5377,13 @@
         <v>6</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E205" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>69</v>
@@ -5337,10 +5400,10 @@
         <v>221</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E206" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>69</v>
@@ -5357,10 +5420,10 @@
         <v>242</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E207" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>69</v>
@@ -5374,13 +5437,13 @@
         <v>6</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E208" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>69</v>
@@ -5394,13 +5457,13 @@
         <v>6</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E209" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>69</v>
@@ -5414,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E210" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>69</v>
@@ -5434,13 +5497,13 @@
         <v>6</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E211" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>69</v>
@@ -5457,10 +5520,10 @@
         <v>221</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E212" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>69</v>
@@ -5477,10 +5540,10 @@
         <v>242</v>
       </c>
       <c r="D213" s="9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E213" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>69</v>
@@ -5494,13 +5557,13 @@
         <v>6</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E214" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>69</v>
@@ -5514,13 +5577,13 @@
         <v>6</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E215" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>69</v>
@@ -5534,13 +5597,13 @@
         <v>6</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E216" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>69</v>
@@ -5554,13 +5617,13 @@
         <v>6</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E217" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>69</v>
@@ -5577,10 +5640,10 @@
         <v>221</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E218" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>69</v>
@@ -5597,10 +5660,10 @@
         <v>242</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E219" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>69</v>
@@ -5614,13 +5677,13 @@
         <v>6</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E220" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>69</v>
@@ -5634,15 +5697,415 @@
         <v>6</v>
       </c>
       <c r="C221" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D221" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E221" t="s">
+        <v>235</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A222" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B222" s="12">
+        <v>6</v>
+      </c>
+      <c r="C222" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D221" s="9" t="s">
+      <c r="D222" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E222" t="s">
+        <v>256</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A223" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B223" s="12">
+        <v>6</v>
+      </c>
+      <c r="C223" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D223" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E223" t="s">
+        <v>277</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A224" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B224" s="12">
+        <v>6</v>
+      </c>
+      <c r="C224" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D224" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E224" t="s">
+        <v>236</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A225" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B225" s="12">
+        <v>6</v>
+      </c>
+      <c r="C225" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D225" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E225" t="s">
+        <v>257</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A226" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B226" s="12">
+        <v>6</v>
+      </c>
+      <c r="C226" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D226" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E226" t="s">
+        <v>278</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A227" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B227" s="12">
+        <v>6</v>
+      </c>
+      <c r="C227" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D227" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E227" t="s">
+        <v>237</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A228" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B228" s="12">
+        <v>6</v>
+      </c>
+      <c r="C228" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D228" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E228" t="s">
+        <v>258</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A229" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B229" s="12">
+        <v>6</v>
+      </c>
+      <c r="C229" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D229" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E229" t="s">
+        <v>279</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A230" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B230" s="12">
+        <v>6</v>
+      </c>
+      <c r="C230" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D230" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E230" t="s">
+        <v>238</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A231" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B231" s="12">
+        <v>6</v>
+      </c>
+      <c r="C231" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D231" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E231" t="s">
+        <v>259</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A232" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B232" s="12">
+        <v>6</v>
+      </c>
+      <c r="C232" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D232" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E232" t="s">
+        <v>280</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A233" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B233" s="12">
+        <v>6</v>
+      </c>
+      <c r="C233" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D233" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E233" t="s">
+        <v>239</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A234" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B234" s="12">
+        <v>6</v>
+      </c>
+      <c r="C234" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D234" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E234" t="s">
+        <v>260</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A235" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B235" s="12">
+        <v>6</v>
+      </c>
+      <c r="C235" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D235" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E235" t="s">
+        <v>281</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A236" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B236" s="12">
+        <v>6</v>
+      </c>
+      <c r="C236" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D236" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E236" t="s">
+        <v>240</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A237" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B237" s="12">
+        <v>6</v>
+      </c>
+      <c r="C237" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D237" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E237" t="s">
+        <v>261</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B238" s="12">
+        <v>6</v>
+      </c>
+      <c r="C238" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D238" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A239" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B239" s="12">
+        <v>6</v>
+      </c>
+      <c r="C239" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D239" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E221" t="s">
+      <c r="E239" t="s">
+        <v>241</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A240" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B240" s="12">
+        <v>6</v>
+      </c>
+      <c r="C240" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D240" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E240" t="s">
         <v>262</v>
       </c>
-      <c r="F221" s="1" t="s">
+      <c r="F240" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A241" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B241" s="12">
+        <v>6</v>
+      </c>
+      <c r="C241" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D241" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E241" t="s">
+        <v>283</v>
+      </c>
+      <c r="F241" s="1" t="s">
         <v>69</v>
       </c>
     </row>

--- a/refair-server/datasets/few shot dataset/FSDataset.xlsx
+++ b/refair-server/datasets/few shot dataset/FSDataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morel\Desktop\Refair\ReFair-App\refair-server\datasets\few shot dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8EBB82-08A4-43B0-8791-1EC8CDADE1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EFBE13-4D75-47E4-9B93-65D9E5EBFE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80773445-FB61-4F04-A882-1600FD96C55A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="305">
   <si>
     <t>Domain cluster</t>
   </si>
@@ -888,13 +888,76 @@
   </si>
   <si>
     <t>As an endocrinologist, I want to use word embedding techniques to analyze similarities and relationships between medical terms in research literature on insulin resistance, aiding in the discovery of novel associations and mechanisms.</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>As a healthcare provider, I want to apply adversarial learning techniques to detect and mitigate adversarial attacks on medical imaging systems, ensuring the integrity and reliability of diagnostic outcomes for patient care.</t>
+  </si>
+  <si>
+    <t>As a healthcare provider, I want to integrate CNN models into wearable health devices to monitor real-time physiological signals, enabling continuous health monitoring and early detection of cardiac abnormalities or respiratory distress.</t>
+  </si>
+  <si>
+    <t>As a healthcare administrator, I want to develop a multilingual conversational agent using machine learning algorithms to assist international patients in navigating healthcare services, including appointment scheduling, insurance inquiries, and medical translation services.</t>
+  </si>
+  <si>
+    <t>As a healthcare administrator, I want to utilize decision tree models to optimize hospital bed allocation based on patient admission criteria, ensuring efficient resource management and reducing emergency room overcrowding during peak periods.</t>
+  </si>
+  <si>
+    <t>As a healthcare administrator, I want to implement document classification algorithms to categorize and prioritize incoming medical reports (e.g., radiology, pathology) based on urgency and clinical significance, facilitating timely review and decision-making by healthcare professionals.</t>
+  </si>
+  <si>
+    <t>As a healthcare provider, I want to deploy machine learning models for entity extraction in clinical trials documentation, to automatically extract and categorize information on study protocols, participant demographics, and treatment outcomes, facilitating efficient research data management and analysis.</t>
+  </si>
+  <si>
+    <t>As a healthcare provider, I want to utilize feature selection techniques in machine learning models to extract meaningful patterns from wearable device data (e.g., heart rate variability, activity levels) for early detection and management of chronic conditions like hypertension and diabetes.</t>
+  </si>
+  <si>
+    <t>As a healthcare administrator, I want to handle imbalanced datasets in predictive models for disease outbreak detection, focusing on early identification of emerging infectious diseases with low prevalence rates, to enable timely public health responses and containment strategies.</t>
+  </si>
+  <si>
+    <t>As a healthcare administrator, I want to implement keyword extraction techniques in healthcare surveys and feedback forms, automatically identifying recurring themes and patient concerns to improve service delivery and patient satisfaction across hospital departments.</t>
+  </si>
+  <si>
+    <t>As a healthcare provider, I want to implement k-nearest neighbor models for predicting patient medication responses based on similarities with historical patient data, enhancing personalized medicine approaches and optimizing drug therapy plans for chronic conditions like hypertension and diabetes.</t>
+  </si>
+  <si>
+    <t>As a healthcare provider, I want to deploy a multi-label classification algorithm to identify mental health conditions such as depression, anxiety, and PTSD simultaneously from patient psychological assessments, facilitating integrated treatment plans and improved mental health outcomes.</t>
+  </si>
+  <si>
+    <t>As a healthcare provider, I want to implement a neural network architecture to analyze patient brain imaging data (fMRI scans) to identify neural correlates of Alzheimer's disease progression, aiding in early diagnosis and intervention planning.</t>
+  </si>
+  <si>
+    <t>As a healthcare administrator, I want to implement random forest models to predict patient hospitalization risks based on historical medical records, optimizing resource allocation and improving patient management in hospital settings.</t>
+  </si>
+  <si>
+    <t>As a healthcare provider, I want to develop a random forest-based system to classify medical images (e.g., X-rays, MRIs) into diagnostic categories such as benign vs. malignant tumors, supporting radiologists in accurate and timely diagnosis for improved patient treatment planning.</t>
+  </si>
+  <si>
+    <t>As a healthcare administrator, I want to develop a sentiment analysis model to analyze social media posts and online forums related to public perceptions of vaccination, identifying sentiment trends and addressing vaccine hesitancy through targeted communication strategies.</t>
+  </si>
+  <si>
+    <t>As a healthcare provider, I want to implement speech-to-text technology in medical transcription to accurately convert clinician dictations into electronic health records (EHRs), improving documentation efficiency and reducing errors in patient medical records.</t>
+  </si>
+  <si>
+    <t>As a healthcare administrator, I want to deploy text categorization algorithms to categorize electronic health record (EHR) notes into administrative and clinical categories, streamlining data management processes and enhancing operational efficiency in healthcare facilities.</t>
+  </si>
+  <si>
+    <t>As a healthcare provider, I want to utilize unsupervised clustering techniques on medical imaging data (e.g., MRI scans) to categorize brain tumor types based on radiological features, supporting accurate diagnosis and treatment planning in neuro-oncology.</t>
+  </si>
+  <si>
+    <t>As a healthcare administrator, I want to integrate voice recognition technology into hospital admission systems to allow patients to verbally provide their medical history and consent information, enhancing patient registration processes and reducing paperwork errors.</t>
+  </si>
+  <si>
+    <t>As a healthcare provider, I want to utilize word embedding techniques to analyze electronic health records (EHRs) and extract meaningful semantic relationships between medical terminologies and patient conditions, improving information retrieval and clinical decision support systems.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -926,6 +989,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -978,7 +1046,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1000,6 +1068,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1334,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DF0B04-8323-4309-B759-D1CDDA1FBB0E}">
-  <dimension ref="A1:F241"/>
+  <dimension ref="A1:F261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F181" sqref="F181:F241"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4909,27 +4978,27 @@
         <v>69</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B182" s="12">
-        <v>6</v>
-      </c>
-      <c r="C182" s="12" t="s">
+      <c r="B182" s="13">
+        <v>6</v>
+      </c>
+      <c r="C182" s="13" t="s">
         <v>221</v>
       </c>
       <c r="D182" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E182" t="s">
+      <c r="E182" s="1" t="s">
         <v>222</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="12" t="s">
         <v>220</v>
       </c>
@@ -4942,74 +5011,74 @@
       <c r="D183" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E183" t="s">
+      <c r="E183" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A184" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B184" s="12">
-        <v>6</v>
-      </c>
-      <c r="C184" s="12" t="s">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B184" s="13">
+        <v>6</v>
+      </c>
+      <c r="C184" s="13" t="s">
         <v>263</v>
       </c>
       <c r="D184" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E184" t="s">
+      <c r="E184" s="1" t="s">
         <v>264</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A185" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B185" s="12">
-        <v>6</v>
-      </c>
-      <c r="C185" s="12" t="s">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B185" s="13">
+        <v>6</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B186" s="13">
+        <v>6</v>
+      </c>
+      <c r="C186" s="13" t="s">
         <v>221</v>
-      </c>
-      <c r="D185" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E185" t="s">
-        <v>223</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A186" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B186" s="12">
-        <v>6</v>
-      </c>
-      <c r="C186" s="12" t="s">
-        <v>242</v>
       </c>
       <c r="D186" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E186" t="s">
-        <v>244</v>
+      <c r="E186" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="12" t="s">
         <v>220</v>
       </c>
@@ -5017,159 +5086,159 @@
         <v>6</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="D187" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E187" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B188" s="13">
+        <v>6</v>
+      </c>
+      <c r="C188" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D188" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F187" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A188" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B188" s="12">
-        <v>6</v>
-      </c>
-      <c r="C188" s="12" t="s">
+      <c r="F188" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B189" s="13">
+        <v>6</v>
+      </c>
+      <c r="C189" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D189" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B190" s="13">
+        <v>6</v>
+      </c>
+      <c r="C190" s="13" t="s">
         <v>221</v>
-      </c>
-      <c r="D188" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E188" t="s">
-        <v>224</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A189" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B189" s="12">
-        <v>6</v>
-      </c>
-      <c r="C189" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="D189" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E189" t="s">
-        <v>245</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A190" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B190" s="12">
-        <v>6</v>
-      </c>
-      <c r="C190" s="12" t="s">
-        <v>263</v>
       </c>
       <c r="D190" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E190" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B191" s="12">
+        <v>6</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D191" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B192" s="13">
+        <v>6</v>
+      </c>
+      <c r="C192" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D192" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E192" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F190" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A191" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B191" s="12">
-        <v>6</v>
-      </c>
-      <c r="C191" s="12" t="s">
+      <c r="F192" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B193" s="13">
+        <v>6</v>
+      </c>
+      <c r="C193" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D193" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B194" s="13">
+        <v>6</v>
+      </c>
+      <c r="C194" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="D191" s="9" t="s">
+      <c r="D194" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E191" t="s">
+      <c r="E194" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F191" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A192" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B192" s="12">
-        <v>6</v>
-      </c>
-      <c r="C192" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="D192" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E192" t="s">
-        <v>246</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A193" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B193" s="12">
-        <v>6</v>
-      </c>
-      <c r="C193" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="D193" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E193" t="s">
-        <v>267</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A194" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B194" s="12">
-        <v>6</v>
-      </c>
-      <c r="C194" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D194" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E194" t="s">
-        <v>226</v>
-      </c>
       <c r="F194" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="12" t="s">
         <v>220</v>
       </c>
@@ -5180,236 +5249,236 @@
         <v>242</v>
       </c>
       <c r="D195" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B196" s="13">
+        <v>6</v>
+      </c>
+      <c r="C196" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D196" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B197" s="13">
+        <v>6</v>
+      </c>
+      <c r="C197" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D197" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B198" s="13">
+        <v>6</v>
+      </c>
+      <c r="C198" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D198" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E198" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B199" s="12">
+        <v>6</v>
+      </c>
+      <c r="C199" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E199" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F195" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A196" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B196" s="12">
-        <v>6</v>
-      </c>
-      <c r="C196" s="12" t="s">
+      <c r="F199" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B200" s="13">
+        <v>6</v>
+      </c>
+      <c r="C200" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="D196" s="9" t="s">
+      <c r="D200" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E196" t="s">
+      <c r="E200" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F196" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A197" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B197" s="12">
-        <v>6</v>
-      </c>
-      <c r="C197" s="12" t="s">
+      <c r="F200" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B201" s="13">
+        <v>6</v>
+      </c>
+      <c r="C201" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D201" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B202" s="13">
+        <v>6</v>
+      </c>
+      <c r="C202" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="D197" s="9" t="s">
+      <c r="D202" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E202" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F197" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A198" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B198" s="12">
-        <v>6</v>
-      </c>
-      <c r="C198" s="12" t="s">
+      <c r="F202" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B203" s="12">
+        <v>6</v>
+      </c>
+      <c r="C203" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D198" s="9" t="s">
+      <c r="D203" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E203" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="F198" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A199" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B199" s="12">
-        <v>6</v>
-      </c>
-      <c r="C199" s="12" t="s">
+      <c r="F203" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B204" s="13">
+        <v>6</v>
+      </c>
+      <c r="C204" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="D199" s="9" t="s">
+      <c r="D204" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E204" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="F199" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A200" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B200" s="12">
-        <v>6</v>
-      </c>
-      <c r="C200" s="12" t="s">
+      <c r="F204" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B205" s="13">
+        <v>6</v>
+      </c>
+      <c r="C205" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D205" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B206" s="13">
+        <v>6</v>
+      </c>
+      <c r="C206" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="D200" s="9" t="s">
+      <c r="D206" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E200" t="s">
+      <c r="E206" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F200" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A201" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B201" s="12">
-        <v>6</v>
-      </c>
-      <c r="C201" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="D201" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E201" t="s">
-        <v>249</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A202" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B202" s="12">
-        <v>6</v>
-      </c>
-      <c r="C202" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="D202" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E202" t="s">
-        <v>270</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A203" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B203" s="12">
-        <v>6</v>
-      </c>
-      <c r="C203" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D203" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E203" t="s">
-        <v>229</v>
-      </c>
-      <c r="F203" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A204" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B204" s="12">
-        <v>6</v>
-      </c>
-      <c r="C204" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="D204" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E204" t="s">
-        <v>250</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A205" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B205" s="12">
-        <v>6</v>
-      </c>
-      <c r="C205" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="D205" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E205" t="s">
-        <v>271</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A206" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B206" s="12">
-        <v>6</v>
-      </c>
-      <c r="C206" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D206" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E206" t="s">
-        <v>230</v>
-      </c>
       <c r="F206" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="12" t="s">
         <v>220</v>
       </c>
@@ -5420,236 +5489,236 @@
         <v>242</v>
       </c>
       <c r="D207" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B208" s="13">
+        <v>6</v>
+      </c>
+      <c r="C208" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D208" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B209" s="13">
+        <v>6</v>
+      </c>
+      <c r="C209" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D209" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B210" s="13">
+        <v>6</v>
+      </c>
+      <c r="C210" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D210" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B211" s="12">
+        <v>6</v>
+      </c>
+      <c r="C211" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D211" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B212" s="13">
+        <v>6</v>
+      </c>
+      <c r="C212" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D212" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B213" s="13">
+        <v>6</v>
+      </c>
+      <c r="C213" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D213" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B214" s="13">
+        <v>6</v>
+      </c>
+      <c r="C214" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D214" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E214" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B215" s="12">
+        <v>6</v>
+      </c>
+      <c r="C215" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D215" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E215" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="F207" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A208" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B208" s="12">
-        <v>6</v>
-      </c>
-      <c r="C208" s="12" t="s">
+      <c r="F215" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B216" s="13">
+        <v>6</v>
+      </c>
+      <c r="C216" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="D208" s="9" t="s">
+      <c r="D216" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E208" t="s">
+      <c r="E216" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="F208" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A209" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B209" s="12">
-        <v>6</v>
-      </c>
-      <c r="C209" s="12" t="s">
+      <c r="F216" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B217" s="13">
+        <v>6</v>
+      </c>
+      <c r="C217" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D217" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B218" s="13">
+        <v>6</v>
+      </c>
+      <c r="C218" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="D209" s="9" t="s">
+      <c r="D218" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E209" t="s">
+      <c r="E218" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F209" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A210" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B210" s="12">
-        <v>6</v>
-      </c>
-      <c r="C210" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="D210" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E210" t="s">
-        <v>252</v>
-      </c>
-      <c r="F210" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A211" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B211" s="12">
-        <v>6</v>
-      </c>
-      <c r="C211" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="D211" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E211" t="s">
-        <v>273</v>
-      </c>
-      <c r="F211" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A212" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B212" s="12">
-        <v>6</v>
-      </c>
-      <c r="C212" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D212" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E212" t="s">
-        <v>232</v>
-      </c>
-      <c r="F212" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A213" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B213" s="12">
-        <v>6</v>
-      </c>
-      <c r="C213" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="D213" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E213" t="s">
-        <v>253</v>
-      </c>
-      <c r="F213" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A214" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B214" s="12">
-        <v>6</v>
-      </c>
-      <c r="C214" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="D214" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E214" t="s">
-        <v>274</v>
-      </c>
-      <c r="F214" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A215" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B215" s="12">
-        <v>6</v>
-      </c>
-      <c r="C215" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D215" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E215" t="s">
-        <v>233</v>
-      </c>
-      <c r="F215" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A216" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B216" s="12">
-        <v>6</v>
-      </c>
-      <c r="C216" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="D216" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E216" t="s">
-        <v>254</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A217" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B217" s="12">
-        <v>6</v>
-      </c>
-      <c r="C217" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="D217" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E217" t="s">
-        <v>275</v>
-      </c>
-      <c r="F217" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A218" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B218" s="12">
-        <v>6</v>
-      </c>
-      <c r="C218" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D218" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E218" t="s">
-        <v>234</v>
-      </c>
       <c r="F218" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="12" t="s">
         <v>220</v>
       </c>
@@ -5660,236 +5729,236 @@
         <v>242</v>
       </c>
       <c r="D219" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220" s="13">
+        <v>6</v>
+      </c>
+      <c r="C220" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D220" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221" s="13">
+        <v>6</v>
+      </c>
+      <c r="C221" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D221" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B222" s="13">
+        <v>6</v>
+      </c>
+      <c r="C222" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D222" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B223" s="12">
+        <v>6</v>
+      </c>
+      <c r="C223" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D223" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B224" s="13">
+        <v>6</v>
+      </c>
+      <c r="C224" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D224" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B225" s="13">
+        <v>6</v>
+      </c>
+      <c r="C225" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D225" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B226" s="13">
+        <v>6</v>
+      </c>
+      <c r="C226" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D226" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B227" s="12">
+        <v>6</v>
+      </c>
+      <c r="C227" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D227" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B228" s="13">
+        <v>6</v>
+      </c>
+      <c r="C228" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D228" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B229" s="13">
+        <v>6</v>
+      </c>
+      <c r="C229" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D229" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B230" s="13">
+        <v>6</v>
+      </c>
+      <c r="C230" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D230" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E219" t="s">
-        <v>255</v>
-      </c>
-      <c r="F219" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A220" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B220" s="12">
-        <v>6</v>
-      </c>
-      <c r="C220" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="D220" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E220" t="s">
-        <v>276</v>
-      </c>
-      <c r="F220" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A221" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B221" s="12">
-        <v>6</v>
-      </c>
-      <c r="C221" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D221" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E221" t="s">
-        <v>235</v>
-      </c>
-      <c r="F221" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A222" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B222" s="12">
-        <v>6</v>
-      </c>
-      <c r="C222" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="D222" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E222" t="s">
-        <v>256</v>
-      </c>
-      <c r="F222" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A223" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B223" s="12">
-        <v>6</v>
-      </c>
-      <c r="C223" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="D223" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E223" t="s">
-        <v>277</v>
-      </c>
-      <c r="F223" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A224" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B224" s="12">
-        <v>6</v>
-      </c>
-      <c r="C224" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D224" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E224" t="s">
-        <v>236</v>
-      </c>
-      <c r="F224" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A225" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B225" s="12">
-        <v>6</v>
-      </c>
-      <c r="C225" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="D225" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E225" t="s">
-        <v>257</v>
-      </c>
-      <c r="F225" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A226" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B226" s="12">
-        <v>6</v>
-      </c>
-      <c r="C226" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="D226" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E226" t="s">
-        <v>278</v>
-      </c>
-      <c r="F226" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A227" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B227" s="12">
-        <v>6</v>
-      </c>
-      <c r="C227" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D227" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E227" t="s">
-        <v>237</v>
-      </c>
-      <c r="F227" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A228" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B228" s="12">
-        <v>6</v>
-      </c>
-      <c r="C228" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="D228" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E228" t="s">
-        <v>258</v>
-      </c>
-      <c r="F228" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A229" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B229" s="12">
-        <v>6</v>
-      </c>
-      <c r="C229" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="D229" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E229" t="s">
-        <v>279</v>
-      </c>
-      <c r="F229" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A230" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B230" s="12">
-        <v>6</v>
-      </c>
-      <c r="C230" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D230" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E230" t="s">
-        <v>238</v>
+      <c r="E230" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="12" t="s">
         <v>220</v>
       </c>
@@ -5900,212 +5969,612 @@
         <v>242</v>
       </c>
       <c r="D231" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B232" s="13">
+        <v>6</v>
+      </c>
+      <c r="C232" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D232" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B233" s="13">
+        <v>6</v>
+      </c>
+      <c r="C233" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D233" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B234" s="13">
+        <v>6</v>
+      </c>
+      <c r="C234" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D234" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B235" s="12">
+        <v>6</v>
+      </c>
+      <c r="C235" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D235" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B236" s="13">
+        <v>6</v>
+      </c>
+      <c r="C236" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D236" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B237" s="13">
+        <v>6</v>
+      </c>
+      <c r="C237" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D237" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B238" s="13">
+        <v>6</v>
+      </c>
+      <c r="C238" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D238" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B239" s="12">
+        <v>6</v>
+      </c>
+      <c r="C239" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D239" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B240" s="13">
+        <v>6</v>
+      </c>
+      <c r="C240" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D240" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B241" s="13">
+        <v>6</v>
+      </c>
+      <c r="C241" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D241" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B242" s="13">
+        <v>6</v>
+      </c>
+      <c r="C242" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D242" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B243" s="12">
+        <v>6</v>
+      </c>
+      <c r="C243" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D243" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B244" s="13">
+        <v>6</v>
+      </c>
+      <c r="C244" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D244" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B245" s="13">
+        <v>6</v>
+      </c>
+      <c r="C245" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D245" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B246" s="13">
+        <v>6</v>
+      </c>
+      <c r="C246" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D246" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E231" t="s">
+      <c r="E246" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B247" s="12">
+        <v>6</v>
+      </c>
+      <c r="C247" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D247" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E247" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F231" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A232" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B232" s="12">
-        <v>6</v>
-      </c>
-      <c r="C232" s="12" t="s">
+      <c r="F247" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B248" s="13">
+        <v>6</v>
+      </c>
+      <c r="C248" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="D232" s="9" t="s">
+      <c r="D248" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E232" t="s">
+      <c r="E248" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F232" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A233" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B233" s="12">
-        <v>6</v>
-      </c>
-      <c r="C233" s="12" t="s">
+      <c r="F248" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B249" s="13">
+        <v>6</v>
+      </c>
+      <c r="C249" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D249" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B250" s="13">
+        <v>6</v>
+      </c>
+      <c r="C250" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="D233" s="9" t="s">
+      <c r="D250" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E233" t="s">
+      <c r="E250" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F233" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A234" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B234" s="12">
-        <v>6</v>
-      </c>
-      <c r="C234" s="12" t="s">
+      <c r="F250" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B251" s="12">
+        <v>6</v>
+      </c>
+      <c r="C251" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D234" s="9" t="s">
+      <c r="D251" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E234" t="s">
+      <c r="E251" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F234" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A235" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B235" s="12">
-        <v>6</v>
-      </c>
-      <c r="C235" s="12" t="s">
+      <c r="F251" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B252" s="13">
+        <v>6</v>
+      </c>
+      <c r="C252" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="D235" s="9" t="s">
+      <c r="D252" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E235" t="s">
+      <c r="E252" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F235" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A236" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B236" s="12">
-        <v>6</v>
-      </c>
-      <c r="C236" s="12" t="s">
+      <c r="F252" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B253" s="13">
+        <v>6</v>
+      </c>
+      <c r="C253" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D253" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B254" s="13">
+        <v>6</v>
+      </c>
+      <c r="C254" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="D236" s="9" t="s">
+      <c r="D254" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E236" t="s">
+      <c r="E254" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F236" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A237" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B237" s="12">
-        <v>6</v>
-      </c>
-      <c r="C237" s="12" t="s">
+      <c r="F254" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B255" s="12">
+        <v>6</v>
+      </c>
+      <c r="C255" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D237" s="9" t="s">
+      <c r="D255" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E237" t="s">
+      <c r="E255" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F237" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B238" s="12">
-        <v>6</v>
-      </c>
-      <c r="C238" s="12" t="s">
+      <c r="F255" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B256" s="13">
+        <v>6</v>
+      </c>
+      <c r="C256" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="D238" s="9" t="s">
+      <c r="D256" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E238" s="1" t="s">
+      <c r="E256" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F238" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A239" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B239" s="12">
-        <v>6</v>
-      </c>
-      <c r="C239" s="12" t="s">
+      <c r="F256" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B257" s="13">
+        <v>6</v>
+      </c>
+      <c r="C257" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D257" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B258" s="13">
+        <v>6</v>
+      </c>
+      <c r="C258" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="D239" s="9" t="s">
+      <c r="D258" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E239" t="s">
+      <c r="E258" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F239" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A240" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B240" s="12">
-        <v>6</v>
-      </c>
-      <c r="C240" s="12" t="s">
+      <c r="F258" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B259" s="12">
+        <v>6</v>
+      </c>
+      <c r="C259" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D240" s="9" t="s">
+      <c r="D259" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E240" t="s">
+      <c r="E259" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F240" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A241" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B241" s="12">
-        <v>6</v>
-      </c>
-      <c r="C241" s="12" t="s">
+      <c r="F259" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B260" s="13">
+        <v>6</v>
+      </c>
+      <c r="C260" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="D241" s="9" t="s">
+      <c r="D260" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E241" t="s">
+      <c r="E260" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F241" s="1" t="s">
+      <c r="F260" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B261" s="13">
+        <v>6</v>
+      </c>
+      <c r="C261" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D261" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F261" s="1" t="s">
         <v>69</v>
       </c>
     </row>

--- a/refair-server/datasets/few shot dataset/FSDataset.xlsx
+++ b/refair-server/datasets/few shot dataset/FSDataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morel\Desktop\Refair\ReFair-App\refair-server\datasets\few shot dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EFBE13-4D75-47E4-9B93-65D9E5EBFE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F85927B-4F7E-468F-BFA0-BCA2F5A88487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80773445-FB61-4F04-A882-1600FD96C55A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="326">
   <si>
     <t>Domain cluster</t>
   </si>
@@ -951,6 +951,69 @@
   </si>
   <si>
     <t>As a healthcare provider, I want to utilize word embedding techniques to analyze electronic health records (EHRs) and extract meaningful semantic relationships between medical terminologies and patient conditions, improving information retrieval and clinical decision support systems.</t>
+  </si>
+  <si>
+    <t>Medicine</t>
+  </si>
+  <si>
+    <t>As a medical researcher, I want to apply adversarial learning techniques to analyze medical imaging data, so that I can identify and mitigate potential vulnerabilities and ensure the robustness of diagnostic models against adversarial attacks.</t>
+  </si>
+  <si>
+    <t>As a medical researcher, I want to apply CNNs to analyze EEG data and identify patterns indicative of neurological disorders, so that I can assist in early diagnosis and intervention strategies for patients with conditions like epilepsy or Alzheimer's disease.</t>
+  </si>
+  <si>
+    <t>As a medical researcher, I want to deploy a conversational agent for medical students to practice clinical case simulations and receive feedback on diagnostic reasoning and treatment planning, so that I can enhance medical training and competency development.</t>
+  </si>
+  <si>
+    <t>As a medical researcher, I want to utilize decision tree models to analyze patient satisfaction survey data and identify key factors influencing patient experience, so that I can implement quality improvement initiatives to enhance overall patient care and satisfaction.</t>
+  </si>
+  <si>
+    <t>As a medical researcher, I want to use document classification algorithms to categorize medical research papers based on disease types and treatment outcomes, so that I can quickly access relevant literature for evidence-based medicine.</t>
+  </si>
+  <si>
+    <t>As a medical researcher, I want to develop entity extraction models to automatically identify and extract key medical entities (e.g., diseases, medications, symptoms) from clinical notes and patient records, so that I can build comprehensive patient profiles for personalized treatment planning.</t>
+  </si>
+  <si>
+    <t>As a medical researcher, I want to use feature selection algorithms to identify clinical variables (e.g., patient demographics, comorbidities) that significantly impact treatment response in cancer patients, so that I can personalize treatment plans and improve patient outcomes.</t>
+  </si>
+  <si>
+    <t>As a medical researcher, I want to handle imbalanced datasets in predictive models for rare diseases to ensure accurate early detection and timely intervention, so that I can improve patient prognosis and treatment outcomes.</t>
+  </si>
+  <si>
+    <t>As a medical researcher, I want to utilize keyword extraction techniques to analyze patient reviews and feedback regarding healthcare services, extracting key themes and concerns to improve patient satisfaction and quality of care in medical facilities.</t>
+  </si>
+  <si>
+    <t>As a medical researcher, I want to implement k-nearest neighbor algorithms to predict patient outcomes based on similar cases in the electronic health records, so that I can tailor personalized treatment plans and improve patient care management.</t>
+  </si>
+  <si>
+    <t>As a medical researcher, I want to implement a multi-label classification system to classify medical images into multiple categories of abnormalities (e.g., tumors, fractures, inflammation), so that I can assist radiologists in comprehensive diagnosis and treatment planning.</t>
+  </si>
+  <si>
+    <t>As a medical researcher, I want to use a neural network architecture to analyze patient ECG data and predict the risk of cardiac events such as arrhythmias or myocardial infarctions, so that I can implement timely preventive measures and improve patient outcomes.</t>
+  </si>
+  <si>
+    <t>As a medical researcher, I want to utilize random forest algorithms to analyze electronic health records and predict patient outcomes such as hospital readmission or mortality, so that I can identify at-risk patients and improve care management strategies.</t>
+  </si>
+  <si>
+    <t>As a medical researcher, I want to develop a semantic similarity model to compare clinical notes and identify similarities in patient symptoms across different medical specialties, so that I can facilitate interdisciplinary collaboration and holistic patient care.</t>
+  </si>
+  <si>
+    <t>As a medical researcher, I want to use sentiment analysis on social media posts related to mental health conditions to identify trends and public perceptions, so that I can develop targeted mental health awareness campaigns and interventions.</t>
+  </si>
+  <si>
+    <t>As a medical researcher, I want to develop a speech to text system for transcribing patient-doctor consultations accurately, so that I can facilitate comprehensive documentation of medical histories and treatment discussions.</t>
+  </si>
+  <si>
+    <t>As a medical researcher, I want to develop a text categorization system to classify patient electronic health records into different disease categories (e.g., cardiovascular diseases, respiratory disorders), so that I can facilitate epidemiological studies and clinical research</t>
+  </si>
+  <si>
+    <t>As a medical researcher, I want to use unsupervised clustering algorithms to group patient genomic profiles based on shared genetic mutations, so that I can identify genetic subtypes of diseases and personalize treatment approaches in precision medicine.</t>
+  </si>
+  <si>
+    <t>As a medical researcher, I want to develop a voice recognition system to transcribe patient-doctor consultations accurately in real-time, so that I can enhance documentation efficiency and ensure comprehensive medical records.</t>
+  </si>
+  <si>
+    <t>As a medical researcher, I want to apply word embedding techniques to analyze electronic health record narratives and extract meaningful clinical insights (e.g., disease progression markers, treatment effectiveness), so that I can support clinical decision-making and improve patient outcomes.</t>
   </si>
 </sst>
 </file>
@@ -1403,10 +1466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DF0B04-8323-4309-B759-D1CDDA1FBB0E}">
-  <dimension ref="A1:F261"/>
+  <dimension ref="A1:F281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A183" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F261" sqref="F261:F281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1454,6 +1517,9 @@
       <c r="E2" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -1471,6 +1537,9 @@
       <c r="E3" s="1" t="s">
         <v>200</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
@@ -1488,6 +1557,9 @@
       <c r="E4" s="1" t="s">
         <v>180</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -1505,6 +1577,9 @@
       <c r="E5" s="1" t="s">
         <v>201</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
@@ -1522,6 +1597,9 @@
       <c r="E6" s="1" t="s">
         <v>181</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -1539,6 +1617,9 @@
       <c r="E7" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -1556,6 +1637,9 @@
       <c r="E8" s="1" t="s">
         <v>182</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -1573,6 +1657,9 @@
       <c r="E9" s="1" t="s">
         <v>203</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
@@ -1590,6 +1677,9 @@
       <c r="E10" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="F10" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
@@ -1607,6 +1697,9 @@
       <c r="E11" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
@@ -1624,6 +1717,9 @@
       <c r="E12" s="1" t="s">
         <v>184</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
@@ -1641,6 +1737,9 @@
       <c r="E13" s="1" t="s">
         <v>205</v>
       </c>
+      <c r="F13" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
@@ -1658,6 +1757,9 @@
       <c r="E14" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="F14" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
@@ -1675,6 +1777,9 @@
       <c r="E15" s="1" t="s">
         <v>206</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
@@ -1692,6 +1797,9 @@
       <c r="E16" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="F16" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
@@ -1709,6 +1817,9 @@
       <c r="E17" s="1" t="s">
         <v>207</v>
       </c>
+      <c r="F17" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
@@ -1726,6 +1837,9 @@
       <c r="E18" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="F18" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
@@ -1743,6 +1857,9 @@
       <c r="E19" s="1" t="s">
         <v>208</v>
       </c>
+      <c r="F19" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
@@ -1760,6 +1877,9 @@
       <c r="E20" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="F20" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
@@ -1777,6 +1897,9 @@
       <c r="E21" s="1" t="s">
         <v>209</v>
       </c>
+      <c r="F21" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
@@ -5066,53 +5189,53 @@
         <v>6</v>
       </c>
       <c r="C186" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D186" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B187" s="13">
+        <v>6</v>
+      </c>
+      <c r="C187" s="13" t="s">
         <v>221</v>
-      </c>
-      <c r="D186" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B187" s="12">
-        <v>6</v>
-      </c>
-      <c r="C187" s="12" t="s">
-        <v>242</v>
       </c>
       <c r="D187" s="9" t="s">
         <v>43</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B188" s="13">
-        <v>6</v>
-      </c>
-      <c r="C188" s="13" t="s">
-        <v>263</v>
+      <c r="A188" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B188" s="12">
+        <v>6</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="D188" s="9" t="s">
         <v>43</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>69</v>
@@ -5126,13 +5249,13 @@
         <v>6</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="D189" s="9" t="s">
         <v>43</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>69</v>
@@ -5146,33 +5269,33 @@
         <v>6</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>224</v>
+        <v>286</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B191" s="12">
-        <v>6</v>
-      </c>
-      <c r="C191" s="12" t="s">
-        <v>242</v>
+      <c r="A191" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B191" s="13">
+        <v>6</v>
+      </c>
+      <c r="C191" s="13" t="s">
+        <v>305</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>245</v>
+        <v>307</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>69</v>
@@ -5186,33 +5309,33 @@
         <v>6</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="D192" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B193" s="13">
-        <v>6</v>
-      </c>
-      <c r="C193" s="13" t="s">
-        <v>284</v>
+      <c r="A193" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B193" s="12">
+        <v>6</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="D193" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>69</v>
@@ -5226,33 +5349,33 @@
         <v>6</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>225</v>
+        <v>266</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B195" s="12">
-        <v>6</v>
-      </c>
-      <c r="C195" s="12" t="s">
-        <v>242</v>
+      <c r="A195" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B195" s="13">
+        <v>6</v>
+      </c>
+      <c r="C195" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>69</v>
@@ -5266,13 +5389,13 @@
         <v>6</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>69</v>
@@ -5286,53 +5409,53 @@
         <v>6</v>
       </c>
       <c r="C197" s="13" t="s">
-        <v>284</v>
+        <v>221</v>
       </c>
       <c r="D197" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>288</v>
+        <v>225</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B198" s="13">
-        <v>6</v>
-      </c>
-      <c r="C198" s="13" t="s">
-        <v>221</v>
+      <c r="A198" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B198" s="12">
+        <v>6</v>
+      </c>
+      <c r="C198" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B199" s="12">
-        <v>6</v>
-      </c>
-      <c r="C199" s="12" t="s">
-        <v>242</v>
+      <c r="A199" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B199" s="13">
+        <v>6</v>
+      </c>
+      <c r="C199" s="13" t="s">
+        <v>263</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>69</v>
@@ -5346,13 +5469,13 @@
         <v>6</v>
       </c>
       <c r="C200" s="13" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>69</v>
@@ -5366,13 +5489,13 @@
         <v>6</v>
       </c>
       <c r="C201" s="13" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>69</v>
@@ -5389,10 +5512,10 @@
         <v>221</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>69</v>
@@ -5409,10 +5532,10 @@
         <v>242</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>69</v>
@@ -5429,10 +5552,10 @@
         <v>263</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>69</v>
@@ -5449,10 +5572,10 @@
         <v>284</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>69</v>
@@ -5466,53 +5589,53 @@
         <v>6</v>
       </c>
       <c r="C206" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D206" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B207" s="13">
+        <v>6</v>
+      </c>
+      <c r="C207" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="D206" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F206" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B207" s="12">
-        <v>6</v>
-      </c>
-      <c r="C207" s="12" t="s">
+      <c r="D207" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B208" s="12">
+        <v>6</v>
+      </c>
+      <c r="C208" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D207" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F207" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B208" s="13">
-        <v>6</v>
-      </c>
-      <c r="C208" s="13" t="s">
-        <v>263</v>
-      </c>
       <c r="D208" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>69</v>
@@ -5526,13 +5649,13 @@
         <v>6</v>
       </c>
       <c r="C209" s="13" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>69</v>
@@ -5546,33 +5669,33 @@
         <v>6</v>
       </c>
       <c r="C210" s="13" t="s">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>229</v>
+        <v>290</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B211" s="12">
-        <v>6</v>
-      </c>
-      <c r="C211" s="12" t="s">
-        <v>242</v>
+      <c r="A211" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B211" s="13">
+        <v>6</v>
+      </c>
+      <c r="C211" s="13" t="s">
+        <v>305</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>250</v>
+        <v>311</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>69</v>
@@ -5586,33 +5709,33 @@
         <v>6</v>
       </c>
       <c r="C212" s="13" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>271</v>
+        <v>228</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B213" s="13">
-        <v>6</v>
-      </c>
-      <c r="C213" s="13" t="s">
-        <v>284</v>
+      <c r="A213" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B213" s="12">
+        <v>6</v>
+      </c>
+      <c r="C213" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="D213" s="9" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>69</v>
@@ -5626,33 +5749,33 @@
         <v>6</v>
       </c>
       <c r="C214" s="13" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B215" s="12">
-        <v>6</v>
-      </c>
-      <c r="C215" s="12" t="s">
-        <v>242</v>
+      <c r="A215" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B215" s="13">
+        <v>6</v>
+      </c>
+      <c r="C215" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>69</v>
@@ -5666,13 +5789,13 @@
         <v>6</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>69</v>
@@ -5686,53 +5809,53 @@
         <v>6</v>
       </c>
       <c r="C217" s="13" t="s">
-        <v>284</v>
+        <v>221</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>293</v>
+        <v>229</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B218" s="13">
-        <v>6</v>
-      </c>
-      <c r="C218" s="13" t="s">
-        <v>221</v>
+      <c r="A218" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B218" s="12">
+        <v>6</v>
+      </c>
+      <c r="C218" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B219" s="12">
-        <v>6</v>
-      </c>
-      <c r="C219" s="12" t="s">
-        <v>242</v>
+      <c r="A219" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B219" s="13">
+        <v>6</v>
+      </c>
+      <c r="C219" s="13" t="s">
+        <v>263</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>69</v>
@@ -5746,13 +5869,13 @@
         <v>6</v>
       </c>
       <c r="C220" s="13" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>69</v>
@@ -5766,13 +5889,13 @@
         <v>6</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>69</v>
@@ -5789,10 +5912,10 @@
         <v>221</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>69</v>
@@ -5809,10 +5932,10 @@
         <v>242</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>69</v>
@@ -5829,10 +5952,10 @@
         <v>263</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>69</v>
@@ -5849,10 +5972,10 @@
         <v>284</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>69</v>
@@ -5866,53 +5989,53 @@
         <v>6</v>
       </c>
       <c r="C226" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D226" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B227" s="13">
+        <v>6</v>
+      </c>
+      <c r="C227" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="D226" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F226" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B227" s="12">
-        <v>6</v>
-      </c>
-      <c r="C227" s="12" t="s">
+      <c r="D227" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B228" s="12">
+        <v>6</v>
+      </c>
+      <c r="C228" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D227" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F227" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B228" s="13">
-        <v>6</v>
-      </c>
-      <c r="C228" s="13" t="s">
-        <v>263</v>
-      </c>
       <c r="D228" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>69</v>
@@ -5926,13 +6049,13 @@
         <v>6</v>
       </c>
       <c r="C229" s="13" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>69</v>
@@ -5946,33 +6069,33 @@
         <v>6</v>
       </c>
       <c r="C230" s="13" t="s">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>234</v>
+        <v>294</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B231" s="12">
-        <v>6</v>
-      </c>
-      <c r="C231" s="12" t="s">
-        <v>242</v>
+      <c r="A231" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B231" s="13">
+        <v>6</v>
+      </c>
+      <c r="C231" s="13" t="s">
+        <v>305</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>255</v>
+        <v>315</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>69</v>
@@ -5986,33 +6109,33 @@
         <v>6</v>
       </c>
       <c r="C232" s="13" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B233" s="13">
-        <v>6</v>
-      </c>
-      <c r="C233" s="13" t="s">
-        <v>284</v>
+      <c r="A233" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B233" s="12">
+        <v>6</v>
+      </c>
+      <c r="C233" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>297</v>
+        <v>253</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>69</v>
@@ -6026,33 +6149,33 @@
         <v>6</v>
       </c>
       <c r="C234" s="13" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B235" s="12">
-        <v>6</v>
-      </c>
-      <c r="C235" s="12" t="s">
-        <v>242</v>
+      <c r="A235" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B235" s="13">
+        <v>6</v>
+      </c>
+      <c r="C235" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="D235" s="9" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>69</v>
@@ -6066,13 +6189,13 @@
         <v>6</v>
       </c>
       <c r="C236" s="13" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="D236" s="9" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>69</v>
@@ -6086,53 +6209,53 @@
         <v>6</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>284</v>
+        <v>221</v>
       </c>
       <c r="D237" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>298</v>
+        <v>233</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B238" s="13">
-        <v>6</v>
-      </c>
-      <c r="C238" s="13" t="s">
-        <v>221</v>
+      <c r="A238" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B238" s="12">
+        <v>6</v>
+      </c>
+      <c r="C238" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="D238" s="9" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B239" s="12">
-        <v>6</v>
-      </c>
-      <c r="C239" s="12" t="s">
-        <v>242</v>
+      <c r="A239" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B239" s="13">
+        <v>6</v>
+      </c>
+      <c r="C239" s="13" t="s">
+        <v>263</v>
       </c>
       <c r="D239" s="9" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>69</v>
@@ -6146,13 +6269,13 @@
         <v>6</v>
       </c>
       <c r="C240" s="13" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="D240" s="9" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>69</v>
@@ -6166,13 +6289,13 @@
         <v>6</v>
       </c>
       <c r="C241" s="13" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>69</v>
@@ -6189,10 +6312,10 @@
         <v>221</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>69</v>
@@ -6209,10 +6332,10 @@
         <v>242</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>69</v>
@@ -6229,10 +6352,10 @@
         <v>263</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>69</v>
@@ -6249,10 +6372,10 @@
         <v>284</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>69</v>
@@ -6266,53 +6389,53 @@
         <v>6</v>
       </c>
       <c r="C246" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D246" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B247" s="13">
+        <v>6</v>
+      </c>
+      <c r="C247" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="D246" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F246" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B247" s="12">
-        <v>6</v>
-      </c>
-      <c r="C247" s="12" t="s">
+      <c r="D247" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B248" s="12">
+        <v>6</v>
+      </c>
+      <c r="C248" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D247" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F247" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B248" s="13">
-        <v>6</v>
-      </c>
-      <c r="C248" s="13" t="s">
-        <v>263</v>
-      </c>
       <c r="D248" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>69</v>
@@ -6326,13 +6449,13 @@
         <v>6</v>
       </c>
       <c r="C249" s="13" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>69</v>
@@ -6345,34 +6468,34 @@
       <c r="B250" s="13">
         <v>6</v>
       </c>
-      <c r="C250" s="12" t="s">
-        <v>221</v>
+      <c r="C250" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>239</v>
+        <v>298</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B251" s="12">
-        <v>6</v>
-      </c>
-      <c r="C251" s="12" t="s">
-        <v>242</v>
+      <c r="A251" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B251" s="13">
+        <v>6</v>
+      </c>
+      <c r="C251" s="13" t="s">
+        <v>305</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>260</v>
+        <v>319</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>69</v>
@@ -6386,33 +6509,33 @@
         <v>6</v>
       </c>
       <c r="C252" s="13" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="D252" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>281</v>
+        <v>236</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B253" s="13">
-        <v>6</v>
-      </c>
-      <c r="C253" s="13" t="s">
-        <v>284</v>
+      <c r="A253" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B253" s="12">
+        <v>6</v>
+      </c>
+      <c r="C253" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="D253" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>302</v>
+        <v>257</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>69</v>
@@ -6426,33 +6549,33 @@
         <v>6</v>
       </c>
       <c r="C254" s="13" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="D254" s="9" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B255" s="12">
-        <v>6</v>
-      </c>
-      <c r="C255" s="12" t="s">
-        <v>242</v>
+      <c r="A255" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B255" s="13">
+        <v>6</v>
+      </c>
+      <c r="C255" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>69</v>
@@ -6466,13 +6589,13 @@
         <v>6</v>
       </c>
       <c r="C256" s="13" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="D256" s="9" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>69</v>
@@ -6486,53 +6609,53 @@
         <v>6</v>
       </c>
       <c r="C257" s="13" t="s">
-        <v>284</v>
+        <v>221</v>
       </c>
       <c r="D257" s="9" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>303</v>
+        <v>237</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B258" s="13">
-        <v>6</v>
-      </c>
-      <c r="C258" s="13" t="s">
-        <v>221</v>
+      <c r="A258" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B258" s="12">
+        <v>6</v>
+      </c>
+      <c r="C258" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="D258" s="9" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B259" s="12">
-        <v>6</v>
-      </c>
-      <c r="C259" s="12" t="s">
-        <v>242</v>
+      <c r="A259" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B259" s="13">
+        <v>6</v>
+      </c>
+      <c r="C259" s="13" t="s">
+        <v>263</v>
       </c>
       <c r="D259" s="9" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>69</v>
@@ -6546,13 +6669,13 @@
         <v>6</v>
       </c>
       <c r="C260" s="13" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="D260" s="9" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>69</v>
@@ -6566,15 +6689,415 @@
         <v>6</v>
       </c>
       <c r="C261" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D261" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B262" s="13">
+        <v>6</v>
+      </c>
+      <c r="C262" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D262" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B263" s="12">
+        <v>6</v>
+      </c>
+      <c r="C263" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D263" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B264" s="13">
+        <v>6</v>
+      </c>
+      <c r="C264" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D264" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B265" s="13">
+        <v>6</v>
+      </c>
+      <c r="C265" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="D261" s="9" t="s">
+      <c r="D265" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B266" s="13">
+        <v>6</v>
+      </c>
+      <c r="C266" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D266" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B267" s="13">
+        <v>6</v>
+      </c>
+      <c r="C267" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D267" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B268" s="12">
+        <v>6</v>
+      </c>
+      <c r="C268" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D268" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B269" s="13">
+        <v>6</v>
+      </c>
+      <c r="C269" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D269" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B270" s="13">
+        <v>6</v>
+      </c>
+      <c r="C270" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D270" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B271" s="13">
+        <v>6</v>
+      </c>
+      <c r="C271" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D271" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B272" s="13">
+        <v>6</v>
+      </c>
+      <c r="C272" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D272" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B273" s="12">
+        <v>6</v>
+      </c>
+      <c r="C273" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D273" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B274" s="13">
+        <v>6</v>
+      </c>
+      <c r="C274" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D274" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B275" s="13">
+        <v>6</v>
+      </c>
+      <c r="C275" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D275" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B276" s="13">
+        <v>6</v>
+      </c>
+      <c r="C276" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D276" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B277" s="13">
+        <v>6</v>
+      </c>
+      <c r="C277" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D277" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E261" s="1" t="s">
+      <c r="E277" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B278" s="12">
+        <v>6</v>
+      </c>
+      <c r="C278" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D278" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B279" s="13">
+        <v>6</v>
+      </c>
+      <c r="C279" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D279" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B280" s="13">
+        <v>6</v>
+      </c>
+      <c r="C280" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D280" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E280" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F261" s="1" t="s">
+      <c r="F280" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B281" s="13">
+        <v>6</v>
+      </c>
+      <c r="C281" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D281" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F281" s="1" t="s">
         <v>69</v>
       </c>
     </row>

--- a/refair-server/datasets/few shot dataset/FSDataset.xlsx
+++ b/refair-server/datasets/few shot dataset/FSDataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morel\Desktop\Refair\ReFair-App\refair-server\datasets\few shot dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F85927B-4F7E-468F-BFA0-BCA2F5A88487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF237B1-24A3-4916-A1FE-00BC57F13E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80773445-FB61-4F04-A882-1600FD96C55A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="347">
   <si>
     <t>Domain cluster</t>
   </si>
@@ -1014,13 +1014,76 @@
   </si>
   <si>
     <t>As a medical researcher, I want to apply word embedding techniques to analyze electronic health record narratives and extract meaningful clinical insights (e.g., disease progression markers, treatment effectiveness), so that I can support clinical decision-making and improve patient outcomes.</t>
+  </si>
+  <si>
+    <t>Nephrology</t>
+  </si>
+  <si>
+    <t>As a nephrologist, I want to employ adversarial learning techniques to detect and mitigate adversarial attacks on medical imaging data used for diagnosing kidney diseases, ensuring the reliability and integrity of diagnostic systems.</t>
+  </si>
+  <si>
+    <t>As a nephrologist, I want to utilize CNN models to predict the risk of acute kidney injury (AKI) in hospitalized patients based on a combination of clinical data and imaging findings, facilitating early intervention and patient management.</t>
+  </si>
+  <si>
+    <t>As a nephrologist, I want to deploy a conversational agent that can provide patients with personalized information about kidney disease management, including diet recommendations and lifestyle changes, to improve patient adherence and outcomes.</t>
+  </si>
+  <si>
+    <t>As a nephrologist, I want to utilize a decision tree model to classify patients into different stages of chronic kidney disease based on their clinical parameters, facilitating targeted interventions and personalized treatment plans.</t>
+  </si>
+  <si>
+    <t>As a nephrologist, I want to implement document classification algorithms to automatically categorize research papers and clinical guidelines related to nephrology, facilitating efficient literature review and evidence-based decision-making.</t>
+  </si>
+  <si>
+    <t>As a nephrologist, I want to employ entity extraction techniques to automatically identify and extract key clinical entities from nephrology patient notes, such as laboratory results (e.g., serum creatinine levels), medications, and comorbidities, enhancing clinical documentation accuracy and efficiency.</t>
+  </si>
+  <si>
+    <t>As a nephrologist, I want to utilize feature selection techniques to analyze electronic health records and identify clinical variables (e.g., medication history, comorbidities) that contribute most to adverse renal outcomes, optimizing predictive models for patient management.</t>
+  </si>
+  <si>
+    <t>As a nephrologist, I want to address class imbalance in patient datasets related to rare kidney diseases, using oversampling and undersampling techniques to improve the detection and classification accuracy of these conditions.</t>
+  </si>
+  <si>
+    <t>As a nephrologist, I want to employ keyword extraction methods to analyze patient feedback forms and surveys related to kidney disease management, extracting recurring themes and patient-reported outcomes to inform quality improvement initiatives in nephrology care.</t>
+  </si>
+  <si>
+    <t>As a nephrologist, I want to use k-Nearest Neighbor (k-NN) algorithms to predict the risk of acute kidney injury (AKI) in hospitalized patients based on similarities to previous AKI cases with similar clinical profiles, enabling early intervention strategies.</t>
+  </si>
+  <si>
+    <t>As a nephrologist, I want to utilize multi-label classification techniques to classify renal biopsy results into multiple histopathological categories (e.g., glomerulonephritis, tubulointerstitial diseases), supporting precise diagnosis and treatment recommendations.</t>
+  </si>
+  <si>
+    <t>As a nephrologist, I want to implement neural networks to analyze high-dimensional genomic data and identify gene expression patterns associated with progressive kidney diseases, facilitating the discovery of novel biomarkers and therapeutic targets.</t>
+  </si>
+  <si>
+    <t>As a nephrologist, I want to develop a random forest model to classify renal biopsy specimens into different pathological categories (e.g., glomerulonephritis, interstitial nephritis) based on histological features, aiding in accurate diagnosis and treatment planning.</t>
+  </si>
+  <si>
+    <t>As a nephrologist, I want to develop semantic similarity algorithms to compare and categorize nephrology research articles based on shared concepts and biomedical terms, facilitating systematic literature reviews and knowledge synthesis.</t>
+  </si>
+  <si>
+    <t>As a nephrologist, I want to develop a sentiment analysis model to analyze social media discussions and patient forums related to kidney transplantation experiences, to gauge patient emotions and concerns post-surgery.</t>
+  </si>
+  <si>
+    <t>As a nephrologist, I want to use speech to text algorithms to transcribe patient-doctor interactions during clinic visits, to streamline documentation processes and ensure comprehensive recording of medical histories and treatment plans.</t>
+  </si>
+  <si>
+    <t>As a nephrologist, I want to develop a text categorization system to classify nephrology research articles into categories such as chronic kidney disease epidemiology, renal replacement therapies, and nephrotoxicity studies, facilitating literature review and research synthesis.</t>
+  </si>
+  <si>
+    <t>As a nephrologist, I want to apply unsupervised clustering algorithms to group patients based on similar clinical profiles and treatment responses, enabling personalized medicine approaches in nephrology care.</t>
+  </si>
+  <si>
+    <t>As a nephrologist, I want to use voice recognition algorithms to transcribe patient-doctor interactions during nephrology clinic visits, ensuring accurate capture of medical histories, treatment discussions, and patient concerns.</t>
+  </si>
+  <si>
+    <t>As a nephrologist, I want to deploy word embedding models to support automated summarization of nephrology research articles and clinical trials, extracting key concepts and findings to aid in evidence-based decision-making and research synthesis.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1052,11 +1115,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1109,7 +1167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1131,7 +1189,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1466,10 +1523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DF0B04-8323-4309-B759-D1CDDA1FBB0E}">
-  <dimension ref="A1:F281"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F261" sqref="F261:F281"/>
+    <sheetView tabSelected="1" topLeftCell="A281" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5105,10 +5162,10 @@
       <c r="A182" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B182" s="13">
-        <v>6</v>
-      </c>
-      <c r="C182" s="13" t="s">
+      <c r="B182" s="12">
+        <v>6</v>
+      </c>
+      <c r="C182" s="12" t="s">
         <v>221</v>
       </c>
       <c r="D182" s="9" t="s">
@@ -5142,13 +5199,13 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B184" s="13">
-        <v>6</v>
-      </c>
-      <c r="C184" s="13" t="s">
+      <c r="A184" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B184" s="12">
+        <v>6</v>
+      </c>
+      <c r="C184" s="12" t="s">
         <v>263</v>
       </c>
       <c r="D184" s="9" t="s">
@@ -5162,13 +5219,13 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B185" s="13">
-        <v>6</v>
-      </c>
-      <c r="C185" s="13" t="s">
+      <c r="A185" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B185" s="12">
+        <v>6</v>
+      </c>
+      <c r="C185" s="12" t="s">
         <v>284</v>
       </c>
       <c r="D185" s="9" t="s">
@@ -5182,13 +5239,13 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B186" s="13">
-        <v>6</v>
-      </c>
-      <c r="C186" s="13" t="s">
+      <c r="A186" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B186" s="12">
+        <v>6</v>
+      </c>
+      <c r="C186" s="12" t="s">
         <v>305</v>
       </c>
       <c r="D186" s="9" t="s">
@@ -5202,20 +5259,20 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B187" s="13">
-        <v>6</v>
-      </c>
-      <c r="C187" s="13" t="s">
-        <v>221</v>
+      <c r="A187" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B187" s="12">
+        <v>6</v>
+      </c>
+      <c r="C187" s="12" t="s">
+        <v>326</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>223</v>
+        <v>327</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>69</v>
@@ -5229,93 +5286,93 @@
         <v>6</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="D188" s="9" t="s">
         <v>43</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B189" s="13">
-        <v>6</v>
-      </c>
-      <c r="C189" s="13" t="s">
-        <v>263</v>
+      <c r="A189" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B189" s="12">
+        <v>6</v>
+      </c>
+      <c r="C189" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="D189" s="9" t="s">
         <v>43</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B190" s="13">
-        <v>6</v>
-      </c>
-      <c r="C190" s="13" t="s">
-        <v>284</v>
+      <c r="A190" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B190" s="12">
+        <v>6</v>
+      </c>
+      <c r="C190" s="12" t="s">
+        <v>263</v>
       </c>
       <c r="D190" s="9" t="s">
         <v>43</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B191" s="13">
-        <v>6</v>
-      </c>
-      <c r="C191" s="13" t="s">
-        <v>305</v>
+      <c r="A191" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B191" s="12">
+        <v>6</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>284</v>
       </c>
       <c r="D191" s="9" t="s">
         <v>43</v>
       </c>
       <c r="E191" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B192" s="12">
+        <v>6</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D192" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E192" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B192" s="13">
-        <v>6</v>
-      </c>
-      <c r="C192" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="D192" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>69</v>
@@ -5329,93 +5386,93 @@
         <v>6</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>242</v>
+        <v>326</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>245</v>
+        <v>328</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B194" s="13">
-        <v>6</v>
-      </c>
-      <c r="C194" s="13" t="s">
-        <v>263</v>
+      <c r="A194" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B194" s="12">
+        <v>6</v>
+      </c>
+      <c r="C194" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="D194" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B195" s="13">
-        <v>6</v>
-      </c>
-      <c r="C195" s="13" t="s">
-        <v>284</v>
+      <c r="A195" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B195" s="12">
+        <v>6</v>
+      </c>
+      <c r="C195" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="D195" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B196" s="13">
-        <v>6</v>
-      </c>
-      <c r="C196" s="13" t="s">
-        <v>305</v>
+      <c r="A196" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B196" s="12">
+        <v>6</v>
+      </c>
+      <c r="C196" s="12" t="s">
+        <v>263</v>
       </c>
       <c r="D196" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B197" s="13">
-        <v>6</v>
-      </c>
-      <c r="C197" s="13" t="s">
-        <v>221</v>
+      <c r="A197" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B197" s="12">
+        <v>6</v>
+      </c>
+      <c r="C197" s="12" t="s">
+        <v>284</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>225</v>
+        <v>287</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>69</v>
@@ -5429,93 +5486,93 @@
         <v>6</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>242</v>
+        <v>305</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>246</v>
+        <v>308</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B199" s="13">
-        <v>6</v>
-      </c>
-      <c r="C199" s="13" t="s">
-        <v>263</v>
+      <c r="A199" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B199" s="12">
+        <v>6</v>
+      </c>
+      <c r="C199" s="12" t="s">
+        <v>326</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>267</v>
+        <v>329</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B200" s="13">
-        <v>6</v>
-      </c>
-      <c r="C200" s="13" t="s">
-        <v>284</v>
+      <c r="A200" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B200" s="12">
+        <v>6</v>
+      </c>
+      <c r="C200" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="D200" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>288</v>
+        <v>225</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B201" s="13">
-        <v>6</v>
-      </c>
-      <c r="C201" s="13" t="s">
-        <v>305</v>
+      <c r="A201" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B201" s="12">
+        <v>6</v>
+      </c>
+      <c r="C201" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="D201" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>309</v>
+        <v>246</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B202" s="13">
-        <v>6</v>
-      </c>
-      <c r="C202" s="13" t="s">
-        <v>221</v>
+      <c r="A202" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B202" s="12">
+        <v>6</v>
+      </c>
+      <c r="C202" s="12" t="s">
+        <v>263</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>69</v>
@@ -5529,93 +5586,93 @@
         <v>6</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>242</v>
+        <v>284</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B204" s="13">
-        <v>6</v>
-      </c>
-      <c r="C204" s="13" t="s">
-        <v>263</v>
+      <c r="A204" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B204" s="12">
+        <v>6</v>
+      </c>
+      <c r="C204" s="12" t="s">
+        <v>305</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B205" s="13">
-        <v>6</v>
-      </c>
-      <c r="C205" s="13" t="s">
-        <v>284</v>
+      <c r="A205" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B205" s="12">
+        <v>6</v>
+      </c>
+      <c r="C205" s="12" t="s">
+        <v>326</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B206" s="13">
-        <v>6</v>
-      </c>
-      <c r="C206" s="13" t="s">
-        <v>305</v>
+      <c r="A206" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B206" s="12">
+        <v>6</v>
+      </c>
+      <c r="C206" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="D206" s="9" t="s">
         <v>46</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>310</v>
+        <v>226</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B207" s="13">
-        <v>6</v>
-      </c>
-      <c r="C207" s="13" t="s">
-        <v>221</v>
+      <c r="A207" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B207" s="12">
+        <v>6</v>
+      </c>
+      <c r="C207" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>69</v>
@@ -5629,93 +5686,93 @@
         <v>6</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="D208" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B209" s="12">
+        <v>6</v>
+      </c>
+      <c r="C209" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="D209" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B210" s="12">
+        <v>6</v>
+      </c>
+      <c r="C210" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D210" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B211" s="12">
+        <v>6</v>
+      </c>
+      <c r="C211" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D211" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B212" s="12">
+        <v>6</v>
+      </c>
+      <c r="C212" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D212" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E208" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F208" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B209" s="13">
-        <v>6</v>
-      </c>
-      <c r="C209" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="D209" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B210" s="13">
-        <v>6</v>
-      </c>
-      <c r="C210" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="D210" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F210" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B211" s="13">
-        <v>6</v>
-      </c>
-      <c r="C211" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="D211" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F211" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B212" s="13">
-        <v>6</v>
-      </c>
-      <c r="C212" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="D212" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="E212" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>69</v>
@@ -5732,90 +5789,90 @@
         <v>242</v>
       </c>
       <c r="D213" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B214" s="13">
-        <v>6</v>
-      </c>
-      <c r="C214" s="13" t="s">
+      <c r="A214" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B214" s="12">
+        <v>6</v>
+      </c>
+      <c r="C214" s="12" t="s">
         <v>263</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B215" s="13">
-        <v>6</v>
-      </c>
-      <c r="C215" s="13" t="s">
+      <c r="A215" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B215" s="12">
+        <v>6</v>
+      </c>
+      <c r="C215" s="12" t="s">
         <v>284</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B216" s="13">
-        <v>6</v>
-      </c>
-      <c r="C216" s="13" t="s">
+      <c r="A216" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B216" s="12">
+        <v>6</v>
+      </c>
+      <c r="C216" s="12" t="s">
         <v>305</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B217" s="13">
-        <v>6</v>
-      </c>
-      <c r="C217" s="13" t="s">
-        <v>221</v>
+      <c r="A217" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B217" s="12">
+        <v>6</v>
+      </c>
+      <c r="C217" s="12" t="s">
+        <v>326</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>229</v>
+        <v>332</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>69</v>
@@ -5829,93 +5886,93 @@
         <v>6</v>
       </c>
       <c r="C218" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D218" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B219" s="12">
+        <v>6</v>
+      </c>
+      <c r="C219" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D218" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F218" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B219" s="13">
-        <v>6</v>
-      </c>
-      <c r="C219" s="13" t="s">
+      <c r="D219" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220" s="12">
+        <v>6</v>
+      </c>
+      <c r="C220" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="D219" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F219" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B220" s="13">
-        <v>6</v>
-      </c>
-      <c r="C220" s="13" t="s">
+      <c r="D220" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221" s="12">
+        <v>6</v>
+      </c>
+      <c r="C221" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="D220" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F220" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B221" s="13">
-        <v>6</v>
-      </c>
-      <c r="C221" s="13" t="s">
+      <c r="D221" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B222" s="12">
+        <v>6</v>
+      </c>
+      <c r="C222" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="D221" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E221" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F221" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B222" s="13">
-        <v>6</v>
-      </c>
-      <c r="C222" s="13" t="s">
-        <v>221</v>
-      </c>
       <c r="D222" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>230</v>
+        <v>312</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>69</v>
@@ -5929,93 +5986,93 @@
         <v>6</v>
       </c>
       <c r="C223" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D223" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B224" s="12">
+        <v>6</v>
+      </c>
+      <c r="C224" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D224" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B225" s="12">
+        <v>6</v>
+      </c>
+      <c r="C225" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D223" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F223" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B224" s="13">
-        <v>6</v>
-      </c>
-      <c r="C224" s="13" t="s">
+      <c r="D225" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B226" s="12">
+        <v>6</v>
+      </c>
+      <c r="C226" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="D224" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="F224" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B225" s="13">
-        <v>6</v>
-      </c>
-      <c r="C225" s="13" t="s">
+      <c r="D226" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B227" s="12">
+        <v>6</v>
+      </c>
+      <c r="C227" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="D225" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F225" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B226" s="13">
-        <v>6</v>
-      </c>
-      <c r="C226" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="D226" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F226" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B227" s="13">
-        <v>6</v>
-      </c>
-      <c r="C227" s="13" t="s">
-        <v>221</v>
-      </c>
       <c r="D227" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>231</v>
+        <v>292</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>69</v>
@@ -6029,93 +6086,93 @@
         <v>6</v>
       </c>
       <c r="C228" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D228" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B229" s="12">
+        <v>6</v>
+      </c>
+      <c r="C229" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D229" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B230" s="12">
+        <v>6</v>
+      </c>
+      <c r="C230" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D230" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B231" s="12">
+        <v>6</v>
+      </c>
+      <c r="C231" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D228" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F228" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B229" s="13">
-        <v>6</v>
-      </c>
-      <c r="C229" s="13" t="s">
+      <c r="D231" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B232" s="12">
+        <v>6</v>
+      </c>
+      <c r="C232" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="D229" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F229" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B230" s="13">
-        <v>6</v>
-      </c>
-      <c r="C230" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="D230" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="F230" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B231" s="13">
-        <v>6</v>
-      </c>
-      <c r="C231" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="D231" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F231" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B232" s="13">
-        <v>6</v>
-      </c>
-      <c r="C232" s="13" t="s">
-        <v>221</v>
-      </c>
       <c r="D232" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>69</v>
@@ -6129,93 +6186,93 @@
         <v>6</v>
       </c>
       <c r="C233" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="D233" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B234" s="12">
+        <v>6</v>
+      </c>
+      <c r="C234" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D234" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B235" s="12">
+        <v>6</v>
+      </c>
+      <c r="C235" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D235" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B236" s="12">
+        <v>6</v>
+      </c>
+      <c r="C236" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D236" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B237" s="12">
+        <v>6</v>
+      </c>
+      <c r="C237" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D233" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F233" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B234" s="13">
-        <v>6</v>
-      </c>
-      <c r="C234" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="D234" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F234" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B235" s="13">
-        <v>6</v>
-      </c>
-      <c r="C235" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="D235" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F235" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B236" s="13">
-        <v>6</v>
-      </c>
-      <c r="C236" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="D236" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F236" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B237" s="13">
-        <v>6</v>
-      </c>
-      <c r="C237" s="13" t="s">
-        <v>221</v>
-      </c>
       <c r="D237" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>69</v>
@@ -6229,93 +6286,93 @@
         <v>6</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="D238" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B239" s="13">
-        <v>6</v>
-      </c>
-      <c r="C239" s="13" t="s">
-        <v>263</v>
+      <c r="A239" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B239" s="12">
+        <v>6</v>
+      </c>
+      <c r="C239" s="12" t="s">
+        <v>284</v>
       </c>
       <c r="D239" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B240" s="13">
-        <v>6</v>
-      </c>
-      <c r="C240" s="13" t="s">
-        <v>284</v>
+      <c r="A240" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B240" s="12">
+        <v>6</v>
+      </c>
+      <c r="C240" s="12" t="s">
+        <v>305</v>
       </c>
       <c r="D240" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B241" s="13">
-        <v>6</v>
-      </c>
-      <c r="C241" s="13" t="s">
-        <v>305</v>
+      <c r="A241" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B241" s="12">
+        <v>6</v>
+      </c>
+      <c r="C241" s="12" t="s">
+        <v>326</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B242" s="13">
-        <v>6</v>
-      </c>
-      <c r="C242" s="13" t="s">
+      <c r="A242" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B242" s="12">
+        <v>6</v>
+      </c>
+      <c r="C242" s="12" t="s">
         <v>221</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>69</v>
@@ -6332,90 +6389,90 @@
         <v>242</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B244" s="13">
-        <v>6</v>
-      </c>
-      <c r="C244" s="13" t="s">
+      <c r="A244" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B244" s="12">
+        <v>6</v>
+      </c>
+      <c r="C244" s="12" t="s">
         <v>263</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B245" s="13">
-        <v>6</v>
-      </c>
-      <c r="C245" s="13" t="s">
+      <c r="A245" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B245" s="12">
+        <v>6</v>
+      </c>
+      <c r="C245" s="12" t="s">
         <v>284</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B246" s="13">
-        <v>6</v>
-      </c>
-      <c r="C246" s="13" t="s">
+      <c r="A246" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B246" s="12">
+        <v>6</v>
+      </c>
+      <c r="C246" s="12" t="s">
         <v>305</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B247" s="13">
-        <v>6</v>
-      </c>
-      <c r="C247" s="13" t="s">
-        <v>221</v>
+      <c r="A247" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B247" s="12">
+        <v>6</v>
+      </c>
+      <c r="C247" s="12" t="s">
+        <v>326</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>235</v>
+        <v>337</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>69</v>
@@ -6429,93 +6486,93 @@
         <v>6</v>
       </c>
       <c r="C248" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D248" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B249" s="12">
+        <v>6</v>
+      </c>
+      <c r="C249" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D248" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F248" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B249" s="13">
-        <v>6</v>
-      </c>
-      <c r="C249" s="13" t="s">
+      <c r="D249" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B250" s="12">
+        <v>6</v>
+      </c>
+      <c r="C250" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="D249" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F249" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B250" s="13">
-        <v>6</v>
-      </c>
-      <c r="C250" s="13" t="s">
+      <c r="D250" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B251" s="12">
+        <v>6</v>
+      </c>
+      <c r="C251" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="D250" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F250" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B251" s="13">
-        <v>6</v>
-      </c>
-      <c r="C251" s="13" t="s">
+      <c r="D251" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B252" s="12">
+        <v>6</v>
+      </c>
+      <c r="C252" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="D251" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F251" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B252" s="13">
-        <v>6</v>
-      </c>
-      <c r="C252" s="13" t="s">
-        <v>221</v>
-      </c>
       <c r="D252" s="9" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>236</v>
+        <v>317</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>69</v>
@@ -6529,93 +6586,93 @@
         <v>6</v>
       </c>
       <c r="C253" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D253" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B254" s="12">
+        <v>6</v>
+      </c>
+      <c r="C254" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D254" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B255" s="12">
+        <v>6</v>
+      </c>
+      <c r="C255" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D253" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F253" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B254" s="13">
-        <v>6</v>
-      </c>
-      <c r="C254" s="13" t="s">
+      <c r="D255" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B256" s="12">
+        <v>6</v>
+      </c>
+      <c r="C256" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="D254" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F254" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B255" s="13">
-        <v>6</v>
-      </c>
-      <c r="C255" s="13" t="s">
+      <c r="D256" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B257" s="12">
+        <v>6</v>
+      </c>
+      <c r="C257" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="D255" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F255" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B256" s="13">
-        <v>6</v>
-      </c>
-      <c r="C256" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="D256" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F256" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B257" s="13">
-        <v>6</v>
-      </c>
-      <c r="C257" s="13" t="s">
-        <v>221</v>
-      </c>
       <c r="D257" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>237</v>
+        <v>297</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>69</v>
@@ -6629,93 +6686,93 @@
         <v>6</v>
       </c>
       <c r="C258" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D258" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B259" s="12">
+        <v>6</v>
+      </c>
+      <c r="C259" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D259" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B260" s="12">
+        <v>6</v>
+      </c>
+      <c r="C260" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D260" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B261" s="12">
+        <v>6</v>
+      </c>
+      <c r="C261" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D258" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F258" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B259" s="13">
-        <v>6</v>
-      </c>
-      <c r="C259" s="13" t="s">
+      <c r="D261" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B262" s="12">
+        <v>6</v>
+      </c>
+      <c r="C262" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="D259" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F259" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B260" s="13">
-        <v>6</v>
-      </c>
-      <c r="C260" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="D260" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F260" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B261" s="13">
-        <v>6</v>
-      </c>
-      <c r="C261" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="D261" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="F261" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B262" s="13">
-        <v>6</v>
-      </c>
-      <c r="C262" s="13" t="s">
-        <v>221</v>
-      </c>
       <c r="D262" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>238</v>
+        <v>277</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>69</v>
@@ -6729,93 +6786,93 @@
         <v>6</v>
       </c>
       <c r="C263" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="D263" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B264" s="12">
+        <v>6</v>
+      </c>
+      <c r="C264" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D264" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B265" s="12">
+        <v>6</v>
+      </c>
+      <c r="C265" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D265" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B266" s="12">
+        <v>6</v>
+      </c>
+      <c r="C266" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D266" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B267" s="12">
+        <v>6</v>
+      </c>
+      <c r="C267" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D263" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F263" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B264" s="13">
-        <v>6</v>
-      </c>
-      <c r="C264" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="D264" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F264" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B265" s="13">
-        <v>6</v>
-      </c>
-      <c r="C265" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="D265" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F265" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B266" s="13">
-        <v>6</v>
-      </c>
-      <c r="C266" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="D266" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F266" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B267" s="13">
-        <v>6</v>
-      </c>
-      <c r="C267" s="12" t="s">
-        <v>221</v>
-      </c>
       <c r="D267" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>69</v>
@@ -6829,93 +6886,93 @@
         <v>6</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="D268" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B269" s="13">
-        <v>6</v>
-      </c>
-      <c r="C269" s="13" t="s">
-        <v>263</v>
+      <c r="A269" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B269" s="12">
+        <v>6</v>
+      </c>
+      <c r="C269" s="12" t="s">
+        <v>284</v>
       </c>
       <c r="D269" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B270" s="13">
-        <v>6</v>
-      </c>
-      <c r="C270" s="13" t="s">
-        <v>284</v>
+      <c r="A270" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B270" s="12">
+        <v>6</v>
+      </c>
+      <c r="C270" s="12" t="s">
+        <v>305</v>
       </c>
       <c r="D270" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B271" s="13">
-        <v>6</v>
-      </c>
-      <c r="C271" s="13" t="s">
-        <v>305</v>
+      <c r="A271" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B271" s="12">
+        <v>6</v>
+      </c>
+      <c r="C271" s="12" t="s">
+        <v>326</v>
       </c>
       <c r="D271" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B272" s="13">
-        <v>6</v>
-      </c>
-      <c r="C272" s="13" t="s">
+      <c r="A272" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B272" s="12">
+        <v>6</v>
+      </c>
+      <c r="C272" s="12" t="s">
         <v>221</v>
       </c>
       <c r="D272" s="9" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>69</v>
@@ -6932,90 +6989,90 @@
         <v>242</v>
       </c>
       <c r="D273" s="9" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B274" s="13">
-        <v>6</v>
-      </c>
-      <c r="C274" s="13" t="s">
+      <c r="A274" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B274" s="12">
+        <v>6</v>
+      </c>
+      <c r="C274" s="12" t="s">
         <v>263</v>
       </c>
       <c r="D274" s="9" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B275" s="13">
-        <v>6</v>
-      </c>
-      <c r="C275" s="13" t="s">
+      <c r="A275" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B275" s="12">
+        <v>6</v>
+      </c>
+      <c r="C275" s="12" t="s">
         <v>284</v>
       </c>
       <c r="D275" s="9" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B276" s="13">
-        <v>6</v>
-      </c>
-      <c r="C276" s="13" t="s">
+      <c r="A276" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B276" s="12">
+        <v>6</v>
+      </c>
+      <c r="C276" s="12" t="s">
         <v>305</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B277" s="13">
-        <v>6</v>
-      </c>
-      <c r="C277" s="13" t="s">
-        <v>221</v>
+      <c r="A277" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B277" s="12">
+        <v>6</v>
+      </c>
+      <c r="C277" s="12" t="s">
+        <v>326</v>
       </c>
       <c r="D277" s="9" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>241</v>
+        <v>342</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>69</v>
@@ -7029,75 +7086,475 @@
         <v>6</v>
       </c>
       <c r="C278" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D278" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B279" s="12">
+        <v>6</v>
+      </c>
+      <c r="C279" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D278" s="9" t="s">
+      <c r="D279" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B280" s="12">
+        <v>6</v>
+      </c>
+      <c r="C280" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D280" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B281" s="12">
+        <v>6</v>
+      </c>
+      <c r="C281" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="D281" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B282" s="12">
+        <v>6</v>
+      </c>
+      <c r="C282" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D282" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B283" s="12">
+        <v>6</v>
+      </c>
+      <c r="C283" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D283" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B284" s="12">
+        <v>6</v>
+      </c>
+      <c r="C284" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D284" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B285" s="12">
+        <v>6</v>
+      </c>
+      <c r="C285" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D285" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B286" s="12">
+        <v>6</v>
+      </c>
+      <c r="C286" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D286" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B287" s="12">
+        <v>6</v>
+      </c>
+      <c r="C287" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="D287" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B288" s="12">
+        <v>6</v>
+      </c>
+      <c r="C288" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D288" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B289" s="12">
+        <v>6</v>
+      </c>
+      <c r="C289" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D289" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B290" s="12">
+        <v>6</v>
+      </c>
+      <c r="C290" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D290" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B291" s="12">
+        <v>6</v>
+      </c>
+      <c r="C291" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D291" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B292" s="12">
+        <v>6</v>
+      </c>
+      <c r="C292" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D292" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B293" s="12">
+        <v>6</v>
+      </c>
+      <c r="C293" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="D293" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B294" s="12">
+        <v>6</v>
+      </c>
+      <c r="C294" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D294" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B295" s="12">
+        <v>6</v>
+      </c>
+      <c r="C295" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D295" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B296" s="12">
+        <v>6</v>
+      </c>
+      <c r="C296" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D296" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E278" s="1" t="s">
+      <c r="E296" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B297" s="12">
+        <v>6</v>
+      </c>
+      <c r="C297" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D297" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E297" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F278" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B279" s="13">
-        <v>6</v>
-      </c>
-      <c r="C279" s="13" t="s">
+      <c r="F297" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B298" s="12">
+        <v>6</v>
+      </c>
+      <c r="C298" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="D279" s="9" t="s">
+      <c r="D298" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E279" s="1" t="s">
+      <c r="E298" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F279" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B280" s="13">
-        <v>6</v>
-      </c>
-      <c r="C280" s="13" t="s">
+      <c r="F298" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B299" s="12">
+        <v>6</v>
+      </c>
+      <c r="C299" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="D280" s="9" t="s">
+      <c r="D299" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E280" s="1" t="s">
+      <c r="E299" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F280" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B281" s="13">
-        <v>6</v>
-      </c>
-      <c r="C281" s="13" t="s">
+      <c r="F299" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B300" s="12">
+        <v>6</v>
+      </c>
+      <c r="C300" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="D281" s="9" t="s">
+      <c r="D300" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E281" s="1" t="s">
+      <c r="E300" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F281" s="1" t="s">
+      <c r="F300" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B301" s="12">
+        <v>6</v>
+      </c>
+      <c r="C301" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D301" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F301" s="1" t="s">
         <v>69</v>
       </c>
     </row>

--- a/refair-server/datasets/few shot dataset/FSDataset.xlsx
+++ b/refair-server/datasets/few shot dataset/FSDataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morel\Desktop\Refair\ReFair-App\refair-server\datasets\few shot dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF237B1-24A3-4916-A1FE-00BC57F13E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832CF22C-9D37-4267-9EBD-3A96424C6B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80773445-FB61-4F04-A882-1600FD96C55A}"/>
   </bookViews>
@@ -74,42 +74,24 @@
     <t>As a librarian, I want to develop a decision tree model to analyze and group authors based on the similarity of their writing styles and thematic content, aiding in curated author spotlights and reader engagement initiatives.</t>
   </si>
   <si>
-    <t>As a librarian, I want to leverage techniques for handling imbalanced datasets to classify historical documents and manuscripts in the library archive, ensuring accurate categorization and preservation recommendations.</t>
-  </si>
-  <si>
     <t>decision tree</t>
   </si>
   <si>
     <t>imbalanced dataset</t>
   </si>
   <si>
-    <t>As a librarian, I want to implement a KNN algorithm to recommend books to patrons based on their borrowing history and preferences, enhancing personalized reading suggestions.</t>
-  </si>
-  <si>
     <t>k-nearest neighbor</t>
   </si>
   <si>
-    <t>As a librarian, I want to employ a neural network model to analyze the diversity and inclusivity of our library collection, identifying gaps and recommending acquisitions that reflect diverse perspectives and cultural heritage.</t>
-  </si>
-  <si>
     <t>neural network</t>
   </si>
   <si>
-    <t>As a librarian, I want to implement a random forest model to enhance our book recommendation system by combining diverse features such as genre preferences, reading history, and demographic information to provide accurate and personalized recommendations to library patrons.</t>
-  </si>
-  <si>
     <t>random forest</t>
   </si>
   <si>
-    <t>As a librarian, I want to implement semantic similarity techniques to analyze and measure the similarity between authors based on their writing styles and thematic content, facilitating curated author showcases and reader engagement initiatives.</t>
-  </si>
-  <si>
     <t>semantic similarity</t>
   </si>
   <si>
-    <t>As a librarian, I want to implement speech to text technology to transcribe oral history recordings and interviews in our library's archives, making them searchable and accessible for researchers and the public.</t>
-  </si>
-  <si>
     <t>speech to text</t>
   </si>
   <si>
@@ -125,18 +107,12 @@
     <t>adversarial learning</t>
   </si>
   <si>
-    <t>As a librarian, I want to create a conversational agent capable of leading virtual book club discussions by analyzing text summaries and guiding participants through thematic discussions and character analyses of selected books.</t>
-  </si>
-  <si>
     <t>conversational agent</t>
   </si>
   <si>
     <t>unsupervised clustering</t>
   </si>
   <si>
-    <t>As a librarian, I want to automatically identify and extract key entities like book titles, authors, and publication years from a collection of digitized books, so that I can create accurate metadata records for our library catalog.</t>
-  </si>
-  <si>
     <t>entity extraction</t>
   </si>
   <si>
@@ -149,33 +125,18 @@
     <t>feature selection</t>
   </si>
   <si>
-    <t>As a librarian, I want to perform sentiment analysis on user reviews of library resources to understand patrons' opinions and sentiments, helping improve service offerings and collection development decisions.</t>
-  </si>
-  <si>
     <t>sentiment analysis</t>
   </si>
   <si>
-    <t>As a librarian, I want to implement multi-label classification algorithms to categorize books into multiple genres or subjects based on their content, enabling more accurate recommendations for diverse reader interests.</t>
-  </si>
-  <si>
     <t>multi-label classification</t>
   </si>
   <si>
     <t>As a librarian, I want to implement keyword extraction algorithms to automatically identify and tag key topics and concepts from book summaries and abstracts, enhancing the metadata indexing and search capabilities of our catalog.</t>
   </si>
   <si>
-    <t>As a librarian, I aim to leverage CNNs to classify digitized historical photographs based on visual content (e.g., location, era, subject matter), enhancing the organization and retrieval capabilities of our digital archives.</t>
-  </si>
-  <si>
     <t>cnn</t>
   </si>
   <si>
-    <t>As a librarian, I want to apply unsupervised clustering techniques to group similar books based on their content and themes, enabling more effective recommendations and collection management strategies.</t>
-  </si>
-  <si>
-    <t>As a librarian, I want to implement document classification algorithms to automatically categorize newly digitized books into genres (e.g., fiction, non-fiction, science fiction) based on their content, enhancing the efficiency of cataloging and improving user search experience.</t>
-  </si>
-  <si>
     <t>document classification</t>
   </si>
   <si>
@@ -1077,6 +1038,45 @@
   </si>
   <si>
     <t>As a nephrologist, I want to deploy word embedding models to support automated summarization of nephrology research articles and clinical trials, extracting key concepts and findings to aid in evidence-based decision-making and research synthesis.</t>
+  </si>
+  <si>
+    <t>As a digital archivist, I want to use CNNs to automatically classify scanned book covers into genres and categories, making it easier for users to browse and discover books in our digital library collection.</t>
+  </si>
+  <si>
+    <t>As a library administrator, I want to integrate a conversational agent into our library's website to provide information on library policies, opening hours, and upcoming events, so that patrons can easily access this information without needing to navigate through multiple pages.</t>
+  </si>
+  <si>
+    <t>As a library administrator, I want to use document classification algorithms to analyze user borrowing histories and classify library patrons into distinct user groups (such as students, faculty, researchers), allowing us to tailor library services and collections to their specific needs and preferences.</t>
+  </si>
+  <si>
+    <t>As a digital archivist, I want to use entity extraction algorithms to automatically identify and extract named entities such as authors, publication dates, and genres from digitized book records and bibliographic data, enhancing the accuracy and completeness of our library's catalog entries.</t>
+  </si>
+  <si>
+    <t>As a curator, I want to employ methods to mitigate the effects of imbalanced datasets in machine learning models when categorizing literature from underrepresented authors, ensuring fair representation in our library's digital archive.</t>
+  </si>
+  <si>
+    <t>As a library curator, I want to utilize multi-label classification to recommend books to patrons based on a combination of genres and themes they are interested in, so that I can provide personalized reading suggestions.</t>
+  </si>
+  <si>
+    <t>As a library director, I want to leverage k-Nearest Neighbor to predict popular books that are likely to be borrowed in the upcoming month, so that I can optimize inventory management and meet patron demand effectively.</t>
+  </si>
+  <si>
+    <t>As a library director, I want to implement a neural network to detect anomalies in book borrowing patterns and identify potential instances of lost or stolen books, so that I can improve security and inventory management.</t>
+  </si>
+  <si>
+    <t>As a library curator, I want to apply a random forest algorithm to predict optimal pricing for books based on factors such as genre, author popularity, and historical sales data, so that I can maximize revenue from book sales and fundraising events.</t>
+  </si>
+  <si>
+    <t>As a library researcher, I want to employ sentiment analysis to understand the reception of classic literature across different demographics, so that I can contribute insights to literary criticism and historical analysis.</t>
+  </si>
+  <si>
+    <t>As a library director, I want to leverage semantic similarity techniques to identify gaps and overlaps in our collection, so that I can optimize acquisitions and ensure a comprehensive and diverse library inventory.</t>
+  </si>
+  <si>
+    <t>As a library director, I want to leverage speech to text technology to provide real-time captioning during live author events and public lectures, so that I can enhance inclusivity and accessibility for all attendees.</t>
+  </si>
+  <si>
+    <t>As a library researcher, I want to use unsupervised clustering to group literary works into thematic clusters based on their content and writing style, so that I can explore connections between different genres and authors.</t>
   </si>
 </sst>
 </file>
@@ -1525,8 +1525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DF0B04-8323-4309-B759-D1CDDA1FBB0E}">
   <dimension ref="A1:F301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D179" sqref="D179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1555,2407 +1555,2407 @@
         <v>10</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B2" s="10">
         <v>2</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B3" s="10">
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B4" s="10">
         <v>2</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B5" s="10">
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B6" s="10">
         <v>2</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B7" s="10">
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B8" s="10">
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B9" s="10">
         <v>2</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B10" s="10">
         <v>2</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B11" s="10">
         <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B12" s="10">
         <v>2</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B13" s="10">
         <v>2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B14" s="10">
         <v>2</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B15" s="10">
         <v>2</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B16" s="10">
         <v>2</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B17" s="10">
         <v>2</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B18" s="10">
         <v>2</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B19" s="10">
         <v>2</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B20" s="10">
         <v>2</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B21" s="10">
         <v>2</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B22" s="10">
         <v>2</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B23" s="10">
         <v>2</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B24" s="10">
         <v>2</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B25" s="10">
         <v>2</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B26" s="10">
         <v>2</v>
       </c>
       <c r="C26" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B27" s="10">
         <v>2</v>
       </c>
       <c r="C27" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B28" s="10">
         <v>2</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B29" s="10">
         <v>2</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B30" s="10">
         <v>2</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B31" s="10">
         <v>2</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B32" s="10">
         <v>2</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B33" s="10">
         <v>2</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B34" s="10">
         <v>2</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B35" s="10">
         <v>2</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B36" s="10">
         <v>2</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B37" s="10">
         <v>2</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B38" s="10">
         <v>2</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B39" s="10">
         <v>2</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B40" s="10">
         <v>2</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B41" s="10">
         <v>2</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B42" s="8">
         <v>3</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B43" s="8">
         <v>3</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B44" s="8">
         <v>3</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B45" s="8">
         <v>3</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B46" s="8">
         <v>3</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B47" s="8">
         <v>3</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B48" s="8">
         <v>3</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B49" s="8">
         <v>3</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B50" s="8">
         <v>3</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B51" s="8">
         <v>3</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B52" s="8">
         <v>3</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B53" s="8">
         <v>3</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B54" s="8">
         <v>3</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B55" s="8">
         <v>3</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B56" s="8">
         <v>3</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B57" s="8">
         <v>3</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B58" s="8">
         <v>3</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B59" s="8">
         <v>3</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B60" s="8">
         <v>3</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B61" s="8">
         <v>3</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B62" s="8">
         <v>3</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B63" s="8">
         <v>3</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B64" s="8">
         <v>3</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B65" s="8">
         <v>3</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B66" s="8">
         <v>3</v>
       </c>
       <c r="C66" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="F66" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B67" s="8">
         <v>3</v>
       </c>
       <c r="C67" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D67" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="F67" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B68" s="8">
         <v>3</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B69" s="8">
         <v>3</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B70" s="8">
         <v>3</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B71" s="8">
         <v>3</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B72" s="8">
         <v>3</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B73" s="8">
         <v>3</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B74" s="8">
         <v>3</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B75" s="8">
         <v>3</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B76" s="8">
         <v>3</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B77" s="8">
         <v>3</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B78" s="8">
         <v>3</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B79" s="8">
         <v>3</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B80" s="8">
         <v>3</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B81" s="8">
         <v>3</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B82" s="7">
         <v>4</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B83" s="7">
         <v>4</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B84" s="7">
         <v>4</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B85" s="7">
         <v>4</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B86" s="7">
         <v>4</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B87" s="7">
         <v>4</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B88" s="7">
         <v>4</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B89" s="7">
         <v>4</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B90" s="7">
         <v>4</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B91" s="7">
         <v>4</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B92" s="7">
         <v>4</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B93" s="7">
         <v>4</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B94" s="7">
         <v>4</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B95" s="7">
         <v>4</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B96" s="7">
         <v>4</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B97" s="7">
         <v>4</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B98" s="7">
         <v>4</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B99" s="7">
         <v>4</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B100" s="7">
         <v>4</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B101" s="7">
         <v>4</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B102" s="7">
         <v>4</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B103" s="7">
         <v>4</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B104" s="7">
         <v>4</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B105" s="7">
+        <v>4</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B105" s="7">
-        <v>4</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="F105" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B106" s="7">
         <v>4</v>
       </c>
       <c r="C106" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D106" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="F106" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B107" s="7">
         <v>4</v>
       </c>
       <c r="C107" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D107" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="F107" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B108" s="7">
         <v>4</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B109" s="7">
         <v>4</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B110" s="7">
         <v>4</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B111" s="7">
         <v>4</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B112" s="7">
         <v>4</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="113" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B113" s="7">
         <v>4</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="114" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B114" s="7">
         <v>4</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B115" s="7">
         <v>4</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="116" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B116" s="7">
         <v>4</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B117" s="7">
         <v>4</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="118" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B118" s="7">
         <v>4</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B119" s="7">
         <v>4</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B120" s="7">
         <v>4</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="121" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B121" s="7">
         <v>4</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3969,13 +3969,13 @@
         <v>5</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3986,16 +3986,16 @@
         <v>5</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -4006,16 +4006,16 @@
         <v>5</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -4029,13 +4029,13 @@
         <v>5</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>334</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -4046,16 +4046,16 @@
         <v>5</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -4066,16 +4066,16 @@
         <v>5</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -4089,13 +4089,13 @@
         <v>5</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>29</v>
+        <v>335</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -4106,16 +4106,16 @@
         <v>5</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -4126,16 +4126,16 @@
         <v>5</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -4149,13 +4149,13 @@
         <v>5</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -4166,16 +4166,16 @@
         <v>5</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -4186,16 +4186,16 @@
         <v>5</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -4209,13 +4209,13 @@
         <v>5</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>45</v>
+        <v>336</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -4226,16 +4226,16 @@
         <v>5</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -4246,16 +4246,16 @@
         <v>5</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -4269,13 +4269,13 @@
         <v>5</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>32</v>
+        <v>337</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -4286,16 +4286,16 @@
         <v>5</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -4306,16 +4306,16 @@
         <v>5</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -4329,13 +4329,13 @@
         <v>5</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -4346,16 +4346,16 @@
         <v>5</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4366,16 +4366,16 @@
         <v>5</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4389,13 +4389,13 @@
         <v>5</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>338</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4406,16 +4406,16 @@
         <v>5</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4426,16 +4426,16 @@
         <v>5</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -4449,13 +4449,13 @@
         <v>5</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -4466,16 +4466,16 @@
         <v>5</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4486,16 +4486,16 @@
         <v>5</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4509,13 +4509,13 @@
         <v>5</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>15</v>
+        <v>340</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4526,16 +4526,16 @@
         <v>5</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4546,16 +4546,16 @@
         <v>5</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4569,13 +4569,13 @@
         <v>5</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>39</v>
+        <v>339</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4586,16 +4586,16 @@
         <v>5</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4606,16 +4606,16 @@
         <v>5</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4629,13 +4629,13 @@
         <v>5</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>17</v>
+        <v>341</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4646,16 +4646,16 @@
         <v>5</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4666,16 +4666,16 @@
         <v>5</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -4689,13 +4689,13 @@
         <v>5</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>19</v>
+        <v>342</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4706,16 +4706,16 @@
         <v>5</v>
       </c>
       <c r="C159" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E159" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D159" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="F159" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -4726,16 +4726,16 @@
         <v>5</v>
       </c>
       <c r="C160" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E160" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D160" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="F160" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -4749,13 +4749,13 @@
         <v>5</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>21</v>
+        <v>344</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -4766,16 +4766,16 @@
         <v>5</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4786,16 +4786,16 @@
         <v>5</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -4809,13 +4809,13 @@
         <v>5</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>37</v>
+        <v>343</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4826,16 +4826,16 @@
         <v>5</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4846,16 +4846,16 @@
         <v>5</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4869,13 +4869,13 @@
         <v>5</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>23</v>
+        <v>345</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4886,16 +4886,16 @@
         <v>5</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4906,16 +4906,16 @@
         <v>5</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4929,13 +4929,13 @@
         <v>5</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4946,16 +4946,16 @@
         <v>5</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4966,16 +4966,16 @@
         <v>5</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4989,13 +4989,13 @@
         <v>5</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>44</v>
+        <v>346</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -5006,16 +5006,16 @@
         <v>5</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -5026,16 +5026,16 @@
         <v>5</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -5055,7 +5055,7 @@
         <v>6</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -5066,16 +5066,16 @@
         <v>5</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -5086,16 +5086,16 @@
         <v>5</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -5115,7 +5115,7 @@
         <v>8</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -5126,16 +5126,16 @@
         <v>5</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D180" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -5146,2416 +5146,2416 @@
         <v>5</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D181" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B182" s="12">
         <v>6</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B183" s="12">
         <v>6</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B184" s="12">
         <v>6</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B185" s="12">
         <v>6</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B186" s="12">
         <v>6</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B187" s="12">
         <v>6</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B188" s="12">
         <v>6</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B189" s="12">
         <v>6</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B190" s="12">
         <v>6</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B191" s="12">
         <v>6</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B192" s="12">
         <v>6</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B193" s="12">
         <v>6</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B194" s="12">
         <v>6</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B195" s="12">
         <v>6</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B196" s="12">
         <v>6</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B197" s="12">
         <v>6</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B198" s="12">
         <v>6</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B199" s="12">
         <v>6</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B200" s="12">
         <v>6</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B201" s="12">
         <v>6</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B202" s="12">
         <v>6</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B203" s="12">
         <v>6</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B204" s="12">
         <v>6</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B205" s="12">
         <v>6</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B206" s="12">
         <v>6</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B207" s="12">
         <v>6</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B208" s="12">
         <v>6</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B209" s="12">
         <v>6</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B210" s="12">
         <v>6</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B211" s="12">
         <v>6</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B212" s="12">
         <v>6</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B213" s="12">
         <v>6</v>
       </c>
       <c r="C213" s="12" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D213" s="9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B214" s="12">
         <v>6</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B215" s="12">
         <v>6</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B216" s="12">
         <v>6</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B217" s="12">
         <v>6</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B218" s="12">
         <v>6</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B219" s="12">
         <v>6</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B220" s="12">
         <v>6</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B221" s="12">
         <v>6</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B222" s="12">
         <v>6</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B223" s="12">
         <v>6</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B224" s="12">
         <v>6</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B225" s="12">
         <v>6</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B226" s="12">
         <v>6</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D226" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B227" s="12">
         <v>6</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B228" s="12">
         <v>6</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B229" s="12">
         <v>6</v>
       </c>
       <c r="C229" s="12" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B230" s="12">
         <v>6</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B231" s="12">
         <v>6</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B232" s="12">
         <v>6</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B233" s="12">
         <v>6</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B234" s="12">
         <v>6</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B235" s="12">
         <v>6</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="D235" s="9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B236" s="12">
         <v>6</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D236" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B237" s="12">
         <v>6</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D237" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B238" s="12">
         <v>6</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D238" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B239" s="12">
         <v>6</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D239" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B240" s="12">
         <v>6</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="D240" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B241" s="12">
         <v>6</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B242" s="12">
         <v>6</v>
       </c>
       <c r="C242" s="12" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B243" s="12">
         <v>6</v>
       </c>
       <c r="C243" s="12" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B244" s="12">
         <v>6</v>
       </c>
       <c r="C244" s="12" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B245" s="12">
         <v>6</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B246" s="12">
         <v>6</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B247" s="12">
         <v>6</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B248" s="12">
+        <v>6</v>
+      </c>
+      <c r="C248" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D248" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E248" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B248" s="12">
-        <v>6</v>
-      </c>
-      <c r="C248" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D248" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="F248" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B249" s="12">
         <v>6</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B250" s="12">
         <v>6</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B251" s="12">
         <v>6</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B252" s="12">
         <v>6</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="D252" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B253" s="12">
         <v>6</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="D253" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B254" s="12">
         <v>6</v>
       </c>
       <c r="C254" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D254" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E254" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D254" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="F254" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B255" s="12">
         <v>6</v>
       </c>
       <c r="C255" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D255" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E255" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D255" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="F255" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B256" s="12">
         <v>6</v>
       </c>
       <c r="C256" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D256" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E256" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D256" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="F256" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B257" s="12">
         <v>6</v>
       </c>
       <c r="C257" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="D257" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E257" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D257" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="F257" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B258" s="12">
         <v>6</v>
       </c>
       <c r="C258" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="D258" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E258" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D258" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="F258" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B259" s="12">
         <v>6</v>
       </c>
       <c r="C259" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D259" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E259" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D259" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="F259" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B260" s="12">
         <v>6</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D260" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B261" s="12">
         <v>6</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D261" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B262" s="12">
         <v>6</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D262" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B263" s="12">
         <v>6</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D263" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B264" s="12">
         <v>6</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="D264" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B265" s="12">
         <v>6</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="D265" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B266" s="12">
         <v>6</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D266" s="9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B267" s="12">
         <v>6</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D267" s="9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B268" s="12">
         <v>6</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D268" s="9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B269" s="12">
         <v>6</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D269" s="9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B270" s="12">
         <v>6</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="D270" s="9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B271" s="12">
         <v>6</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="D271" s="9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B272" s="12">
         <v>6</v>
       </c>
       <c r="C272" s="12" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D272" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B273" s="12">
         <v>6</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D273" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B274" s="12">
         <v>6</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D274" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B275" s="12">
         <v>6</v>
       </c>
       <c r="C275" s="12" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D275" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B276" s="12">
         <v>6</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B277" s="12">
         <v>6</v>
       </c>
       <c r="C277" s="12" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="D277" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B278" s="12">
         <v>6</v>
       </c>
       <c r="C278" s="12" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D278" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B279" s="12">
         <v>6</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D279" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B280" s="12">
         <v>6</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D280" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B281" s="12">
         <v>6</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D281" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B282" s="12">
         <v>6</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="D282" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B283" s="12">
         <v>6</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="D283" s="9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B284" s="12">
         <v>6</v>
       </c>
       <c r="C284" s="12" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D284" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B285" s="12">
         <v>6</v>
       </c>
       <c r="C285" s="12" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D285" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B286" s="12">
         <v>6</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D286" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B287" s="12">
         <v>6</v>
       </c>
       <c r="C287" s="12" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D287" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B288" s="12">
         <v>6</v>
       </c>
       <c r="C288" s="12" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="D288" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B289" s="12">
         <v>6</v>
       </c>
       <c r="C289" s="12" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="D289" s="9" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B290" s="12">
         <v>6</v>
       </c>
       <c r="C290" s="12" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D290" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B291" s="12">
         <v>6</v>
       </c>
       <c r="C291" s="12" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D291" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B292" s="12">
         <v>6</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D292" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B293" s="12">
         <v>6</v>
       </c>
       <c r="C293" s="12" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D293" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B294" s="12">
         <v>6</v>
       </c>
       <c r="C294" s="12" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="D294" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B295" s="12">
         <v>6</v>
       </c>
       <c r="C295" s="12" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="D295" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B296" s="12">
         <v>6</v>
       </c>
       <c r="C296" s="12" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D296" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B297" s="12">
         <v>6</v>
       </c>
       <c r="C297" s="12" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="D297" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B298" s="12">
         <v>6</v>
       </c>
       <c r="C298" s="12" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D298" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B299" s="12">
         <v>6</v>
       </c>
       <c r="C299" s="12" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="D299" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B300" s="12">
         <v>6</v>
       </c>
       <c r="C300" s="12" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="D300" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="12" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B301" s="12">
         <v>6</v>
       </c>
       <c r="C301" s="12" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="D301" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/refair-server/datasets/few shot dataset/FSDataset.xlsx
+++ b/refair-server/datasets/few shot dataset/FSDataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morel\Desktop\Refair\ReFair-App\refair-server\datasets\few shot dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832CF22C-9D37-4267-9EBD-3A96424C6B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145793E0-BE19-42A5-ABC4-DA7731A4C14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80773445-FB61-4F04-A882-1600FD96C55A}"/>
   </bookViews>
@@ -212,63 +212,18 @@
     <t>Linguistics</t>
   </si>
   <si>
-    <t>As a linguist, I want to employ adversarial learning techniques to detect and mitigate dialectal biases in automated transcription systems, ensuring accurate representation of regional language variations.</t>
-  </si>
-  <si>
-    <t>As a linguist, I want to utilize CNNs to automatically analyze and categorize handwritten manuscripts based on historical writing styles and script variations, aiding in the classification and digitization of ancient texts.</t>
-  </si>
-  <si>
-    <t>As a linguist, I want to create a conversational agent capable of simulating dialogues in multiple languages, allowing users to practice conversational fluency and cultural expressions in a natural setting.</t>
-  </si>
-  <si>
-    <t>As a linguist, I want to apply decision tree algorithms to categorize language samples into phonetic groups, facilitating the study of phonological evolution and dialectal variations over time.</t>
-  </si>
-  <si>
-    <t>As a linguist, I want to apply document classification techniques to categorize language corpora into historical periods, facilitating chronological studies of language evolution and linguistic changes.</t>
-  </si>
-  <si>
-    <t>As a linguist, I want to develop entity extraction algorithms to automatically detect and categorize named entities such as proper names and geographic locations in historical texts, aiding in geographical and historical linguistic research.</t>
-  </si>
-  <si>
-    <t>As a linguist, I want to use feature selection techniques to optimize the selection of discourse markers and pragmatic features in spoken dialogues, enhancing the analysis of conversational strategies and communicative intentions.</t>
-  </si>
-  <si>
-    <t>As a linguist, I want to address imbalanced datasets in historical language corpora by applying techniques that balance the representation of under-documented languages, ensuring fair and comprehensive linguistic analysis.</t>
-  </si>
-  <si>
-    <t>As a linguist, I want to employ keyword extraction techniques on multilingual dictionaries to identify semantic clusters and cross-linguistic equivalences, supporting comparative lexical studies.</t>
-  </si>
-  <si>
-    <t>As a linguist, I want to utilize k-NN models to identify similar linguistic patterns across different languages based on shared morphological and syntactic features, supporting typological studies.</t>
-  </si>
-  <si>
-    <t>As a linguist, I want to use neural networks for automatic language identification in multilingual texts, improving the efficiency of language documentation and corpus compilation efforts.</t>
-  </si>
-  <si>
-    <t>As a linguist, I want to use multi-label classification algorithms to categorize language learning materials into proficiency levels (beginner, intermediate, advanced) and language skills (listening, speaking, reading, writing).</t>
-  </si>
-  <si>
     <t>As a linguist, I want to use a random forest algorithm to classify texts based on syntactic structures, enabling automated categorization of sentences into grammatical types (e.g., declarative, interrogative, imperative).</t>
   </si>
   <si>
     <t>As a linguist, I want to use semantic similarity algorithms to identify synonymous terms in multilingual dictionaries, facilitating the compilation of comprehensive lexical resources.</t>
   </si>
   <si>
-    <t>As a linguist, I want to use sentiment analysis techniques to analyze student feedback on language courses and teaching methodologies, improving instructional practices and student satisfaction.</t>
-  </si>
-  <si>
     <t>As a linguist, I want to use a speech to text system to transcribe language learning sessions, allowing for detailed analysis of pronunciation and speech patterns to enhance teaching methods.</t>
   </si>
   <si>
-    <t>As a linguist, I want to use text categorization algorithms to classify research papers into linguistic subfields such as phonetics, syntax, and semantics, facilitating targeted literature reviews.</t>
-  </si>
-  <si>
     <t>As a linguist, I want to apply unsupervised clustering algorithms to categorize phonetic data from different dialects, identifying distinct phonological patterns and variations.</t>
   </si>
   <si>
-    <t>As a linguist, I want to use voice recognition technology to create language learning tools that provide real-time feedback on pronunciation accuracy and intonation.</t>
-  </si>
-  <si>
     <t>As a linguist, I want to use word embedding techniques to map words from different languages into a shared semantic space, allowing for cross-linguistic comparison of lexical semantics and conceptual structures.</t>
   </si>
   <si>
@@ -1077,6 +1032,51 @@
   </si>
   <si>
     <t>As a library researcher, I want to use unsupervised clustering to group literary works into thematic clusters based on their content and writing style, so that I can explore connections between different genres and authors.</t>
+  </si>
+  <si>
+    <t>As a sociolinguist, I want to employ adversarial learning models to uncover and understand dialectical variations in speech patterns across different regions, helping to preserve and document linguistic diversity effectively.</t>
+  </si>
+  <si>
+    <t>As a researcher in historical linguistics, I want to use CNNs to analyze ancient manuscripts and inscriptions, enabling the identification and reconstruction of ancient languages and dialects based on visual patterns in the texts.</t>
+  </si>
+  <si>
+    <t>As a student of sociolinguistics, I want to create a conversational agent capable of simulating dialectal variations and regional accents to study how language diversity influences communication patterns and social interactions.</t>
+  </si>
+  <si>
+    <t>As a researcher in historical linguistics, I want to employ a decision tree algorithm to categorize and date ancient manuscripts based on linguistic features, aiding in the reconstruction and preservation of ancient languages.</t>
+  </si>
+  <si>
+    <t>As a linguistic historian, I want to utilize document classification techniques to organize and classify historical manuscripts based on linguistic features, such as writing styles and vocabulary usage, to study language evolution and changes over centuries.</t>
+  </si>
+  <si>
+    <t>As a linguistic analyst, I want to develop an entity extraction system capable of identifying linguistic features such as grammatical structures (e.g., verb phrases, noun clauses) in literary texts, aiding in syntactic analysis and linguistic theory development based on large-scale textual data.</t>
+  </si>
+  <si>
+    <t>As a sociolinguist, I want to apply feature selection methods to identify socio-cultural markers (e.g., dialectal variations, sociolects) in spoken language transcripts, enabling me to study how language usage reflects social identities and group affiliations in different communities.</t>
+  </si>
+  <si>
+    <t>As a sociolinguist, I want to address imbalanced datasets in speech data collected from diverse demographic groups by applying sampling strategies that ensure equal representation of age, gender, and socio-economic factors, enabling unbiased analysis of language variations across different social contexts.</t>
+  </si>
+  <si>
+    <t>As a linguistic historian, I want to apply keyword extraction methods to analyze historical manuscripts and identify linguistic shifts and lexical innovations over time, aiding in the study of language evolution and historical linguistics.</t>
+  </si>
+  <si>
+    <t>As a corpus linguist, I want to use k-Nearest Neighbor for authorship attribution tasks by comparing the linguistic patterns of anonymous texts with known author styles, helping to identify potential authors and authenticate literary works from historical periods.</t>
+  </si>
+  <si>
+    <t>As a sociolinguist, I want to use multi-label classification techniques to classify spoken discourse transcripts into multiple socio-cultural categories (e.g., gender roles, social hierarchy, linguistic variation), allowing for detailed analysis of language use in different social contexts.</t>
+  </si>
+  <si>
+    <t>As a sociolinguist, I want to employ neural networks for dialect identification tasks in spoken language data, enabling automated recognition and classification of regional accents and dialectal variations, facilitating studies on language diversity and identity in different communities.</t>
+  </si>
+  <si>
+    <t>As a sociolinguist, I want to use sentiment analysis to examine sentiment shifts in political speeches and public addresses across different historical periods, providing insights into how language is used to influence public opinion and sentiment over time.</t>
+  </si>
+  <si>
+    <t>As a sociolinguist, I want to apply text categorization models to classify sociolinguistic variables (e.g., dialects, sociolects) in spoken language transcripts, allowing for the identification and analysis of linguistic variations and cultural influences in oral discourse.</t>
+  </si>
+  <si>
+    <t>As a linguistic anthropologist, I want to use voice recognition technology to transcribe and analyze spoken narratives of indigenous communities, so that I can document and understand cultural changes through linguistic shifts.</t>
   </si>
 </sst>
 </file>
@@ -1525,8 +1525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DF0B04-8323-4309-B759-D1CDDA1FBB0E}">
   <dimension ref="A1:F301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D179" sqref="D179"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E178" sqref="E178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1560,19 +1560,19 @@
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B2" s="10">
         <v>2</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>56</v>
@@ -1580,19 +1580,19 @@
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B3" s="10">
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>56</v>
@@ -1600,19 +1600,19 @@
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B4" s="10">
         <v>2</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>56</v>
@@ -1620,19 +1620,19 @@
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B5" s="10">
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>56</v>
@@ -1640,19 +1640,19 @@
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B6" s="10">
         <v>2</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>56</v>
@@ -1660,19 +1660,19 @@
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B7" s="10">
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>56</v>
@@ -1680,19 +1680,19 @@
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B8" s="10">
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>56</v>
@@ -1700,19 +1700,19 @@
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B9" s="10">
         <v>2</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>56</v>
@@ -1720,19 +1720,19 @@
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B10" s="10">
         <v>2</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>56</v>
@@ -1740,19 +1740,19 @@
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B11" s="10">
         <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>56</v>
@@ -1760,19 +1760,19 @@
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B12" s="10">
         <v>2</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>56</v>
@@ -1780,19 +1780,19 @@
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B13" s="10">
         <v>2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>56</v>
@@ -1800,19 +1800,19 @@
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B14" s="10">
         <v>2</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>56</v>
@@ -1820,19 +1820,19 @@
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B15" s="10">
         <v>2</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>56</v>
@@ -1840,19 +1840,19 @@
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B16" s="10">
         <v>2</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>56</v>
@@ -1860,19 +1860,19 @@
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B17" s="10">
         <v>2</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>56</v>
@@ -1880,19 +1880,19 @@
     </row>
     <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B18" s="10">
         <v>2</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>56</v>
@@ -1900,19 +1900,19 @@
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B19" s="10">
         <v>2</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>56</v>
@@ -1920,19 +1920,19 @@
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B20" s="10">
         <v>2</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>56</v>
@@ -1940,19 +1940,19 @@
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B21" s="10">
         <v>2</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>56</v>
@@ -1960,19 +1960,19 @@
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B22" s="10">
         <v>2</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>56</v>
@@ -1980,19 +1980,19 @@
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B23" s="10">
         <v>2</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>56</v>
@@ -2000,19 +2000,19 @@
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B24" s="10">
         <v>2</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>56</v>
@@ -2020,19 +2020,19 @@
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B25" s="10">
         <v>2</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>56</v>
@@ -2040,19 +2040,19 @@
     </row>
     <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B26" s="10">
         <v>2</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>56</v>
@@ -2060,19 +2060,19 @@
     </row>
     <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B27" s="10">
         <v>2</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>56</v>
@@ -2080,19 +2080,19 @@
     </row>
     <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B28" s="10">
         <v>2</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>56</v>
@@ -2100,19 +2100,19 @@
     </row>
     <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B29" s="10">
         <v>2</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>56</v>
@@ -2120,19 +2120,19 @@
     </row>
     <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B30" s="10">
         <v>2</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>56</v>
@@ -2140,19 +2140,19 @@
     </row>
     <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B31" s="10">
         <v>2</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>56</v>
@@ -2160,19 +2160,19 @@
     </row>
     <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B32" s="10">
         <v>2</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>56</v>
@@ -2180,19 +2180,19 @@
     </row>
     <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B33" s="10">
         <v>2</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>56</v>
@@ -2200,19 +2200,19 @@
     </row>
     <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B34" s="10">
         <v>2</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>56</v>
@@ -2220,19 +2220,19 @@
     </row>
     <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B35" s="10">
         <v>2</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>56</v>
@@ -2240,19 +2240,19 @@
     </row>
     <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B36" s="10">
         <v>2</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>56</v>
@@ -2260,19 +2260,19 @@
     </row>
     <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B37" s="10">
         <v>2</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>56</v>
@@ -2280,19 +2280,19 @@
     </row>
     <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B38" s="10">
         <v>2</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>56</v>
@@ -2300,19 +2300,19 @@
     </row>
     <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B39" s="10">
         <v>2</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>56</v>
@@ -2320,19 +2320,19 @@
     </row>
     <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B40" s="10">
         <v>2</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>56</v>
@@ -2340,19 +2340,19 @@
     </row>
     <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B41" s="10">
         <v>2</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>56</v>
@@ -2360,19 +2360,19 @@
     </row>
     <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B42" s="8">
         <v>3</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>56</v>
@@ -2380,19 +2380,19 @@
     </row>
     <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B43" s="8">
         <v>3</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>56</v>
@@ -2400,19 +2400,19 @@
     </row>
     <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B44" s="8">
         <v>3</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>56</v>
@@ -2420,19 +2420,19 @@
     </row>
     <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B45" s="8">
         <v>3</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>56</v>
@@ -2440,19 +2440,19 @@
     </row>
     <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B46" s="8">
         <v>3</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>56</v>
@@ -2460,19 +2460,19 @@
     </row>
     <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B47" s="8">
         <v>3</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>56</v>
@@ -2480,19 +2480,19 @@
     </row>
     <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B48" s="8">
         <v>3</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>56</v>
@@ -2500,19 +2500,19 @@
     </row>
     <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B49" s="8">
         <v>3</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>56</v>
@@ -2520,19 +2520,19 @@
     </row>
     <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B50" s="8">
         <v>3</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>56</v>
@@ -2540,19 +2540,19 @@
     </row>
     <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B51" s="8">
         <v>3</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>56</v>
@@ -2560,19 +2560,19 @@
     </row>
     <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B52" s="8">
         <v>3</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>56</v>
@@ -2580,19 +2580,19 @@
     </row>
     <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B53" s="8">
         <v>3</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>56</v>
@@ -2600,19 +2600,19 @@
     </row>
     <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B54" s="8">
         <v>3</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>56</v>
@@ -2620,19 +2620,19 @@
     </row>
     <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B55" s="8">
         <v>3</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>56</v>
@@ -2640,19 +2640,19 @@
     </row>
     <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B56" s="8">
         <v>3</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>56</v>
@@ -2660,19 +2660,19 @@
     </row>
     <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B57" s="8">
         <v>3</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>56</v>
@@ -2680,19 +2680,19 @@
     </row>
     <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B58" s="8">
         <v>3</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>56</v>
@@ -2700,19 +2700,19 @@
     </row>
     <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B59" s="8">
         <v>3</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>56</v>
@@ -2720,19 +2720,19 @@
     </row>
     <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B60" s="8">
         <v>3</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>56</v>
@@ -2740,19 +2740,19 @@
     </row>
     <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B61" s="8">
         <v>3</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>56</v>
@@ -2760,19 +2760,19 @@
     </row>
     <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B62" s="8">
         <v>3</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>56</v>
@@ -2780,19 +2780,19 @@
     </row>
     <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B63" s="8">
         <v>3</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>56</v>
@@ -2800,19 +2800,19 @@
     </row>
     <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B64" s="8">
         <v>3</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>56</v>
@@ -2820,19 +2820,19 @@
     </row>
     <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B65" s="8">
         <v>3</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>56</v>
@@ -2840,19 +2840,19 @@
     </row>
     <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B66" s="8">
         <v>3</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>56</v>
@@ -2860,19 +2860,19 @@
     </row>
     <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B67" s="8">
         <v>3</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>56</v>
@@ -2880,19 +2880,19 @@
     </row>
     <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B68" s="8">
         <v>3</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>56</v>
@@ -2900,19 +2900,19 @@
     </row>
     <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B69" s="8">
         <v>3</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>56</v>
@@ -2920,19 +2920,19 @@
     </row>
     <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B70" s="8">
         <v>3</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>56</v>
@@ -2940,19 +2940,19 @@
     </row>
     <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B71" s="8">
         <v>3</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>56</v>
@@ -2960,19 +2960,19 @@
     </row>
     <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B72" s="8">
         <v>3</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>56</v>
@@ -2980,19 +2980,19 @@
     </row>
     <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B73" s="8">
         <v>3</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>56</v>
@@ -3000,19 +3000,19 @@
     </row>
     <row r="74" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B74" s="8">
         <v>3</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>56</v>
@@ -3020,19 +3020,19 @@
     </row>
     <row r="75" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B75" s="8">
         <v>3</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>56</v>
@@ -3040,19 +3040,19 @@
     </row>
     <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B76" s="8">
         <v>3</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>56</v>
@@ -3060,19 +3060,19 @@
     </row>
     <row r="77" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B77" s="8">
         <v>3</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>56</v>
@@ -3080,19 +3080,19 @@
     </row>
     <row r="78" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B78" s="8">
         <v>3</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>56</v>
@@ -3100,19 +3100,19 @@
     </row>
     <row r="79" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B79" s="8">
         <v>3</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>56</v>
@@ -3120,19 +3120,19 @@
     </row>
     <row r="80" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B80" s="8">
         <v>3</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>56</v>
@@ -3140,19 +3140,19 @@
     </row>
     <row r="81" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B81" s="8">
         <v>3</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>56</v>
@@ -3160,19 +3160,19 @@
     </row>
     <row r="82" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B82" s="7">
         <v>4</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>56</v>
@@ -3180,19 +3180,19 @@
     </row>
     <row r="83" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B83" s="7">
         <v>4</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>56</v>
@@ -3200,19 +3200,19 @@
     </row>
     <row r="84" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B84" s="7">
         <v>4</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>56</v>
@@ -3220,19 +3220,19 @@
     </row>
     <row r="85" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B85" s="7">
         <v>4</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>56</v>
@@ -3240,19 +3240,19 @@
     </row>
     <row r="86" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B86" s="7">
         <v>4</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>56</v>
@@ -3260,19 +3260,19 @@
     </row>
     <row r="87" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B87" s="7">
         <v>4</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>56</v>
@@ -3280,19 +3280,19 @@
     </row>
     <row r="88" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B88" s="7">
         <v>4</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>56</v>
@@ -3300,19 +3300,19 @@
     </row>
     <row r="89" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B89" s="7">
         <v>4</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>56</v>
@@ -3320,19 +3320,19 @@
     </row>
     <row r="90" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B90" s="7">
         <v>4</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>56</v>
@@ -3340,19 +3340,19 @@
     </row>
     <row r="91" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B91" s="7">
         <v>4</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>56</v>
@@ -3360,19 +3360,19 @@
     </row>
     <row r="92" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B92" s="7">
         <v>4</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>56</v>
@@ -3380,19 +3380,19 @@
     </row>
     <row r="93" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B93" s="7">
         <v>4</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>56</v>
@@ -3400,19 +3400,19 @@
     </row>
     <row r="94" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B94" s="7">
         <v>4</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>56</v>
@@ -3420,19 +3420,19 @@
     </row>
     <row r="95" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B95" s="7">
         <v>4</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>56</v>
@@ -3440,19 +3440,19 @@
     </row>
     <row r="96" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B96" s="7">
         <v>4</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>56</v>
@@ -3460,19 +3460,19 @@
     </row>
     <row r="97" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B97" s="7">
         <v>4</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>56</v>
@@ -3480,19 +3480,19 @@
     </row>
     <row r="98" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B98" s="7">
         <v>4</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>56</v>
@@ -3500,19 +3500,19 @@
     </row>
     <row r="99" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B99" s="7">
         <v>4</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>56</v>
@@ -3520,19 +3520,19 @@
     </row>
     <row r="100" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B100" s="7">
         <v>4</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>56</v>
@@ -3540,19 +3540,19 @@
     </row>
     <row r="101" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B101" s="7">
         <v>4</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>56</v>
@@ -3560,19 +3560,19 @@
     </row>
     <row r="102" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B102" s="7">
         <v>4</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>56</v>
@@ -3580,19 +3580,19 @@
     </row>
     <row r="103" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B103" s="7">
         <v>4</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>56</v>
@@ -3600,19 +3600,19 @@
     </row>
     <row r="104" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B104" s="7">
         <v>4</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>56</v>
@@ -3620,19 +3620,19 @@
     </row>
     <row r="105" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B105" s="7">
         <v>4</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>56</v>
@@ -3640,19 +3640,19 @@
     </row>
     <row r="106" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B106" s="7">
         <v>4</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>56</v>
@@ -3660,19 +3660,19 @@
     </row>
     <row r="107" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B107" s="7">
         <v>4</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>56</v>
@@ -3680,19 +3680,19 @@
     </row>
     <row r="108" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B108" s="7">
         <v>4</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>56</v>
@@ -3700,19 +3700,19 @@
     </row>
     <row r="109" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B109" s="7">
         <v>4</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>56</v>
@@ -3720,19 +3720,19 @@
     </row>
     <row r="110" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B110" s="7">
         <v>4</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>56</v>
@@ -3740,19 +3740,19 @@
     </row>
     <row r="111" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B111" s="7">
         <v>4</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>56</v>
@@ -3760,19 +3760,19 @@
     </row>
     <row r="112" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B112" s="7">
         <v>4</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>56</v>
@@ -3780,19 +3780,19 @@
     </row>
     <row r="113" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B113" s="7">
         <v>4</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>56</v>
@@ -3800,19 +3800,19 @@
     </row>
     <row r="114" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B114" s="7">
         <v>4</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>56</v>
@@ -3820,19 +3820,19 @@
     </row>
     <row r="115" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B115" s="7">
         <v>4</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>56</v>
@@ -3840,19 +3840,19 @@
     </row>
     <row r="116" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B116" s="7">
         <v>4</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>56</v>
@@ -3860,19 +3860,19 @@
     </row>
     <row r="117" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B117" s="7">
         <v>4</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>56</v>
@@ -3880,19 +3880,19 @@
     </row>
     <row r="118" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B118" s="7">
         <v>4</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>56</v>
@@ -3900,19 +3900,19 @@
     </row>
     <row r="119" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B119" s="7">
         <v>4</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>56</v>
@@ -3920,19 +3920,19 @@
     </row>
     <row r="120" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B120" s="7">
         <v>4</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>56</v>
@@ -3940,19 +3940,19 @@
     </row>
     <row r="121" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B121" s="7">
         <v>4</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>56</v>
@@ -4012,7 +4012,7 @@
         <v>22</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>58</v>
+        <v>332</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>56</v>
@@ -4032,7 +4032,7 @@
         <v>32</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>56</v>
@@ -4072,7 +4072,7 @@
         <v>32</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>59</v>
+        <v>333</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>56</v>
@@ -4092,7 +4092,7 @@
         <v>23</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>56</v>
@@ -4132,7 +4132,7 @@
         <v>23</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>60</v>
+        <v>334</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>56</v>
@@ -4191,8 +4191,8 @@
       <c r="D133" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E133" s="1" t="s">
-        <v>61</v>
+      <c r="E133" s="6" t="s">
+        <v>335</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>56</v>
@@ -4212,7 +4212,7 @@
         <v>33</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>56</v>
@@ -4252,7 +4252,7 @@
         <v>33</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>62</v>
+        <v>336</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>56</v>
@@ -4272,7 +4272,7 @@
         <v>25</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>56</v>
@@ -4312,7 +4312,7 @@
         <v>25</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>63</v>
+        <v>337</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>56</v>
@@ -4372,7 +4372,7 @@
         <v>28</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>64</v>
+        <v>338</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>56</v>
@@ -4392,7 +4392,7 @@
         <v>13</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>56</v>
@@ -4432,7 +4432,7 @@
         <v>13</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>65</v>
+        <v>339</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>56</v>
@@ -4492,7 +4492,7 @@
         <v>26</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>66</v>
+        <v>340</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>56</v>
@@ -4512,7 +4512,7 @@
         <v>14</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>56</v>
@@ -4552,7 +4552,7 @@
         <v>14</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>67</v>
+        <v>341</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>56</v>
@@ -4572,7 +4572,7 @@
         <v>30</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>56</v>
@@ -4612,7 +4612,7 @@
         <v>30</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>69</v>
+        <v>342</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>56</v>
@@ -4632,7 +4632,7 @@
         <v>15</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>56</v>
@@ -4672,7 +4672,7 @@
         <v>15</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>68</v>
+        <v>343</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>56</v>
@@ -4692,7 +4692,7 @@
         <v>16</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>56</v>
@@ -4732,7 +4732,7 @@
         <v>16</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>56</v>
@@ -4752,7 +4752,7 @@
         <v>17</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>56</v>
@@ -4792,7 +4792,7 @@
         <v>17</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>56</v>
@@ -4812,7 +4812,7 @@
         <v>29</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>56</v>
@@ -4852,7 +4852,7 @@
         <v>29</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>72</v>
+        <v>344</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>56</v>
@@ -4872,7 +4872,7 @@
         <v>18</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>56</v>
@@ -4912,7 +4912,7 @@
         <v>18</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>56</v>
@@ -4972,7 +4972,7 @@
         <v>20</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>74</v>
+        <v>345</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>56</v>
@@ -4992,7 +4992,7 @@
         <v>24</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>56</v>
@@ -5032,7 +5032,7 @@
         <v>24</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>56</v>
@@ -5092,7 +5092,7 @@
         <v>7</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>76</v>
+        <v>346</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>56</v>
@@ -5152,7 +5152,7 @@
         <v>9</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>56</v>
@@ -5160,19 +5160,19 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B182" s="12">
         <v>6</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D182" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>56</v>
@@ -5180,19 +5180,19 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B183" s="12">
         <v>6</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>56</v>
@@ -5200,19 +5200,19 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B184" s="12">
         <v>6</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D184" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>56</v>
@@ -5220,19 +5220,19 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B185" s="12">
         <v>6</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D185" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>56</v>
@@ -5240,19 +5240,19 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B186" s="12">
         <v>6</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D186" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>56</v>
@@ -5260,19 +5260,19 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B187" s="12">
         <v>6</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D187" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>56</v>
@@ -5280,19 +5280,19 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B188" s="12">
         <v>6</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D188" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>56</v>
@@ -5300,19 +5300,19 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B189" s="12">
         <v>6</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D189" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>56</v>
@@ -5320,19 +5320,19 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B190" s="12">
         <v>6</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D190" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>56</v>
@@ -5340,19 +5340,19 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B191" s="12">
         <v>6</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D191" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>56</v>
@@ -5360,19 +5360,19 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B192" s="12">
         <v>6</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D192" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>56</v>
@@ -5380,19 +5380,19 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B193" s="12">
         <v>6</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D193" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>56</v>
@@ -5400,19 +5400,19 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B194" s="12">
         <v>6</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D194" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>56</v>
@@ -5420,19 +5420,19 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B195" s="12">
         <v>6</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D195" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>56</v>
@@ -5440,19 +5440,19 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B196" s="12">
         <v>6</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D196" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>56</v>
@@ -5460,19 +5460,19 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B197" s="12">
         <v>6</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D197" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>56</v>
@@ -5480,19 +5480,19 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B198" s="12">
         <v>6</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D198" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>56</v>
@@ -5500,19 +5500,19 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B199" s="12">
         <v>6</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D199" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>56</v>
@@ -5520,19 +5520,19 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B200" s="12">
         <v>6</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D200" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>56</v>
@@ -5540,19 +5540,19 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B201" s="12">
         <v>6</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D201" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>56</v>
@@ -5560,19 +5560,19 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B202" s="12">
         <v>6</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D202" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>56</v>
@@ -5580,19 +5580,19 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B203" s="12">
         <v>6</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D203" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>56</v>
@@ -5600,19 +5600,19 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B204" s="12">
         <v>6</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D204" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>56</v>
@@ -5620,19 +5620,19 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B205" s="12">
         <v>6</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D205" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>56</v>
@@ -5640,19 +5640,19 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B206" s="12">
         <v>6</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D206" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>56</v>
@@ -5660,19 +5660,19 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B207" s="12">
         <v>6</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D207" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>56</v>
@@ -5680,19 +5680,19 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B208" s="12">
         <v>6</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D208" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>56</v>
@@ -5700,19 +5700,19 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B209" s="12">
         <v>6</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D209" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>56</v>
@@ -5720,19 +5720,19 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B210" s="12">
         <v>6</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D210" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>56</v>
@@ -5740,19 +5740,19 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B211" s="12">
         <v>6</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D211" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>56</v>
@@ -5760,19 +5760,19 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B212" s="12">
         <v>6</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D212" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>56</v>
@@ -5780,19 +5780,19 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B213" s="12">
         <v>6</v>
       </c>
       <c r="C213" s="12" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D213" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>56</v>
@@ -5800,19 +5800,19 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B214" s="12">
         <v>6</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D214" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>56</v>
@@ -5820,19 +5820,19 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B215" s="12">
         <v>6</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D215" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>56</v>
@@ -5840,19 +5840,19 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B216" s="12">
         <v>6</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D216" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>56</v>
@@ -5860,19 +5860,19 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B217" s="12">
         <v>6</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D217" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>56</v>
@@ -5880,19 +5880,19 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B218" s="12">
         <v>6</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D218" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>56</v>
@@ -5900,19 +5900,19 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B219" s="12">
         <v>6</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D219" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>56</v>
@@ -5920,19 +5920,19 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B220" s="12">
         <v>6</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D220" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>56</v>
@@ -5940,19 +5940,19 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B221" s="12">
         <v>6</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D221" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>56</v>
@@ -5960,19 +5960,19 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B222" s="12">
         <v>6</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D222" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>56</v>
@@ -5980,19 +5980,19 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B223" s="12">
         <v>6</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D223" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>56</v>
@@ -6000,19 +6000,19 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B224" s="12">
         <v>6</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D224" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>56</v>
@@ -6020,19 +6020,19 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B225" s="12">
         <v>6</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D225" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>56</v>
@@ -6040,19 +6040,19 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B226" s="12">
         <v>6</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D226" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>56</v>
@@ -6060,19 +6060,19 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B227" s="12">
         <v>6</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D227" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>56</v>
@@ -6080,19 +6080,19 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B228" s="12">
         <v>6</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D228" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>56</v>
@@ -6100,19 +6100,19 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B229" s="12">
         <v>6</v>
       </c>
       <c r="C229" s="12" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D229" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>56</v>
@@ -6120,19 +6120,19 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B230" s="12">
         <v>6</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D230" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>56</v>
@@ -6140,19 +6140,19 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B231" s="12">
         <v>6</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>56</v>
@@ -6160,19 +6160,19 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B232" s="12">
         <v>6</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D232" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>56</v>
@@ -6180,19 +6180,19 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B233" s="12">
         <v>6</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D233" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>56</v>
@@ -6200,19 +6200,19 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B234" s="12">
         <v>6</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D234" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>56</v>
@@ -6220,19 +6220,19 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B235" s="12">
         <v>6</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>56</v>
@@ -6240,19 +6240,19 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B236" s="12">
         <v>6</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>56</v>
@@ -6260,19 +6260,19 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B237" s="12">
         <v>6</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D237" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>56</v>
@@ -6280,19 +6280,19 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B238" s="12">
         <v>6</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>56</v>
@@ -6300,19 +6300,19 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B239" s="12">
         <v>6</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D239" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>56</v>
@@ -6320,19 +6320,19 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B240" s="12">
         <v>6</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D240" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>56</v>
@@ -6340,19 +6340,19 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B241" s="12">
         <v>6</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D241" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>56</v>
@@ -6360,19 +6360,19 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B242" s="12">
         <v>6</v>
       </c>
       <c r="C242" s="12" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D242" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>56</v>
@@ -6380,19 +6380,19 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B243" s="12">
         <v>6</v>
       </c>
       <c r="C243" s="12" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D243" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>56</v>
@@ -6400,19 +6400,19 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B244" s="12">
         <v>6</v>
       </c>
       <c r="C244" s="12" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D244" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>56</v>
@@ -6420,19 +6420,19 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B245" s="12">
         <v>6</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D245" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>56</v>
@@ -6440,19 +6440,19 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B246" s="12">
         <v>6</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D246" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>56</v>
@@ -6460,19 +6460,19 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B247" s="12">
         <v>6</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D247" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>56</v>
@@ -6480,19 +6480,19 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B248" s="12">
         <v>6</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D248" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>56</v>
@@ -6500,19 +6500,19 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B249" s="12">
         <v>6</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D249" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>56</v>
@@ -6520,19 +6520,19 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B250" s="12">
         <v>6</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D250" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>56</v>
@@ -6540,19 +6540,19 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B251" s="12">
         <v>6</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D251" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>56</v>
@@ -6560,19 +6560,19 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B252" s="12">
         <v>6</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D252" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>56</v>
@@ -6580,19 +6580,19 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B253" s="12">
         <v>6</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D253" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>56</v>
@@ -6600,19 +6600,19 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B254" s="12">
         <v>6</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D254" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>56</v>
@@ -6620,19 +6620,19 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B255" s="12">
         <v>6</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D255" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>56</v>
@@ -6640,19 +6640,19 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B256" s="12">
         <v>6</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D256" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>56</v>
@@ -6660,19 +6660,19 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B257" s="12">
         <v>6</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D257" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>56</v>
@@ -6680,19 +6680,19 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B258" s="12">
         <v>6</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D258" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>56</v>
@@ -6700,19 +6700,19 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B259" s="12">
         <v>6</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D259" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>56</v>
@@ -6720,19 +6720,19 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B260" s="12">
         <v>6</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D260" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>56</v>
@@ -6740,19 +6740,19 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B261" s="12">
         <v>6</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D261" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>56</v>
@@ -6760,19 +6760,19 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B262" s="12">
         <v>6</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D262" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>56</v>
@@ -6780,19 +6780,19 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B263" s="12">
         <v>6</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D263" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>56</v>
@@ -6800,19 +6800,19 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B264" s="12">
         <v>6</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D264" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>56</v>
@@ -6820,19 +6820,19 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B265" s="12">
         <v>6</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D265" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>56</v>
@@ -6840,19 +6840,19 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B266" s="12">
         <v>6</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D266" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>56</v>
@@ -6860,19 +6860,19 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B267" s="12">
         <v>6</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D267" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>56</v>
@@ -6880,19 +6880,19 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B268" s="12">
         <v>6</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D268" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>56</v>
@@ -6900,19 +6900,19 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B269" s="12">
         <v>6</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D269" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>56</v>
@@ -6920,19 +6920,19 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B270" s="12">
         <v>6</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D270" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>56</v>
@@ -6940,19 +6940,19 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B271" s="12">
         <v>6</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D271" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>56</v>
@@ -6960,19 +6960,19 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B272" s="12">
         <v>6</v>
       </c>
       <c r="C272" s="12" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D272" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>56</v>
@@ -6980,19 +6980,19 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B273" s="12">
         <v>6</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D273" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>56</v>
@@ -7000,19 +7000,19 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B274" s="12">
         <v>6</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D274" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>56</v>
@@ -7020,19 +7020,19 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B275" s="12">
         <v>6</v>
       </c>
       <c r="C275" s="12" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D275" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>56</v>
@@ -7040,19 +7040,19 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B276" s="12">
         <v>6</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D276" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>56</v>
@@ -7060,19 +7060,19 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B277" s="12">
         <v>6</v>
       </c>
       <c r="C277" s="12" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D277" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>56</v>
@@ -7080,19 +7080,19 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B278" s="12">
         <v>6</v>
       </c>
       <c r="C278" s="12" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D278" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>56</v>
@@ -7100,19 +7100,19 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B279" s="12">
         <v>6</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D279" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>56</v>
@@ -7120,19 +7120,19 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B280" s="12">
         <v>6</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D280" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>56</v>
@@ -7140,19 +7140,19 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B281" s="12">
         <v>6</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D281" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>56</v>
@@ -7160,19 +7160,19 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B282" s="12">
         <v>6</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D282" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>56</v>
@@ -7180,19 +7180,19 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B283" s="12">
         <v>6</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D283" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>56</v>
@@ -7200,19 +7200,19 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B284" s="12">
         <v>6</v>
       </c>
       <c r="C284" s="12" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D284" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>56</v>
@@ -7220,19 +7220,19 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B285" s="12">
         <v>6</v>
       </c>
       <c r="C285" s="12" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D285" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>56</v>
@@ -7240,19 +7240,19 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B286" s="12">
         <v>6</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D286" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>56</v>
@@ -7260,19 +7260,19 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B287" s="12">
         <v>6</v>
       </c>
       <c r="C287" s="12" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D287" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="F287" s="1" t="s">
         <v>56</v>
@@ -7280,19 +7280,19 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B288" s="12">
         <v>6</v>
       </c>
       <c r="C288" s="12" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D288" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>56</v>
@@ -7300,19 +7300,19 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B289" s="12">
         <v>6</v>
       </c>
       <c r="C289" s="12" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D289" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>56</v>
@@ -7320,19 +7320,19 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B290" s="12">
         <v>6</v>
       </c>
       <c r="C290" s="12" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D290" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>56</v>
@@ -7340,19 +7340,19 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B291" s="12">
         <v>6</v>
       </c>
       <c r="C291" s="12" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D291" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>56</v>
@@ -7360,19 +7360,19 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B292" s="12">
         <v>6</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D292" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F292" s="1" t="s">
         <v>56</v>
@@ -7380,19 +7380,19 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B293" s="12">
         <v>6</v>
       </c>
       <c r="C293" s="12" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D293" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="F293" s="1" t="s">
         <v>56</v>
@@ -7400,19 +7400,19 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B294" s="12">
         <v>6</v>
       </c>
       <c r="C294" s="12" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D294" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="F294" s="1" t="s">
         <v>56</v>
@@ -7420,19 +7420,19 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B295" s="12">
         <v>6</v>
       </c>
       <c r="C295" s="12" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D295" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="F295" s="1" t="s">
         <v>56</v>
@@ -7440,19 +7440,19 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B296" s="12">
         <v>6</v>
       </c>
       <c r="C296" s="12" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D296" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>56</v>
@@ -7460,19 +7460,19 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B297" s="12">
         <v>6</v>
       </c>
       <c r="C297" s="12" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D297" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>56</v>
@@ -7480,19 +7480,19 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B298" s="12">
         <v>6</v>
       </c>
       <c r="C298" s="12" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="D298" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>56</v>
@@ -7500,19 +7500,19 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B299" s="12">
         <v>6</v>
       </c>
       <c r="C299" s="12" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D299" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="F299" s="1" t="s">
         <v>56</v>
@@ -7520,19 +7520,19 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B300" s="12">
         <v>6</v>
       </c>
       <c r="C300" s="12" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D300" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>56</v>
@@ -7540,19 +7540,19 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="12" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B301" s="12">
         <v>6</v>
       </c>
       <c r="C301" s="12" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="D301" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>56</v>

--- a/refair-server/datasets/few shot dataset/FSDataset.xlsx
+++ b/refair-server/datasets/few shot dataset/FSDataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morel\Desktop\Refair\ReFair-App\refair-server\datasets\few shot dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145793E0-BE19-42A5-ABC4-DA7731A4C14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F7BFA2-1080-4218-89DB-1BC727193A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80773445-FB61-4F04-A882-1600FD96C55A}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{80773445-FB61-4F04-A882-1600FD96C55A}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -170,9 +170,6 @@
     <t>As a literary researcher, I want to use keyword extraction techniques to automatically identify and extract key themes and motifs from a collection of classic novels, facilitating thematic analysis and comparative literature studies.</t>
   </si>
   <si>
-    <t>As a literature researcher, I want to employ k-NN clustering to analyze and categorize literary genres and subgenres based on shared characteristics such as narrative style, thematic content, and cultural influences, supporting systematic genre classification and literary taxonomy.</t>
-  </si>
-  <si>
     <t>As a literary researcher, I want to implement multi-label classification techniques to categorize novels into multiple genres simultaneously, recognizing hybrid genres or overlapping thematic elements in literary works.</t>
   </si>
   <si>
@@ -1077,6 +1074,9 @@
   </si>
   <si>
     <t>As a linguistic anthropologist, I want to use voice recognition technology to transcribe and analyze spoken narratives of indigenous communities, so that I can document and understand cultural changes through linguistic shifts.</t>
+  </si>
+  <si>
+    <t>As a literary data analyst, I want to implement a k-nearest neighbor algorithm to recommend books to users based on similarities in their reading preferences and historical borrowing patterns, providing personalized recommendations that align with their literary tastes and interests.</t>
   </si>
 </sst>
 </file>
@@ -1525,8 +1525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DF0B04-8323-4309-B759-D1CDDA1FBB0E}">
   <dimension ref="A1:F301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E178" sqref="E178"/>
+    <sheetView tabSelected="1" topLeftCell="C159" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D179" sqref="D179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1555,2407 +1555,2407 @@
         <v>10</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="10">
         <v>2</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B3" s="10">
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" s="10">
         <v>2</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" s="10">
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" s="10">
         <v>2</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7" s="10">
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B8" s="10">
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B9" s="10">
         <v>2</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B10" s="10">
         <v>2</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" s="10">
         <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" s="10">
         <v>2</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B13" s="10">
         <v>2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14" s="10">
         <v>2</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15" s="10">
         <v>2</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B16" s="10">
         <v>2</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B17" s="10">
         <v>2</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B18" s="10">
         <v>2</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B19" s="10">
         <v>2</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B20" s="10">
         <v>2</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B21" s="10">
         <v>2</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B22" s="10">
         <v>2</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B23" s="10">
         <v>2</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B24" s="10">
         <v>2</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B25" s="10">
         <v>2</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B26" s="10">
         <v>2</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B27" s="10">
         <v>2</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B28" s="10">
         <v>2</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B29" s="10">
         <v>2</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B30" s="10">
         <v>2</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B31" s="10">
         <v>2</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B32" s="10">
         <v>2</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B33" s="10">
         <v>2</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B34" s="10">
         <v>2</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B35" s="10">
         <v>2</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B36" s="10">
         <v>2</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B37" s="10">
         <v>2</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B38" s="10">
         <v>2</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B39" s="10">
         <v>2</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B40" s="10">
         <v>2</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B41" s="10">
         <v>2</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B42" s="8">
         <v>3</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B43" s="8">
         <v>3</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B44" s="8">
         <v>3</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B45" s="8">
         <v>3</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B46" s="8">
         <v>3</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B47" s="8">
         <v>3</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B48" s="8">
         <v>3</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B49" s="8">
         <v>3</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B50" s="8">
         <v>3</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B51" s="8">
         <v>3</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B52" s="8">
         <v>3</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B53" s="8">
         <v>3</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B54" s="8">
         <v>3</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B55" s="8">
         <v>3</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B56" s="8">
         <v>3</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B57" s="8">
         <v>3</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B58" s="8">
         <v>3</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B59" s="8">
         <v>3</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B60" s="8">
         <v>3</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B61" s="8">
         <v>3</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B62" s="8">
         <v>3</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B63" s="8">
         <v>3</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B64" s="8">
         <v>3</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B65" s="8">
         <v>3</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B66" s="8">
         <v>3</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B67" s="8">
         <v>3</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B68" s="8">
         <v>3</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B69" s="8">
         <v>3</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B70" s="8">
         <v>3</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B71" s="8">
         <v>3</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B72" s="8">
         <v>3</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B73" s="8">
         <v>3</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B74" s="8">
         <v>3</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B75" s="8">
         <v>3</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B76" s="8">
         <v>3</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B77" s="8">
         <v>3</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B78" s="8">
         <v>3</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B79" s="8">
         <v>3</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B80" s="8">
         <v>3</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B81" s="8">
         <v>3</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B82" s="7">
         <v>4</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B83" s="7">
+        <v>4</v>
+      </c>
+      <c r="C83" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B83" s="7">
-        <v>4</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B84" s="7">
         <v>4</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B85" s="7">
+        <v>4</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B85" s="7">
-        <v>4</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B86" s="7">
         <v>4</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B87" s="7">
+        <v>4</v>
+      </c>
+      <c r="C87" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B87" s="7">
-        <v>4</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B88" s="7">
         <v>4</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B89" s="7">
+        <v>4</v>
+      </c>
+      <c r="C89" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B89" s="7">
-        <v>4</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B90" s="7">
         <v>4</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" s="7">
+        <v>4</v>
+      </c>
+      <c r="C91" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B91" s="7">
-        <v>4</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B92" s="7">
         <v>4</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B93" s="7">
+        <v>4</v>
+      </c>
+      <c r="C93" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B93" s="7">
-        <v>4</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B94" s="7">
         <v>4</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B95" s="7">
+        <v>4</v>
+      </c>
+      <c r="C95" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B95" s="7">
-        <v>4</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B96" s="7">
         <v>4</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="97" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B97" s="7">
+        <v>4</v>
+      </c>
+      <c r="C97" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B97" s="7">
-        <v>4</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B98" s="7">
         <v>4</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="99" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B99" s="7">
+        <v>4</v>
+      </c>
+      <c r="C99" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B99" s="7">
-        <v>4</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B100" s="7">
         <v>4</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B101" s="7">
+        <v>4</v>
+      </c>
+      <c r="C101" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B101" s="7">
-        <v>4</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B102" s="7">
         <v>4</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B103" s="7">
+        <v>4</v>
+      </c>
+      <c r="C103" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B103" s="7">
-        <v>4</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B104" s="7">
         <v>4</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B105" s="7">
+        <v>4</v>
+      </c>
+      <c r="C105" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B105" s="7">
-        <v>4</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B106" s="7">
         <v>4</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B107" s="7">
+        <v>4</v>
+      </c>
+      <c r="C107" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B107" s="7">
-        <v>4</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B108" s="7">
         <v>4</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="109" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B109" s="7">
+        <v>4</v>
+      </c>
+      <c r="C109" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B109" s="7">
-        <v>4</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="110" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B110" s="7">
         <v>4</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="111" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B111" s="7">
+        <v>4</v>
+      </c>
+      <c r="C111" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B111" s="7">
-        <v>4</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B112" s="7">
         <v>4</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="113" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B113" s="7">
+        <v>4</v>
+      </c>
+      <c r="C113" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B113" s="7">
-        <v>4</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="114" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B114" s="7">
         <v>4</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B115" s="7">
+        <v>4</v>
+      </c>
+      <c r="C115" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B115" s="7">
-        <v>4</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="116" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B116" s="7">
         <v>4</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="117" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B117" s="7">
+        <v>4</v>
+      </c>
+      <c r="C117" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B117" s="7">
-        <v>4</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="118" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B118" s="7">
         <v>4</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B119" s="7">
+        <v>4</v>
+      </c>
+      <c r="C119" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B119" s="7">
-        <v>4</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B120" s="7">
         <v>4</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="121" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B121" s="7">
+        <v>4</v>
+      </c>
+      <c r="C121" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B121" s="7">
-        <v>4</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3975,7 +3975,7 @@
         <v>21</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3995,7 +3995,7 @@
         <v>36</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -4006,16 +4006,16 @@
         <v>5</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -4032,10 +4032,10 @@
         <v>32</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -4055,7 +4055,7 @@
         <v>35</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -4066,16 +4066,16 @@
         <v>5</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -4092,10 +4092,10 @@
         <v>23</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -4115,7 +4115,7 @@
         <v>37</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -4126,16 +4126,16 @@
         <v>5</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -4155,7 +4155,7 @@
         <v>11</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -4175,7 +4175,7 @@
         <v>38</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -4186,16 +4186,16 @@
         <v>5</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -4212,10 +4212,10 @@
         <v>33</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -4235,7 +4235,7 @@
         <v>40</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -4246,16 +4246,16 @@
         <v>5</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D136" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -4272,10 +4272,10 @@
         <v>25</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -4295,7 +4295,7 @@
         <v>39</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -4306,16 +4306,16 @@
         <v>5</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -4335,7 +4335,7 @@
         <v>27</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -4355,7 +4355,7 @@
         <v>41</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4366,16 +4366,16 @@
         <v>5</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4392,10 +4392,10 @@
         <v>13</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4415,7 +4415,7 @@
         <v>42</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4426,16 +4426,16 @@
         <v>5</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -4455,7 +4455,7 @@
         <v>31</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -4475,7 +4475,7 @@
         <v>43</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4486,16 +4486,16 @@
         <v>5</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4512,10 +4512,10 @@
         <v>14</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4532,10 +4532,10 @@
         <v>14</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>44</v>
+        <v>346</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4546,16 +4546,16 @@
         <v>5</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4572,10 +4572,10 @@
         <v>30</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4592,10 +4592,10 @@
         <v>30</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4606,16 +4606,16 @@
         <v>5</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4632,10 +4632,10 @@
         <v>15</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4652,10 +4652,10 @@
         <v>15</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4666,16 +4666,16 @@
         <v>5</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -4692,10 +4692,10 @@
         <v>16</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4712,10 +4712,10 @@
         <v>16</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -4726,16 +4726,16 @@
         <v>5</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -4752,10 +4752,10 @@
         <v>17</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -4772,10 +4772,10 @@
         <v>17</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4786,16 +4786,16 @@
         <v>5</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -4812,10 +4812,10 @@
         <v>29</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4832,10 +4832,10 @@
         <v>29</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4846,16 +4846,16 @@
         <v>5</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4872,10 +4872,10 @@
         <v>18</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4892,10 +4892,10 @@
         <v>18</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4906,16 +4906,16 @@
         <v>5</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4935,7 +4935,7 @@
         <v>19</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4952,10 +4952,10 @@
         <v>20</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4966,16 +4966,16 @@
         <v>5</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4992,10 +4992,10 @@
         <v>24</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -5012,10 +5012,10 @@
         <v>24</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -5026,16 +5026,16 @@
         <v>5</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D175" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -5055,7 +5055,7 @@
         <v>6</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -5072,10 +5072,10 @@
         <v>7</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -5086,16 +5086,16 @@
         <v>5</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -5115,7 +5115,7 @@
         <v>8</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -5132,10 +5132,10 @@
         <v>9</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -5146,2416 +5146,2416 @@
         <v>5</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D181" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B182" s="12">
+        <v>6</v>
+      </c>
+      <c r="C182" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="B182" s="12">
-        <v>6</v>
-      </c>
-      <c r="C182" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="D182" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B183" s="12">
         <v>6</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B184" s="12">
         <v>6</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D184" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B185" s="12">
         <v>6</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D185" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B186" s="12">
         <v>6</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D186" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B187" s="12">
         <v>6</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D187" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B188" s="12">
+        <v>6</v>
+      </c>
+      <c r="C188" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="B188" s="12">
-        <v>6</v>
-      </c>
-      <c r="C188" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="D188" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B189" s="12">
         <v>6</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D189" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B190" s="12">
         <v>6</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D190" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B191" s="12">
         <v>6</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D191" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B192" s="12">
         <v>6</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D192" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" s="12">
         <v>6</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D193" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B194" s="12">
+        <v>6</v>
+      </c>
+      <c r="C194" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="B194" s="12">
-        <v>6</v>
-      </c>
-      <c r="C194" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="D194" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B195" s="12">
         <v>6</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D195" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B196" s="12">
         <v>6</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D196" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B197" s="12">
         <v>6</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D197" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B198" s="12">
         <v>6</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D198" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B199" s="12">
         <v>6</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D199" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B200" s="12">
+        <v>6</v>
+      </c>
+      <c r="C200" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="B200" s="12">
-        <v>6</v>
-      </c>
-      <c r="C200" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="D200" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B201" s="12">
         <v>6</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D201" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B202" s="12">
         <v>6</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D202" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B203" s="12">
         <v>6</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D203" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B204" s="12">
         <v>6</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D204" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B205" s="12">
         <v>6</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D205" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B206" s="12">
+        <v>6</v>
+      </c>
+      <c r="C206" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="B206" s="12">
-        <v>6</v>
-      </c>
-      <c r="C206" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="D206" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B207" s="12">
         <v>6</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D207" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B208" s="12">
         <v>6</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D208" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B209" s="12">
         <v>6</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D209" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B210" s="12">
         <v>6</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D210" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B211" s="12">
         <v>6</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D211" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B212" s="12">
+        <v>6</v>
+      </c>
+      <c r="C212" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="B212" s="12">
-        <v>6</v>
-      </c>
-      <c r="C212" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="D212" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B213" s="12">
         <v>6</v>
       </c>
       <c r="C213" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D213" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B214" s="12">
         <v>6</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D214" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B215" s="12">
         <v>6</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D215" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B216" s="12">
         <v>6</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D216" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B217" s="12">
         <v>6</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D217" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B218" s="12">
+        <v>6</v>
+      </c>
+      <c r="C218" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="B218" s="12">
-        <v>6</v>
-      </c>
-      <c r="C218" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="D218" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B219" s="12">
         <v>6</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D219" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B220" s="12">
         <v>6</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D220" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B221" s="12">
         <v>6</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D221" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B222" s="12">
         <v>6</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D222" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B223" s="12">
         <v>6</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D223" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B224" s="12">
+        <v>6</v>
+      </c>
+      <c r="C224" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="B224" s="12">
-        <v>6</v>
-      </c>
-      <c r="C224" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="D224" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B225" s="12">
         <v>6</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D225" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B226" s="12">
         <v>6</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D226" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B227" s="12">
         <v>6</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D227" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B228" s="12">
         <v>6</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D228" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B229" s="12">
         <v>6</v>
       </c>
       <c r="C229" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D229" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B230" s="12">
+        <v>6</v>
+      </c>
+      <c r="C230" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="B230" s="12">
-        <v>6</v>
-      </c>
-      <c r="C230" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="D230" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B231" s="12">
         <v>6</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B232" s="12">
         <v>6</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D232" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B233" s="12">
         <v>6</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D233" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B234" s="12">
         <v>6</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D234" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B235" s="12">
         <v>6</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B236" s="12">
+        <v>6</v>
+      </c>
+      <c r="C236" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="B236" s="12">
-        <v>6</v>
-      </c>
-      <c r="C236" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B237" s="12">
         <v>6</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D237" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B238" s="12">
         <v>6</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B239" s="12">
         <v>6</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D239" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B240" s="12">
         <v>6</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D240" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B241" s="12">
         <v>6</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D241" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B242" s="12">
+        <v>6</v>
+      </c>
+      <c r="C242" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="B242" s="12">
-        <v>6</v>
-      </c>
-      <c r="C242" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="D242" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B243" s="12">
         <v>6</v>
       </c>
       <c r="C243" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D243" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B244" s="12">
         <v>6</v>
       </c>
       <c r="C244" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D244" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B245" s="12">
         <v>6</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D245" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B246" s="12">
         <v>6</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D246" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B247" s="12">
         <v>6</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D247" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B248" s="12">
+        <v>6</v>
+      </c>
+      <c r="C248" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="B248" s="12">
-        <v>6</v>
-      </c>
-      <c r="C248" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="D248" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B249" s="12">
         <v>6</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D249" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B250" s="12">
         <v>6</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D250" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B251" s="12">
         <v>6</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D251" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B252" s="12">
         <v>6</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D252" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B253" s="12">
         <v>6</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D253" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B254" s="12">
+        <v>6</v>
+      </c>
+      <c r="C254" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="B254" s="12">
-        <v>6</v>
-      </c>
-      <c r="C254" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="D254" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B255" s="12">
         <v>6</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D255" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B256" s="12">
         <v>6</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D256" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B257" s="12">
         <v>6</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D257" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B258" s="12">
         <v>6</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D258" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B259" s="12">
         <v>6</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D259" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B260" s="12">
+        <v>6</v>
+      </c>
+      <c r="C260" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="B260" s="12">
-        <v>6</v>
-      </c>
-      <c r="C260" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="D260" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B261" s="12">
         <v>6</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D261" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B262" s="12">
         <v>6</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D262" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B263" s="12">
         <v>6</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D263" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B264" s="12">
         <v>6</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D264" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B265" s="12">
         <v>6</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D265" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B266" s="12">
+        <v>6</v>
+      </c>
+      <c r="C266" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="B266" s="12">
-        <v>6</v>
-      </c>
-      <c r="C266" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="D266" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B267" s="12">
         <v>6</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D267" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B268" s="12">
         <v>6</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D268" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B269" s="12">
         <v>6</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D269" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B270" s="12">
         <v>6</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D270" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B271" s="12">
         <v>6</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D271" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B272" s="12">
+        <v>6</v>
+      </c>
+      <c r="C272" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="B272" s="12">
-        <v>6</v>
-      </c>
-      <c r="C272" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="D272" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B273" s="12">
         <v>6</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D273" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B274" s="12">
         <v>6</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D274" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B275" s="12">
         <v>6</v>
       </c>
       <c r="C275" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D275" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B276" s="12">
         <v>6</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D276" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B277" s="12">
         <v>6</v>
       </c>
       <c r="C277" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D277" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B278" s="12">
+        <v>6</v>
+      </c>
+      <c r="C278" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="B278" s="12">
-        <v>6</v>
-      </c>
-      <c r="C278" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="D278" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B279" s="12">
         <v>6</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D279" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B280" s="12">
         <v>6</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D280" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B281" s="12">
         <v>6</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D281" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B282" s="12">
         <v>6</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D282" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B283" s="12">
         <v>6</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D283" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B284" s="12">
+        <v>6</v>
+      </c>
+      <c r="C284" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="B284" s="12">
-        <v>6</v>
-      </c>
-      <c r="C284" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="D284" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B285" s="12">
         <v>6</v>
       </c>
       <c r="C285" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D285" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B286" s="12">
         <v>6</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D286" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B287" s="12">
         <v>6</v>
       </c>
       <c r="C287" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D287" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B288" s="12">
         <v>6</v>
       </c>
       <c r="C288" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D288" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B289" s="12">
         <v>6</v>
       </c>
       <c r="C289" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D289" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B290" s="12">
+        <v>6</v>
+      </c>
+      <c r="C290" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="B290" s="12">
-        <v>6</v>
-      </c>
-      <c r="C290" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="D290" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B291" s="12">
         <v>6</v>
       </c>
       <c r="C291" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D291" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B292" s="12">
         <v>6</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D292" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B293" s="12">
         <v>6</v>
       </c>
       <c r="C293" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D293" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B294" s="12">
         <v>6</v>
       </c>
       <c r="C294" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D294" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B295" s="12">
         <v>6</v>
       </c>
       <c r="C295" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D295" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B296" s="12">
+        <v>6</v>
+      </c>
+      <c r="C296" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="B296" s="12">
-        <v>6</v>
-      </c>
-      <c r="C296" s="12" t="s">
-        <v>193</v>
       </c>
       <c r="D296" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B297" s="12">
         <v>6</v>
       </c>
       <c r="C297" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D297" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B298" s="12">
         <v>6</v>
       </c>
       <c r="C298" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D298" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B299" s="12">
         <v>6</v>
       </c>
       <c r="C299" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D299" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B300" s="12">
         <v>6</v>
       </c>
       <c r="C300" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D300" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B301" s="12">
         <v>6</v>
       </c>
       <c r="C301" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D301" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/refair-server/datasets/few shot dataset/FSDataset.xlsx
+++ b/refair-server/datasets/few shot dataset/FSDataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morel\Desktop\Refair\ReFair-App\refair-server\datasets\few shot dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F7BFA2-1080-4218-89DB-1BC727193A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C09E1C4-3C1B-4AF2-AA4C-A7273F4A8BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{80773445-FB61-4F04-A882-1600FD96C55A}"/>
   </bookViews>
@@ -230,129 +230,27 @@
     <t>Political Science</t>
   </si>
   <si>
-    <t>As a political scientist, I want to apply adversarial learning techniques to detect and mitigate fake news and misinformation in political discourse, improving the integrity of public information and democratic processes.</t>
-  </si>
-  <si>
     <t>As a political scientist, I want to utilize CNNs to analyze historical voting patterns across regions, identifying spatial trends and correlations that can enhance our understanding of electoral dynamics and constituency behavior.</t>
   </si>
   <si>
-    <t>As a political scientist, I want to develop a conversational agent using natural language processing to engage with citizens and collect opinions on public policies, facilitating more inclusive and informed decision-making processes.</t>
-  </si>
-  <si>
-    <t>As a political scientist, I want to develop decision trees to classify political ideologies based on textual analysis of party manifestos and policy statements, aiding in comparative political analysis across different countries.</t>
-  </si>
-  <si>
-    <t>As a political scientist, I want to use document classification techniques to categorize legislative texts into different policy domains (e.g., healthcare, education, defense) to facilitate comparative analysis of legislative agendas across sessions.</t>
-  </si>
-  <si>
-    <t>As a political scientist, I want to develop entity extraction models to automatically identify and classify mentions of political ideologies (e.g., socialism, capitalism, populism) in public opinion surveys and electoral manifestos, enabling systematic analysis of ideological shifts among voters.</t>
-  </si>
-  <si>
     <t>As a political scientist, I want to use feature selection methods on social media data to pinpoint the key linguistic and behavioral traits (e.g., sentiment, topic engagement) that correlate with voter sentiment and political polarization, informing strategies for public opinion management.</t>
   </si>
   <si>
-    <t>As a political scientist, I want to address class imbalance in datasets containing public opinion survey responses to accurately model minority viewpoints and ensure fair representation in predictive models of voter behavior and policy preferences.</t>
-  </si>
-  <si>
     <t>As a political scientist, I want to develop a keyword extraction model to identify and categorize key policy terms from legislative texts, enabling rapid analysis of legislative agendas and policy priorities across different sessions.</t>
   </si>
   <si>
-    <t>As a political scientist, I want to utilize k-NN clustering to group political speeches and debates into thematic clusters based on linguistic features and topic modeling, facilitating comparative analysis of political rhetoric and discourse strategies.</t>
-  </si>
-  <si>
-    <t>As a political scientist, I want to use multi-label classification techniques to classify political speeches and statements into multiple issue categories (e.g., economy, foreign policy, social welfare) to analyze politicians' policy focus and priorities over time.</t>
-  </si>
-  <si>
-    <t>As a political scientist, I want to develop a neural network architecture to analyze sentiment and public opinion from social media data during election periods, predicting electoral outcomes and understanding voter sentiment dynamics in real-time.</t>
-  </si>
-  <si>
-    <t>As a political scientist, I want to build a random forest model to classify news articles and editorials into different political ideologies (e.g., liberalism, conservatism, socialism) based on textual content and thematic analysis, facilitating media bias detection and analysis.</t>
-  </si>
-  <si>
-    <t>As a political scientist, I want to implement semantic similarity algorithms to compare public statements and policy positions of political candidates, assessing the consistency and coherence of their campaign messaging across different platforms.</t>
-  </si>
-  <si>
-    <t>As a political scientist, I want to apply sentiment analysis to analyze news articles and editorials discussing political scandals, to understand media sentiment and its impact on public trust in governmental institutions.</t>
-  </si>
-  <si>
-    <t>As a political scientist, I want to develop a speech-to-text system to transcribe and analyze parliamentary debates and committee hearings, to automate the process of documenting legislative proceedings and facilitate analysis of legislative discourse.</t>
-  </si>
-  <si>
-    <t>As a political scientist, I want to implement text categorization algorithms to classify news articles and media reports into different political topics (e.g., elections, foreign policy, economic reform) for tracking and analyzing media coverage trends across various political issues.</t>
-  </si>
-  <si>
-    <t>As a political scientist, I want to develop an unsupervised clustering model to group political speeches and debates into thematic clusters based on linguistic patterns and topic modeling, facilitating comparative analysis of political rhetoric and discourse strategies.</t>
-  </si>
-  <si>
-    <t>As a political scientist, I want to develop a voice recognition system to transcribe and analyze speeches by political leaders and candidates during election campaigns, enabling automated analysis of campaign messaging and rhetoric.</t>
-  </si>
-  <si>
-    <t>As a political scientist, I want to use word embedding models to analyze historical texts and speeches by political leaders, tracing the evolution of political ideologies and rhetoric over time to understand the shaping of political narratives and public discourse.</t>
-  </si>
-  <si>
     <t>Law</t>
   </si>
   <si>
-    <t>As a legal researcher, I want to apply adversarial learning techniques to identify potential vulnerabilities in legal text classifiers, so that I can enhance the robustness of legal document analysis systems against adversarial attacks.</t>
-  </si>
-  <si>
-    <t>As a lawyer, I want to utilize convolutional neural networks to analyze the sentiment and context of legal texts in public opinion, providing insights into public perceptions that could influence case strategy and client counseling.</t>
-  </si>
-  <si>
-    <t>As a legal researcher, I want to develop a conversational agent powered by natural language processing to provide legal advice and guidance to clients, enhancing access to legal information and services.</t>
-  </si>
-  <si>
     <t>As a legal researcher, I want to develop decision tree models to classify legal documents based on case types and legal issues, enabling automated document sorting and categorization for law firms.</t>
   </si>
   <si>
-    <t>As a legal researcher, I want to implement document classification algorithms to categorize legal documents based on case types (e.g., civil, criminal, administrative) for efficient document management and retrieval in law firms.</t>
-  </si>
-  <si>
-    <t>As a lawyer, I aim to implement entity extraction algorithms to extract crucial information such as court decisions, judges' names, and legal citations from judicial opinions, supporting comprehensive case law analysis and citation tracking.</t>
-  </si>
-  <si>
     <t>As a legal researcher, I want to implement feature selection techniques to identify discriminatory factors in legal decision-making processes, helping to mitigate bias and promote fairness in legal judgments.</t>
   </si>
   <si>
-    <t>As a legal researcher, I want to address class imbalance in legal datasets related to case outcomes (e.g., favorable vs. unfavorable judgments) using techniques like oversampling or undersampling, to improve the accuracy of predictive models used in legal prediction tasks.</t>
-  </si>
-  <si>
-    <t>As a lawyer, I aim to leverage keyword extraction methods to automatically tag and organize legal contracts based on important clauses and terms, supporting contract management and review processes in law firms.</t>
-  </si>
-  <si>
-    <t>As a lawyer, I aim to implement k-nearest neighbor models to identify similar historical cases with favorable outcomes for strategic case preparation and argumentation, enhancing the likelihood of success in litigation.</t>
-  </si>
-  <si>
-    <t>As a legal researcher, I want to develop a multi-label classification system to categorize legal documents according to multiple relevant legal topics (e.g., contracts, intellectual property, torts), enhancing the organization and retrieval of legal information.</t>
-  </si>
-  <si>
-    <t>As a legal researcher, I want to develop a neural network model to predict court case outcomes based on various legal factors such as case type, jurisdiction, and historical precedents, providing insights into potential case strategies and outcomes.</t>
-  </si>
-  <si>
-    <t>As a legal researcher, I want to use a random forest algorithm to classify legal documents into different categories such as case types (e.g., civil, criminal, administrative), improving the efficiency of document management systems in law firms.</t>
-  </si>
-  <si>
-    <t>As a legal researcher, I want to develop semantic similarity models to compare legal texts such as contracts and agreements, identifying similarities in language and clauses to support contract analysis and negotiation processes.</t>
-  </si>
-  <si>
-    <t>As a lawyer, I aim to utilize sentiment analysis to assess the sentiment expressed in legal documents such as complaints and motions, helping to understand emotional tones and implications for case strategy.</t>
-  </si>
-  <si>
-    <t>As a legal researcher, I want to develop speech to text models to transcribe courtroom proceedings and depositions accurately, enabling efficient documentation and retrieval of legal transcripts for case preparation.</t>
-  </si>
-  <si>
     <t>As a legal researcher, I want to develop a text categorization system to classify legal documents into different practice areas (e.g., corporate law, family law, intellectual property), facilitating efficient document retrieval and management in law firms.</t>
   </si>
   <si>
-    <t>As a legal researcher, I want to apply unsupervised clustering techniques to group similar legal cases based on factual similarities and legal issues, enabling clustering of case law for comparative legal analysis and precedent identification.</t>
-  </si>
-  <si>
-    <t>As a legal researcher, I want to implement voice recognition algorithms to transcribe interviews and witness testimonies, enabling thorough analysis and documentation of legal evidence and statements.</t>
-  </si>
-  <si>
-    <t>As a legal researcher, I want to apply word embedding models to automate the extraction of key legal concepts and trends from large volumes of legislative texts and regulatory documents, aiding in regulatory compliance analysis and policy research.</t>
-  </si>
-  <si>
     <t>Information Systems &amp; News</t>
   </si>
   <si>
@@ -1077,6 +975,108 @@
   </si>
   <si>
     <t>As a literary data analyst, I want to implement a k-nearest neighbor algorithm to recommend books to users based on similarities in their reading preferences and historical borrowing patterns, providing personalized recommendations that align with their literary tastes and interests.</t>
+  </si>
+  <si>
+    <t>As a government official, I want to employ adversarial learning models to detect adversarial attacks on voting systems or electronic polling stations, safeguarding the integrity of electoral processes and results.</t>
+  </si>
+  <si>
+    <t>As a political campaign manager, I want to integrate a conversational agent into our campaign website to engage with voters, answer common questions about our candidate's platform, and collect feedback to improve our messaging strategies.</t>
+  </si>
+  <si>
+    <t>As a political strategist, I want to build a decision tree model based on historical voting patterns, demographic data, and policy preferences to predict election outcomes in various constituencies, guiding campaign resource allocation.</t>
+  </si>
+  <si>
+    <t>As a political researcher, I want to develop a document classification system using machine learning to categorize legislative documents by topics such as healthcare, immigration, and education policy, facilitating easier access and analysis for policy formulation.</t>
+  </si>
+  <si>
+    <t>As a political analyst, I want to use entity extraction to automatically identify and categorize mentions of political leaders, organizations, and countries in news articles and social media posts, facilitating analysis of geopolitical trends and diplomatic relations.</t>
+  </si>
+  <si>
+    <t>As a political campaign strategist, I want to manage imbalanced datasets in voter behavior studies to understand and predict voter preferences across diverse demographic groups, guiding targeted campaign outreach strategies.</t>
+  </si>
+  <si>
+    <t>As a political researcher, I want to use k-Nearest Neighbor (k-NN) algorithms to analyze voting patterns across different electoral districts based on demographic factors, helping to identify similarities and differences in voting behavior and political preferences.</t>
+  </si>
+  <si>
+    <t>As a political campaign strategist, I want to utilize multi-label classification algorithms to classify voter sentiment across various policy areas (e.g., environment, taxation, immigration) based on social media interactions and surveys, guiding campaign messaging and strategy formulation.</t>
+  </si>
+  <si>
+    <t>As a political campaign manager, I want to use a neural network for real-time analysis of voter sentiment during campaign events and debates, enabling adaptive campaign strategies and messaging adjustments.</t>
+  </si>
+  <si>
+    <t>As a researcher in political science, I want to utilize random forest classification to categorize public policy proposals into different categories (e.g., environmental policies, healthcare reforms, education initiatives) based on their content and objectives.</t>
+  </si>
+  <si>
+    <t>As a political campaign strategist, I want to utilize semantic similarity to analyze and compare campaign messages across different media platforms to ensure consistency and effectiveness of messaging strategies.</t>
+  </si>
+  <si>
+    <t>As a political journalist, I want to apply sentiment analysis to news articles and editorials to understand the tone and sentiment towards political events, enabling accurate and unbiased reporting on political developments.</t>
+  </si>
+  <si>
+    <t>As a political journalist, I want to employ speech to text conversion to quickly transcribe interviews with political leaders and stakeholders, enabling timely and accurate reporting on political viewpoints and statements.</t>
+  </si>
+  <si>
+    <t>As a political campaign strategist, I want to use text categorization algorithms to categorize social media posts and news articles into topics related to our candidate's campaign platform, enabling targeted messaging and engagement with voters.</t>
+  </si>
+  <si>
+    <t>As a policy advisor, I want to use unsupervised clustering to group public opinion survey responses based on shared perspectives and concerns regarding government policies and initiatives, identifying clusters of public opinion to inform policy decisions.</t>
+  </si>
+  <si>
+    <t>As a political journalist, I want to utilize voice recognition software to transcribe interviews with political leaders and stakeholders, ensuring accurate reporting of their statements and viewpoints.</t>
+  </si>
+  <si>
+    <t>As a political scientist, I want to use word embedding techniques to analyze political discourse across different media sources and identify key political terms and concepts that shape public opinion and policy debates.</t>
+  </si>
+  <si>
+    <t>As a legal analyst, I want to utilize adversarial learning algorithms to identify potential biases in automated legal decision-making systems, allowing me to ensure fairness and equity in legal processes.</t>
+  </si>
+  <si>
+    <t>As a legal data scientist, I want to employ CNNs to analyze patterns in historical legal cases and predict outcomes based on precedent, providing insights that can assist lawyers in preparing stronger arguments and strategies for their cases.</t>
+  </si>
+  <si>
+    <t>As a law firm administrator, I want to integrate a conversational agent into our website to assist clients in scheduling appointments, retrieving case updates, and accessing basic legal information, thereby enhancing client satisfaction and operational efficiency.</t>
+  </si>
+  <si>
+    <t>As a law firm administrator, I want to implement a document classification model to automatically route incoming legal documents to the appropriate departments (e.g., litigation, corporate law) based on their nature, streamlining workflow and reducing manual effort.</t>
+  </si>
+  <si>
+    <t>As a law enforcement official, I want to implement entity extraction algorithms to identify and link entities across multiple legal documents related to criminal investigations, helping to establish connections and patterns in complex cases.</t>
+  </si>
+  <si>
+    <t>As a law enforcement analyst, I want to tackle the imbalanced distribution of crime types in a dataset to develop a predictive model for crime hotspots, enabling targeted resource allocation and crime prevention strategies in different neighborhoods.</t>
+  </si>
+  <si>
+    <t>As a legal educator, I want to utilize keyword extraction techniques to automatically generate summaries of legal texts (e.g., statutes, treaties) by highlighting the most salient keywords and phrases, aiding law students in comprehending dense legal materials.</t>
+  </si>
+  <si>
+    <t>As a legal tech developer, I want to build a multi-label classification model to classify legal documents (e.g., contracts, patents) into multiple categories (e.g., contract type, patent class), enabling efficient organization and retrieval of legal information.</t>
+  </si>
+  <si>
+    <t>As a judicial clerk, I want to apply k-nearest neighbor to recommend sentencing guidelines based on similar past cases, helping judges maintain consistency and fairness in sentencing decisions.</t>
+  </si>
+  <si>
+    <t>As a legal educator, I want to develop a neural network-based legal reasoning tool that can simulate complex legal scenarios and provide reasoned outcomes based on relevant legal principles, supporting law students in their learning and understanding of legal concepts.</t>
+  </si>
+  <si>
+    <t>As a legal tech developer, I want to deploy a random forest model to automate the extraction of key legal clauses and obligations from contracts, ensuring accuracy and completeness in contract review processes.</t>
+  </si>
+  <si>
+    <t>As a legal educator, I want to build a semantic similarity tool to assess the coherence and consistency of legal reasoning in student-written legal briefs and arguments, providing constructive feedback for improvement.</t>
+  </si>
+  <si>
+    <t>As a law firm marketing manager, I want to analyze client feedback and reviews using sentiment analysis to understand client satisfaction levels and identify areas for service improvement.</t>
+  </si>
+  <si>
+    <t>As a court stenographer, I want to develop a speech-to-text system specialized for court proceedings, accurately transcribing spoken legal arguments and testimonies for real-time documentation.</t>
+  </si>
+  <si>
+    <t>As a law enforcement analyst, I want to apply unsupervised clustering techniques to cluster criminal activities and incidents based on their modus operandi and geographical patterns, assisting in identifying crime hotspots and allocating resources effectively.</t>
+  </si>
+  <si>
+    <t>As a court stenographer, I want to develop a voice recognition system tailored for legal proceedings, accurately transcribing spoken court testimonies and arguments to enhance courtroom efficiency and accuracy.</t>
+  </si>
+  <si>
+    <t>As a legal tech developer, I want to build word embedding models to enhance the search and retrieval capabilities of legal databases, enabling faster and more accurate information retrieval for legal professionals and researchers.</t>
   </si>
 </sst>
 </file>
@@ -1525,8 +1525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DF0B04-8323-4309-B759-D1CDDA1FBB0E}">
   <dimension ref="A1:F301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C159" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D179" sqref="D179"/>
+    <sheetView tabSelected="1" topLeftCell="E98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1560,19 +1560,19 @@
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B2" s="10">
         <v>2</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>55</v>
@@ -1580,19 +1580,19 @@
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B3" s="10">
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>55</v>
@@ -1600,19 +1600,19 @@
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B4" s="10">
         <v>2</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>55</v>
@@ -1620,19 +1620,19 @@
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B5" s="10">
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>55</v>
@@ -1640,19 +1640,19 @@
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B6" s="10">
         <v>2</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>55</v>
@@ -1660,19 +1660,19 @@
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B7" s="10">
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>55</v>
@@ -1680,19 +1680,19 @@
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B8" s="10">
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>55</v>
@@ -1700,19 +1700,19 @@
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B9" s="10">
         <v>2</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>55</v>
@@ -1720,19 +1720,19 @@
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B10" s="10">
         <v>2</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>55</v>
@@ -1740,19 +1740,19 @@
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B11" s="10">
         <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>55</v>
@@ -1760,19 +1760,19 @@
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B12" s="10">
         <v>2</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>55</v>
@@ -1780,19 +1780,19 @@
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B13" s="10">
         <v>2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>55</v>
@@ -1800,19 +1800,19 @@
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B14" s="10">
         <v>2</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>55</v>
@@ -1820,19 +1820,19 @@
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B15" s="10">
         <v>2</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>55</v>
@@ -1840,19 +1840,19 @@
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B16" s="10">
         <v>2</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>55</v>
@@ -1860,19 +1860,19 @@
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B17" s="10">
         <v>2</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>55</v>
@@ -1880,19 +1880,19 @@
     </row>
     <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B18" s="10">
         <v>2</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>55</v>
@@ -1900,19 +1900,19 @@
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B19" s="10">
         <v>2</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>55</v>
@@ -1920,19 +1920,19 @@
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B20" s="10">
         <v>2</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>55</v>
@@ -1940,19 +1940,19 @@
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B21" s="10">
         <v>2</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>55</v>
@@ -1960,19 +1960,19 @@
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B22" s="10">
         <v>2</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>55</v>
@@ -1980,19 +1980,19 @@
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B23" s="10">
         <v>2</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>55</v>
@@ -2000,19 +2000,19 @@
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B24" s="10">
         <v>2</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>55</v>
@@ -2020,19 +2020,19 @@
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B25" s="10">
         <v>2</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>55</v>
@@ -2040,19 +2040,19 @@
     </row>
     <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B26" s="10">
         <v>2</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>55</v>
@@ -2060,19 +2060,19 @@
     </row>
     <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B27" s="10">
         <v>2</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>55</v>
@@ -2080,19 +2080,19 @@
     </row>
     <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B28" s="10">
         <v>2</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>55</v>
@@ -2100,19 +2100,19 @@
     </row>
     <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B29" s="10">
         <v>2</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>55</v>
@@ -2120,19 +2120,19 @@
     </row>
     <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B30" s="10">
         <v>2</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>55</v>
@@ -2140,19 +2140,19 @@
     </row>
     <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B31" s="10">
         <v>2</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>55</v>
@@ -2160,19 +2160,19 @@
     </row>
     <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B32" s="10">
         <v>2</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>55</v>
@@ -2180,19 +2180,19 @@
     </row>
     <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B33" s="10">
         <v>2</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>55</v>
@@ -2200,19 +2200,19 @@
     </row>
     <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B34" s="10">
         <v>2</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>55</v>
@@ -2220,19 +2220,19 @@
     </row>
     <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B35" s="10">
         <v>2</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>55</v>
@@ -2240,19 +2240,19 @@
     </row>
     <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B36" s="10">
         <v>2</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>55</v>
@@ -2260,19 +2260,19 @@
     </row>
     <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B37" s="10">
         <v>2</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>55</v>
@@ -2280,19 +2280,19 @@
     </row>
     <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B38" s="10">
         <v>2</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>55</v>
@@ -2300,19 +2300,19 @@
     </row>
     <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B39" s="10">
         <v>2</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>55</v>
@@ -2320,19 +2320,19 @@
     </row>
     <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B40" s="10">
         <v>2</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>55</v>
@@ -2340,19 +2340,19 @@
     </row>
     <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="B41" s="10">
         <v>2</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>55</v>
@@ -2360,19 +2360,19 @@
     </row>
     <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B42" s="8">
         <v>3</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>55</v>
@@ -2380,19 +2380,19 @@
     </row>
     <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B43" s="8">
         <v>3</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>55</v>
@@ -2400,19 +2400,19 @@
     </row>
     <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B44" s="8">
         <v>3</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>55</v>
@@ -2420,19 +2420,19 @@
     </row>
     <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B45" s="8">
         <v>3</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>55</v>
@@ -2440,19 +2440,19 @@
     </row>
     <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B46" s="8">
         <v>3</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>55</v>
@@ -2460,19 +2460,19 @@
     </row>
     <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B47" s="8">
         <v>3</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>55</v>
@@ -2480,19 +2480,19 @@
     </row>
     <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B48" s="8">
         <v>3</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>55</v>
@@ -2500,19 +2500,19 @@
     </row>
     <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B49" s="8">
         <v>3</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>55</v>
@@ -2520,19 +2520,19 @@
     </row>
     <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B50" s="8">
         <v>3</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>55</v>
@@ -2540,19 +2540,19 @@
     </row>
     <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B51" s="8">
         <v>3</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>55</v>
@@ -2560,19 +2560,19 @@
     </row>
     <row r="52" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B52" s="8">
         <v>3</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>55</v>
@@ -2580,19 +2580,19 @@
     </row>
     <row r="53" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B53" s="8">
         <v>3</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>55</v>
@@ -2600,19 +2600,19 @@
     </row>
     <row r="54" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B54" s="8">
         <v>3</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>55</v>
@@ -2620,19 +2620,19 @@
     </row>
     <row r="55" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B55" s="8">
         <v>3</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>55</v>
@@ -2640,19 +2640,19 @@
     </row>
     <row r="56" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B56" s="8">
         <v>3</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>55</v>
@@ -2660,19 +2660,19 @@
     </row>
     <row r="57" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B57" s="8">
         <v>3</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>55</v>
@@ -2680,19 +2680,19 @@
     </row>
     <row r="58" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B58" s="8">
         <v>3</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>55</v>
@@ -2700,19 +2700,19 @@
     </row>
     <row r="59" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B59" s="8">
         <v>3</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>55</v>
@@ -2720,19 +2720,19 @@
     </row>
     <row r="60" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B60" s="8">
         <v>3</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>55</v>
@@ -2740,19 +2740,19 @@
     </row>
     <row r="61" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B61" s="8">
         <v>3</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>55</v>
@@ -2760,19 +2760,19 @@
     </row>
     <row r="62" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B62" s="8">
         <v>3</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>55</v>
@@ -2780,19 +2780,19 @@
     </row>
     <row r="63" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B63" s="8">
         <v>3</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>55</v>
@@ -2800,19 +2800,19 @@
     </row>
     <row r="64" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B64" s="8">
         <v>3</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>55</v>
@@ -2820,19 +2820,19 @@
     </row>
     <row r="65" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B65" s="8">
         <v>3</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>55</v>
@@ -2840,19 +2840,19 @@
     </row>
     <row r="66" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B66" s="8">
         <v>3</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>55</v>
@@ -2860,19 +2860,19 @@
     </row>
     <row r="67" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B67" s="8">
         <v>3</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>55</v>
@@ -2880,19 +2880,19 @@
     </row>
     <row r="68" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B68" s="8">
         <v>3</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>55</v>
@@ -2900,19 +2900,19 @@
     </row>
     <row r="69" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B69" s="8">
         <v>3</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>55</v>
@@ -2920,19 +2920,19 @@
     </row>
     <row r="70" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B70" s="8">
         <v>3</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>55</v>
@@ -2940,19 +2940,19 @@
     </row>
     <row r="71" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B71" s="8">
         <v>3</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>55</v>
@@ -2960,19 +2960,19 @@
     </row>
     <row r="72" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B72" s="8">
         <v>3</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>55</v>
@@ -2980,19 +2980,19 @@
     </row>
     <row r="73" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B73" s="8">
         <v>3</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>55</v>
@@ -3000,19 +3000,19 @@
     </row>
     <row r="74" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B74" s="8">
         <v>3</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>55</v>
@@ -3020,19 +3020,19 @@
     </row>
     <row r="75" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B75" s="8">
         <v>3</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>55</v>
@@ -3040,19 +3040,19 @@
     </row>
     <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B76" s="8">
         <v>3</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>55</v>
@@ -3060,19 +3060,19 @@
     </row>
     <row r="77" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B77" s="8">
         <v>3</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>55</v>
@@ -3080,19 +3080,19 @@
     </row>
     <row r="78" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B78" s="8">
         <v>3</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>55</v>
@@ -3100,19 +3100,19 @@
     </row>
     <row r="79" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B79" s="8">
         <v>3</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>55</v>
@@ -3120,19 +3120,19 @@
     </row>
     <row r="80" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B80" s="8">
         <v>3</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>55</v>
@@ -3140,19 +3140,19 @@
     </row>
     <row r="81" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="B81" s="8">
         <v>3</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>55</v>
@@ -3166,13 +3166,13 @@
         <v>4</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>85</v>
+        <v>330</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>55</v>
@@ -3192,7 +3192,7 @@
         <v>22</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>64</v>
+        <v>313</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>55</v>
@@ -3206,13 +3206,13 @@
         <v>4</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>86</v>
+        <v>331</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>55</v>
@@ -3232,7 +3232,7 @@
         <v>32</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>55</v>
@@ -3246,13 +3246,13 @@
         <v>4</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>87</v>
+        <v>332</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>55</v>
@@ -3272,7 +3272,7 @@
         <v>23</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>66</v>
+        <v>314</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>55</v>
@@ -3286,13 +3286,13 @@
         <v>4</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>55</v>
@@ -3312,7 +3312,7 @@
         <v>12</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>67</v>
+        <v>315</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>55</v>
@@ -3326,13 +3326,13 @@
         <v>4</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>89</v>
+        <v>333</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>55</v>
@@ -3352,7 +3352,7 @@
         <v>33</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>68</v>
+        <v>316</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>55</v>
@@ -3366,13 +3366,13 @@
         <v>4</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>90</v>
+        <v>334</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>55</v>
@@ -3392,7 +3392,7 @@
         <v>25</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>69</v>
+        <v>317</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>55</v>
@@ -3406,13 +3406,13 @@
         <v>4</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>55</v>
@@ -3432,7 +3432,7 @@
         <v>28</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>55</v>
@@ -3446,13 +3446,13 @@
         <v>4</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>335</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>55</v>
@@ -3472,7 +3472,7 @@
         <v>13</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>71</v>
+        <v>318</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>55</v>
@@ -3486,13 +3486,13 @@
         <v>4</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>93</v>
+        <v>336</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>55</v>
@@ -3512,7 +3512,7 @@
         <v>26</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>55</v>
@@ -3526,13 +3526,13 @@
         <v>4</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>94</v>
+        <v>338</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>55</v>
@@ -3552,7 +3552,7 @@
         <v>14</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>73</v>
+        <v>319</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>55</v>
@@ -3566,13 +3566,13 @@
         <v>4</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>95</v>
+        <v>337</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>55</v>
@@ -3592,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>74</v>
+        <v>320</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>55</v>
@@ -3606,13 +3606,13 @@
         <v>4</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>96</v>
+        <v>339</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>55</v>
@@ -3632,7 +3632,7 @@
         <v>15</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>75</v>
+        <v>321</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>55</v>
@@ -3646,13 +3646,13 @@
         <v>4</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>55</v>
@@ -3672,7 +3672,7 @@
         <v>16</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>76</v>
+        <v>322</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>55</v>
@@ -3686,13 +3686,13 @@
         <v>4</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>98</v>
+        <v>341</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>55</v>
@@ -3712,7 +3712,7 @@
         <v>17</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>77</v>
+        <v>323</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>55</v>
@@ -3726,13 +3726,13 @@
         <v>4</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>99</v>
+        <v>342</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>55</v>
@@ -3752,7 +3752,7 @@
         <v>29</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>78</v>
+        <v>324</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>55</v>
@@ -3766,13 +3766,13 @@
         <v>4</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>100</v>
+        <v>343</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>55</v>
@@ -3792,7 +3792,7 @@
         <v>18</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>79</v>
+        <v>325</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>55</v>
@@ -3806,13 +3806,13 @@
         <v>4</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>55</v>
@@ -3832,7 +3832,7 @@
         <v>20</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>80</v>
+        <v>326</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>55</v>
@@ -3846,13 +3846,13 @@
         <v>4</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>102</v>
+        <v>344</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>55</v>
@@ -3872,7 +3872,7 @@
         <v>24</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>81</v>
+        <v>327</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>55</v>
@@ -3886,13 +3886,13 @@
         <v>4</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>103</v>
+        <v>345</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>55</v>
@@ -3912,7 +3912,7 @@
         <v>7</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>82</v>
+        <v>328</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>55</v>
@@ -3926,13 +3926,13 @@
         <v>4</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>104</v>
+        <v>346</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>55</v>
@@ -3952,7 +3952,7 @@
         <v>9</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>83</v>
+        <v>329</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>55</v>
@@ -4012,7 +4012,7 @@
         <v>22</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>55</v>
@@ -4032,7 +4032,7 @@
         <v>32</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>55</v>
@@ -4072,7 +4072,7 @@
         <v>32</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>55</v>
@@ -4092,7 +4092,7 @@
         <v>23</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>55</v>
@@ -4132,7 +4132,7 @@
         <v>23</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>55</v>
@@ -4192,7 +4192,7 @@
         <v>12</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>55</v>
@@ -4212,7 +4212,7 @@
         <v>33</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>55</v>
@@ -4252,7 +4252,7 @@
         <v>33</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>55</v>
@@ -4272,7 +4272,7 @@
         <v>25</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>55</v>
@@ -4312,7 +4312,7 @@
         <v>25</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>55</v>
@@ -4372,7 +4372,7 @@
         <v>28</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>55</v>
@@ -4392,7 +4392,7 @@
         <v>13</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>55</v>
@@ -4432,7 +4432,7 @@
         <v>13</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>55</v>
@@ -4492,7 +4492,7 @@
         <v>26</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>55</v>
@@ -4512,7 +4512,7 @@
         <v>14</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>55</v>
@@ -4532,7 +4532,7 @@
         <v>14</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>55</v>
@@ -4552,7 +4552,7 @@
         <v>14</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>55</v>
@@ -4572,7 +4572,7 @@
         <v>30</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>55</v>
@@ -4612,7 +4612,7 @@
         <v>30</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>55</v>
@@ -4632,7 +4632,7 @@
         <v>15</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>55</v>
@@ -4672,7 +4672,7 @@
         <v>15</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>55</v>
@@ -4692,7 +4692,7 @@
         <v>16</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>55</v>
@@ -4752,7 +4752,7 @@
         <v>17</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>55</v>
@@ -4812,7 +4812,7 @@
         <v>29</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>55</v>
@@ -4852,7 +4852,7 @@
         <v>29</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>55</v>
@@ -4872,7 +4872,7 @@
         <v>18</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>55</v>
@@ -4972,7 +4972,7 @@
         <v>20</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>55</v>
@@ -4992,7 +4992,7 @@
         <v>24</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>55</v>
@@ -5092,7 +5092,7 @@
         <v>7</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>55</v>
@@ -5160,19 +5160,19 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B182" s="12">
         <v>6</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="D182" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>55</v>
@@ -5180,19 +5180,19 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B183" s="12">
         <v>6</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>55</v>
@@ -5200,19 +5200,19 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B184" s="12">
         <v>6</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="D184" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>55</v>
@@ -5220,19 +5220,19 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B185" s="12">
         <v>6</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="D185" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>55</v>
@@ -5240,19 +5240,19 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B186" s="12">
         <v>6</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="D186" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>55</v>
@@ -5260,19 +5260,19 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B187" s="12">
         <v>6</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="D187" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>55</v>
@@ -5280,19 +5280,19 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B188" s="12">
         <v>6</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="D188" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>55</v>
@@ -5300,19 +5300,19 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B189" s="12">
         <v>6</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="D189" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>55</v>
@@ -5320,19 +5320,19 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B190" s="12">
         <v>6</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="D190" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>55</v>
@@ -5340,19 +5340,19 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B191" s="12">
         <v>6</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="D191" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>55</v>
@@ -5360,19 +5360,19 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B192" s="12">
         <v>6</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="D192" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>55</v>
@@ -5380,19 +5380,19 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B193" s="12">
         <v>6</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="D193" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>55</v>
@@ -5400,19 +5400,19 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B194" s="12">
         <v>6</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="D194" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>55</v>
@@ -5420,19 +5420,19 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B195" s="12">
         <v>6</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="D195" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>55</v>
@@ -5440,19 +5440,19 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B196" s="12">
         <v>6</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="D196" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>55</v>
@@ -5460,19 +5460,19 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B197" s="12">
         <v>6</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="D197" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>55</v>
@@ -5480,19 +5480,19 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B198" s="12">
         <v>6</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="D198" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>55</v>
@@ -5500,19 +5500,19 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B199" s="12">
         <v>6</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="D199" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>55</v>
@@ -5520,19 +5520,19 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B200" s="12">
         <v>6</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="D200" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>55</v>
@@ -5540,19 +5540,19 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B201" s="12">
         <v>6</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="D201" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>55</v>
@@ -5560,19 +5560,19 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B202" s="12">
         <v>6</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="D202" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>55</v>
@@ -5580,19 +5580,19 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B203" s="12">
         <v>6</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="D203" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>55</v>
@@ -5600,19 +5600,19 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B204" s="12">
         <v>6</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="D204" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>55</v>
@@ -5620,19 +5620,19 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B205" s="12">
         <v>6</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="D205" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>55</v>
@@ -5640,19 +5640,19 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B206" s="12">
         <v>6</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="D206" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>55</v>
@@ -5660,19 +5660,19 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B207" s="12">
         <v>6</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="D207" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>55</v>
@@ -5680,19 +5680,19 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B208" s="12">
         <v>6</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="D208" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>55</v>
@@ -5700,19 +5700,19 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B209" s="12">
         <v>6</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="D209" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>55</v>
@@ -5720,19 +5720,19 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B210" s="12">
         <v>6</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="D210" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>55</v>
@@ -5740,19 +5740,19 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B211" s="12">
         <v>6</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="D211" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>55</v>
@@ -5760,19 +5760,19 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B212" s="12">
         <v>6</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="D212" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>55</v>
@@ -5780,19 +5780,19 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B213" s="12">
         <v>6</v>
       </c>
       <c r="C213" s="12" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="D213" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>55</v>
@@ -5800,19 +5800,19 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B214" s="12">
         <v>6</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="D214" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>55</v>
@@ -5820,19 +5820,19 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B215" s="12">
         <v>6</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="D215" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>55</v>
@@ -5840,19 +5840,19 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B216" s="12">
         <v>6</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="D216" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>55</v>
@@ -5860,19 +5860,19 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B217" s="12">
         <v>6</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="D217" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>55</v>
@@ -5880,19 +5880,19 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B218" s="12">
         <v>6</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="D218" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>55</v>
@@ -5900,19 +5900,19 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B219" s="12">
         <v>6</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="D219" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>55</v>
@@ -5920,19 +5920,19 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B220" s="12">
         <v>6</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="D220" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>55</v>
@@ -5940,19 +5940,19 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B221" s="12">
         <v>6</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="D221" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>55</v>
@@ -5960,19 +5960,19 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B222" s="12">
         <v>6</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="D222" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>55</v>
@@ -5980,19 +5980,19 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B223" s="12">
         <v>6</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="D223" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>55</v>
@@ -6000,19 +6000,19 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B224" s="12">
         <v>6</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="D224" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>55</v>
@@ -6020,19 +6020,19 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B225" s="12">
         <v>6</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="D225" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>55</v>
@@ -6040,19 +6040,19 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B226" s="12">
         <v>6</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="D226" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>55</v>
@@ -6060,19 +6060,19 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B227" s="12">
         <v>6</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="D227" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>55</v>
@@ -6080,19 +6080,19 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B228" s="12">
         <v>6</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="D228" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>55</v>
@@ -6100,19 +6100,19 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B229" s="12">
         <v>6</v>
       </c>
       <c r="C229" s="12" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="D229" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>55</v>
@@ -6120,19 +6120,19 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B230" s="12">
         <v>6</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="D230" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>55</v>
@@ -6140,19 +6140,19 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B231" s="12">
         <v>6</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>55</v>
@@ -6160,19 +6160,19 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B232" s="12">
         <v>6</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="D232" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>55</v>
@@ -6180,19 +6180,19 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B233" s="12">
         <v>6</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="D233" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>55</v>
@@ -6200,19 +6200,19 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B234" s="12">
         <v>6</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="D234" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>55</v>
@@ -6220,19 +6220,19 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B235" s="12">
         <v>6</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>55</v>
@@ -6240,19 +6240,19 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B236" s="12">
         <v>6</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>55</v>
@@ -6260,19 +6260,19 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B237" s="12">
         <v>6</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="D237" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>55</v>
@@ -6280,19 +6280,19 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B238" s="12">
         <v>6</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>55</v>
@@ -6300,19 +6300,19 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B239" s="12">
         <v>6</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="D239" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>55</v>
@@ -6320,19 +6320,19 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B240" s="12">
         <v>6</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="D240" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>55</v>
@@ -6340,19 +6340,19 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B241" s="12">
         <v>6</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="D241" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>55</v>
@@ -6360,19 +6360,19 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B242" s="12">
         <v>6</v>
       </c>
       <c r="C242" s="12" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="D242" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>55</v>
@@ -6380,19 +6380,19 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B243" s="12">
         <v>6</v>
       </c>
       <c r="C243" s="12" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="D243" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>55</v>
@@ -6400,19 +6400,19 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B244" s="12">
         <v>6</v>
       </c>
       <c r="C244" s="12" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="D244" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>55</v>
@@ -6420,19 +6420,19 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B245" s="12">
         <v>6</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="D245" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>55</v>
@@ -6440,19 +6440,19 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B246" s="12">
         <v>6</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="D246" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>55</v>
@@ -6460,19 +6460,19 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B247" s="12">
         <v>6</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="D247" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>55</v>
@@ -6480,19 +6480,19 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B248" s="12">
         <v>6</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="D248" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>55</v>
@@ -6500,19 +6500,19 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B249" s="12">
         <v>6</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="D249" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>55</v>
@@ -6520,19 +6520,19 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B250" s="12">
         <v>6</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="D250" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>55</v>
@@ -6540,19 +6540,19 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B251" s="12">
         <v>6</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="D251" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>55</v>
@@ -6560,19 +6560,19 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B252" s="12">
         <v>6</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="D252" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>55</v>
@@ -6580,19 +6580,19 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B253" s="12">
         <v>6</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="D253" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>55</v>
@@ -6600,19 +6600,19 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B254" s="12">
         <v>6</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="D254" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>55</v>
@@ -6620,19 +6620,19 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B255" s="12">
         <v>6</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="D255" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>55</v>
@@ -6640,19 +6640,19 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B256" s="12">
         <v>6</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="D256" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>55</v>
@@ -6660,19 +6660,19 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B257" s="12">
         <v>6</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="D257" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>55</v>
@@ -6680,19 +6680,19 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B258" s="12">
         <v>6</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="D258" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>55</v>
@@ -6700,19 +6700,19 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B259" s="12">
         <v>6</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="D259" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>55</v>
@@ -6720,19 +6720,19 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B260" s="12">
         <v>6</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="D260" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>55</v>
@@ -6740,19 +6740,19 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B261" s="12">
         <v>6</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="D261" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>55</v>
@@ -6760,19 +6760,19 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B262" s="12">
         <v>6</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="D262" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>55</v>
@@ -6780,19 +6780,19 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B263" s="12">
         <v>6</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="D263" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>55</v>
@@ -6800,19 +6800,19 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B264" s="12">
         <v>6</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="D264" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>55</v>
@@ -6820,19 +6820,19 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B265" s="12">
         <v>6</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="D265" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>55</v>
@@ -6840,19 +6840,19 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B266" s="12">
         <v>6</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="D266" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>55</v>
@@ -6860,19 +6860,19 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B267" s="12">
         <v>6</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="D267" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>55</v>
@@ -6880,19 +6880,19 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B268" s="12">
         <v>6</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="D268" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>55</v>
@@ -6900,19 +6900,19 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B269" s="12">
         <v>6</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="D269" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>55</v>
@@ -6920,19 +6920,19 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B270" s="12">
         <v>6</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="D270" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>55</v>
@@ -6940,19 +6940,19 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B271" s="12">
         <v>6</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="D271" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>55</v>
@@ -6960,19 +6960,19 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B272" s="12">
         <v>6</v>
       </c>
       <c r="C272" s="12" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="D272" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>55</v>
@@ -6980,19 +6980,19 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B273" s="12">
         <v>6</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="D273" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>55</v>
@@ -7000,19 +7000,19 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B274" s="12">
         <v>6</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="D274" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>55</v>
@@ -7020,19 +7020,19 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B275" s="12">
         <v>6</v>
       </c>
       <c r="C275" s="12" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="D275" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>55</v>
@@ -7040,19 +7040,19 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B276" s="12">
         <v>6</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="D276" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>55</v>
@@ -7060,19 +7060,19 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B277" s="12">
         <v>6</v>
       </c>
       <c r="C277" s="12" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="D277" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>55</v>
@@ -7080,19 +7080,19 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B278" s="12">
         <v>6</v>
       </c>
       <c r="C278" s="12" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="D278" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>55</v>
@@ -7100,19 +7100,19 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B279" s="12">
         <v>6</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="D279" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>55</v>
@@ -7120,19 +7120,19 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B280" s="12">
         <v>6</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="D280" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>55</v>
@@ -7140,19 +7140,19 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B281" s="12">
         <v>6</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="D281" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>55</v>
@@ -7160,19 +7160,19 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B282" s="12">
         <v>6</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="D282" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>55</v>
@@ -7180,19 +7180,19 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B283" s="12">
         <v>6</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="D283" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>55</v>
@@ -7200,19 +7200,19 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B284" s="12">
         <v>6</v>
       </c>
       <c r="C284" s="12" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="D284" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>55</v>
@@ -7220,19 +7220,19 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B285" s="12">
         <v>6</v>
       </c>
       <c r="C285" s="12" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="D285" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>55</v>
@@ -7240,19 +7240,19 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B286" s="12">
         <v>6</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="D286" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>55</v>
@@ -7260,19 +7260,19 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B287" s="12">
         <v>6</v>
       </c>
       <c r="C287" s="12" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="D287" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="F287" s="1" t="s">
         <v>55</v>
@@ -7280,19 +7280,19 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B288" s="12">
         <v>6</v>
       </c>
       <c r="C288" s="12" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="D288" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>55</v>
@@ -7300,19 +7300,19 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B289" s="12">
         <v>6</v>
       </c>
       <c r="C289" s="12" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="D289" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>55</v>
@@ -7320,19 +7320,19 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B290" s="12">
         <v>6</v>
       </c>
       <c r="C290" s="12" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="D290" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>55</v>
@@ -7340,19 +7340,19 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B291" s="12">
         <v>6</v>
       </c>
       <c r="C291" s="12" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="D291" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>55</v>
@@ -7360,19 +7360,19 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B292" s="12">
         <v>6</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="D292" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="F292" s="1" t="s">
         <v>55</v>
@@ -7380,19 +7380,19 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B293" s="12">
         <v>6</v>
       </c>
       <c r="C293" s="12" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="D293" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="F293" s="1" t="s">
         <v>55</v>
@@ -7400,19 +7400,19 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B294" s="12">
         <v>6</v>
       </c>
       <c r="C294" s="12" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="D294" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="F294" s="1" t="s">
         <v>55</v>
@@ -7420,19 +7420,19 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B295" s="12">
         <v>6</v>
       </c>
       <c r="C295" s="12" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="D295" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
       <c r="F295" s="1" t="s">
         <v>55</v>
@@ -7440,19 +7440,19 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B296" s="12">
         <v>6</v>
       </c>
       <c r="C296" s="12" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="D296" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>55</v>
@@ -7460,19 +7460,19 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B297" s="12">
         <v>6</v>
       </c>
       <c r="C297" s="12" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="D297" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>55</v>
@@ -7480,19 +7480,19 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B298" s="12">
         <v>6</v>
       </c>
       <c r="C298" s="12" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="D298" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>55</v>
@@ -7500,19 +7500,19 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B299" s="12">
         <v>6</v>
       </c>
       <c r="C299" s="12" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="D299" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="F299" s="1" t="s">
         <v>55</v>
@@ -7520,19 +7520,19 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B300" s="12">
         <v>6</v>
       </c>
       <c r="C300" s="12" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="D300" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>55</v>
@@ -7540,19 +7540,19 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="12" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B301" s="12">
         <v>6</v>
       </c>
       <c r="C301" s="12" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="D301" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>55</v>

--- a/refair-server/datasets/few shot dataset/FSDataset.xlsx
+++ b/refair-server/datasets/few shot dataset/FSDataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morel\Desktop\Refair\ReFair-App\refair-server\datasets\few shot dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C09E1C4-3C1B-4AF2-AA4C-A7273F4A8BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C030B0C-5A4A-4F1E-A9CD-5FFB297AA492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{80773445-FB61-4F04-A882-1600FD96C55A}"/>
   </bookViews>
@@ -329,39 +329,21 @@
     <t>As a news editor, I want to implement a conversational agent that can conduct interviews with newsmakers and automatically generate summaries or transcripts, accelerating the news reporting process and enhancing coverage depth.</t>
   </si>
   <si>
-    <t>As a journalist, I want to use decision tree models to classify news articles into relevant categories such as politics, sports, and entertainment, optimizing content organization for our news website.</t>
-  </si>
-  <si>
-    <t>As a news editor, I want to implement document classification algorithms to automatically categorize incoming news articles into sections such as politics, business, sports, and entertainment, facilitating efficient content management and navigation for our readers.</t>
-  </si>
-  <si>
     <t>As a journalist, I want to utilize entity extraction models to automatically identify and extract named entities such as people, organizations, and locations mentioned in news articles, enhancing the accuracy and comprehensiveness of our reporting.</t>
   </si>
   <si>
-    <t>As a journalist, I want to apply feature selection algorithms to prioritize and extract key information from multimedia elements (images, videos) accompanying news articles, enhancing the visual storytelling impact of our news reports.</t>
-  </si>
-  <si>
     <t>As a news organization, I want to develop strategies to handle imbalanced datasets in news article classification tasks, ensuring that minority topics or less-covered issues receive adequate representation and visibility.</t>
   </si>
   <si>
-    <t>As a news editor, I want to integrate keyword extraction capabilities into our editorial workflow to automatically suggest relevant hashtags for social media promotion of news articles, enhancing visibility and engagement across digital platforms.</t>
-  </si>
-  <si>
     <t>As a journalist, I want to apply k-nearest neighbor techniques to identify and connect related news stories across different languages or regions, enabling cross-linguistic or international news coverage on our global news platform.</t>
   </si>
   <si>
     <t>As a news editor, I want to implement multi-label classification models to categorize news articles into multiple relevant topics such as politics, economy, and environment, ensuring comprehensive coverage and indexing for our readers.</t>
   </si>
   <si>
-    <t>As a news organization, I want to deploy neural network architectures for natural language processing tasks such as summarizing news articles or generating concise headlines, improving content readability and user engagement.</t>
-  </si>
-  <si>
     <t>As a news editor, I want to utilize random forest algorithms to classify news articles into different categories such as politics, sports, and entertainment based on a combination of textual features and metadata, improving content organization and navigation on our news platform.</t>
   </si>
   <si>
-    <t>As a news editor, I want to implement semantic similarity algorithms to automatically detect and merge duplicate or highly similar news articles in our content management system, optimizing resource allocation and improving content quality.</t>
-  </si>
-  <si>
     <t>As a journalist, I want to apply sentiment analysis to social media comments on news stories so that I can understand public opinion and incorporate it into my reporting.</t>
   </si>
   <si>
@@ -371,9 +353,6 @@
     <t>As a news editor, I want to integrate text categorization tools into our editorial workflow to ensure that breaking news stories are quickly and accurately categorized, allowing for timely and relevant news delivery to our audience.</t>
   </si>
   <si>
-    <t>As a journalist, I want to apply unsupervised clustering techniques to identify emerging trends and hot topics in the news so that I can stay ahead of the curve and provide timely coverage.</t>
-  </si>
-  <si>
     <t>As a journalist, I want to use voice recognition technology to transcribe interviews and press conferences so that I can quickly and accurately produce written articles from spoken content.</t>
   </si>
   <si>
@@ -1077,6 +1056,27 @@
   </si>
   <si>
     <t>As a legal tech developer, I want to build word embedding models to enhance the search and retrieval capabilities of legal databases, enabling faster and more accurate information retrieval for legal professionals and researchers.</t>
+  </si>
+  <si>
+    <t>As a news analyst, I want to build a decision tree model to classify news articles into different categories (e.g., politics, sports, entertainment) based on their textual content, enabling automated tagging and content organization for efficient archival and retrieval.</t>
+  </si>
+  <si>
+    <t>As a content curator for a news website, I want to deploy document classification algorithms to identify and filter out clickbait articles or sensationalist headlines, maintaining the quality and credibility of our published content.</t>
+  </si>
+  <si>
+    <t>As a content curator for a news website, I want to employ feature selection algorithms to identify and prioritize news articles based on their relevance to trending topics and reader preferences, enhancing the overall user experience.</t>
+  </si>
+  <si>
+    <t>As a journalist covering global events, I want to utilize keyword extraction techniques to summarize news articles by highlighting significant terms and phrases, helping me to distill complex information into concise reports.</t>
+  </si>
+  <si>
+    <t>As a news editor, I want to deploy a neural network-based text summarization model to automatically generate concise summaries of lengthy news articles, improving efficiency in content production and enhancing reader engagement.</t>
+  </si>
+  <si>
+    <t>As a digital archivist, I want to use semantic similarity techniques to identify duplicate or highly similar news articles within large archives, optimizing storage and retrieval processes while ensuring content consistency.</t>
+  </si>
+  <si>
+    <t>As a digital archivist, I want to leverage unsupervised clustering techniques to organize large archives of historical news articles into coherent thematic collections, improving accessibility and facilitating research in media history.</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1189,6 +1189,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1525,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DF0B04-8323-4309-B759-D1CDDA1FBB0E}">
   <dimension ref="A1:F301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+    <sheetView tabSelected="1" topLeftCell="C60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1560,19 +1561,19 @@
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B2" s="10">
         <v>2</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>55</v>
@@ -1580,19 +1581,19 @@
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B3" s="10">
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>55</v>
@@ -1600,19 +1601,19 @@
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B4" s="10">
         <v>2</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>55</v>
@@ -1620,19 +1621,19 @@
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B5" s="10">
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>55</v>
@@ -1640,19 +1641,19 @@
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B6" s="10">
         <v>2</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>55</v>
@@ -1660,19 +1661,19 @@
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B7" s="10">
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>55</v>
@@ -1680,19 +1681,19 @@
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B8" s="10">
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>55</v>
@@ -1700,19 +1701,19 @@
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B9" s="10">
         <v>2</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>55</v>
@@ -1720,19 +1721,19 @@
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B10" s="10">
         <v>2</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>55</v>
@@ -1740,19 +1741,19 @@
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B11" s="10">
         <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>55</v>
@@ -1760,19 +1761,19 @@
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B12" s="10">
         <v>2</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>55</v>
@@ -1780,19 +1781,19 @@
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B13" s="10">
         <v>2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>55</v>
@@ -1800,19 +1801,19 @@
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B14" s="10">
         <v>2</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>55</v>
@@ -1820,19 +1821,19 @@
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B15" s="10">
         <v>2</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>55</v>
@@ -1840,19 +1841,19 @@
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B16" s="10">
         <v>2</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>55</v>
@@ -1860,19 +1861,19 @@
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B17" s="10">
         <v>2</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>55</v>
@@ -1880,19 +1881,19 @@
     </row>
     <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B18" s="10">
         <v>2</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>55</v>
@@ -1900,19 +1901,19 @@
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B19" s="10">
         <v>2</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>55</v>
@@ -1920,19 +1921,19 @@
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B20" s="10">
         <v>2</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>55</v>
@@ -1940,19 +1941,19 @@
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B21" s="10">
         <v>2</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>55</v>
@@ -1960,19 +1961,19 @@
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B22" s="10">
         <v>2</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>55</v>
@@ -1980,19 +1981,19 @@
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B23" s="10">
         <v>2</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>55</v>
@@ -2000,19 +2001,19 @@
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B24" s="10">
         <v>2</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>55</v>
@@ -2020,19 +2021,19 @@
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B25" s="10">
         <v>2</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>55</v>
@@ -2040,19 +2041,19 @@
     </row>
     <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B26" s="10">
         <v>2</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>55</v>
@@ -2060,19 +2061,19 @@
     </row>
     <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B27" s="10">
         <v>2</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>55</v>
@@ -2080,19 +2081,19 @@
     </row>
     <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B28" s="10">
         <v>2</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>55</v>
@@ -2100,19 +2101,19 @@
     </row>
     <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B29" s="10">
         <v>2</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>55</v>
@@ -2120,19 +2121,19 @@
     </row>
     <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B30" s="10">
         <v>2</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>55</v>
@@ -2140,19 +2141,19 @@
     </row>
     <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B31" s="10">
         <v>2</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>55</v>
@@ -2160,19 +2161,19 @@
     </row>
     <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B32" s="10">
         <v>2</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>55</v>
@@ -2180,19 +2181,19 @@
     </row>
     <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B33" s="10">
         <v>2</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>55</v>
@@ -2200,19 +2201,19 @@
     </row>
     <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B34" s="10">
         <v>2</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>55</v>
@@ -2220,19 +2221,19 @@
     </row>
     <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B35" s="10">
         <v>2</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>55</v>
@@ -2240,19 +2241,19 @@
     </row>
     <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B36" s="10">
         <v>2</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>55</v>
@@ -2260,19 +2261,19 @@
     </row>
     <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B37" s="10">
         <v>2</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>55</v>
@@ -2280,19 +2281,19 @@
     </row>
     <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B38" s="10">
         <v>2</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>55</v>
@@ -2300,19 +2301,19 @@
     </row>
     <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B39" s="10">
         <v>2</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>55</v>
@@ -2320,19 +2321,19 @@
     </row>
     <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B40" s="10">
         <v>2</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>55</v>
@@ -2340,19 +2341,19 @@
     </row>
     <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B41" s="10">
         <v>2</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>55</v>
@@ -2512,7 +2513,7 @@
         <v>12</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>55</v>
@@ -2552,7 +2553,7 @@
         <v>33</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>98</v>
+        <v>341</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>55</v>
@@ -2592,7 +2593,7 @@
         <v>25</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>55</v>
@@ -2632,7 +2633,7 @@
         <v>28</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>100</v>
+        <v>342</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>55</v>
@@ -2672,7 +2673,7 @@
         <v>13</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>55</v>
@@ -2712,7 +2713,7 @@
         <v>26</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>102</v>
+        <v>343</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>55</v>
@@ -2725,7 +2726,7 @@
       <c r="B60" s="8">
         <v>3</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="13" t="s">
         <v>72</v>
       </c>
       <c r="D60" s="5" t="s">
@@ -2752,7 +2753,7 @@
         <v>14</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>55</v>
@@ -2792,7 +2793,7 @@
         <v>30</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>55</v>
@@ -2832,7 +2833,7 @@
         <v>15</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>105</v>
+        <v>344</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>55</v>
@@ -2872,7 +2873,7 @@
         <v>16</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>55</v>
@@ -2912,7 +2913,7 @@
         <v>17</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>107</v>
+        <v>345</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>55</v>
@@ -2952,7 +2953,7 @@
         <v>29</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>55</v>
@@ -2992,7 +2993,7 @@
         <v>18</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>55</v>
@@ -3032,7 +3033,7 @@
         <v>20</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>55</v>
@@ -3072,7 +3073,7 @@
         <v>24</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>111</v>
+        <v>346</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>55</v>
@@ -3112,7 +3113,7 @@
         <v>7</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>55</v>
@@ -3152,7 +3153,7 @@
         <v>9</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>55</v>
@@ -3172,7 +3173,7 @@
         <v>22</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>55</v>
@@ -3192,7 +3193,7 @@
         <v>22</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>55</v>
@@ -3212,7 +3213,7 @@
         <v>32</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>55</v>
@@ -3252,7 +3253,7 @@
         <v>23</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>55</v>
@@ -3272,7 +3273,7 @@
         <v>23</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>55</v>
@@ -3312,7 +3313,7 @@
         <v>12</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>55</v>
@@ -3332,7 +3333,7 @@
         <v>33</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>55</v>
@@ -3352,7 +3353,7 @@
         <v>33</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>55</v>
@@ -3372,7 +3373,7 @@
         <v>25</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>55</v>
@@ -3392,7 +3393,7 @@
         <v>25</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>55</v>
@@ -3452,7 +3453,7 @@
         <v>13</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>55</v>
@@ -3472,7 +3473,7 @@
         <v>13</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>55</v>
@@ -3492,7 +3493,7 @@
         <v>26</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>55</v>
@@ -3532,7 +3533,7 @@
         <v>14</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>55</v>
@@ -3552,7 +3553,7 @@
         <v>14</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>55</v>
@@ -3572,7 +3573,7 @@
         <v>30</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>55</v>
@@ -3592,7 +3593,7 @@
         <v>30</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>55</v>
@@ -3612,7 +3613,7 @@
         <v>15</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>55</v>
@@ -3632,7 +3633,7 @@
         <v>15</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>55</v>
@@ -3652,7 +3653,7 @@
         <v>16</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>55</v>
@@ -3672,7 +3673,7 @@
         <v>16</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>55</v>
@@ -3692,7 +3693,7 @@
         <v>17</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>55</v>
@@ -3712,7 +3713,7 @@
         <v>17</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>55</v>
@@ -3732,7 +3733,7 @@
         <v>29</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>55</v>
@@ -3752,7 +3753,7 @@
         <v>29</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>55</v>
@@ -3772,7 +3773,7 @@
         <v>18</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>55</v>
@@ -3792,7 +3793,7 @@
         <v>18</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>55</v>
@@ -3832,7 +3833,7 @@
         <v>20</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>55</v>
@@ -3852,7 +3853,7 @@
         <v>24</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>55</v>
@@ -3872,7 +3873,7 @@
         <v>24</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>55</v>
@@ -3892,7 +3893,7 @@
         <v>7</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>55</v>
@@ -3912,7 +3913,7 @@
         <v>7</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>55</v>
@@ -3932,7 +3933,7 @@
         <v>9</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>55</v>
@@ -3952,7 +3953,7 @@
         <v>9</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>55</v>
@@ -4012,7 +4013,7 @@
         <v>22</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>55</v>
@@ -4032,7 +4033,7 @@
         <v>32</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>55</v>
@@ -4072,7 +4073,7 @@
         <v>32</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>55</v>
@@ -4092,7 +4093,7 @@
         <v>23</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>55</v>
@@ -4132,7 +4133,7 @@
         <v>23</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>55</v>
@@ -4192,7 +4193,7 @@
         <v>12</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>55</v>
@@ -4212,7 +4213,7 @@
         <v>33</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>55</v>
@@ -4252,7 +4253,7 @@
         <v>33</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>55</v>
@@ -4272,7 +4273,7 @@
         <v>25</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>55</v>
@@ -4312,7 +4313,7 @@
         <v>25</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>55</v>
@@ -4372,7 +4373,7 @@
         <v>28</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>55</v>
@@ -4392,7 +4393,7 @@
         <v>13</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>55</v>
@@ -4432,7 +4433,7 @@
         <v>13</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>55</v>
@@ -4492,7 +4493,7 @@
         <v>26</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>55</v>
@@ -4512,7 +4513,7 @@
         <v>14</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>55</v>
@@ -4532,7 +4533,7 @@
         <v>14</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>55</v>
@@ -4552,7 +4553,7 @@
         <v>14</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>55</v>
@@ -4572,7 +4573,7 @@
         <v>30</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>55</v>
@@ -4612,7 +4613,7 @@
         <v>30</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>55</v>
@@ -4632,7 +4633,7 @@
         <v>15</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>55</v>
@@ -4672,7 +4673,7 @@
         <v>15</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>55</v>
@@ -4692,7 +4693,7 @@
         <v>16</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>55</v>
@@ -4752,7 +4753,7 @@
         <v>17</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>55</v>
@@ -4812,7 +4813,7 @@
         <v>29</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>55</v>
@@ -4852,7 +4853,7 @@
         <v>29</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>55</v>
@@ -4872,7 +4873,7 @@
         <v>18</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>55</v>
@@ -4972,7 +4973,7 @@
         <v>20</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>55</v>
@@ -4992,7 +4993,7 @@
         <v>24</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>55</v>
@@ -5092,7 +5093,7 @@
         <v>7</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>55</v>
@@ -5160,19 +5161,19 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B182" s="12">
         <v>6</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D182" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>55</v>
@@ -5180,19 +5181,19 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B183" s="12">
         <v>6</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>55</v>
@@ -5200,19 +5201,19 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B184" s="12">
         <v>6</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D184" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>55</v>
@@ -5220,19 +5221,19 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B185" s="12">
         <v>6</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D185" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>55</v>
@@ -5240,19 +5241,19 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B186" s="12">
         <v>6</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D186" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>55</v>
@@ -5260,19 +5261,19 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B187" s="12">
         <v>6</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D187" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>55</v>
@@ -5280,19 +5281,19 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B188" s="12">
         <v>6</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D188" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>55</v>
@@ -5300,19 +5301,19 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B189" s="12">
         <v>6</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D189" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>55</v>
@@ -5320,19 +5321,19 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B190" s="12">
         <v>6</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D190" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>55</v>
@@ -5340,19 +5341,19 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B191" s="12">
         <v>6</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D191" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>55</v>
@@ -5360,19 +5361,19 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B192" s="12">
         <v>6</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D192" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>55</v>
@@ -5380,19 +5381,19 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B193" s="12">
         <v>6</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D193" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>55</v>
@@ -5400,19 +5401,19 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B194" s="12">
         <v>6</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D194" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>55</v>
@@ -5420,19 +5421,19 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B195" s="12">
         <v>6</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D195" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>55</v>
@@ -5440,19 +5441,19 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B196" s="12">
         <v>6</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D196" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>55</v>
@@ -5460,19 +5461,19 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B197" s="12">
         <v>6</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D197" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>55</v>
@@ -5480,19 +5481,19 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B198" s="12">
         <v>6</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D198" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>55</v>
@@ -5500,19 +5501,19 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B199" s="12">
         <v>6</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D199" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>55</v>
@@ -5520,19 +5521,19 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B200" s="12">
         <v>6</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D200" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>55</v>
@@ -5540,19 +5541,19 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B201" s="12">
         <v>6</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D201" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>55</v>
@@ -5560,19 +5561,19 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B202" s="12">
         <v>6</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D202" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>55</v>
@@ -5580,19 +5581,19 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B203" s="12">
         <v>6</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D203" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>55</v>
@@ -5600,19 +5601,19 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B204" s="12">
         <v>6</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D204" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>55</v>
@@ -5620,19 +5621,19 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B205" s="12">
         <v>6</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D205" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>55</v>
@@ -5640,19 +5641,19 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B206" s="12">
         <v>6</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D206" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>55</v>
@@ -5660,19 +5661,19 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B207" s="12">
         <v>6</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D207" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>55</v>
@@ -5680,19 +5681,19 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B208" s="12">
         <v>6</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D208" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>55</v>
@@ -5700,19 +5701,19 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B209" s="12">
         <v>6</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D209" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>55</v>
@@ -5720,19 +5721,19 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B210" s="12">
         <v>6</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D210" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>55</v>
@@ -5740,19 +5741,19 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B211" s="12">
         <v>6</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D211" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>55</v>
@@ -5760,19 +5761,19 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B212" s="12">
         <v>6</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D212" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>55</v>
@@ -5780,19 +5781,19 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B213" s="12">
         <v>6</v>
       </c>
       <c r="C213" s="12" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D213" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>55</v>
@@ -5800,19 +5801,19 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B214" s="12">
         <v>6</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D214" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>55</v>
@@ -5820,19 +5821,19 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B215" s="12">
         <v>6</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D215" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>55</v>
@@ -5840,19 +5841,19 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B216" s="12">
         <v>6</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D216" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>55</v>
@@ -5860,19 +5861,19 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B217" s="12">
         <v>6</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D217" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>55</v>
@@ -5880,19 +5881,19 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B218" s="12">
         <v>6</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D218" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>55</v>
@@ -5900,19 +5901,19 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B219" s="12">
         <v>6</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D219" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>55</v>
@@ -5920,19 +5921,19 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B220" s="12">
         <v>6</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D220" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>55</v>
@@ -5940,19 +5941,19 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B221" s="12">
         <v>6</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D221" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>55</v>
@@ -5960,19 +5961,19 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B222" s="12">
         <v>6</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D222" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>55</v>
@@ -5980,19 +5981,19 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B223" s="12">
         <v>6</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D223" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>55</v>
@@ -6000,19 +6001,19 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B224" s="12">
         <v>6</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D224" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>55</v>
@@ -6020,19 +6021,19 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B225" s="12">
         <v>6</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D225" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>55</v>
@@ -6040,19 +6041,19 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B226" s="12">
         <v>6</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D226" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>55</v>
@@ -6060,19 +6061,19 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B227" s="12">
         <v>6</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D227" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>55</v>
@@ -6080,19 +6081,19 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B228" s="12">
         <v>6</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D228" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>55</v>
@@ -6100,19 +6101,19 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B229" s="12">
         <v>6</v>
       </c>
       <c r="C229" s="12" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D229" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>55</v>
@@ -6120,19 +6121,19 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B230" s="12">
         <v>6</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D230" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>55</v>
@@ -6140,19 +6141,19 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B231" s="12">
         <v>6</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>55</v>
@@ -6160,19 +6161,19 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B232" s="12">
         <v>6</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D232" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>55</v>
@@ -6180,19 +6181,19 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B233" s="12">
         <v>6</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D233" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>55</v>
@@ -6200,19 +6201,19 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B234" s="12">
         <v>6</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D234" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>55</v>
@@ -6220,19 +6221,19 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B235" s="12">
         <v>6</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>55</v>
@@ -6240,19 +6241,19 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B236" s="12">
         <v>6</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>55</v>
@@ -6260,19 +6261,19 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B237" s="12">
         <v>6</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D237" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>55</v>
@@ -6280,19 +6281,19 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B238" s="12">
         <v>6</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>55</v>
@@ -6300,19 +6301,19 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B239" s="12">
         <v>6</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D239" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>55</v>
@@ -6320,19 +6321,19 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B240" s="12">
         <v>6</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D240" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>55</v>
@@ -6340,19 +6341,19 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B241" s="12">
         <v>6</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D241" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>55</v>
@@ -6360,19 +6361,19 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B242" s="12">
         <v>6</v>
       </c>
       <c r="C242" s="12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D242" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>55</v>
@@ -6380,19 +6381,19 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B243" s="12">
         <v>6</v>
       </c>
       <c r="C243" s="12" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D243" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>55</v>
@@ -6400,19 +6401,19 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B244" s="12">
         <v>6</v>
       </c>
       <c r="C244" s="12" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D244" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>55</v>
@@ -6420,19 +6421,19 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B245" s="12">
         <v>6</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D245" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>55</v>
@@ -6440,19 +6441,19 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B246" s="12">
         <v>6</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D246" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>55</v>
@@ -6460,19 +6461,19 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B247" s="12">
         <v>6</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D247" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>55</v>
@@ -6480,19 +6481,19 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B248" s="12">
         <v>6</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D248" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>55</v>
@@ -6500,19 +6501,19 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B249" s="12">
         <v>6</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D249" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>55</v>
@@ -6520,19 +6521,19 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B250" s="12">
         <v>6</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D250" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>55</v>
@@ -6540,19 +6541,19 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B251" s="12">
         <v>6</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D251" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>55</v>
@@ -6560,19 +6561,19 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B252" s="12">
         <v>6</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D252" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>55</v>
@@ -6580,19 +6581,19 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B253" s="12">
         <v>6</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D253" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>55</v>
@@ -6600,19 +6601,19 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B254" s="12">
         <v>6</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D254" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>55</v>
@@ -6620,19 +6621,19 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B255" s="12">
         <v>6</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D255" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>55</v>
@@ -6640,19 +6641,19 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B256" s="12">
         <v>6</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D256" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>55</v>
@@ -6660,19 +6661,19 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B257" s="12">
         <v>6</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D257" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>55</v>
@@ -6680,19 +6681,19 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B258" s="12">
         <v>6</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D258" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>55</v>
@@ -6700,19 +6701,19 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B259" s="12">
         <v>6</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D259" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>55</v>
@@ -6720,19 +6721,19 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B260" s="12">
         <v>6</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D260" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>55</v>
@@ -6740,19 +6741,19 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B261" s="12">
         <v>6</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D261" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>55</v>
@@ -6760,19 +6761,19 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B262" s="12">
         <v>6</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D262" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>55</v>
@@ -6780,19 +6781,19 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B263" s="12">
         <v>6</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D263" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>55</v>
@@ -6800,19 +6801,19 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B264" s="12">
         <v>6</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D264" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>55</v>
@@ -6820,19 +6821,19 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B265" s="12">
         <v>6</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D265" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>55</v>
@@ -6840,19 +6841,19 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B266" s="12">
         <v>6</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D266" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>55</v>
@@ -6860,19 +6861,19 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B267" s="12">
         <v>6</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D267" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>55</v>
@@ -6880,19 +6881,19 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B268" s="12">
         <v>6</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D268" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>55</v>
@@ -6900,19 +6901,19 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B269" s="12">
         <v>6</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D269" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>55</v>
@@ -6920,19 +6921,19 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B270" s="12">
         <v>6</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D270" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>55</v>
@@ -6940,19 +6941,19 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B271" s="12">
         <v>6</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D271" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>55</v>
@@ -6960,19 +6961,19 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B272" s="12">
         <v>6</v>
       </c>
       <c r="C272" s="12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D272" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>55</v>
@@ -6980,19 +6981,19 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B273" s="12">
         <v>6</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D273" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>55</v>
@@ -7000,19 +7001,19 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B274" s="12">
         <v>6</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D274" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>55</v>
@@ -7020,19 +7021,19 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B275" s="12">
         <v>6</v>
       </c>
       <c r="C275" s="12" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D275" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>55</v>
@@ -7040,19 +7041,19 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B276" s="12">
         <v>6</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D276" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>55</v>
@@ -7060,19 +7061,19 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B277" s="12">
         <v>6</v>
       </c>
       <c r="C277" s="12" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D277" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>55</v>
@@ -7080,19 +7081,19 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B278" s="12">
         <v>6</v>
       </c>
       <c r="C278" s="12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D278" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>55</v>
@@ -7100,19 +7101,19 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B279" s="12">
         <v>6</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D279" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>55</v>
@@ -7120,19 +7121,19 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B280" s="12">
         <v>6</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D280" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>55</v>
@@ -7140,19 +7141,19 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B281" s="12">
         <v>6</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D281" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>55</v>
@@ -7160,19 +7161,19 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B282" s="12">
         <v>6</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D282" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>55</v>
@@ -7180,19 +7181,19 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B283" s="12">
         <v>6</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D283" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>55</v>
@@ -7200,19 +7201,19 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B284" s="12">
         <v>6</v>
       </c>
       <c r="C284" s="12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D284" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>55</v>
@@ -7220,19 +7221,19 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B285" s="12">
         <v>6</v>
       </c>
       <c r="C285" s="12" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D285" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>55</v>
@@ -7240,19 +7241,19 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B286" s="12">
         <v>6</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D286" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>55</v>
@@ -7260,19 +7261,19 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B287" s="12">
         <v>6</v>
       </c>
       <c r="C287" s="12" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D287" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F287" s="1" t="s">
         <v>55</v>
@@ -7280,19 +7281,19 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B288" s="12">
         <v>6</v>
       </c>
       <c r="C288" s="12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D288" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>55</v>
@@ -7300,19 +7301,19 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B289" s="12">
         <v>6</v>
       </c>
       <c r="C289" s="12" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D289" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>55</v>
@@ -7320,19 +7321,19 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B290" s="12">
         <v>6</v>
       </c>
       <c r="C290" s="12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D290" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>55</v>
@@ -7340,19 +7341,19 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B291" s="12">
         <v>6</v>
       </c>
       <c r="C291" s="12" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D291" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>55</v>
@@ -7360,19 +7361,19 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B292" s="12">
         <v>6</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D292" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F292" s="1" t="s">
         <v>55</v>
@@ -7380,19 +7381,19 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B293" s="12">
         <v>6</v>
       </c>
       <c r="C293" s="12" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D293" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F293" s="1" t="s">
         <v>55</v>
@@ -7400,19 +7401,19 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B294" s="12">
         <v>6</v>
       </c>
       <c r="C294" s="12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D294" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F294" s="1" t="s">
         <v>55</v>
@@ -7420,19 +7421,19 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B295" s="12">
         <v>6</v>
       </c>
       <c r="C295" s="12" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D295" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F295" s="1" t="s">
         <v>55</v>
@@ -7440,19 +7441,19 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B296" s="12">
         <v>6</v>
       </c>
       <c r="C296" s="12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D296" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>55</v>
@@ -7460,19 +7461,19 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B297" s="12">
         <v>6</v>
       </c>
       <c r="C297" s="12" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D297" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>55</v>
@@ -7480,19 +7481,19 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B298" s="12">
         <v>6</v>
       </c>
       <c r="C298" s="12" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D298" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>55</v>
@@ -7500,19 +7501,19 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B299" s="12">
         <v>6</v>
       </c>
       <c r="C299" s="12" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D299" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F299" s="1" t="s">
         <v>55</v>
@@ -7520,19 +7521,19 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B300" s="12">
         <v>6</v>
       </c>
       <c r="C300" s="12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D300" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>55</v>
@@ -7540,19 +7541,19 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B301" s="12">
         <v>6</v>
       </c>
       <c r="C301" s="12" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D301" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>55</v>

--- a/refair-server/datasets/few shot dataset/FSDataset.xlsx
+++ b/refair-server/datasets/few shot dataset/FSDataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morel\Desktop\Refair\ReFair-App\refair-server\datasets\few shot dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C030B0C-5A4A-4F1E-A9CD-5FFB297AA492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97058292-C55F-48FC-8EB5-79540C9FA813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{80773445-FB61-4F04-A882-1600FD96C55A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80773445-FB61-4F04-A882-1600FD96C55A}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -434,33 +434,15 @@
     <t>As an economist, I want to utilize CNNs to analyze historical economic data and extract spatial and temporal patterns, facilitating better understanding of economic cycles and trends</t>
   </si>
   <si>
-    <t>As an economist, I need a conversational agent capable of interpreting complex economic policies and explaining their implications to stakeholders, ensuring transparency and informed public discourse.</t>
-  </si>
-  <si>
-    <t>As an economist, I want to use decision trees to classify economic sectors based on their growth potential and risk profiles, aiding in portfolio diversification strategies for investment firms.</t>
-  </si>
-  <si>
-    <t>As an economist, I want to implement document classification systems to automatically organize and prioritize incoming economic research publications based on their relevance and impact, supporting efficient knowledge discovery and academic collaboration.</t>
-  </si>
-  <si>
     <t>As an economist, I want to apply entity extraction techniques to automatically identify and categorize economic indicators (e.g., GDP, inflation rate, unemployment rate) mentioned in textual data such as news articles and economic reports, to facilitate quantitative analysis and trend monitoring.</t>
   </si>
   <si>
-    <t>As an economist, I want to employ feature selection techniques to identify the most relevant economic indicators (e.g., GDP growth rate, inflation index) for predicting stock market movements, optimizing forecasting models used by financial institutions.</t>
-  </si>
-  <si>
     <t>As an economist, I need to handle imbalanced datasets when predicting economic downturns to improve the reliability of early warning systems, enabling proactive policy responses and mitigation measures.</t>
   </si>
   <si>
     <t>As an economist, I want to apply keyword extraction techniques to analyze customer feedback and reviews related to economic products and services, extracting sentiments and key concerns to guide market strategies and product development.</t>
   </si>
   <si>
-    <t>As an economist, I need k-NN models to analyze regional economic data and identify neighboring regions with similar economic profiles, enabling comparative analysis and policy recommendations for regional development.</t>
-  </si>
-  <si>
-    <t>As an economist, I want to use multi-label classification techniques to segment economic indicators (e.g., inflation rate, unemployment rate, GDP growth) based on their impact on various demographic groups, aiding in equitable economic policy formulation.</t>
-  </si>
-  <si>
     <t>As an economist, I want to leverage neural networks to predict stock market movements based on historical market data and economic indicators, enhancing investment decision-making and portfolio management.</t>
   </si>
   <si>
@@ -473,21 +455,12 @@
     <t>As an economist, I need sentiment analysis tools to analyze investor sentiment based on financial news and market reports, predicting market movements and investor behavior for effective risk management.</t>
   </si>
   <si>
-    <t>As an economist, I want to utilize speech to text technology to transcribe meetings with clients and stakeholders discussing economic forecasts and investment strategies, ensuring comprehensive and searchable records for future reference.</t>
-  </si>
-  <si>
     <t>As an economist, I want to use text categorization techniques to classify research papers and articles into economic sub-disciplines such as behavioral economics, development economics, and monetary economics, facilitating targeted literature reviews and research synthesis.</t>
   </si>
   <si>
-    <t>As an economist, I aim to deploy unsupervised clustering models to group similar industries based on their economic contributions and market behaviors, facilitating sector-specific economic analysis and policy formulation.</t>
-  </si>
-  <si>
     <t>As an economist, I want to utilize voice recognition technology to transcribe meetings with clients and stakeholders discussing economic strategies and investment opportunities, maintaining detailed records for strategic decision-making.</t>
   </si>
   <si>
-    <t>As an economist, I want to use word embedding techniques to analyze customer feedback and reviews on economic products and services, extracting underlying sentiments and preferences to guide product development and market positioning strategies.</t>
-  </si>
-  <si>
     <t>Medicine &amp; Health</t>
   </si>
   <si>
@@ -1077,6 +1050,33 @@
   </si>
   <si>
     <t>As a digital archivist, I want to leverage unsupervised clustering techniques to organize large archives of historical news articles into coherent thematic collections, improving accessibility and facilitating research in media history.</t>
+  </si>
+  <si>
+    <t>As an economic advisor, I want to develop a conversational agent powered by natural language processing to provide personalized financial advice to clients, helping them make informed investment decisions based on their financial goals and risk tolerance.</t>
+  </si>
+  <si>
+    <t>As an economic analyst, I want to utilize decision tree models to classify different types of economic indicators (e.g., leading, lagging, coincident) based on historical data, aiding in the identification of key economic trends and turning points.</t>
+  </si>
+  <si>
+    <t>As an economic researcher, I want to develop a document classification system to categorize research papers into economic theories (e.g., Keynesian economics, supply-side economics) based on their content, facilitating easier literature review and analysis.</t>
+  </si>
+  <si>
+    <t>As an economic policy advisor, I want to apply feature selection methods to labor market data to pinpoint the crucial variables (e.g., unemployment rate, job openings) affecting employment trends, guiding policy recommendations.</t>
+  </si>
+  <si>
+    <t>As a trade economist, I want to apply k-nearest neighbor algorithms to identify countries with similar trade patterns based on economic indicators such as export-import ratios and GDP growth rates, facilitating comparative trade analysis and policy recommendations.</t>
+  </si>
+  <si>
+    <t>As a trade economist, I seek to use multi-label classification techniques to classify trade agreements between countries into multiple categories (e.g., tariff reduction, trade facilitation, dispute resolution), helping analyze the impact on global trade flows.</t>
+  </si>
+  <si>
+    <t>As a business consultant, I want to implement speech to text capabilities to analyze focus group discussions and customer interviews about economic products and services, extracting actionable insights for business strategies.</t>
+  </si>
+  <si>
+    <t>As a trade economist, I want to use unsupervised clustering techniques to identify clusters of countries based on their trade patterns and economic similarities, aiding in comparative trade analysis and policy recommendations.</t>
+  </si>
+  <si>
+    <t>As an economic consultant, I seek to use word embedding techniques to analyze economic policy documents and identify clusters of related policy initiatives and their potential impacts on economic outcomes.</t>
   </si>
 </sst>
 </file>
@@ -1526,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DF0B04-8323-4309-B759-D1CDDA1FBB0E}">
   <dimension ref="A1:F301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1626,7 +1626,7 @@
       <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>129</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -1673,7 +1673,7 @@
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>132</v>
+        <v>338</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>55</v>
@@ -1713,7 +1713,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>133</v>
+        <v>339</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>55</v>
@@ -1753,7 +1753,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>134</v>
+        <v>340</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>55</v>
@@ -1793,7 +1793,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>55</v>
@@ -1833,7 +1833,7 @@
         <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>136</v>
+        <v>341</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>55</v>
@@ -1873,7 +1873,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>55</v>
@@ -1913,7 +1913,7 @@
         <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>55</v>
@@ -1953,7 +1953,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>139</v>
+        <v>342</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>55</v>
@@ -1993,7 +1993,7 @@
         <v>30</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>140</v>
+        <v>343</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>55</v>
@@ -2033,7 +2033,7 @@
         <v>15</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>55</v>
@@ -2073,7 +2073,7 @@
         <v>16</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>55</v>
@@ -2086,7 +2086,7 @@
       <c r="B28" s="10">
         <v>2</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="11" t="s">
         <v>108</v>
       </c>
       <c r="D28" s="9" t="s">
@@ -2113,7 +2113,7 @@
         <v>17</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>55</v>
@@ -2153,7 +2153,7 @@
         <v>29</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>55</v>
@@ -2193,7 +2193,7 @@
         <v>18</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>145</v>
+        <v>344</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>55</v>
@@ -2233,7 +2233,7 @@
         <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>55</v>
@@ -2273,7 +2273,7 @@
         <v>24</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>147</v>
+        <v>345</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>55</v>
@@ -2313,7 +2313,7 @@
         <v>7</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>55</v>
@@ -2353,7 +2353,7 @@
         <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>149</v>
+        <v>346</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>55</v>
@@ -2513,7 +2513,7 @@
         <v>12</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>55</v>
@@ -2553,7 +2553,7 @@
         <v>33</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>55</v>
@@ -2633,7 +2633,7 @@
         <v>28</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>55</v>
@@ -2713,7 +2713,7 @@
         <v>26</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>55</v>
@@ -2833,7 +2833,7 @@
         <v>15</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>55</v>
@@ -2913,7 +2913,7 @@
         <v>17</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>55</v>
@@ -3073,7 +3073,7 @@
         <v>24</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>55</v>
@@ -3173,7 +3173,7 @@
         <v>22</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>55</v>
@@ -3193,7 +3193,7 @@
         <v>22</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>55</v>
@@ -3213,7 +3213,7 @@
         <v>32</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>55</v>
@@ -3253,7 +3253,7 @@
         <v>23</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>55</v>
@@ -3273,7 +3273,7 @@
         <v>23</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>55</v>
@@ -3313,7 +3313,7 @@
         <v>12</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>55</v>
@@ -3333,7 +3333,7 @@
         <v>33</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>55</v>
@@ -3353,7 +3353,7 @@
         <v>33</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>55</v>
@@ -3373,7 +3373,7 @@
         <v>25</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>55</v>
@@ -3393,7 +3393,7 @@
         <v>25</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>55</v>
@@ -3453,7 +3453,7 @@
         <v>13</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>55</v>
@@ -3473,7 +3473,7 @@
         <v>13</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>55</v>
@@ -3493,7 +3493,7 @@
         <v>26</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>55</v>
@@ -3533,7 +3533,7 @@
         <v>14</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>55</v>
@@ -3553,7 +3553,7 @@
         <v>14</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>55</v>
@@ -3573,7 +3573,7 @@
         <v>30</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>55</v>
@@ -3593,7 +3593,7 @@
         <v>30</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>55</v>
@@ -3613,7 +3613,7 @@
         <v>15</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>55</v>
@@ -3633,7 +3633,7 @@
         <v>15</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>55</v>
@@ -3653,7 +3653,7 @@
         <v>16</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>55</v>
@@ -3673,7 +3673,7 @@
         <v>16</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>55</v>
@@ -3693,7 +3693,7 @@
         <v>17</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>55</v>
@@ -3713,7 +3713,7 @@
         <v>17</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>55</v>
@@ -3733,7 +3733,7 @@
         <v>29</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>55</v>
@@ -3753,7 +3753,7 @@
         <v>29</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>55</v>
@@ -3773,7 +3773,7 @@
         <v>18</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>55</v>
@@ -3793,7 +3793,7 @@
         <v>18</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>55</v>
@@ -3833,7 +3833,7 @@
         <v>20</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>55</v>
@@ -3853,7 +3853,7 @@
         <v>24</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>55</v>
@@ -3873,7 +3873,7 @@
         <v>24</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>55</v>
@@ -3893,7 +3893,7 @@
         <v>7</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>55</v>
@@ -3913,7 +3913,7 @@
         <v>7</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>55</v>
@@ -3933,7 +3933,7 @@
         <v>9</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>55</v>
@@ -3953,7 +3953,7 @@
         <v>9</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>55</v>
@@ -4013,7 +4013,7 @@
         <v>22</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>55</v>
@@ -4033,7 +4033,7 @@
         <v>32</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>55</v>
@@ -4073,7 +4073,7 @@
         <v>32</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>55</v>
@@ -4093,7 +4093,7 @@
         <v>23</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>55</v>
@@ -4133,7 +4133,7 @@
         <v>23</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>55</v>
@@ -4193,7 +4193,7 @@
         <v>12</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>55</v>
@@ -4213,7 +4213,7 @@
         <v>33</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>55</v>
@@ -4253,7 +4253,7 @@
         <v>33</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>55</v>
@@ -4273,7 +4273,7 @@
         <v>25</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>55</v>
@@ -4313,7 +4313,7 @@
         <v>25</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>55</v>
@@ -4373,7 +4373,7 @@
         <v>28</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>55</v>
@@ -4393,7 +4393,7 @@
         <v>13</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>55</v>
@@ -4433,7 +4433,7 @@
         <v>13</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>55</v>
@@ -4493,7 +4493,7 @@
         <v>26</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>55</v>
@@ -4513,7 +4513,7 @@
         <v>14</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>55</v>
@@ -4533,7 +4533,7 @@
         <v>14</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>55</v>
@@ -4553,7 +4553,7 @@
         <v>14</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>55</v>
@@ -4573,7 +4573,7 @@
         <v>30</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>55</v>
@@ -4613,7 +4613,7 @@
         <v>30</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>55</v>
@@ -4633,7 +4633,7 @@
         <v>15</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>55</v>
@@ -4673,7 +4673,7 @@
         <v>15</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>55</v>
@@ -4693,7 +4693,7 @@
         <v>16</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>55</v>
@@ -4753,7 +4753,7 @@
         <v>17</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>55</v>
@@ -4813,7 +4813,7 @@
         <v>29</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>55</v>
@@ -4853,7 +4853,7 @@
         <v>29</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>55</v>
@@ -4873,7 +4873,7 @@
         <v>18</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>55</v>
@@ -4973,7 +4973,7 @@
         <v>20</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>55</v>
@@ -4993,7 +4993,7 @@
         <v>24</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>55</v>
@@ -5093,7 +5093,7 @@
         <v>7</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>55</v>
@@ -5161,19 +5161,19 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B182" s="12">
         <v>6</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D182" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>55</v>
@@ -5181,19 +5181,19 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B183" s="12">
         <v>6</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>55</v>
@@ -5201,19 +5201,19 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B184" s="12">
         <v>6</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D184" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>55</v>
@@ -5221,19 +5221,19 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B185" s="12">
         <v>6</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D185" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>55</v>
@@ -5241,19 +5241,19 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B186" s="12">
         <v>6</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D186" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>55</v>
@@ -5261,19 +5261,19 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B187" s="12">
         <v>6</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D187" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>55</v>
@@ -5281,19 +5281,19 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B188" s="12">
         <v>6</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D188" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>55</v>
@@ -5301,19 +5301,19 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B189" s="12">
         <v>6</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D189" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>55</v>
@@ -5321,19 +5321,19 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B190" s="12">
         <v>6</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D190" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>55</v>
@@ -5341,19 +5341,19 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B191" s="12">
         <v>6</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D191" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>55</v>
@@ -5361,19 +5361,19 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B192" s="12">
         <v>6</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D192" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>55</v>
@@ -5381,19 +5381,19 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B193" s="12">
         <v>6</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D193" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>55</v>
@@ -5401,19 +5401,19 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B194" s="12">
         <v>6</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D194" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>55</v>
@@ -5421,19 +5421,19 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B195" s="12">
         <v>6</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D195" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>55</v>
@@ -5441,19 +5441,19 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B196" s="12">
         <v>6</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D196" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>55</v>
@@ -5461,19 +5461,19 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B197" s="12">
         <v>6</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D197" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>55</v>
@@ -5481,19 +5481,19 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B198" s="12">
         <v>6</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D198" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>55</v>
@@ -5501,19 +5501,19 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B199" s="12">
         <v>6</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D199" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>55</v>
@@ -5521,19 +5521,19 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B200" s="12">
         <v>6</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D200" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>55</v>
@@ -5541,19 +5541,19 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B201" s="12">
         <v>6</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D201" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>55</v>
@@ -5561,19 +5561,19 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B202" s="12">
         <v>6</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D202" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>55</v>
@@ -5581,19 +5581,19 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B203" s="12">
         <v>6</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D203" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>55</v>
@@ -5601,19 +5601,19 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B204" s="12">
         <v>6</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D204" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>55</v>
@@ -5621,19 +5621,19 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B205" s="12">
         <v>6</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D205" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>55</v>
@@ -5641,19 +5641,19 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B206" s="12">
         <v>6</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D206" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>55</v>
@@ -5661,19 +5661,19 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B207" s="12">
         <v>6</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D207" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>55</v>
@@ -5681,19 +5681,19 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B208" s="12">
         <v>6</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D208" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>55</v>
@@ -5701,19 +5701,19 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B209" s="12">
         <v>6</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D209" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>55</v>
@@ -5721,19 +5721,19 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B210" s="12">
         <v>6</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D210" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>55</v>
@@ -5741,19 +5741,19 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B211" s="12">
         <v>6</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D211" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>55</v>
@@ -5761,19 +5761,19 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B212" s="12">
         <v>6</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D212" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>55</v>
@@ -5781,19 +5781,19 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B213" s="12">
         <v>6</v>
       </c>
       <c r="C213" s="12" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D213" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>55</v>
@@ -5801,19 +5801,19 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B214" s="12">
         <v>6</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D214" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>55</v>
@@ -5821,19 +5821,19 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B215" s="12">
         <v>6</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D215" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>55</v>
@@ -5841,19 +5841,19 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B216" s="12">
         <v>6</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D216" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>55</v>
@@ -5861,19 +5861,19 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B217" s="12">
         <v>6</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D217" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>55</v>
@@ -5881,19 +5881,19 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B218" s="12">
         <v>6</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D218" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>55</v>
@@ -5901,19 +5901,19 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B219" s="12">
         <v>6</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D219" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>55</v>
@@ -5921,19 +5921,19 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B220" s="12">
         <v>6</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D220" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>55</v>
@@ -5941,19 +5941,19 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B221" s="12">
         <v>6</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D221" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>55</v>
@@ -5961,19 +5961,19 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B222" s="12">
         <v>6</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D222" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>55</v>
@@ -5981,19 +5981,19 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B223" s="12">
         <v>6</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D223" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>55</v>
@@ -6001,19 +6001,19 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B224" s="12">
         <v>6</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D224" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>55</v>
@@ -6021,19 +6021,19 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B225" s="12">
         <v>6</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D225" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>55</v>
@@ -6041,19 +6041,19 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B226" s="12">
         <v>6</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D226" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>55</v>
@@ -6061,19 +6061,19 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B227" s="12">
         <v>6</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D227" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>55</v>
@@ -6081,19 +6081,19 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B228" s="12">
         <v>6</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D228" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>55</v>
@@ -6101,19 +6101,19 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B229" s="12">
         <v>6</v>
       </c>
       <c r="C229" s="12" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D229" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>55</v>
@@ -6121,19 +6121,19 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B230" s="12">
         <v>6</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D230" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>55</v>
@@ -6141,19 +6141,19 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B231" s="12">
         <v>6</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>55</v>
@@ -6161,19 +6161,19 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B232" s="12">
         <v>6</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D232" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>55</v>
@@ -6181,19 +6181,19 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B233" s="12">
         <v>6</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D233" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>55</v>
@@ -6201,19 +6201,19 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B234" s="12">
         <v>6</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D234" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>55</v>
@@ -6221,19 +6221,19 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B235" s="12">
         <v>6</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>55</v>
@@ -6241,19 +6241,19 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B236" s="12">
         <v>6</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>55</v>
@@ -6261,19 +6261,19 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B237" s="12">
         <v>6</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D237" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>55</v>
@@ -6281,19 +6281,19 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B238" s="12">
         <v>6</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>55</v>
@@ -6301,19 +6301,19 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B239" s="12">
         <v>6</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D239" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>55</v>
@@ -6321,19 +6321,19 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B240" s="12">
         <v>6</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D240" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>55</v>
@@ -6341,19 +6341,19 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B241" s="12">
         <v>6</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D241" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>55</v>
@@ -6361,19 +6361,19 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B242" s="12">
         <v>6</v>
       </c>
       <c r="C242" s="12" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D242" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>55</v>
@@ -6381,19 +6381,19 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B243" s="12">
         <v>6</v>
       </c>
       <c r="C243" s="12" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D243" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>55</v>
@@ -6401,19 +6401,19 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B244" s="12">
         <v>6</v>
       </c>
       <c r="C244" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D244" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>55</v>
@@ -6421,19 +6421,19 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B245" s="12">
         <v>6</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D245" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>55</v>
@@ -6441,19 +6441,19 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B246" s="12">
         <v>6</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D246" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>55</v>
@@ -6461,19 +6461,19 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B247" s="12">
         <v>6</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D247" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>55</v>
@@ -6481,19 +6481,19 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B248" s="12">
         <v>6</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D248" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>55</v>
@@ -6501,19 +6501,19 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B249" s="12">
         <v>6</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D249" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>55</v>
@@ -6521,19 +6521,19 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B250" s="12">
         <v>6</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D250" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>55</v>
@@ -6541,19 +6541,19 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B251" s="12">
         <v>6</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D251" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>55</v>
@@ -6561,19 +6561,19 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B252" s="12">
         <v>6</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D252" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>55</v>
@@ -6581,19 +6581,19 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B253" s="12">
         <v>6</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D253" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>55</v>
@@ -6601,19 +6601,19 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B254" s="12">
         <v>6</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D254" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>55</v>
@@ -6621,19 +6621,19 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B255" s="12">
         <v>6</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D255" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>55</v>
@@ -6641,19 +6641,19 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B256" s="12">
         <v>6</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D256" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>55</v>
@@ -6661,19 +6661,19 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B257" s="12">
         <v>6</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D257" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>55</v>
@@ -6681,19 +6681,19 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B258" s="12">
         <v>6</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D258" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>55</v>
@@ -6701,19 +6701,19 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B259" s="12">
         <v>6</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D259" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>55</v>
@@ -6721,19 +6721,19 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B260" s="12">
         <v>6</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D260" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>55</v>
@@ -6741,19 +6741,19 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B261" s="12">
         <v>6</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D261" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>55</v>
@@ -6761,19 +6761,19 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B262" s="12">
         <v>6</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D262" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>55</v>
@@ -6781,19 +6781,19 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B263" s="12">
         <v>6</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D263" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>55</v>
@@ -6801,19 +6801,19 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B264" s="12">
         <v>6</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D264" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>55</v>
@@ -6821,19 +6821,19 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B265" s="12">
         <v>6</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D265" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>55</v>
@@ -6841,19 +6841,19 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B266" s="12">
         <v>6</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D266" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>55</v>
@@ -6861,19 +6861,19 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B267" s="12">
         <v>6</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D267" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>55</v>
@@ -6881,19 +6881,19 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B268" s="12">
         <v>6</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D268" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>55</v>
@@ -6901,19 +6901,19 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B269" s="12">
         <v>6</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D269" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>55</v>
@@ -6921,19 +6921,19 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B270" s="12">
         <v>6</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D270" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>55</v>
@@ -6941,19 +6941,19 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B271" s="12">
         <v>6</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D271" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>55</v>
@@ -6961,19 +6961,19 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B272" s="12">
         <v>6</v>
       </c>
       <c r="C272" s="12" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D272" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>55</v>
@@ -6981,19 +6981,19 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B273" s="12">
         <v>6</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D273" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>55</v>
@@ -7001,19 +7001,19 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B274" s="12">
         <v>6</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D274" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>55</v>
@@ -7021,19 +7021,19 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B275" s="12">
         <v>6</v>
       </c>
       <c r="C275" s="12" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D275" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>55</v>
@@ -7041,19 +7041,19 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B276" s="12">
         <v>6</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D276" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>55</v>
@@ -7061,19 +7061,19 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B277" s="12">
         <v>6</v>
       </c>
       <c r="C277" s="12" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D277" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>55</v>
@@ -7081,19 +7081,19 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B278" s="12">
         <v>6</v>
       </c>
       <c r="C278" s="12" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D278" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>55</v>
@@ -7101,19 +7101,19 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B279" s="12">
         <v>6</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D279" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>55</v>
@@ -7121,19 +7121,19 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B280" s="12">
         <v>6</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D280" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>55</v>
@@ -7141,19 +7141,19 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B281" s="12">
         <v>6</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D281" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>55</v>
@@ -7161,19 +7161,19 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B282" s="12">
         <v>6</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D282" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>55</v>
@@ -7181,19 +7181,19 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B283" s="12">
         <v>6</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D283" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>55</v>
@@ -7201,19 +7201,19 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B284" s="12">
         <v>6</v>
       </c>
       <c r="C284" s="12" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D284" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>55</v>
@@ -7221,19 +7221,19 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B285" s="12">
         <v>6</v>
       </c>
       <c r="C285" s="12" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D285" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>55</v>
@@ -7241,19 +7241,19 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B286" s="12">
         <v>6</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D286" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>55</v>
@@ -7261,19 +7261,19 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B287" s="12">
         <v>6</v>
       </c>
       <c r="C287" s="12" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D287" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="F287" s="1" t="s">
         <v>55</v>
@@ -7281,19 +7281,19 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B288" s="12">
         <v>6</v>
       </c>
       <c r="C288" s="12" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D288" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>55</v>
@@ -7301,19 +7301,19 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B289" s="12">
         <v>6</v>
       </c>
       <c r="C289" s="12" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D289" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>55</v>
@@ -7321,19 +7321,19 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B290" s="12">
         <v>6</v>
       </c>
       <c r="C290" s="12" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D290" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>55</v>
@@ -7341,19 +7341,19 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B291" s="12">
         <v>6</v>
       </c>
       <c r="C291" s="12" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D291" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>55</v>
@@ -7361,19 +7361,19 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B292" s="12">
         <v>6</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D292" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F292" s="1" t="s">
         <v>55</v>
@@ -7381,19 +7381,19 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B293" s="12">
         <v>6</v>
       </c>
       <c r="C293" s="12" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D293" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="F293" s="1" t="s">
         <v>55</v>
@@ -7401,19 +7401,19 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B294" s="12">
         <v>6</v>
       </c>
       <c r="C294" s="12" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D294" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F294" s="1" t="s">
         <v>55</v>
@@ -7421,19 +7421,19 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B295" s="12">
         <v>6</v>
       </c>
       <c r="C295" s="12" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D295" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="F295" s="1" t="s">
         <v>55</v>
@@ -7441,19 +7441,19 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B296" s="12">
         <v>6</v>
       </c>
       <c r="C296" s="12" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D296" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>55</v>
@@ -7461,19 +7461,19 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B297" s="12">
         <v>6</v>
       </c>
       <c r="C297" s="12" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D297" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>55</v>
@@ -7481,19 +7481,19 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B298" s="12">
         <v>6</v>
       </c>
       <c r="C298" s="12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D298" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>55</v>
@@ -7501,19 +7501,19 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B299" s="12">
         <v>6</v>
       </c>
       <c r="C299" s="12" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D299" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F299" s="1" t="s">
         <v>55</v>
@@ -7521,19 +7521,19 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B300" s="12">
         <v>6</v>
       </c>
       <c r="C300" s="12" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D300" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>55</v>
@@ -7541,19 +7541,19 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B301" s="12">
         <v>6</v>
       </c>
       <c r="C301" s="12" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D301" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>55</v>

--- a/refair-server/datasets/few shot dataset/FSDataset.xlsx
+++ b/refair-server/datasets/few shot dataset/FSDataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morel\Desktop\Refair\ReFair-App\refair-server\datasets\few shot dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97058292-C55F-48FC-8EB5-79540C9FA813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9E0681-AFC1-4B9E-BC32-359C80B205A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80773445-FB61-4F04-A882-1600FD96C55A}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{80773445-FB61-4F04-A882-1600FD96C55A}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -368,63 +368,24 @@
     <t>As a financial institution, I want to apply adversarial learning techniques to detect and mitigate fraudulent transactions in real-time, so that I can protect our customers' financial assets more effectively.</t>
   </si>
   <si>
-    <t>As a financial institution, I want to utilize CNNs to analyze time-series financial data and predict short-term market trends with higher accuracy, enabling us to optimize our investment strategies.</t>
-  </si>
-  <si>
     <t>As a financial institution, I want to integrate a conversational agent into our mobile banking app to guide users through complex financial processes such as loan applications and investment portfolio management, simplifying the user experience and increasing adoption rates.</t>
   </si>
   <si>
-    <t>As a financial analyst, I want to develop a decision tree model to predict stock price movements based on historical market data and economic indicators, assisting investors in making informed trading decisions.</t>
-  </si>
-  <si>
-    <t>As a financial institution, I want to use document classification algorithms to automatically categorize and prioritize incoming financial reports and statements, enabling faster decision-making and compliance monitoring.</t>
-  </si>
-  <si>
-    <t>As a financial institution, I want to implement entity extraction models to automatically identify and extract key financial entities (e.g., company names, stock symbols, monetary amounts) from news articles and financial reports, enhancing our market analysis and investment strategies.</t>
-  </si>
-  <si>
-    <t>As a financial institution, I want to employ feature selection techniques to identify the most relevant financial indicators (such as volatility, liquidity ratios) from a large dataset for predicting stock prices, improving the accuracy of our investment models.</t>
-  </si>
-  <si>
     <t>As a financial institution, I want to address imbalanced datasets in fraud detection by employing ensemble learning techniques like AdaBoost to enhance the detection of fraudulent transactions while minimizing false alarms.</t>
   </si>
   <si>
     <t>As a financial institution, I want to implement keyword extraction algorithms to analyze customer reviews and identify recurring themes and concerns related to our financial products, enabling us to prioritize areas for improvement.</t>
   </si>
   <si>
-    <t>As a financial analyst, I want to implement KNN algorithms to classify stocks based on historical trading patterns and market indicators, helping investors identify similar stocks for portfolio diversification strategies.</t>
-  </si>
-  <si>
-    <t>As a financial institution, I want to develop multi-label classification models to categorize financial products based on risk levels, return potential, and investment duration, providing comprehensive recommendations to clients.</t>
-  </si>
-  <si>
     <t>As a financial analyst, I want to build a neural network model to predict stock prices based on historical market data and economic indicators, providing accurate forecasts to guide investment decisions.</t>
   </si>
   <si>
     <t>As a financial institution, I want to develop a random forest-based recommendation system for personalized financial products, suggesting suitable investment options based on customer profiles and financial goals.</t>
   </si>
   <si>
-    <t>As a financial institution, I want to apply semantic similarity algorithms to compare legal documents such as contracts and agreements, ensuring consistency and accuracy in regulatory compliance across different jurisdictions.</t>
-  </si>
-  <si>
-    <t>As a marketer, I want to use sentiment analysis to monitor customer sentiment towards our brand and products on social media platforms, identifying opportunities to enhance customer experience and address negative feedback promptly.</t>
-  </si>
-  <si>
     <t>As a financial institution, I want to deploy speech to text systems for automated transcription of customer service calls and inquiries, improving efficiency in resolving customer issues and enhancing service quality.</t>
   </si>
   <si>
-    <t>As a financial analyst, I want to develop text categorization models to classify research papers and articles into relevant financial topics such as macroeconomics, stock analysis, and industry trends, supporting comprehensive market analysis.</t>
-  </si>
-  <si>
-    <t>As a marketer, I want to use unsupervised clustering techniques to group social media followers based on engagement behaviors and interests, optimizing social media marketing campaigns to increase brand awareness and customer engagement.</t>
-  </si>
-  <si>
-    <t>As a financial analyst, I want to develop voice recognition systems to transcribe and analyze financial podcasts and interviews with industry experts, extracting key insights and market predictions for investors.</t>
-  </si>
-  <si>
-    <t>As a marketer, I want to apply word embedding techniques to analyze customer reviews and social media comments about our products, identifying key product features and sentiments that influence consumer preferences and purchasing decisions.</t>
-  </si>
-  <si>
     <t>Economics</t>
   </si>
   <si>
@@ -1077,6 +1038,45 @@
   </si>
   <si>
     <t>As an economic consultant, I seek to use word embedding techniques to analyze economic policy documents and identify clusters of related policy initiatives and their potential impacts on economic outcomes.</t>
+  </si>
+  <si>
+    <t>As a financial planner, I want to implement CNN architectures to analyze customer financial data and recommend personalized investment portfolios based on risk tolerance and market conditions, optimizing returns for our clients.</t>
+  </si>
+  <si>
+    <t>As a financial planner, I want to implement decision tree algorithms to recommend personalized investment strategies based on client financial goals, risk tolerance, and market conditions, optimizing long-term portfolio growth.</t>
+  </si>
+  <si>
+    <t>As an investment banker, I want a document classification system to categorize news articles and financial reports based on market sectors and trends, facilitating timely insights into industry developments and potential investment opportunities.</t>
+  </si>
+  <si>
+    <t>As a financial data analyst, I want to develop an entity extraction model to automatically identify and extract key financial entities (e.g., company names, stock tickers, financial metrics) from unstructured text data such as news articles and earnings reports.</t>
+  </si>
+  <si>
+    <t>As a financial planner, I want to employ feature selection algorithms to identify influential financial planning parameters (e.g., income level, risk tolerance) from client profiles, enabling personalized and effective financial advice.</t>
+  </si>
+  <si>
+    <t>As a market analyst, I want to apply k-nearest neighbor techniques to identify comparable companies in terms of market capitalization and revenue size, facilitating benchmarking and competitive analysis in the financial services industry.</t>
+  </si>
+  <si>
+    <t>As a marketing strategist, I want to build a multi-label classification system to categorize customer preferences across different product categories (e.g., banking services, investment products), enabling personalized marketing campaigns tailored to each customer's interests.</t>
+  </si>
+  <si>
+    <t>As a market researcher, I want to apply semantic similarity models to analyze customer feedback across various social media platforms, identifying common themes and sentiments about our financial products to improve customer satisfaction.</t>
+  </si>
+  <si>
+    <t>As a marketing strategist, I want to conduct sentiment analysis on customer reviews of our products to understand customer preferences and sentiments, enabling us to tailor marketing campaigns effectively.</t>
+  </si>
+  <si>
+    <t>As a financial advisor, I want to categorize client emails and inquiries into topics such as retirement planning, investment advice, and tax optimization using text categorization, enabling personalized and timely client responses.</t>
+  </si>
+  <si>
+    <t>As a portfolio manager, I want to cluster stocks into groups based on their historical price movements and volatility patterns using unsupervised clustering techniques, assisting in portfolio diversification and risk management.</t>
+  </si>
+  <si>
+    <t>As a financial advisor, I want to use voice recognition technology to transcribe client meetings accurately, allowing me to focus on discussions and provide personalized financial advice without missing critical details.</t>
+  </si>
+  <si>
+    <t>As a financial planner, I want to employ word embedding algorithms to cluster client financial goals and preferences based on their articulated needs and aspirations, facilitating personalized financial planning advice and strategies.</t>
   </si>
 </sst>
 </file>
@@ -1526,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DF0B04-8323-4309-B759-D1CDDA1FBB0E}">
   <dimension ref="A1:F301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1587,13 +1587,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>55</v>
@@ -1613,7 +1613,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>110</v>
+        <v>334</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>55</v>
@@ -1627,13 +1627,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>55</v>
@@ -1653,7 +1653,7 @@
         <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>55</v>
@@ -1667,13 +1667,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>55</v>
@@ -1693,7 +1693,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>112</v>
+        <v>335</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>55</v>
@@ -1707,13 +1707,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>55</v>
@@ -1733,7 +1733,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>55</v>
@@ -1747,13 +1747,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>55</v>
@@ -1773,7 +1773,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>114</v>
+        <v>337</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>55</v>
@@ -1787,13 +1787,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>55</v>
@@ -1806,14 +1806,14 @@
       <c r="B14" s="10">
         <v>2</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>108</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>115</v>
+        <v>338</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>55</v>
@@ -1827,13 +1827,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>55</v>
@@ -1853,7 +1853,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>55</v>
@@ -1867,13 +1867,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>55</v>
@@ -1893,7 +1893,7 @@
         <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>55</v>
@@ -1907,13 +1907,13 @@
         <v>2</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>55</v>
@@ -1933,7 +1933,7 @@
         <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>118</v>
+        <v>339</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>55</v>
@@ -1947,13 +1947,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>55</v>
@@ -1973,7 +1973,7 @@
         <v>30</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>119</v>
+        <v>340</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>55</v>
@@ -1987,13 +1987,13 @@
         <v>2</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>55</v>
@@ -2013,7 +2013,7 @@
         <v>15</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>55</v>
@@ -2027,13 +2027,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>55</v>
@@ -2053,7 +2053,7 @@
         <v>16</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>55</v>
@@ -2067,13 +2067,13 @@
         <v>2</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>55</v>
@@ -2093,7 +2093,7 @@
         <v>17</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>122</v>
+        <v>341</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>55</v>
@@ -2107,13 +2107,13 @@
         <v>2</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>55</v>
@@ -2133,7 +2133,7 @@
         <v>29</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>123</v>
+        <v>342</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>55</v>
@@ -2147,13 +2147,13 @@
         <v>2</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>55</v>
@@ -2173,7 +2173,7 @@
         <v>18</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>55</v>
@@ -2187,13 +2187,13 @@
         <v>2</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>55</v>
@@ -2213,7 +2213,7 @@
         <v>20</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>125</v>
+        <v>343</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>55</v>
@@ -2227,13 +2227,13 @@
         <v>2</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>55</v>
@@ -2253,7 +2253,7 @@
         <v>24</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>126</v>
+        <v>344</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>55</v>
@@ -2267,13 +2267,13 @@
         <v>2</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>55</v>
@@ -2286,14 +2286,14 @@
       <c r="B38" s="10">
         <v>2</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="11" t="s">
         <v>108</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>127</v>
+        <v>345</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>55</v>
@@ -2307,13 +2307,13 @@
         <v>2</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>55</v>
@@ -2333,7 +2333,7 @@
         <v>9</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>128</v>
+        <v>346</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>55</v>
@@ -2347,13 +2347,13 @@
         <v>2</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>55</v>
@@ -2513,7 +2513,7 @@
         <v>12</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>55</v>
@@ -2553,7 +2553,7 @@
         <v>33</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>55</v>
@@ -2633,7 +2633,7 @@
         <v>28</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>55</v>
@@ -2713,7 +2713,7 @@
         <v>26</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>55</v>
@@ -2833,7 +2833,7 @@
         <v>15</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>55</v>
@@ -2913,7 +2913,7 @@
         <v>17</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>55</v>
@@ -3073,7 +3073,7 @@
         <v>24</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>55</v>
@@ -3173,7 +3173,7 @@
         <v>22</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>55</v>
@@ -3193,7 +3193,7 @@
         <v>22</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>55</v>
@@ -3213,7 +3213,7 @@
         <v>32</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>55</v>
@@ -3253,7 +3253,7 @@
         <v>23</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>55</v>
@@ -3273,7 +3273,7 @@
         <v>23</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>55</v>
@@ -3313,7 +3313,7 @@
         <v>12</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>55</v>
@@ -3333,7 +3333,7 @@
         <v>33</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>55</v>
@@ -3353,7 +3353,7 @@
         <v>33</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>55</v>
@@ -3373,7 +3373,7 @@
         <v>25</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>55</v>
@@ -3393,7 +3393,7 @@
         <v>25</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>55</v>
@@ -3453,7 +3453,7 @@
         <v>13</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>55</v>
@@ -3473,7 +3473,7 @@
         <v>13</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>55</v>
@@ -3493,7 +3493,7 @@
         <v>26</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>55</v>
@@ -3533,7 +3533,7 @@
         <v>14</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>55</v>
@@ -3553,7 +3553,7 @@
         <v>14</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>55</v>
@@ -3573,7 +3573,7 @@
         <v>30</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>55</v>
@@ -3593,7 +3593,7 @@
         <v>30</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>55</v>
@@ -3613,7 +3613,7 @@
         <v>15</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>55</v>
@@ -3633,7 +3633,7 @@
         <v>15</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>55</v>
@@ -3653,7 +3653,7 @@
         <v>16</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>55</v>
@@ -3673,7 +3673,7 @@
         <v>16</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>55</v>
@@ -3693,7 +3693,7 @@
         <v>17</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>55</v>
@@ -3713,7 +3713,7 @@
         <v>17</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>55</v>
@@ -3733,7 +3733,7 @@
         <v>29</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>55</v>
@@ -3753,7 +3753,7 @@
         <v>29</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>55</v>
@@ -3773,7 +3773,7 @@
         <v>18</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>55</v>
@@ -3793,7 +3793,7 @@
         <v>18</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>55</v>
@@ -3833,7 +3833,7 @@
         <v>20</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>55</v>
@@ -3853,7 +3853,7 @@
         <v>24</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>55</v>
@@ -3873,7 +3873,7 @@
         <v>24</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>55</v>
@@ -3893,7 +3893,7 @@
         <v>7</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>55</v>
@@ -3913,7 +3913,7 @@
         <v>7</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>55</v>
@@ -3933,7 +3933,7 @@
         <v>9</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>55</v>
@@ -3953,7 +3953,7 @@
         <v>9</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>55</v>
@@ -4013,7 +4013,7 @@
         <v>22</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>55</v>
@@ -4033,7 +4033,7 @@
         <v>32</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>55</v>
@@ -4073,7 +4073,7 @@
         <v>32</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>55</v>
@@ -4093,7 +4093,7 @@
         <v>23</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>55</v>
@@ -4133,7 +4133,7 @@
         <v>23</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>55</v>
@@ -4193,7 +4193,7 @@
         <v>12</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>55</v>
@@ -4213,7 +4213,7 @@
         <v>33</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>55</v>
@@ -4253,7 +4253,7 @@
         <v>33</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>55</v>
@@ -4273,7 +4273,7 @@
         <v>25</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>55</v>
@@ -4313,7 +4313,7 @@
         <v>25</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>55</v>
@@ -4373,7 +4373,7 @@
         <v>28</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>55</v>
@@ -4393,7 +4393,7 @@
         <v>13</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>55</v>
@@ -4433,7 +4433,7 @@
         <v>13</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>55</v>
@@ -4493,7 +4493,7 @@
         <v>26</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>55</v>
@@ -4513,7 +4513,7 @@
         <v>14</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>55</v>
@@ -4533,7 +4533,7 @@
         <v>14</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>55</v>
@@ -4553,7 +4553,7 @@
         <v>14</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>55</v>
@@ -4573,7 +4573,7 @@
         <v>30</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>55</v>
@@ -4613,7 +4613,7 @@
         <v>30</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>55</v>
@@ -4633,7 +4633,7 @@
         <v>15</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>55</v>
@@ -4673,7 +4673,7 @@
         <v>15</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>55</v>
@@ -4693,7 +4693,7 @@
         <v>16</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>55</v>
@@ -4753,7 +4753,7 @@
         <v>17</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>55</v>
@@ -4813,7 +4813,7 @@
         <v>29</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>55</v>
@@ -4853,7 +4853,7 @@
         <v>29</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>55</v>
@@ -4873,7 +4873,7 @@
         <v>18</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>55</v>
@@ -4973,7 +4973,7 @@
         <v>20</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>55</v>
@@ -4993,7 +4993,7 @@
         <v>24</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>55</v>
@@ -5093,7 +5093,7 @@
         <v>7</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>55</v>
@@ -5161,19 +5161,19 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B182" s="12">
         <v>6</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D182" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>55</v>
@@ -5181,19 +5181,19 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B183" s="12">
         <v>6</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>55</v>
@@ -5201,19 +5201,19 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B184" s="12">
         <v>6</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D184" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>55</v>
@@ -5221,19 +5221,19 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B185" s="12">
         <v>6</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D185" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>55</v>
@@ -5241,19 +5241,19 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B186" s="12">
         <v>6</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D186" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>55</v>
@@ -5261,19 +5261,19 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B187" s="12">
         <v>6</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D187" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>55</v>
@@ -5281,19 +5281,19 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B188" s="12">
         <v>6</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D188" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>55</v>
@@ -5301,19 +5301,19 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B189" s="12">
         <v>6</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D189" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>55</v>
@@ -5321,19 +5321,19 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B190" s="12">
         <v>6</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D190" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>55</v>
@@ -5341,19 +5341,19 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B191" s="12">
         <v>6</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D191" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>55</v>
@@ -5361,19 +5361,19 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B192" s="12">
         <v>6</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D192" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>55</v>
@@ -5381,19 +5381,19 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B193" s="12">
         <v>6</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D193" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>55</v>
@@ -5401,19 +5401,19 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B194" s="12">
         <v>6</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D194" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>55</v>
@@ -5421,19 +5421,19 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B195" s="12">
         <v>6</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D195" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>55</v>
@@ -5441,19 +5441,19 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B196" s="12">
         <v>6</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D196" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>55</v>
@@ -5461,19 +5461,19 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B197" s="12">
         <v>6</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D197" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>55</v>
@@ -5481,19 +5481,19 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B198" s="12">
         <v>6</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D198" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>55</v>
@@ -5501,19 +5501,19 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B199" s="12">
         <v>6</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D199" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>55</v>
@@ -5521,19 +5521,19 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B200" s="12">
         <v>6</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D200" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>55</v>
@@ -5541,19 +5541,19 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B201" s="12">
         <v>6</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D201" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>55</v>
@@ -5561,19 +5561,19 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B202" s="12">
         <v>6</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D202" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>55</v>
@@ -5581,19 +5581,19 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B203" s="12">
         <v>6</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D203" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>55</v>
@@ -5601,19 +5601,19 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B204" s="12">
         <v>6</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D204" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>55</v>
@@ -5621,19 +5621,19 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B205" s="12">
         <v>6</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D205" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>55</v>
@@ -5641,19 +5641,19 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B206" s="12">
         <v>6</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D206" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>55</v>
@@ -5661,19 +5661,19 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B207" s="12">
         <v>6</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D207" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>55</v>
@@ -5681,19 +5681,19 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B208" s="12">
         <v>6</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D208" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>55</v>
@@ -5701,19 +5701,19 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B209" s="12">
         <v>6</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D209" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>55</v>
@@ -5721,19 +5721,19 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B210" s="12">
         <v>6</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D210" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>55</v>
@@ -5741,19 +5741,19 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B211" s="12">
         <v>6</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D211" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>55</v>
@@ -5761,19 +5761,19 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B212" s="12">
         <v>6</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D212" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>55</v>
@@ -5781,19 +5781,19 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B213" s="12">
         <v>6</v>
       </c>
       <c r="C213" s="12" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D213" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>55</v>
@@ -5801,19 +5801,19 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B214" s="12">
         <v>6</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D214" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>55</v>
@@ -5821,19 +5821,19 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B215" s="12">
         <v>6</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D215" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>55</v>
@@ -5841,19 +5841,19 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B216" s="12">
         <v>6</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D216" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>55</v>
@@ -5861,19 +5861,19 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B217" s="12">
         <v>6</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D217" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>55</v>
@@ -5881,19 +5881,19 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B218" s="12">
         <v>6</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D218" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>55</v>
@@ -5901,19 +5901,19 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B219" s="12">
         <v>6</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D219" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>55</v>
@@ -5921,19 +5921,19 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B220" s="12">
         <v>6</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D220" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>55</v>
@@ -5941,19 +5941,19 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B221" s="12">
         <v>6</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D221" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>55</v>
@@ -5961,19 +5961,19 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B222" s="12">
         <v>6</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D222" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>55</v>
@@ -5981,19 +5981,19 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B223" s="12">
         <v>6</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D223" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>55</v>
@@ -6001,19 +6001,19 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B224" s="12">
         <v>6</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D224" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>55</v>
@@ -6021,19 +6021,19 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B225" s="12">
         <v>6</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D225" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>55</v>
@@ -6041,19 +6041,19 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B226" s="12">
         <v>6</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D226" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>55</v>
@@ -6061,19 +6061,19 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B227" s="12">
         <v>6</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D227" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>55</v>
@@ -6081,19 +6081,19 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B228" s="12">
         <v>6</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D228" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>55</v>
@@ -6101,19 +6101,19 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B229" s="12">
         <v>6</v>
       </c>
       <c r="C229" s="12" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D229" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>55</v>
@@ -6121,19 +6121,19 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B230" s="12">
         <v>6</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D230" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>55</v>
@@ -6141,19 +6141,19 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B231" s="12">
         <v>6</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>55</v>
@@ -6161,19 +6161,19 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B232" s="12">
         <v>6</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D232" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>55</v>
@@ -6181,19 +6181,19 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B233" s="12">
         <v>6</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D233" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>55</v>
@@ -6201,19 +6201,19 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B234" s="12">
         <v>6</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D234" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>55</v>
@@ -6221,19 +6221,19 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B235" s="12">
         <v>6</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>55</v>
@@ -6241,19 +6241,19 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B236" s="12">
         <v>6</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>55</v>
@@ -6261,19 +6261,19 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B237" s="12">
         <v>6</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D237" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>55</v>
@@ -6281,19 +6281,19 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B238" s="12">
         <v>6</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>55</v>
@@ -6301,19 +6301,19 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B239" s="12">
         <v>6</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D239" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>55</v>
@@ -6321,19 +6321,19 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B240" s="12">
         <v>6</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D240" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>55</v>
@@ -6341,19 +6341,19 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B241" s="12">
         <v>6</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D241" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>55</v>
@@ -6361,19 +6361,19 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B242" s="12">
         <v>6</v>
       </c>
       <c r="C242" s="12" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D242" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>55</v>
@@ -6381,19 +6381,19 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B243" s="12">
         <v>6</v>
       </c>
       <c r="C243" s="12" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D243" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>55</v>
@@ -6401,19 +6401,19 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B244" s="12">
         <v>6</v>
       </c>
       <c r="C244" s="12" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D244" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>55</v>
@@ -6421,19 +6421,19 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B245" s="12">
         <v>6</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D245" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>55</v>
@@ -6441,19 +6441,19 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B246" s="12">
         <v>6</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D246" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>55</v>
@@ -6461,19 +6461,19 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B247" s="12">
         <v>6</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D247" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>55</v>
@@ -6481,19 +6481,19 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B248" s="12">
         <v>6</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D248" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>55</v>
@@ -6501,19 +6501,19 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B249" s="12">
         <v>6</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D249" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>55</v>
@@ -6521,19 +6521,19 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B250" s="12">
         <v>6</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D250" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>55</v>
@@ -6541,19 +6541,19 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B251" s="12">
         <v>6</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D251" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>55</v>
@@ -6561,19 +6561,19 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B252" s="12">
         <v>6</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D252" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>55</v>
@@ -6581,19 +6581,19 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B253" s="12">
         <v>6</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D253" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>55</v>
@@ -6601,19 +6601,19 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B254" s="12">
         <v>6</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D254" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>55</v>
@@ -6621,19 +6621,19 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B255" s="12">
         <v>6</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D255" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>55</v>
@@ -6641,19 +6641,19 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B256" s="12">
         <v>6</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D256" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>55</v>
@@ -6661,19 +6661,19 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B257" s="12">
         <v>6</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D257" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>55</v>
@@ -6681,19 +6681,19 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B258" s="12">
         <v>6</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D258" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>55</v>
@@ -6701,19 +6701,19 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B259" s="12">
         <v>6</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D259" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>55</v>
@@ -6721,19 +6721,19 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B260" s="12">
         <v>6</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D260" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>55</v>
@@ -6741,19 +6741,19 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B261" s="12">
         <v>6</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D261" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>55</v>
@@ -6761,19 +6761,19 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B262" s="12">
         <v>6</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D262" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>55</v>
@@ -6781,19 +6781,19 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B263" s="12">
         <v>6</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D263" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>55</v>
@@ -6801,19 +6801,19 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B264" s="12">
         <v>6</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D264" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>55</v>
@@ -6821,19 +6821,19 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B265" s="12">
         <v>6</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D265" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>55</v>
@@ -6841,19 +6841,19 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B266" s="12">
         <v>6</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D266" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>55</v>
@@ -6861,19 +6861,19 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B267" s="12">
         <v>6</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D267" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>55</v>
@@ -6881,19 +6881,19 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B268" s="12">
         <v>6</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D268" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>55</v>
@@ -6901,19 +6901,19 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B269" s="12">
         <v>6</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D269" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>55</v>
@@ -6921,19 +6921,19 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B270" s="12">
         <v>6</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D270" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>55</v>
@@ -6941,19 +6941,19 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B271" s="12">
         <v>6</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D271" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>55</v>
@@ -6961,19 +6961,19 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B272" s="12">
         <v>6</v>
       </c>
       <c r="C272" s="12" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D272" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>55</v>
@@ -6981,19 +6981,19 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B273" s="12">
         <v>6</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D273" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>55</v>
@@ -7001,19 +7001,19 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B274" s="12">
         <v>6</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D274" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>55</v>
@@ -7021,19 +7021,19 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B275" s="12">
         <v>6</v>
       </c>
       <c r="C275" s="12" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D275" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>55</v>
@@ -7041,19 +7041,19 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B276" s="12">
         <v>6</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D276" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>55</v>
@@ -7061,19 +7061,19 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B277" s="12">
         <v>6</v>
       </c>
       <c r="C277" s="12" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D277" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>55</v>
@@ -7081,19 +7081,19 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B278" s="12">
         <v>6</v>
       </c>
       <c r="C278" s="12" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D278" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>55</v>
@@ -7101,19 +7101,19 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B279" s="12">
         <v>6</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D279" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>55</v>
@@ -7121,19 +7121,19 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B280" s="12">
         <v>6</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D280" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>55</v>
@@ -7141,19 +7141,19 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B281" s="12">
         <v>6</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D281" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>55</v>
@@ -7161,19 +7161,19 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B282" s="12">
         <v>6</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D282" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>55</v>
@@ -7181,19 +7181,19 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B283" s="12">
         <v>6</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D283" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>55</v>
@@ -7201,19 +7201,19 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B284" s="12">
         <v>6</v>
       </c>
       <c r="C284" s="12" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D284" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>55</v>
@@ -7221,19 +7221,19 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B285" s="12">
         <v>6</v>
       </c>
       <c r="C285" s="12" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D285" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>55</v>
@@ -7241,19 +7241,19 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B286" s="12">
         <v>6</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D286" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>55</v>
@@ -7261,19 +7261,19 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B287" s="12">
         <v>6</v>
       </c>
       <c r="C287" s="12" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D287" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="F287" s="1" t="s">
         <v>55</v>
@@ -7281,19 +7281,19 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B288" s="12">
         <v>6</v>
       </c>
       <c r="C288" s="12" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D288" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>55</v>
@@ -7301,19 +7301,19 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B289" s="12">
         <v>6</v>
       </c>
       <c r="C289" s="12" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D289" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>55</v>
@@ -7321,19 +7321,19 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B290" s="12">
         <v>6</v>
       </c>
       <c r="C290" s="12" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D290" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>55</v>
@@ -7341,19 +7341,19 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B291" s="12">
         <v>6</v>
       </c>
       <c r="C291" s="12" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D291" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>55</v>
@@ -7361,19 +7361,19 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B292" s="12">
         <v>6</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D292" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="F292" s="1" t="s">
         <v>55</v>
@@ -7381,19 +7381,19 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B293" s="12">
         <v>6</v>
       </c>
       <c r="C293" s="12" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D293" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="F293" s="1" t="s">
         <v>55</v>
@@ -7401,19 +7401,19 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B294" s="12">
         <v>6</v>
       </c>
       <c r="C294" s="12" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D294" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="F294" s="1" t="s">
         <v>55</v>
@@ -7421,19 +7421,19 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B295" s="12">
         <v>6</v>
       </c>
       <c r="C295" s="12" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D295" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="F295" s="1" t="s">
         <v>55</v>
@@ -7441,19 +7441,19 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B296" s="12">
         <v>6</v>
       </c>
       <c r="C296" s="12" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D296" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>55</v>
@@ -7461,19 +7461,19 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B297" s="12">
         <v>6</v>
       </c>
       <c r="C297" s="12" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D297" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>55</v>
@@ -7481,19 +7481,19 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B298" s="12">
         <v>6</v>
       </c>
       <c r="C298" s="12" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D298" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>55</v>
@@ -7501,19 +7501,19 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B299" s="12">
         <v>6</v>
       </c>
       <c r="C299" s="12" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D299" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="F299" s="1" t="s">
         <v>55</v>
@@ -7521,19 +7521,19 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B300" s="12">
         <v>6</v>
       </c>
       <c r="C300" s="12" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D300" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>55</v>
@@ -7541,19 +7541,19 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B301" s="12">
         <v>6</v>
       </c>
       <c r="C301" s="12" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D301" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>55</v>

--- a/refair-server/datasets/few shot dataset/FSDataset.xlsx
+++ b/refair-server/datasets/few shot dataset/FSDataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morel\Desktop\Refair\ReFair-App\refair-server\datasets\few shot dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9E0681-AFC1-4B9E-BC32-359C80B205A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AA64A4-875B-4522-8EDD-9B4AE5BF19D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{80773445-FB61-4F04-A882-1600FD96C55A}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{80773445-FB61-4F04-A882-1600FD96C55A}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -431,36 +431,6 @@
     <t>As a cardiologist, I want to apply adversarial learning techniques to detect and mitigate potential adversarial attacks on ECG data classifiers, ensuring the reliability and robustness of heart abnormality diagnoses.</t>
   </si>
   <si>
-    <t>As a cardiologist, I want to explore CNN-based techniques for real-time analysis of wearable device data, such as continuous heart rate monitoring, to detect anomalies and provide timely alerts for patients with underlying cardiac conditions.</t>
-  </si>
-  <si>
-    <t>As a cardiologist, I want to integrate a conversational agent into electronic health records (EHR) systems, enabling patients to easily access and update their medical histories and symptoms, facilitating more efficient and accurate clinical assessments.</t>
-  </si>
-  <si>
-    <t>As a cardiologist, I want to construct decision tree models using patient demographics and medical history to predict the likelihood of adverse cardiac events within the next five years, aiding in early intervention and risk management strategies.</t>
-  </si>
-  <si>
-    <t>As a cardiologist, I want to develop a document classification system to classify electronic health records (EHRs) based on patient symptoms and diagnostic tests, aiding in the identification of patterns and trends in cardiovascular diseases.</t>
-  </si>
-  <si>
-    <t>As a cardiologist, I want to develop an entity extraction system to automatically identify and extract key cardiac parameters (e.g., ejection fraction, QT interval) from clinical notes and reports, enabling faster analysis and decision-making.</t>
-  </si>
-  <si>
-    <t>As a cardiologist, I want to apply feature selection methods to filter out irrelevant or redundant features from ECG data, so that I can enhance the performance of algorithms detecting cardiac arrhythmias.</t>
-  </si>
-  <si>
-    <t>As a cardiologist, I want to use keyword extraction algorithms to extract relevant terms from medical literature and clinical guidelines pertaining to cardiac rehabilitation protocols, aiding in the development of evidence-based treatment plans.</t>
-  </si>
-  <si>
-    <t>As a cardiologist, I want to address class imbalance in datasets used for predicting rare cardiac conditions using machine learning algorithms, ensuring accurate identification and early intervention for patients at higher risk.</t>
-  </si>
-  <si>
-    <t>As a cardiologist, I want to use k-NN models to predict patient-specific responses to different cardiac medications based on similar patient profiles, facilitating personalized treatment plans for heart disease management.</t>
-  </si>
-  <si>
-    <t>As a cardiologist, I want to implement multi-label classification algorithms to classify cardiac imaging studies (e.g., echocardiograms, CT scans) into multiple diagnostic categories (e.g., valve disease, myocardial infarction), aiding in accurate disease characterization.</t>
-  </si>
-  <si>
     <t>As a cardiologist, I want to develop a neural network-based system to predict the progression of heart failure in patients based on dynamic changes in biomarkers and clinical indicators, guiding timely interventions and patient monitoring.</t>
   </si>
   <si>
@@ -470,24 +440,9 @@
     <t>As a cardiologist, I want to develop a semantic similarity model to compare clinical notes and identify similar cases of coronary artery disease, aiding in pattern recognition and treatment planning.</t>
   </si>
   <si>
-    <t>As a cardiologist, I want to implement sentiment analysis on patient feedback from cardiac rehabilitation programs to assess overall patient satisfaction and identify areas for program improvement.</t>
-  </si>
-  <si>
-    <t>As a cardiologist, I want to develop a speech to text system to transcribe cardiology consultations and patient histories accurately, improving documentation efficiency and clinical workflow.</t>
-  </si>
-  <si>
-    <t>As a cardiologist, I want to develop a text categorization model to classify medical literature and research articles on various cardiac conditions (e.g., myocardial infarction, arrhythmias) for easier access and knowledge synthesis.</t>
-  </si>
-  <si>
     <t>As a cardiologist, I want to apply unsupervised clustering algorithms to group patients based on similar risk factor profiles (e.g., smoking history, cholesterol levels), enabling targeted preventive interventions for cardiovascular diseases.</t>
   </si>
   <si>
-    <t>As a cardiologist, I want to develop a voice recognition system to accurately transcribe cardiology consultations and patient histories from audio recordings, improving documentation accuracy and efficiency.</t>
-  </si>
-  <si>
-    <t>As a cardiologist, I want to utilize word embedding techniques to represent clinical terms and medical concepts from cardiology literature, enabling more accurate semantic understanding and retrieval of relevant research findings.</t>
-  </si>
-  <si>
     <t>Dermatology</t>
   </si>
   <si>
@@ -1077,6 +1032,51 @@
   </si>
   <si>
     <t>As a financial planner, I want to employ word embedding algorithms to cluster client financial goals and preferences based on their articulated needs and aspirations, facilitating personalized financial planning advice and strategies.</t>
+  </si>
+  <si>
+    <t>As a cardiovascular surgeon, I want voice recognition capabilities to dictate operative notes during complex procedures, so that I can ensure accurate documentation of surgical techniques and outcomes.</t>
+  </si>
+  <si>
+    <t>As a cardiology educator, I want word embedding models to map out semantic relationships between cardiovascular terms, so that I can create more effective teaching materials and curriculum.</t>
+  </si>
+  <si>
+    <t>As a cardiovascular surgeon, I want to use CNN-based segmentation algorithms to precisely delineate coronary arteries from angiography images, so that I can plan and perform interventions with greater accuracy.</t>
+  </si>
+  <si>
+    <t>As a cardiac nurse, I want a conversational agent to provide patients with post-discharge care instructions and reminders, so that I can ensure they follow their treatment plans and improve recovery outcomes.</t>
+  </si>
+  <si>
+    <t>As a cardiology department head, I want to utilize decision trees to analyze operational data and optimize resource allocation, so that I can improve the efficiency and quality of care provided by my department.</t>
+  </si>
+  <si>
+    <t>As a cardiology department head, I want to employ document classification algorithms to classify procedural guidelines and clinical protocols into different categories (e.g., diagnostic procedures, treatment algorithms), so that I can ensure consistent and standardized practices across the department.</t>
+  </si>
+  <si>
+    <t>As a cardiology clinician, I want to use entity extraction algorithms to identify and extract mentions of cardiac conditions (e.g., heart failure, atrial fibrillation) from patient notes and reports, so that I can prioritize care for patients with complex cardiovascular issues.</t>
+  </si>
+  <si>
+    <t>As a cardiology researcher, I want to use feature selection algorithms to identify the most relevant clinical variables (e.g., age, cholesterol levels, blood pressure) from large datasets of patient records, so that I can build accurate predictive models for cardiovascular risk assessment.</t>
+  </si>
+  <si>
+    <t>As a cardiology researcher, I want to address class imbalance in datasets related to rare cardiac diseases (e.g., myocarditis, pericardial effusion) using oversampling techniques, so that I can build robust predictive models and improve early detection strategies.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to use k-nearest neighbor (k-NN) algorithms to predict patient outcomes based on similar cases with known treatment responses, so that I can personalize treatment plans for my patients.</t>
+  </si>
+  <si>
+    <t>As a cardiology researcher, I want to develop a keyword extraction system to automatically identify key terms related to heart failure from a large corpus of clinical literature, so that I can conduct comprehensive literature reviews efficiently.</t>
+  </si>
+  <si>
+    <t>As a cardiology researcher, I want to develop a multi-label classification model to predict multiple comorbidities (e.g., diabetes, hypertension, obesity) in cardiac patients based on their clinical profiles, so that I can tailor personalized treatment plans.</t>
+  </si>
+  <si>
+    <t>As a cardiac rehabilitation specialist, I want to use sentiment analysis to evaluate patients' emotional responses in their progress notes, so that I can provide tailored support and interventions to improve their rehabilitation experience.</t>
+  </si>
+  <si>
+    <t>As a cardiac rehabilitation specialist, I want to implement speech-to-text technology to record patients' verbal feedback during rehabilitation sessions, so that I can efficiently capture and analyze their progress and concerns.</t>
+  </si>
+  <si>
+    <t>As a cardiology clinic manager, I want to use text categorization to automatically sort incoming emails and messages from patients and other healthcare providers into categories like appointment requests, medication inquiries, and general questions, so that I can streamline communication and improve response times.</t>
   </si>
 </sst>
 </file>
@@ -1526,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DF0B04-8323-4309-B759-D1CDDA1FBB0E}">
   <dimension ref="A1:F301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="C161" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C183" sqref="C183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1613,7 +1613,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>55</v>
@@ -1673,7 +1673,7 @@
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>55</v>
@@ -1693,7 +1693,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>55</v>
@@ -1713,7 +1713,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>55</v>
@@ -1733,7 +1733,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>55</v>
@@ -1753,7 +1753,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>55</v>
@@ -1773,7 +1773,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>55</v>
@@ -1813,7 +1813,7 @@
         <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>55</v>
@@ -1833,7 +1833,7 @@
         <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>55</v>
@@ -1933,7 +1933,7 @@
         <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>55</v>
@@ -1953,7 +1953,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>55</v>
@@ -1973,7 +1973,7 @@
         <v>30</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>55</v>
@@ -1993,7 +1993,7 @@
         <v>30</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>55</v>
@@ -2093,7 +2093,7 @@
         <v>17</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>55</v>
@@ -2133,7 +2133,7 @@
         <v>29</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>55</v>
@@ -2193,7 +2193,7 @@
         <v>18</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>55</v>
@@ -2213,7 +2213,7 @@
         <v>20</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>55</v>
@@ -2253,7 +2253,7 @@
         <v>24</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>55</v>
@@ -2273,7 +2273,7 @@
         <v>24</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>55</v>
@@ -2293,7 +2293,7 @@
         <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>55</v>
@@ -2333,7 +2333,7 @@
         <v>9</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>55</v>
@@ -2353,7 +2353,7 @@
         <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>55</v>
@@ -2513,7 +2513,7 @@
         <v>12</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>55</v>
@@ -2553,7 +2553,7 @@
         <v>33</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>55</v>
@@ -2633,7 +2633,7 @@
         <v>28</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>55</v>
@@ -2713,7 +2713,7 @@
         <v>26</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>55</v>
@@ -2833,7 +2833,7 @@
         <v>15</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>55</v>
@@ -2913,7 +2913,7 @@
         <v>17</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>55</v>
@@ -3073,7 +3073,7 @@
         <v>24</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>55</v>
@@ -3173,7 +3173,7 @@
         <v>22</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>55</v>
@@ -3193,7 +3193,7 @@
         <v>22</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>55</v>
@@ -3213,7 +3213,7 @@
         <v>32</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>55</v>
@@ -3253,7 +3253,7 @@
         <v>23</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>55</v>
@@ -3273,7 +3273,7 @@
         <v>23</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>55</v>
@@ -3313,7 +3313,7 @@
         <v>12</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>55</v>
@@ -3333,7 +3333,7 @@
         <v>33</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>55</v>
@@ -3353,7 +3353,7 @@
         <v>33</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>55</v>
@@ -3373,7 +3373,7 @@
         <v>25</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>55</v>
@@ -3393,7 +3393,7 @@
         <v>25</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>55</v>
@@ -3453,7 +3453,7 @@
         <v>13</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>55</v>
@@ -3473,7 +3473,7 @@
         <v>13</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>55</v>
@@ -3493,7 +3493,7 @@
         <v>26</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>55</v>
@@ -3533,7 +3533,7 @@
         <v>14</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>55</v>
@@ -3553,7 +3553,7 @@
         <v>14</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>55</v>
@@ -3573,7 +3573,7 @@
         <v>30</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>55</v>
@@ -3593,7 +3593,7 @@
         <v>30</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>55</v>
@@ -3613,7 +3613,7 @@
         <v>15</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>55</v>
@@ -3633,7 +3633,7 @@
         <v>15</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>55</v>
@@ -3653,7 +3653,7 @@
         <v>16</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>55</v>
@@ -3673,7 +3673,7 @@
         <v>16</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>55</v>
@@ -3693,7 +3693,7 @@
         <v>17</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>55</v>
@@ -3713,7 +3713,7 @@
         <v>17</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>55</v>
@@ -3733,7 +3733,7 @@
         <v>29</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>55</v>
@@ -3753,7 +3753,7 @@
         <v>29</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>55</v>
@@ -3773,7 +3773,7 @@
         <v>18</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>55</v>
@@ -3793,7 +3793,7 @@
         <v>18</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>55</v>
@@ -3833,7 +3833,7 @@
         <v>20</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>55</v>
@@ -3853,7 +3853,7 @@
         <v>24</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>55</v>
@@ -3873,7 +3873,7 @@
         <v>24</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>55</v>
@@ -3893,7 +3893,7 @@
         <v>7</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>55</v>
@@ -3913,7 +3913,7 @@
         <v>7</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>55</v>
@@ -3933,7 +3933,7 @@
         <v>9</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>55</v>
@@ -3953,7 +3953,7 @@
         <v>9</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>55</v>
@@ -4013,7 +4013,7 @@
         <v>22</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>55</v>
@@ -4033,7 +4033,7 @@
         <v>32</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>55</v>
@@ -4073,7 +4073,7 @@
         <v>32</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>55</v>
@@ -4093,7 +4093,7 @@
         <v>23</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>55</v>
@@ -4133,7 +4133,7 @@
         <v>23</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>55</v>
@@ -4193,7 +4193,7 @@
         <v>12</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>55</v>
@@ -4213,7 +4213,7 @@
         <v>33</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>55</v>
@@ -4253,7 +4253,7 @@
         <v>33</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>55</v>
@@ -4273,7 +4273,7 @@
         <v>25</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>55</v>
@@ -4313,7 +4313,7 @@
         <v>25</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>55</v>
@@ -4373,7 +4373,7 @@
         <v>28</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>55</v>
@@ -4393,7 +4393,7 @@
         <v>13</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>55</v>
@@ -4433,7 +4433,7 @@
         <v>13</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>55</v>
@@ -4493,7 +4493,7 @@
         <v>26</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>55</v>
@@ -4513,7 +4513,7 @@
         <v>14</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>55</v>
@@ -4533,7 +4533,7 @@
         <v>14</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>55</v>
@@ -4553,7 +4553,7 @@
         <v>14</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>55</v>
@@ -4573,7 +4573,7 @@
         <v>30</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>55</v>
@@ -4613,7 +4613,7 @@
         <v>30</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>55</v>
@@ -4633,7 +4633,7 @@
         <v>15</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>55</v>
@@ -4673,7 +4673,7 @@
         <v>15</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>55</v>
@@ -4693,7 +4693,7 @@
         <v>16</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>55</v>
@@ -4753,7 +4753,7 @@
         <v>17</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>55</v>
@@ -4813,7 +4813,7 @@
         <v>29</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>55</v>
@@ -4853,7 +4853,7 @@
         <v>29</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>55</v>
@@ -4873,7 +4873,7 @@
         <v>18</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>55</v>
@@ -4973,7 +4973,7 @@
         <v>20</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>55</v>
@@ -4993,7 +4993,7 @@
         <v>24</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>55</v>
@@ -5093,7 +5093,7 @@
         <v>7</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>55</v>
@@ -5187,13 +5187,13 @@
         <v>6</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>55</v>
@@ -5207,13 +5207,13 @@
         <v>6</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D184" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>55</v>
@@ -5227,13 +5227,13 @@
         <v>6</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D185" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>55</v>
@@ -5247,13 +5247,13 @@
         <v>6</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D186" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>55</v>
@@ -5267,13 +5267,13 @@
         <v>6</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D187" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>55</v>
@@ -5293,7 +5293,7 @@
         <v>32</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>131</v>
+        <v>334</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>55</v>
@@ -5307,13 +5307,13 @@
         <v>6</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D189" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>55</v>
@@ -5327,13 +5327,13 @@
         <v>6</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D190" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>55</v>
@@ -5347,13 +5347,13 @@
         <v>6</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D191" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>55</v>
@@ -5367,13 +5367,13 @@
         <v>6</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D192" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>55</v>
@@ -5387,13 +5387,13 @@
         <v>6</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D193" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>55</v>
@@ -5413,7 +5413,7 @@
         <v>23</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>132</v>
+        <v>335</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>55</v>
@@ -5427,13 +5427,13 @@
         <v>6</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D195" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>55</v>
@@ -5447,13 +5447,13 @@
         <v>6</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D196" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>55</v>
@@ -5467,13 +5467,13 @@
         <v>6</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D197" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>55</v>
@@ -5487,13 +5487,13 @@
         <v>6</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D198" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>55</v>
@@ -5507,13 +5507,13 @@
         <v>6</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D199" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>55</v>
@@ -5533,7 +5533,7 @@
         <v>12</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>133</v>
+        <v>336</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>55</v>
@@ -5547,13 +5547,13 @@
         <v>6</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D201" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>55</v>
@@ -5567,13 +5567,13 @@
         <v>6</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D202" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>55</v>
@@ -5587,13 +5587,13 @@
         <v>6</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D203" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>55</v>
@@ -5607,13 +5607,13 @@
         <v>6</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D204" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>55</v>
@@ -5627,13 +5627,13 @@
         <v>6</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D205" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>55</v>
@@ -5653,7 +5653,7 @@
         <v>33</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>134</v>
+        <v>337</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>55</v>
@@ -5667,13 +5667,13 @@
         <v>6</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D207" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>55</v>
@@ -5687,13 +5687,13 @@
         <v>6</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D208" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>55</v>
@@ -5707,13 +5707,13 @@
         <v>6</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D209" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>55</v>
@@ -5727,13 +5727,13 @@
         <v>6</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D210" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>55</v>
@@ -5747,13 +5747,13 @@
         <v>6</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D211" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>55</v>
@@ -5773,7 +5773,7 @@
         <v>25</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>135</v>
+        <v>338</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>55</v>
@@ -5787,13 +5787,13 @@
         <v>6</v>
       </c>
       <c r="C213" s="12" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D213" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>55</v>
@@ -5807,13 +5807,13 @@
         <v>6</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D214" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>55</v>
@@ -5827,13 +5827,13 @@
         <v>6</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D215" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>55</v>
@@ -5847,13 +5847,13 @@
         <v>6</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D216" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>55</v>
@@ -5867,13 +5867,13 @@
         <v>6</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D217" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>55</v>
@@ -5893,7 +5893,7 @@
         <v>28</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>136</v>
+        <v>339</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>55</v>
@@ -5907,13 +5907,13 @@
         <v>6</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D219" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>55</v>
@@ -5927,13 +5927,13 @@
         <v>6</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D220" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>55</v>
@@ -5947,13 +5947,13 @@
         <v>6</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D221" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>55</v>
@@ -5967,13 +5967,13 @@
         <v>6</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D222" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>55</v>
@@ -5987,19 +5987,19 @@
         <v>6</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D223" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A224" s="12" t="s">
         <v>128</v>
       </c>
@@ -6012,8 +6012,8 @@
       <c r="D224" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E224" s="1" t="s">
-        <v>137</v>
+      <c r="E224" t="s">
+        <v>340</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>55</v>
@@ -6027,13 +6027,13 @@
         <v>6</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D225" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>55</v>
@@ -6047,13 +6047,13 @@
         <v>6</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D226" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>55</v>
@@ -6067,13 +6067,13 @@
         <v>6</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D227" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>55</v>
@@ -6087,13 +6087,13 @@
         <v>6</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D228" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>55</v>
@@ -6107,13 +6107,13 @@
         <v>6</v>
       </c>
       <c r="C229" s="12" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D229" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>55</v>
@@ -6133,7 +6133,7 @@
         <v>26</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>138</v>
+        <v>342</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>55</v>
@@ -6147,13 +6147,13 @@
         <v>6</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D231" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>55</v>
@@ -6167,13 +6167,13 @@
         <v>6</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D232" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>55</v>
@@ -6187,13 +6187,13 @@
         <v>6</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D233" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>55</v>
@@ -6207,13 +6207,13 @@
         <v>6</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D234" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>55</v>
@@ -6227,13 +6227,13 @@
         <v>6</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>55</v>
@@ -6253,7 +6253,7 @@
         <v>14</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>139</v>
+        <v>341</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>55</v>
@@ -6267,13 +6267,13 @@
         <v>6</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D237" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>55</v>
@@ -6287,13 +6287,13 @@
         <v>6</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>55</v>
@@ -6307,13 +6307,13 @@
         <v>6</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D239" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>55</v>
@@ -6327,13 +6327,13 @@
         <v>6</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D240" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>55</v>
@@ -6347,13 +6347,13 @@
         <v>6</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D241" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>55</v>
@@ -6373,7 +6373,7 @@
         <v>30</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>140</v>
+        <v>343</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>55</v>
@@ -6387,13 +6387,13 @@
         <v>6</v>
       </c>
       <c r="C243" s="12" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D243" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>55</v>
@@ -6407,13 +6407,13 @@
         <v>6</v>
       </c>
       <c r="C244" s="12" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D244" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>55</v>
@@ -6427,13 +6427,13 @@
         <v>6</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D245" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>55</v>
@@ -6447,13 +6447,13 @@
         <v>6</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D246" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>55</v>
@@ -6467,13 +6467,13 @@
         <v>6</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D247" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>55</v>
@@ -6493,7 +6493,7 @@
         <v>15</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>55</v>
@@ -6507,13 +6507,13 @@
         <v>6</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D249" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>55</v>
@@ -6527,13 +6527,13 @@
         <v>6</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D250" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>55</v>
@@ -6547,13 +6547,13 @@
         <v>6</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D251" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>55</v>
@@ -6567,13 +6567,13 @@
         <v>6</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D252" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>55</v>
@@ -6587,13 +6587,13 @@
         <v>6</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D253" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>55</v>
@@ -6613,7 +6613,7 @@
         <v>16</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>55</v>
@@ -6627,13 +6627,13 @@
         <v>6</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D255" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>55</v>
@@ -6647,13 +6647,13 @@
         <v>6</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D256" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>55</v>
@@ -6667,13 +6667,13 @@
         <v>6</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D257" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>55</v>
@@ -6687,13 +6687,13 @@
         <v>6</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D258" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>55</v>
@@ -6707,13 +6707,13 @@
         <v>6</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D259" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>55</v>
@@ -6733,7 +6733,7 @@
         <v>17</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>55</v>
@@ -6747,13 +6747,13 @@
         <v>6</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D261" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>55</v>
@@ -6767,13 +6767,13 @@
         <v>6</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D262" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>55</v>
@@ -6787,13 +6787,13 @@
         <v>6</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D263" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>55</v>
@@ -6807,13 +6807,13 @@
         <v>6</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D264" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>55</v>
@@ -6827,13 +6827,13 @@
         <v>6</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D265" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>55</v>
@@ -6853,7 +6853,7 @@
         <v>29</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>144</v>
+        <v>344</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>55</v>
@@ -6867,13 +6867,13 @@
         <v>6</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D267" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>55</v>
@@ -6887,13 +6887,13 @@
         <v>6</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D268" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>55</v>
@@ -6907,13 +6907,13 @@
         <v>6</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D269" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>55</v>
@@ -6927,13 +6927,13 @@
         <v>6</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D270" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>55</v>
@@ -6947,13 +6947,13 @@
         <v>6</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D271" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>55</v>
@@ -6973,7 +6973,7 @@
         <v>18</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>145</v>
+        <v>345</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>55</v>
@@ -6987,13 +6987,13 @@
         <v>6</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D273" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>55</v>
@@ -7007,13 +7007,13 @@
         <v>6</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D274" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>55</v>
@@ -7027,13 +7027,13 @@
         <v>6</v>
       </c>
       <c r="C275" s="12" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D275" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>55</v>
@@ -7047,13 +7047,13 @@
         <v>6</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D276" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>55</v>
@@ -7067,13 +7067,13 @@
         <v>6</v>
       </c>
       <c r="C277" s="12" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D277" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>55</v>
@@ -7093,7 +7093,7 @@
         <v>20</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>146</v>
+        <v>346</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>55</v>
@@ -7107,13 +7107,13 @@
         <v>6</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D279" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>55</v>
@@ -7127,13 +7127,13 @@
         <v>6</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D280" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>55</v>
@@ -7147,13 +7147,13 @@
         <v>6</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D281" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>55</v>
@@ -7167,13 +7167,13 @@
         <v>6</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D282" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>55</v>
@@ -7187,13 +7187,13 @@
         <v>6</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D283" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>55</v>
@@ -7213,7 +7213,7 @@
         <v>24</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>55</v>
@@ -7227,13 +7227,13 @@
         <v>6</v>
       </c>
       <c r="C285" s="12" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D285" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>55</v>
@@ -7247,13 +7247,13 @@
         <v>6</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D286" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>55</v>
@@ -7267,13 +7267,13 @@
         <v>6</v>
       </c>
       <c r="C287" s="12" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D287" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="F287" s="1" t="s">
         <v>55</v>
@@ -7287,13 +7287,13 @@
         <v>6</v>
       </c>
       <c r="C288" s="12" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D288" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>55</v>
@@ -7307,13 +7307,13 @@
         <v>6</v>
       </c>
       <c r="C289" s="12" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D289" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>55</v>
@@ -7333,7 +7333,7 @@
         <v>7</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>148</v>
+        <v>332</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>55</v>
@@ -7347,13 +7347,13 @@
         <v>6</v>
       </c>
       <c r="C291" s="12" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D291" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>55</v>
@@ -7367,13 +7367,13 @@
         <v>6</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D292" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="F292" s="1" t="s">
         <v>55</v>
@@ -7387,13 +7387,13 @@
         <v>6</v>
       </c>
       <c r="C293" s="12" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D293" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="F293" s="1" t="s">
         <v>55</v>
@@ -7407,13 +7407,13 @@
         <v>6</v>
       </c>
       <c r="C294" s="12" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D294" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="F294" s="1" t="s">
         <v>55</v>
@@ -7427,13 +7427,13 @@
         <v>6</v>
       </c>
       <c r="C295" s="12" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D295" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="F295" s="1" t="s">
         <v>55</v>
@@ -7453,7 +7453,7 @@
         <v>9</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>149</v>
+        <v>333</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>55</v>
@@ -7467,13 +7467,13 @@
         <v>6</v>
       </c>
       <c r="C297" s="12" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D297" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>55</v>
@@ -7487,13 +7487,13 @@
         <v>6</v>
       </c>
       <c r="C298" s="12" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D298" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>55</v>
@@ -7507,13 +7507,13 @@
         <v>6</v>
       </c>
       <c r="C299" s="12" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D299" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="F299" s="1" t="s">
         <v>55</v>
@@ -7527,13 +7527,13 @@
         <v>6</v>
       </c>
       <c r="C300" s="12" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D300" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>55</v>
@@ -7547,13 +7547,13 @@
         <v>6</v>
       </c>
       <c r="C301" s="12" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="D301" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>55</v>

--- a/refair-server/datasets/few shot dataset/FSDataset.xlsx
+++ b/refair-server/datasets/few shot dataset/FSDataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morel\Desktop\Refair\ReFair-App\refair-server\datasets\few shot dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AA64A4-875B-4522-8EDD-9B4AE5BF19D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6647F8-BD0F-4B29-87BA-5D109868EBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{80773445-FB61-4F04-A882-1600FD96C55A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80773445-FB61-4F04-A882-1600FD96C55A}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -446,27 +446,15 @@
     <t>Dermatology</t>
   </si>
   <si>
-    <t>As a dermatologist, I want to apply adversarial learning techniques to detect and mitigate potential attacks on dermatological image recognition models, ensuring robustness and reliability in automated diagnosis systems.</t>
-  </si>
-  <si>
     <t>As a dermatologist, I want to train a CNN model on a large dataset of dermatological images to accurately classify skin lesions into different diagnostic categories, improving diagnostic precision and reducing misdiagnosis rates.</t>
   </si>
   <si>
     <t>As a dermatologist, I want to implement a conversational agent that can provide personalized skincare recommendations based on patient preferences, skin type, and specific dermatological concerns.</t>
   </si>
   <si>
-    <t>As a dermatologist, I want to utilize decision tree analysis to identify key risk factors for developing common dermatological conditions such as acne or eczema, enabling proactive preventive measures and patient education.</t>
-  </si>
-  <si>
-    <t>As a dermatologist, I want to develop a document classification model to automatically categorize research papers and clinical studies related to dermatological diseases, facilitating easier access to relevant literature for evidence-based practice.</t>
-  </si>
-  <si>
     <t>As a dermatologist, I want to develop an entity extraction system to automatically identify and extract key information from dermatological patient records, such as symptoms, diagnoses, and treatment histories, to assist in comprehensive patient management.</t>
   </si>
   <si>
-    <t>As a dermatologist, I want to perform feature selection on dermatological image data to identify the most discriminative features that contribute to accurate classification of skin lesions, enhancing diagnostic precision.</t>
-  </si>
-  <si>
     <t>As a dermatologist, I want to address class imbalance in dermatological datasets when developing AI models to detect rare skin conditions with limited training examples, ensuring robust and reliable diagnostic capabilities.</t>
   </si>
   <si>
@@ -488,9 +476,6 @@
     <t>As a dermatologist, I want to implement semantic similarity algorithms to analyze dermatological research papers and identify relevant studies based on shared concepts and findings, facilitating literature review and evidence synthesis.</t>
   </si>
   <si>
-    <t>As a dermatologist, I want to develop a sentiment analysis model to analyze social media posts and reviews related to skincare products, identifying sentiments and trends among consumers to inform product recommendations.</t>
-  </si>
-  <si>
     <t>As a dermatologist, I want to develop a speech-to-text system to transcribe verbal descriptions of skin conditions provided by patients during consultations, facilitating accurate documentation and diagnosis.</t>
   </si>
   <si>
@@ -500,75 +485,36 @@
     <t>As a dermatologist, I want to apply unsupervised clustering algorithms to group dermatological patient profiles based on similar symptoms and disease progression patterns, enabling personalized treatment plans for patient clusters.</t>
   </si>
   <si>
-    <t>As a dermatologist, I want to implement voice recognition technology to capture patient-reported symptoms and medical histories accurately during dermatological consultations, enhancing data quality and clinical decision-making.</t>
-  </si>
-  <si>
     <t>As a dermatologist, I want to develop word embedding models to capture semantic relationships between dermatological terms (e.g., skin conditions, treatment modalities) from medical literature, enhancing knowledge discovery and research.</t>
   </si>
   <si>
     <t>Endocrinology</t>
   </si>
   <si>
-    <t>As an endocrinologist, I want to apply adversarial learning techniques to identify and mitigate potential vulnerabilities in hormone imbalance prediction models, ensuring robustness against adversarial attacks.</t>
-  </si>
-  <si>
     <t>As an endocrinologist, I want to utilize CNN architectures to classify histopathological images of endocrine tumors, aiding in accurate diagnosis and personalized treatment planning for patients.</t>
   </si>
   <si>
-    <t>As an endocrinologist, I want to develop a conversational agent powered by natural language processing to interact with patients, providing personalized guidance on managing diabetes through diet and lifestyle recommendations.</t>
-  </si>
-  <si>
-    <t>As an endocrinologist, I want to use a decision tree algorithm to predict the risk of developing type 2 diabetes based on patient demographics, lifestyle factors, and genetic predispositions, enabling early intervention strategies.</t>
-  </si>
-  <si>
-    <t>As an endocrinologist, I want to develop a document classification system to automatically categorize patient medical records based on hormone profile data, streamlining the retrieval of information for treatment planning and research purposes.</t>
-  </si>
-  <si>
     <t>As an endocrinologist, I want to implement entity extraction techniques to extract relevant hormone biomarkers from patient laboratory reports, enabling comprehensive analysis and monitoring of hormone levels over time.</t>
   </si>
   <si>
-    <t>As an endocrinologist, I want to use feature selection algorithms to prioritize genetic markers linked to thyroid cancer susceptibility in familial studies, facilitating targeted screening and early detection strategies.</t>
-  </si>
-  <si>
     <t>As an endocrinologist, I want to address class imbalance in datasets related to rare endocrine disorders such as acromegaly, by applying oversampling techniques to ensure robust model training and accurate diagnosis.</t>
   </si>
   <si>
-    <t>As an endocrinologist, I want to develop a keyword extraction system to automatically identify relevant terms from clinical notes and research articles related to hypothyroidism, facilitating comprehensive literature review and evidence synthesis.</t>
-  </si>
-  <si>
     <t>As an endocrinologist, I want to implement k-Nearest Neighbor (k-NN) algorithms to predict insulin resistance in diabetic patients based on similar patient profiles, facilitating personalized treatment plans and monitoring strategies.</t>
   </si>
   <si>
-    <t>As an endocrinologist, I want to implement multi-label classification algorithms to classify patients with adrenal gland disorders into multiple categories (e.g., Cushing's syndrome, adrenal insufficiency), facilitating accurate diagnosis and tailored management approaches.</t>
-  </si>
-  <si>
     <t>As an endocrinologist, I want to develop a neural network model to predict the risk of gestational diabetes mellitus based on maternal health data, enabling early interventions and personalized prenatal care plans.</t>
   </si>
   <si>
     <t>As an endocrinologist, I want to use random forest models to classify patients with different subtypes of diabetes (e.g., type 1, type 2, gestational) based on clinical data and genetic predispositions, guiding tailored management strategies.</t>
   </si>
   <si>
-    <t>As an endocrinologist, I want to use semantic similarity techniques to match patient symptoms with known disease patterns in rare endocrine disorders, supporting early detection and personalized treatment approaches.</t>
-  </si>
-  <si>
     <t>As an endocrinologist, I want to conduct sentiment analysis on social media posts related to weight management strategies in diabetes care, understanding patient attitudes towards dietary recommendations and lifestyle changes.</t>
   </si>
   <si>
-    <t>As an endocrinologist, I want to use speech to text capabilities to convert endocrine conference recordings into text format, enabling easy access to discussions on recent research findings and clinical case studies.</t>
-  </si>
-  <si>
-    <t>As an endocrinologist, I want to use text categorization techniques to classify patient electronic health records based on different types of hormonal disorders (e.g., adrenal gland disorders, pituitary gland disorders), enabling efficient retrieval and analysis of relevant patient data.</t>
-  </si>
-  <si>
-    <t>As an endocrinologist, I want to use unsupervised clustering techniques to cluster symptoms reported by patients with polycystic ovary syndrome (PCOS), identifying common symptom patterns and guiding individualized management plans.</t>
-  </si>
-  <si>
     <t>As an endocrinologist, I want to implement voice recognition technology to transcribe patient conversations during consultations about diabetes management, improving documentation accuracy and workflow efficiency.</t>
   </si>
   <si>
-    <t>As an endocrinologist, I want to use word embedding techniques to analyze similarities and relationships between medical terms in research literature on insulin resistance, aiding in the discovery of novel associations and mechanisms.</t>
-  </si>
-  <si>
     <t>Health</t>
   </si>
   <si>
@@ -578,18 +524,9 @@
     <t>As a healthcare provider, I want to integrate CNN models into wearable health devices to monitor real-time physiological signals, enabling continuous health monitoring and early detection of cardiac abnormalities or respiratory distress.</t>
   </si>
   <si>
-    <t>As a healthcare administrator, I want to develop a multilingual conversational agent using machine learning algorithms to assist international patients in navigating healthcare services, including appointment scheduling, insurance inquiries, and medical translation services.</t>
-  </si>
-  <si>
     <t>As a healthcare administrator, I want to utilize decision tree models to optimize hospital bed allocation based on patient admission criteria, ensuring efficient resource management and reducing emergency room overcrowding during peak periods.</t>
   </si>
   <si>
-    <t>As a healthcare administrator, I want to implement document classification algorithms to categorize and prioritize incoming medical reports (e.g., radiology, pathology) based on urgency and clinical significance, facilitating timely review and decision-making by healthcare professionals.</t>
-  </si>
-  <si>
-    <t>As a healthcare provider, I want to deploy machine learning models for entity extraction in clinical trials documentation, to automatically extract and categorize information on study protocols, participant demographics, and treatment outcomes, facilitating efficient research data management and analysis.</t>
-  </si>
-  <si>
     <t>As a healthcare provider, I want to utilize feature selection techniques in machine learning models to extract meaningful patterns from wearable device data (e.g., heart rate variability, activity levels) for early detection and management of chronic conditions like hypertension and diabetes.</t>
   </si>
   <si>
@@ -635,24 +572,15 @@
     <t>Medicine</t>
   </si>
   <si>
-    <t>As a medical researcher, I want to apply adversarial learning techniques to analyze medical imaging data, so that I can identify and mitigate potential vulnerabilities and ensure the robustness of diagnostic models against adversarial attacks.</t>
-  </si>
-  <si>
     <t>As a medical researcher, I want to apply CNNs to analyze EEG data and identify patterns indicative of neurological disorders, so that I can assist in early diagnosis and intervention strategies for patients with conditions like epilepsy or Alzheimer's disease.</t>
   </si>
   <si>
-    <t>As a medical researcher, I want to deploy a conversational agent for medical students to practice clinical case simulations and receive feedback on diagnostic reasoning and treatment planning, so that I can enhance medical training and competency development.</t>
-  </si>
-  <si>
     <t>As a medical researcher, I want to utilize decision tree models to analyze patient satisfaction survey data and identify key factors influencing patient experience, so that I can implement quality improvement initiatives to enhance overall patient care and satisfaction.</t>
   </si>
   <si>
     <t>As a medical researcher, I want to use document classification algorithms to categorize medical research papers based on disease types and treatment outcomes, so that I can quickly access relevant literature for evidence-based medicine.</t>
   </si>
   <si>
-    <t>As a medical researcher, I want to develop entity extraction models to automatically identify and extract key medical entities (e.g., diseases, medications, symptoms) from clinical notes and patient records, so that I can build comprehensive patient profiles for personalized treatment planning.</t>
-  </si>
-  <si>
     <t>As a medical researcher, I want to use feature selection algorithms to identify clinical variables (e.g., patient demographics, comorbidities) that significantly impact treatment response in cancer patients, so that I can personalize treatment plans and improve patient outcomes.</t>
   </si>
   <si>
@@ -701,12 +629,6 @@
     <t>As a nephrologist, I want to employ adversarial learning techniques to detect and mitigate adversarial attacks on medical imaging data used for diagnosing kidney diseases, ensuring the reliability and integrity of diagnostic systems.</t>
   </si>
   <si>
-    <t>As a nephrologist, I want to utilize CNN models to predict the risk of acute kidney injury (AKI) in hospitalized patients based on a combination of clinical data and imaging findings, facilitating early intervention and patient management.</t>
-  </si>
-  <si>
-    <t>As a nephrologist, I want to deploy a conversational agent that can provide patients with personalized information about kidney disease management, including diet recommendations and lifestyle changes, to improve patient adherence and outcomes.</t>
-  </si>
-  <si>
     <t>As a nephrologist, I want to utilize a decision tree model to classify patients into different stages of chronic kidney disease based on their clinical parameters, facilitating targeted interventions and personalized treatment plans.</t>
   </si>
   <si>
@@ -725,9 +647,6 @@
     <t>As a nephrologist, I want to employ keyword extraction methods to analyze patient feedback forms and surveys related to kidney disease management, extracting recurring themes and patient-reported outcomes to inform quality improvement initiatives in nephrology care.</t>
   </si>
   <si>
-    <t>As a nephrologist, I want to use k-Nearest Neighbor (k-NN) algorithms to predict the risk of acute kidney injury (AKI) in hospitalized patients based on similarities to previous AKI cases with similar clinical profiles, enabling early intervention strategies.</t>
-  </si>
-  <si>
     <t>As a nephrologist, I want to utilize multi-label classification techniques to classify renal biopsy results into multiple histopathological categories (e.g., glomerulonephritis, tubulointerstitial diseases), supporting precise diagnosis and treatment recommendations.</t>
   </si>
   <si>
@@ -740,24 +659,15 @@
     <t>As a nephrologist, I want to develop semantic similarity algorithms to compare and categorize nephrology research articles based on shared concepts and biomedical terms, facilitating systematic literature reviews and knowledge synthesis.</t>
   </si>
   <si>
-    <t>As a nephrologist, I want to develop a sentiment analysis model to analyze social media discussions and patient forums related to kidney transplantation experiences, to gauge patient emotions and concerns post-surgery.</t>
-  </si>
-  <si>
     <t>As a nephrologist, I want to use speech to text algorithms to transcribe patient-doctor interactions during clinic visits, to streamline documentation processes and ensure comprehensive recording of medical histories and treatment plans.</t>
   </si>
   <si>
-    <t>As a nephrologist, I want to develop a text categorization system to classify nephrology research articles into categories such as chronic kidney disease epidemiology, renal replacement therapies, and nephrotoxicity studies, facilitating literature review and research synthesis.</t>
-  </si>
-  <si>
     <t>As a nephrologist, I want to apply unsupervised clustering algorithms to group patients based on similar clinical profiles and treatment responses, enabling personalized medicine approaches in nephrology care.</t>
   </si>
   <si>
     <t>As a nephrologist, I want to use voice recognition algorithms to transcribe patient-doctor interactions during nephrology clinic visits, ensuring accurate capture of medical histories, treatment discussions, and patient concerns.</t>
   </si>
   <si>
-    <t>As a nephrologist, I want to deploy word embedding models to support automated summarization of nephrology research articles and clinical trials, extracting key concepts and findings to aid in evidence-based decision-making and research synthesis.</t>
-  </si>
-  <si>
     <t>As a digital archivist, I want to use CNNs to automatically classify scanned book covers into genres and categories, making it easier for users to browse and discover books in our digital library collection.</t>
   </si>
   <si>
@@ -1077,6 +987,96 @@
   </si>
   <si>
     <t>As a cardiology clinic manager, I want to use text categorization to automatically sort incoming emails and messages from patients and other healthcare providers into categories like appointment requests, medication inquiries, and general questions, so that I can streamline communication and improve response times.</t>
+  </si>
+  <si>
+    <t>As a dermatology clinic manager, I want to explore adversarial learning techniques to detect and counteract potential adversarial inputs that could compromise the privacy and security of patient data handled by our automated diagnostic systems.</t>
+  </si>
+  <si>
+    <t>As a dermatology clinic manager, I want to implement a decision tree algorithm that analyzes patient intake forms and clinical data to prioritize appointments, ensuring that patients with urgent dermatological conditions receive prompt attention and care.</t>
+  </si>
+  <si>
+    <t>As a dermatology clinic administrator, I want to utilize document classification algorithms to organize patient medical records by skin condition categories (e.g., eczema, psoriasis, melanoma) for efficient retrieval and comprehensive patient history analysis during consultations.</t>
+  </si>
+  <si>
+    <t>As a skincare researcher, I want to use feature selection algorithms to analyze genetic and environmental factors that contribute to acne severity, helping to prioritize biomarkers and relevant features for personalized treatment strategies in dermatology.</t>
+  </si>
+  <si>
+    <t>As a skincare marketing strategist, I want to employ sentiment analysis techniques to monitor social media sentiment around skincare trends and influencers, identifying emerging consumer preferences and sentiment shifts that could influence marketing campaigns and product development strategies.</t>
+  </si>
+  <si>
+    <t>As a skincare researcher, I want to utilize voice recognition software to transcribe and analyze qualitative interviews with dermatology patients about their skincare routines, preferences, and treatment experiences, extracting valuable insights for consumer behavior studies and product development strategies.</t>
+  </si>
+  <si>
+    <t>As a clinical endocrinologist, I want to utilize text categorization to classify patient notes and lab reports related to diabetes management, so that I can streamline the process of patient care and ensure timely adjustments to treatment plans.</t>
+  </si>
+  <si>
+    <t>As a researcher in endocrinology, I want to apply adversarial learning techniques to enhance the robustness of predictive models for insulin sensitivity prediction, so that I can provide more accurate assessments for diabetic patients across diverse demographics.</t>
+  </si>
+  <si>
+    <t>As an endocrinology department administrator, I want to implement a conversational agent across our clinic's website and mobile apps to provide patients with real-time answers to common questions about hormone therapies, appointment scheduling, and clinic services, enhancing patient engagement and satisfaction.</t>
+  </si>
+  <si>
+    <t>As a pediatric endocrinologist, I want to develop a decision tree algorithm to assist in diagnosing growth hormone deficiency in children, incorporating clinical symptoms, genetic markers, and growth charts to guide treatment decisions and optimize patient outcomes.</t>
+  </si>
+  <si>
+    <t>As an endocrinology department administrator, I want to implement a document classification model to automatically sort patient medical records based on specific endocrine conditions (e.g., hypothyroidism, Cushing's syndrome), enabling faster access to relevant patient information during consultations and follow-up visits.</t>
+  </si>
+  <si>
+    <t>As an endocrinologist specializing in thyroid disorders, I want to use feature selection algorithms to identify the most informative imaging features (e.g., nodule size, echogenicity, vascularity) from thyroid ultrasound scans, aiding in the differentiation between benign and malignant thyroid nodules.</t>
+  </si>
+  <si>
+    <t>As an endocrinology clinic administrator, I want to implement a keyword extraction model to automatically extract relevant terms (e.g., symptoms, medications) from patient intake forms and medical histories, enabling clinicians to quickly assess patient conditions during consultations.</t>
+  </si>
+  <si>
+    <t>As an endocrinology researcher, I want to develop a multi-label classification system to predict the risk of metabolic syndrome components (e.g., hypertension, dyslipidemia, central obesity) based on patient demographics, lifestyle factors, and biochemical markers, guiding preventive interventions and patient counseling.</t>
+  </si>
+  <si>
+    <t>As an endocrinology researcher, I want to develop a semantic similarity model to compare and correlate clinical notes from patient EHRs, identifying patterns and associations between symptoms, treatments, and disease progression in thyroid disorders.</t>
+  </si>
+  <si>
+    <t>As a researcher studying voice disorders in thyroid patients, I want to develop a speech to text application that accurately transcribes and analyzes voice recordings to detect subtle changes in speech patterns indicative of vocal cord dysfunction or nodules.</t>
+  </si>
+  <si>
+    <t>As an endocrinology clinic director, I want to employ unsupervised clustering methods to analyze patient demographic data and identify clusters of patients with similar patterns of hormone disorders (e.g., polycystic ovary syndrome, adrenal insufficiency), to optimize clinic workflows and resource allocation.</t>
+  </si>
+  <si>
+    <t>As an endocrinology educator, I want to develop word embeddings from textbooks and medical literature on pituitary disorders to create interactive learning tools that visualize and explore relationships between key concepts and clinical scenarios.</t>
+  </si>
+  <si>
+    <t>As a hospital administrator, I want to implement a conversational agent for appointment scheduling and patient reminders, utilizing natural language processing to handle patient inquiries efficiently and reduce administrative workload.</t>
+  </si>
+  <si>
+    <t>As a healthcare compliance officer, I want to deploy document classification models to classify patient records according to privacy sensitivity levels, ensuring compliance with data protection regulations such as HIPAA.</t>
+  </si>
+  <si>
+    <t>As a healthcare data analyst, I want to implement entity extraction algorithms to identify and extract medication names, dosages, and administration frequencies from electronic health records, facilitating medication reconciliation and adverse event monitoring.</t>
+  </si>
+  <si>
+    <t>As a medical researcher studying cancer diagnostics, I want to use adversarial learning techniques to detect and mitigate potential vulnerabilities in my deep learning models, so that I can ensure the reliability of automated tumor detection systems in clinical settings.</t>
+  </si>
+  <si>
+    <t>As a medical receptionist, I want to implement a conversational agent that can understand and respond to patient inquiries about clinic hours, services offered, and insurance coverage, so that we can provide accurate information to patients promptly.</t>
+  </si>
+  <si>
+    <t>As a clinical data analyst, I want to develop an entity extraction system to automatically identify and extract key clinical parameters (e.g., blood pressure, cholesterol levels) from unstructured patient notes, so that I can perform comprehensive population health analytics.</t>
+  </si>
+  <si>
+    <t>As a radiologist specializing in nephrology, I want to integrate CNN-based image classification models to differentiate between various types of renal tumors based on imaging features, assisting in accurate and timely diagnoses for my patients.</t>
+  </si>
+  <si>
+    <t>As a nephrology clinic manager, I want to utilize a conversational agent with machine learning algorithms to conduct preliminary assessments of symptoms reported by patients, assisting in prioritizing appointments and optimizing clinic workflow.</t>
+  </si>
+  <si>
+    <t>As a medical researcher studying renal genetics, I want to employ k-NN classification to identify genetic variants associated with familial nephropathies, facilitating genotype-phenotype correlations and advancing our understanding of inherited kidney diseases.</t>
+  </si>
+  <si>
+    <t>As a nephrology clinic administrator, I want to use sentiment analysis on patient surveys and feedback forms to assess caregiver attitudes and satisfaction with pediatric nephrology services, guiding quality improvement initiatives.</t>
+  </si>
+  <si>
+    <t>As a nephrology researcher, I want to use text categorization algorithms to classify nephrology conference abstracts into thematic categories such as acute kidney injury (AKI), chronic kidney disease (CKD), and renal replacement therapies, facilitating conference organization and academic collaboration.</t>
+  </si>
+  <si>
+    <t>As a nephrologist, I want to utilize word embedding techniques to analyze and categorize patient feedback from nephrology surveys and social media posts, identifying common themes and sentiments related to healthcare experiences.</t>
   </si>
 </sst>
 </file>
@@ -1526,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DF0B04-8323-4309-B759-D1CDDA1FBB0E}">
   <dimension ref="A1:F301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C161" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C183" sqref="C183"/>
+    <sheetView tabSelected="1" topLeftCell="C289" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C301" sqref="C301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1613,7 +1613,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>55</v>
@@ -1673,7 +1673,7 @@
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>55</v>
@@ -1693,7 +1693,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>55</v>
@@ -1713,7 +1713,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>55</v>
@@ -1733,7 +1733,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>55</v>
@@ -1753,7 +1753,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>55</v>
@@ -1773,7 +1773,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>55</v>
@@ -1813,7 +1813,7 @@
         <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>55</v>
@@ -1833,7 +1833,7 @@
         <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>55</v>
@@ -1933,7 +1933,7 @@
         <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>55</v>
@@ -1953,7 +1953,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>55</v>
@@ -1973,7 +1973,7 @@
         <v>30</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>55</v>
@@ -1993,7 +1993,7 @@
         <v>30</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>55</v>
@@ -2093,7 +2093,7 @@
         <v>17</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>55</v>
@@ -2133,7 +2133,7 @@
         <v>29</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>55</v>
@@ -2193,7 +2193,7 @@
         <v>18</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>55</v>
@@ -2213,7 +2213,7 @@
         <v>20</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>55</v>
@@ -2253,7 +2253,7 @@
         <v>24</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>55</v>
@@ -2273,7 +2273,7 @@
         <v>24</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>55</v>
@@ -2293,7 +2293,7 @@
         <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>55</v>
@@ -2333,7 +2333,7 @@
         <v>9</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>55</v>
@@ -2353,7 +2353,7 @@
         <v>9</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>55</v>
@@ -2513,7 +2513,7 @@
         <v>12</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>55</v>
@@ -2553,7 +2553,7 @@
         <v>33</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>55</v>
@@ -2633,7 +2633,7 @@
         <v>28</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>305</v>
+        <v>275</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>55</v>
@@ -2713,7 +2713,7 @@
         <v>26</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>55</v>
@@ -2833,7 +2833,7 @@
         <v>15</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>55</v>
@@ -2913,7 +2913,7 @@
         <v>17</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>55</v>
@@ -3073,7 +3073,7 @@
         <v>24</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>55</v>
@@ -3173,7 +3173,7 @@
         <v>22</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>55</v>
@@ -3193,7 +3193,7 @@
         <v>22</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>55</v>
@@ -3213,7 +3213,7 @@
         <v>32</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>55</v>
@@ -3253,7 +3253,7 @@
         <v>23</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>55</v>
@@ -3273,7 +3273,7 @@
         <v>23</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>55</v>
@@ -3313,7 +3313,7 @@
         <v>12</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>55</v>
@@ -3333,7 +3333,7 @@
         <v>33</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>55</v>
@@ -3353,7 +3353,7 @@
         <v>33</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>55</v>
@@ -3373,7 +3373,7 @@
         <v>25</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>55</v>
@@ -3393,7 +3393,7 @@
         <v>25</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>55</v>
@@ -3453,7 +3453,7 @@
         <v>13</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>55</v>
@@ -3473,7 +3473,7 @@
         <v>13</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>55</v>
@@ -3493,7 +3493,7 @@
         <v>26</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>55</v>
@@ -3533,7 +3533,7 @@
         <v>14</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>55</v>
@@ -3553,7 +3553,7 @@
         <v>14</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>55</v>
@@ -3573,7 +3573,7 @@
         <v>30</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>55</v>
@@ -3593,7 +3593,7 @@
         <v>30</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>55</v>
@@ -3613,7 +3613,7 @@
         <v>15</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>55</v>
@@ -3633,7 +3633,7 @@
         <v>15</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>55</v>
@@ -3653,7 +3653,7 @@
         <v>16</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>55</v>
@@ -3673,7 +3673,7 @@
         <v>16</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>55</v>
@@ -3693,7 +3693,7 @@
         <v>17</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>55</v>
@@ -3713,7 +3713,7 @@
         <v>17</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>55</v>
@@ -3733,7 +3733,7 @@
         <v>29</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>55</v>
@@ -3753,7 +3753,7 @@
         <v>29</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>55</v>
@@ -3773,7 +3773,7 @@
         <v>18</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>55</v>
@@ -3793,7 +3793,7 @@
         <v>18</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>55</v>
@@ -3833,7 +3833,7 @@
         <v>20</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>55</v>
@@ -3853,7 +3853,7 @@
         <v>24</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>55</v>
@@ -3873,7 +3873,7 @@
         <v>24</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>55</v>
@@ -3893,7 +3893,7 @@
         <v>7</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>55</v>
@@ -3913,7 +3913,7 @@
         <v>7</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>55</v>
@@ -3933,7 +3933,7 @@
         <v>9</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>55</v>
@@ -3953,7 +3953,7 @@
         <v>9</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>55</v>
@@ -4013,7 +4013,7 @@
         <v>22</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>55</v>
@@ -4033,7 +4033,7 @@
         <v>32</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>55</v>
@@ -4073,7 +4073,7 @@
         <v>32</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>55</v>
@@ -4093,7 +4093,7 @@
         <v>23</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>55</v>
@@ -4133,7 +4133,7 @@
         <v>23</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>55</v>
@@ -4193,7 +4193,7 @@
         <v>12</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>55</v>
@@ -4213,7 +4213,7 @@
         <v>33</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>55</v>
@@ -4253,7 +4253,7 @@
         <v>33</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>55</v>
@@ -4273,7 +4273,7 @@
         <v>25</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>55</v>
@@ -4313,7 +4313,7 @@
         <v>25</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>55</v>
@@ -4373,7 +4373,7 @@
         <v>28</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>55</v>
@@ -4393,7 +4393,7 @@
         <v>13</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>55</v>
@@ -4433,7 +4433,7 @@
         <v>13</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>55</v>
@@ -4493,7 +4493,7 @@
         <v>26</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>55</v>
@@ -4513,7 +4513,7 @@
         <v>14</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>55</v>
@@ -4533,7 +4533,7 @@
         <v>14</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>55</v>
@@ -4553,7 +4553,7 @@
         <v>14</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>55</v>
@@ -4573,7 +4573,7 @@
         <v>30</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>55</v>
@@ -4613,7 +4613,7 @@
         <v>30</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>55</v>
@@ -4633,7 +4633,7 @@
         <v>15</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>55</v>
@@ -4673,7 +4673,7 @@
         <v>15</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>55</v>
@@ -4693,7 +4693,7 @@
         <v>16</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>55</v>
@@ -4753,7 +4753,7 @@
         <v>17</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>55</v>
@@ -4813,7 +4813,7 @@
         <v>29</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>55</v>
@@ -4853,7 +4853,7 @@
         <v>29</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>55</v>
@@ -4873,7 +4873,7 @@
         <v>18</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>55</v>
@@ -4973,7 +4973,7 @@
         <v>20</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>55</v>
@@ -4993,7 +4993,7 @@
         <v>24</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>55</v>
@@ -5093,7 +5093,7 @@
         <v>7</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>55</v>
@@ -5193,7 +5193,7 @@
         <v>22</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>136</v>
+        <v>317</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>55</v>
@@ -5207,13 +5207,13 @@
         <v>6</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D184" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>157</v>
+        <v>324</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>55</v>
@@ -5227,13 +5227,13 @@
         <v>6</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D185" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>55</v>
@@ -5247,13 +5247,13 @@
         <v>6</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="D186" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>199</v>
+        <v>338</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>55</v>
@@ -5267,13 +5267,13 @@
         <v>6</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="D187" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>55</v>
@@ -5293,7 +5293,7 @@
         <v>32</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>55</v>
@@ -5313,7 +5313,7 @@
         <v>32</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>55</v>
@@ -5327,13 +5327,13 @@
         <v>6</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D190" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>55</v>
@@ -5347,13 +5347,13 @@
         <v>6</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D191" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>55</v>
@@ -5367,13 +5367,13 @@
         <v>6</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="D192" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>55</v>
@@ -5387,13 +5387,13 @@
         <v>6</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="D193" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>221</v>
+        <v>341</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>55</v>
@@ -5413,7 +5413,7 @@
         <v>23</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>55</v>
@@ -5433,7 +5433,7 @@
         <v>23</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>55</v>
@@ -5447,13 +5447,13 @@
         <v>6</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D196" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>159</v>
+        <v>325</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>55</v>
@@ -5467,13 +5467,13 @@
         <v>6</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D197" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>180</v>
+        <v>335</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>55</v>
@@ -5487,13 +5487,13 @@
         <v>6</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="D198" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>201</v>
+        <v>339</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>55</v>
@@ -5507,13 +5507,13 @@
         <v>6</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="D199" s="9" t="s">
         <v>23</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>222</v>
+        <v>342</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>55</v>
@@ -5533,7 +5533,7 @@
         <v>12</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>55</v>
@@ -5553,7 +5553,7 @@
         <v>12</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>139</v>
+        <v>318</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>55</v>
@@ -5567,13 +5567,13 @@
         <v>6</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D202" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>160</v>
+        <v>326</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>55</v>
@@ -5587,13 +5587,13 @@
         <v>6</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D203" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>55</v>
@@ -5607,13 +5607,13 @@
         <v>6</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="D204" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>55</v>
@@ -5627,13 +5627,13 @@
         <v>6</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="D205" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>55</v>
@@ -5653,7 +5653,7 @@
         <v>33</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>55</v>
@@ -5673,7 +5673,7 @@
         <v>33</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>140</v>
+        <v>319</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>55</v>
@@ -5687,13 +5687,13 @@
         <v>6</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D208" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>161</v>
+        <v>327</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>55</v>
@@ -5707,13 +5707,13 @@
         <v>6</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D209" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>182</v>
+        <v>336</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>55</v>
@@ -5727,13 +5727,13 @@
         <v>6</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="D210" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>55</v>
@@ -5747,13 +5747,13 @@
         <v>6</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="D211" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>55</v>
@@ -5773,7 +5773,7 @@
         <v>25</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>55</v>
@@ -5793,7 +5793,7 @@
         <v>25</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>55</v>
@@ -5807,13 +5807,13 @@
         <v>6</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D214" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>55</v>
@@ -5827,13 +5827,13 @@
         <v>6</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D215" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>183</v>
+        <v>337</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>55</v>
@@ -5847,13 +5847,13 @@
         <v>6</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="D216" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>204</v>
+        <v>340</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>55</v>
@@ -5867,13 +5867,13 @@
         <v>6</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="D217" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>55</v>
@@ -5893,7 +5893,7 @@
         <v>28</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>55</v>
@@ -5913,7 +5913,7 @@
         <v>28</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>142</v>
+        <v>320</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>55</v>
@@ -5927,13 +5927,13 @@
         <v>6</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D220" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>163</v>
+        <v>328</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>55</v>
@@ -5947,13 +5947,13 @@
         <v>6</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D221" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>55</v>
@@ -5967,13 +5967,13 @@
         <v>6</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="D222" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>55</v>
@@ -5987,13 +5987,13 @@
         <v>6</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="D223" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>55</v>
@@ -6013,7 +6013,7 @@
         <v>13</v>
       </c>
       <c r="E224" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>55</v>
@@ -6033,7 +6033,7 @@
         <v>13</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>55</v>
@@ -6047,13 +6047,13 @@
         <v>6</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D226" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>55</v>
@@ -6067,13 +6067,13 @@
         <v>6</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D227" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>55</v>
@@ -6087,13 +6087,13 @@
         <v>6</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="D228" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>55</v>
@@ -6107,13 +6107,13 @@
         <v>6</v>
       </c>
       <c r="C229" s="12" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="D229" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>55</v>
@@ -6133,7 +6133,7 @@
         <v>26</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>55</v>
@@ -6153,7 +6153,7 @@
         <v>26</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>55</v>
@@ -6167,13 +6167,13 @@
         <v>6</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D232" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>165</v>
+        <v>329</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>55</v>
@@ -6187,13 +6187,13 @@
         <v>6</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D233" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>55</v>
@@ -6207,13 +6207,13 @@
         <v>6</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="D234" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>55</v>
@@ -6227,13 +6227,13 @@
         <v>6</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>55</v>
@@ -6253,7 +6253,7 @@
         <v>14</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>55</v>
@@ -6273,7 +6273,7 @@
         <v>14</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>55</v>
@@ -6287,13 +6287,13 @@
         <v>6</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>55</v>
@@ -6307,13 +6307,13 @@
         <v>6</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D239" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>55</v>
@@ -6327,13 +6327,13 @@
         <v>6</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="D240" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>55</v>
@@ -6347,13 +6347,13 @@
         <v>6</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="D241" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>229</v>
+        <v>343</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>55</v>
@@ -6373,7 +6373,7 @@
         <v>30</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>55</v>
@@ -6393,7 +6393,7 @@
         <v>30</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>55</v>
@@ -6407,13 +6407,13 @@
         <v>6</v>
       </c>
       <c r="C244" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D244" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>167</v>
+        <v>330</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>55</v>
@@ -6427,13 +6427,13 @@
         <v>6</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D245" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>55</v>
@@ -6447,13 +6447,13 @@
         <v>6</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="D246" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>55</v>
@@ -6467,13 +6467,13 @@
         <v>6</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="D247" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>55</v>
@@ -6513,7 +6513,7 @@
         <v>15</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>55</v>
@@ -6527,13 +6527,13 @@
         <v>6</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D250" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>55</v>
@@ -6547,13 +6547,13 @@
         <v>6</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D251" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>55</v>
@@ -6567,13 +6567,13 @@
         <v>6</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="D252" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>55</v>
@@ -6587,13 +6587,13 @@
         <v>6</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="D253" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>55</v>
@@ -6633,7 +6633,7 @@
         <v>16</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>55</v>
@@ -6647,13 +6647,13 @@
         <v>6</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D256" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>55</v>
@@ -6667,13 +6667,13 @@
         <v>6</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D257" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>55</v>
@@ -6687,13 +6687,13 @@
         <v>6</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="D258" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>55</v>
@@ -6707,13 +6707,13 @@
         <v>6</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="D259" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>55</v>
@@ -6753,7 +6753,7 @@
         <v>17</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>55</v>
@@ -6767,13 +6767,13 @@
         <v>6</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D262" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E262" s="1" t="s">
-        <v>170</v>
+      <c r="E262" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>55</v>
@@ -6787,13 +6787,13 @@
         <v>6</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D263" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>55</v>
@@ -6807,13 +6807,13 @@
         <v>6</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="D264" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>55</v>
@@ -6827,13 +6827,13 @@
         <v>6</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="D265" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>55</v>
@@ -6853,7 +6853,7 @@
         <v>29</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>55</v>
@@ -6873,7 +6873,7 @@
         <v>29</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>150</v>
+        <v>321</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>55</v>
@@ -6887,13 +6887,13 @@
         <v>6</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D268" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>55</v>
@@ -6907,13 +6907,13 @@
         <v>6</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D269" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>55</v>
@@ -6927,13 +6927,13 @@
         <v>6</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="D270" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>55</v>
@@ -6947,13 +6947,13 @@
         <v>6</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="D271" s="9" t="s">
         <v>29</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>234</v>
+        <v>344</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>55</v>
@@ -6973,7 +6973,7 @@
         <v>18</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>55</v>
@@ -6993,7 +6993,7 @@
         <v>18</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>55</v>
@@ -7007,13 +7007,13 @@
         <v>6</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D274" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>172</v>
+        <v>332</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>55</v>
@@ -7027,13 +7027,13 @@
         <v>6</v>
       </c>
       <c r="C275" s="12" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D275" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>55</v>
@@ -7047,13 +7047,13 @@
         <v>6</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="D276" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>55</v>
@@ -7067,13 +7067,13 @@
         <v>6</v>
       </c>
       <c r="C277" s="12" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="D277" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>55</v>
@@ -7093,7 +7093,7 @@
         <v>20</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>55</v>
@@ -7113,7 +7113,7 @@
         <v>20</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>55</v>
@@ -7127,13 +7127,13 @@
         <v>6</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D280" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>173</v>
+        <v>323</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>55</v>
@@ -7147,13 +7147,13 @@
         <v>6</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D281" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>55</v>
@@ -7167,13 +7167,13 @@
         <v>6</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="D282" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>55</v>
@@ -7187,13 +7187,13 @@
         <v>6</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="D283" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>236</v>
+        <v>345</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>55</v>
@@ -7233,7 +7233,7 @@
         <v>24</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>55</v>
@@ -7247,13 +7247,13 @@
         <v>6</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D286" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>174</v>
+        <v>333</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>55</v>
@@ -7267,13 +7267,13 @@
         <v>6</v>
       </c>
       <c r="C287" s="12" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D287" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="F287" s="1" t="s">
         <v>55</v>
@@ -7287,13 +7287,13 @@
         <v>6</v>
       </c>
       <c r="C288" s="12" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="D288" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>55</v>
@@ -7307,13 +7307,13 @@
         <v>6</v>
       </c>
       <c r="C289" s="12" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="D289" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>55</v>
@@ -7333,7 +7333,7 @@
         <v>7</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>55</v>
@@ -7353,7 +7353,7 @@
         <v>7</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>154</v>
+        <v>322</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>55</v>
@@ -7367,13 +7367,13 @@
         <v>6</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D292" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="F292" s="1" t="s">
         <v>55</v>
@@ -7387,13 +7387,13 @@
         <v>6</v>
       </c>
       <c r="C293" s="12" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D293" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="F293" s="1" t="s">
         <v>55</v>
@@ -7407,13 +7407,13 @@
         <v>6</v>
       </c>
       <c r="C294" s="12" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="D294" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="F294" s="1" t="s">
         <v>55</v>
@@ -7427,13 +7427,13 @@
         <v>6</v>
       </c>
       <c r="C295" s="12" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="D295" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="F295" s="1" t="s">
         <v>55</v>
@@ -7453,7 +7453,7 @@
         <v>9</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>55</v>
@@ -7473,7 +7473,7 @@
         <v>9</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>55</v>
@@ -7487,13 +7487,13 @@
         <v>6</v>
       </c>
       <c r="C298" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D298" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>176</v>
+        <v>334</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>55</v>
@@ -7507,13 +7507,13 @@
         <v>6</v>
       </c>
       <c r="C299" s="12" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D299" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="F299" s="1" t="s">
         <v>55</v>
@@ -7527,13 +7527,13 @@
         <v>6</v>
       </c>
       <c r="C300" s="12" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="D300" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>55</v>
@@ -7547,13 +7547,13 @@
         <v>6</v>
       </c>
       <c r="C301" s="12" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="D301" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>239</v>
+        <v>346</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>55</v>

--- a/refair-server/datasets/few shot dataset/FSDataset.xlsx
+++ b/refair-server/datasets/few shot dataset/FSDataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morel\Desktop\Refair\ReFair-App\refair-server\datasets\few shot dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6647F8-BD0F-4B29-87BA-5D109868EBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4ED0D1B-06BB-4C99-836D-27ACAC3DEAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{80773445-FB61-4F04-A882-1600FD96C55A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="389">
   <si>
     <t>Domain cluster</t>
   </si>
@@ -944,146 +944,272 @@
     <t>As a financial planner, I want to employ word embedding algorithms to cluster client financial goals and preferences based on their articulated needs and aspirations, facilitating personalized financial planning advice and strategies.</t>
   </si>
   <si>
-    <t>As a cardiovascular surgeon, I want voice recognition capabilities to dictate operative notes during complex procedures, so that I can ensure accurate documentation of surgical techniques and outcomes.</t>
-  </si>
-  <si>
-    <t>As a cardiology educator, I want word embedding models to map out semantic relationships between cardiovascular terms, so that I can create more effective teaching materials and curriculum.</t>
-  </si>
-  <si>
-    <t>As a cardiovascular surgeon, I want to use CNN-based segmentation algorithms to precisely delineate coronary arteries from angiography images, so that I can plan and perform interventions with greater accuracy.</t>
-  </si>
-  <si>
-    <t>As a cardiac nurse, I want a conversational agent to provide patients with post-discharge care instructions and reminders, so that I can ensure they follow their treatment plans and improve recovery outcomes.</t>
-  </si>
-  <si>
-    <t>As a cardiology department head, I want to utilize decision trees to analyze operational data and optimize resource allocation, so that I can improve the efficiency and quality of care provided by my department.</t>
-  </si>
-  <si>
-    <t>As a cardiology department head, I want to employ document classification algorithms to classify procedural guidelines and clinical protocols into different categories (e.g., diagnostic procedures, treatment algorithms), so that I can ensure consistent and standardized practices across the department.</t>
-  </si>
-  <si>
-    <t>As a cardiology clinician, I want to use entity extraction algorithms to identify and extract mentions of cardiac conditions (e.g., heart failure, atrial fibrillation) from patient notes and reports, so that I can prioritize care for patients with complex cardiovascular issues.</t>
-  </si>
-  <si>
-    <t>As a cardiology researcher, I want to use feature selection algorithms to identify the most relevant clinical variables (e.g., age, cholesterol levels, blood pressure) from large datasets of patient records, so that I can build accurate predictive models for cardiovascular risk assessment.</t>
-  </si>
-  <si>
-    <t>As a cardiology researcher, I want to address class imbalance in datasets related to rare cardiac diseases (e.g., myocarditis, pericardial effusion) using oversampling techniques, so that I can build robust predictive models and improve early detection strategies.</t>
-  </si>
-  <si>
-    <t>As a cardiologist, I want to use k-nearest neighbor (k-NN) algorithms to predict patient outcomes based on similar cases with known treatment responses, so that I can personalize treatment plans for my patients.</t>
-  </si>
-  <si>
-    <t>As a cardiology researcher, I want to develop a keyword extraction system to automatically identify key terms related to heart failure from a large corpus of clinical literature, so that I can conduct comprehensive literature reviews efficiently.</t>
-  </si>
-  <si>
-    <t>As a cardiology researcher, I want to develop a multi-label classification model to predict multiple comorbidities (e.g., diabetes, hypertension, obesity) in cardiac patients based on their clinical profiles, so that I can tailor personalized treatment plans.</t>
-  </si>
-  <si>
-    <t>As a cardiac rehabilitation specialist, I want to use sentiment analysis to evaluate patients' emotional responses in their progress notes, so that I can provide tailored support and interventions to improve their rehabilitation experience.</t>
-  </si>
-  <si>
-    <t>As a cardiac rehabilitation specialist, I want to implement speech-to-text technology to record patients' verbal feedback during rehabilitation sessions, so that I can efficiently capture and analyze their progress and concerns.</t>
-  </si>
-  <si>
-    <t>As a cardiology clinic manager, I want to use text categorization to automatically sort incoming emails and messages from patients and other healthcare providers into categories like appointment requests, medication inquiries, and general questions, so that I can streamline communication and improve response times.</t>
-  </si>
-  <si>
-    <t>As a dermatology clinic manager, I want to explore adversarial learning techniques to detect and counteract potential adversarial inputs that could compromise the privacy and security of patient data handled by our automated diagnostic systems.</t>
-  </si>
-  <si>
-    <t>As a dermatology clinic manager, I want to implement a decision tree algorithm that analyzes patient intake forms and clinical data to prioritize appointments, ensuring that patients with urgent dermatological conditions receive prompt attention and care.</t>
-  </si>
-  <si>
-    <t>As a dermatology clinic administrator, I want to utilize document classification algorithms to organize patient medical records by skin condition categories (e.g., eczema, psoriasis, melanoma) for efficient retrieval and comprehensive patient history analysis during consultations.</t>
-  </si>
-  <si>
-    <t>As a skincare researcher, I want to use feature selection algorithms to analyze genetic and environmental factors that contribute to acne severity, helping to prioritize biomarkers and relevant features for personalized treatment strategies in dermatology.</t>
-  </si>
-  <si>
-    <t>As a skincare marketing strategist, I want to employ sentiment analysis techniques to monitor social media sentiment around skincare trends and influencers, identifying emerging consumer preferences and sentiment shifts that could influence marketing campaigns and product development strategies.</t>
-  </si>
-  <si>
-    <t>As a skincare researcher, I want to utilize voice recognition software to transcribe and analyze qualitative interviews with dermatology patients about their skincare routines, preferences, and treatment experiences, extracting valuable insights for consumer behavior studies and product development strategies.</t>
-  </si>
-  <si>
-    <t>As a clinical endocrinologist, I want to utilize text categorization to classify patient notes and lab reports related to diabetes management, so that I can streamline the process of patient care and ensure timely adjustments to treatment plans.</t>
-  </si>
-  <si>
-    <t>As a researcher in endocrinology, I want to apply adversarial learning techniques to enhance the robustness of predictive models for insulin sensitivity prediction, so that I can provide more accurate assessments for diabetic patients across diverse demographics.</t>
-  </si>
-  <si>
-    <t>As an endocrinology department administrator, I want to implement a conversational agent across our clinic's website and mobile apps to provide patients with real-time answers to common questions about hormone therapies, appointment scheduling, and clinic services, enhancing patient engagement and satisfaction.</t>
-  </si>
-  <si>
-    <t>As a pediatric endocrinologist, I want to develop a decision tree algorithm to assist in diagnosing growth hormone deficiency in children, incorporating clinical symptoms, genetic markers, and growth charts to guide treatment decisions and optimize patient outcomes.</t>
-  </si>
-  <si>
-    <t>As an endocrinology department administrator, I want to implement a document classification model to automatically sort patient medical records based on specific endocrine conditions (e.g., hypothyroidism, Cushing's syndrome), enabling faster access to relevant patient information during consultations and follow-up visits.</t>
-  </si>
-  <si>
-    <t>As an endocrinologist specializing in thyroid disorders, I want to use feature selection algorithms to identify the most informative imaging features (e.g., nodule size, echogenicity, vascularity) from thyroid ultrasound scans, aiding in the differentiation between benign and malignant thyroid nodules.</t>
-  </si>
-  <si>
-    <t>As an endocrinology clinic administrator, I want to implement a keyword extraction model to automatically extract relevant terms (e.g., symptoms, medications) from patient intake forms and medical histories, enabling clinicians to quickly assess patient conditions during consultations.</t>
-  </si>
-  <si>
-    <t>As an endocrinology researcher, I want to develop a multi-label classification system to predict the risk of metabolic syndrome components (e.g., hypertension, dyslipidemia, central obesity) based on patient demographics, lifestyle factors, and biochemical markers, guiding preventive interventions and patient counseling.</t>
-  </si>
-  <si>
-    <t>As an endocrinology researcher, I want to develop a semantic similarity model to compare and correlate clinical notes from patient EHRs, identifying patterns and associations between symptoms, treatments, and disease progression in thyroid disorders.</t>
-  </si>
-  <si>
-    <t>As a researcher studying voice disorders in thyroid patients, I want to develop a speech to text application that accurately transcribes and analyzes voice recordings to detect subtle changes in speech patterns indicative of vocal cord dysfunction or nodules.</t>
-  </si>
-  <si>
-    <t>As an endocrinology clinic director, I want to employ unsupervised clustering methods to analyze patient demographic data and identify clusters of patients with similar patterns of hormone disorders (e.g., polycystic ovary syndrome, adrenal insufficiency), to optimize clinic workflows and resource allocation.</t>
-  </si>
-  <si>
-    <t>As an endocrinology educator, I want to develop word embeddings from textbooks and medical literature on pituitary disorders to create interactive learning tools that visualize and explore relationships between key concepts and clinical scenarios.</t>
-  </si>
-  <si>
-    <t>As a hospital administrator, I want to implement a conversational agent for appointment scheduling and patient reminders, utilizing natural language processing to handle patient inquiries efficiently and reduce administrative workload.</t>
-  </si>
-  <si>
-    <t>As a healthcare compliance officer, I want to deploy document classification models to classify patient records according to privacy sensitivity levels, ensuring compliance with data protection regulations such as HIPAA.</t>
-  </si>
-  <si>
-    <t>As a healthcare data analyst, I want to implement entity extraction algorithms to identify and extract medication names, dosages, and administration frequencies from electronic health records, facilitating medication reconciliation and adverse event monitoring.</t>
-  </si>
-  <si>
-    <t>As a medical researcher studying cancer diagnostics, I want to use adversarial learning techniques to detect and mitigate potential vulnerabilities in my deep learning models, so that I can ensure the reliability of automated tumor detection systems in clinical settings.</t>
-  </si>
-  <si>
-    <t>As a medical receptionist, I want to implement a conversational agent that can understand and respond to patient inquiries about clinic hours, services offered, and insurance coverage, so that we can provide accurate information to patients promptly.</t>
-  </si>
-  <si>
-    <t>As a clinical data analyst, I want to develop an entity extraction system to automatically identify and extract key clinical parameters (e.g., blood pressure, cholesterol levels) from unstructured patient notes, so that I can perform comprehensive population health analytics.</t>
-  </si>
-  <si>
-    <t>As a radiologist specializing in nephrology, I want to integrate CNN-based image classification models to differentiate between various types of renal tumors based on imaging features, assisting in accurate and timely diagnoses for my patients.</t>
-  </si>
-  <si>
-    <t>As a nephrology clinic manager, I want to utilize a conversational agent with machine learning algorithms to conduct preliminary assessments of symptoms reported by patients, assisting in prioritizing appointments and optimizing clinic workflow.</t>
-  </si>
-  <si>
-    <t>As a medical researcher studying renal genetics, I want to employ k-NN classification to identify genetic variants associated with familial nephropathies, facilitating genotype-phenotype correlations and advancing our understanding of inherited kidney diseases.</t>
-  </si>
-  <si>
-    <t>As a nephrology clinic administrator, I want to use sentiment analysis on patient surveys and feedback forms to assess caregiver attitudes and satisfaction with pediatric nephrology services, guiding quality improvement initiatives.</t>
-  </si>
-  <si>
-    <t>As a nephrology researcher, I want to use text categorization algorithms to classify nephrology conference abstracts into thematic categories such as acute kidney injury (AKI), chronic kidney disease (CKD), and renal replacement therapies, facilitating conference organization and academic collaboration.</t>
-  </si>
-  <si>
-    <t>As a nephrologist, I want to utilize word embedding techniques to analyze and categorize patient feedback from nephrology surveys and social media posts, identifying common themes and sentiments related to healthcare experiences.</t>
+    <t>As a dermatologist, I want to apply adversarial learning techniques to detect and mitigate potential attacks on dermatological image recognition models, ensuring robustness and reliability in automated diagnosis systems.</t>
+  </si>
+  <si>
+    <t>As an endocrinologist, I want to apply adversarial learning techniques to identify and mitigate potential vulnerabilities in hormone imbalance prediction models, ensuring robustness against adversarial attacks.</t>
+  </si>
+  <si>
+    <t>As a medical researcher, I want to apply adversarial learning techniques to analyze medical imaging data, so that I can identify and mitigate potential vulnerabilities and ensure the robustness of diagnostic models against adversarial attacks.</t>
+  </si>
+  <si>
+    <t>Pediatrics</t>
+  </si>
+  <si>
+    <t>As a pediatric clinical trial coordinator, I want to employ adversarial learning to detect and mitigate potential data poisoning attacks on clinical trial data, ensuring the integrity and reliability of experimental outcomes in pediatric drug trials.</t>
+  </si>
+  <si>
+    <t>Pharmacology</t>
+  </si>
+  <si>
+    <t>As a pharmaceutical data scientist, I want to leverage adversarial learning to improve the privacy and security of patient data in clinical trials, safeguarding sensitive information while maintaining the integrity of our research outcomes.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to explore CNN-based techniques for real-time analysis of wearable device data, such as continuous heart rate monitoring, to detect anomalies and provide timely alerts for patients with underlying cardiac conditions.</t>
+  </si>
+  <si>
+    <t>As a nephrologist, I want to utilize CNN models to predict the risk of acute kidney injury (AKI) in hospitalized patients based on a combination of clinical data and imaging findings, facilitating early intervention and patient management.</t>
+  </si>
+  <si>
+    <t>As a neonatologist, I want to develop CNN-based algorithms to automatically detect early signs of neonatal diseases from medical imaging scans, facilitating timely interventions and improving survival rates among premature infants.</t>
+  </si>
+  <si>
+    <t>As a pharmaceutical scientist, I want to apply CNNs to analyze medical imaging data such as MRI and CT scans to detect subtle changes indicative of drug-induced organ toxicity, improving safety assessments in preclinical studies.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to integrate a conversational agent into electronic health records (EHR) systems, enabling patients to easily access and update their medical histories and symptoms, facilitating more efficient and accurate clinical assessments.</t>
+  </si>
+  <si>
+    <t>As an endocrinologist, I want to develop a conversational agent powered by natural language processing to interact with patients, providing personalized guidance on managing diabetes through diet and lifestyle recommendations.</t>
+  </si>
+  <si>
+    <t>As a healthcare administrator, I want to develop a multilingual conversational agent using machine learning algorithms to assist international patients in navigating healthcare services, including appointment scheduling, insurance inquiries, and medical translation services.</t>
+  </si>
+  <si>
+    <t>As a medical researcher, I want to deploy a conversational agent for medical students to practice clinical case simulations and receive feedback on diagnostic reasoning and treatment planning, so that I can enhance medical training and competency development.</t>
+  </si>
+  <si>
+    <t>As a nephrologist, I want to deploy a conversational agent that can provide patients with personalized information about kidney disease management, including diet recommendations and lifestyle changes, to improve patient adherence and outcomes.</t>
+  </si>
+  <si>
+    <t>As a pediatrician, I want to develop a conversational agent using natural language processing to provide parents with accurate information about childhood illnesses and developmental milestones, ensuring they can make informed decisions about their child's health.</t>
+  </si>
+  <si>
+    <t>As a pharmaceutical researcher, I want to create a conversational agent using semantic parsing techniques to interpret and respond to inquiries about drug interactions and potential side effects, enhancing patient safety and medication adherence.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to construct decision tree models using patient demographics and medical history to predict the likelihood of adverse cardiac events within the next five years, aiding in early intervention and risk management strategies.</t>
+  </si>
+  <si>
+    <t>As a dermatologist, I want to utilize decision tree analysis to identify key risk factors for developing common dermatological conditions such as acne or eczema, enabling proactive preventive measures and patient education.</t>
+  </si>
+  <si>
+    <t>As an endocrinologist, I want to use a decision tree algorithm to predict the risk of developing type 2 diabetes based on patient demographics, lifestyle factors, and genetic predispositions, enabling early intervention strategies.</t>
+  </si>
+  <si>
+    <t>As a pediatric immunologist, I want to develop decision tree-based algorithms to personalize vaccination schedules for children based on individual health profiles, ensuring optimal protection against infectious diseases while minimizing adverse reactions.</t>
+  </si>
+  <si>
+    <t>As a pharmacologist, I want to build a decision tree model to classify patients into different risk groups for developing antibiotic resistance based on their medical history and microbiological data, aiding in personalized treatment plans.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to develop a document classification system to classify electronic health records (EHRs) based on patient symptoms and diagnostic tests, aiding in the identification of patterns and trends in cardiovascular diseases.</t>
+  </si>
+  <si>
+    <t>As a dermatologist, I want to develop a document classification model to automatically categorize research papers and clinical studies related to dermatological diseases, facilitating easier access to relevant literature for evidence-based practice.</t>
+  </si>
+  <si>
+    <t>As an endocrinologist, I want to develop a document classification system to automatically categorize patient medical records based on hormone profile data, streamlining the retrieval of information for treatment planning and research purposes.</t>
+  </si>
+  <si>
+    <t>As a healthcare administrator, I want to implement document classification algorithms to categorize and prioritize incoming medical reports (e.g., radiology, pathology) based on urgency and clinical significance, facilitating timely review and decision-making by healthcare professionals.</t>
+  </si>
+  <si>
+    <t>As a pediatric hospital administrator, I want to implement document classification using natural language processing to automatically categorize and tag electronic health records (EHRs) of pediatric patients, improving data retrieval efficiency and compliance with medical record standards.</t>
+  </si>
+  <si>
+    <t>As a pharmacologist, I want to employ document classification techniques to automatically categorize research papers and clinical trial reports based on drug efficacy, enabling quicker access to relevant studies for evidence-based decision-making.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to develop an entity extraction system to automatically identify and extract key cardiac parameters (e.g., ejection fraction, QT interval) from clinical notes and reports, enabling faster analysis and decision-making.</t>
+  </si>
+  <si>
+    <t>As a healthcare provider, I want to deploy machine learning models for entity extraction in clinical trials documentation, to automatically extract and categorize information on study protocols, participant demographics, and treatment outcomes, facilitating efficient research data management and analysis.</t>
+  </si>
+  <si>
+    <t>As a medical researcher, I want to develop entity extraction models to automatically identify and extract key medical entities (e.g., diseases, medications, symptoms) from clinical notes and patient records, so that I can build comprehensive patient profiles for personalized treatment planning.</t>
+  </si>
+  <si>
+    <t>As a pediatric pharmacist, I want to develop entity extraction models to identify and extract drug names, dosages, and interactions mentioned in pediatric patient medication records, ensuring safe and effective medication management for young patients.</t>
+  </si>
+  <si>
+    <t>As a researcher in pharmacology, I want to utilize entity extraction algorithms to extract molecular entities and their interactions from biomedical literature, aiding in the discovery of novel drug targets and therapeutic mechanisms.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to apply feature selection methods to filter out irrelevant or redundant features from ECG data, so that I can enhance the performance of algorithms detecting cardiac arrhythmias.</t>
+  </si>
+  <si>
+    <t>As a dermatologist, I want to perform feature selection on dermatological image data to identify the most discriminative features that contribute to accurate classification of skin lesions, enhancing diagnostic precision.</t>
+  </si>
+  <si>
+    <t>As an endocrinologist, I want to use feature selection algorithms to prioritize genetic markers linked to thyroid cancer susceptibility in familial studies, facilitating targeted screening and early detection strategies.</t>
+  </si>
+  <si>
+    <t>As a pediatric pulmonologist, I want to use feature selection techniques to identify the most significant clinical and environmental factors influencing asthma severity and treatment response in children, facilitating personalized asthma management plans for each patient.</t>
+  </si>
+  <si>
+    <t>As a pharmaceutical researcher, I want to use feature selection algorithms to identify molecular descriptors that correlate with drug efficacy and safety profiles, aiding in the prioritization of lead compounds for further preclinical testing.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to use keyword extraction algorithms to extract relevant terms from medical literature and clinical guidelines pertaining to cardiac rehabilitation protocols, aiding in the development of evidence-based treatment plans.</t>
+  </si>
+  <si>
+    <t>As a pediatric geneticist, I want to address the challenge of imbalanced datasets in genomic studies by developing algorithms that can accurately detect and classify rare genetic disorders in children, enabling early diagnosis and personalized treatment planning.</t>
+  </si>
+  <si>
+    <t>As a pharmacologist, I want to address class imbalance in adverse event datasets using techniques like oversampling and ensemble learning, to improve the detection and reporting of rare but serious drug side effects during clinical trials.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to address class imbalance in datasets used for predicting rare cardiac conditions using machine learning algorithms, ensuring accurate identification and early intervention for patients at higher risk.</t>
+  </si>
+  <si>
+    <t>As an endocrinologist, I want to develop a keyword extraction system to automatically identify relevant terms from clinical notes and research articles related to hypothyroidism, facilitating comprehensive literature review and evidence synthesis.</t>
+  </si>
+  <si>
+    <t>As a pediatric pharmacist, I want to employ keyword extraction methods to analyze prescription notes and identify key medications, dosages, and associated instructions for pediatric patients, ensuring accurate medication management and patient safety.</t>
+  </si>
+  <si>
+    <t>As a pharmacologist, I want to develop a keyword extraction system to automatically identify key drug interactions mentioned in medical literature and pharmacovigilance reports, aiding in the compilation of comprehensive drug safety profiles.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to use k-NN models to predict patient-specific responses to different cardiac medications based on similar patient profiles, facilitating personalized treatment plans for heart disease management.</t>
+  </si>
+  <si>
+    <t>As a nephrologist, I want to use k-Nearest Neighbor (k-NN) algorithms to predict the risk of acute kidney injury (AKI) in hospitalized patients based on similarities to previous AKI cases with similar clinical profiles, enabling early intervention strategies.</t>
+  </si>
+  <si>
+    <t>As a pediatric pulmonologist, I want to implement a k-NN classifier to predict asthma severity levels in pediatric patients based on similar historical cases, guiding treatment decisions and improving asthma control strategies.</t>
+  </si>
+  <si>
+    <t>As a pharmaceutical researcher, I want to use k-nearest neighbor classification to predict patient responses to novel drug therapies based on similarities to known patient cohorts with similar genetic backgrounds and disease profiles.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to implement multi-label classification algorithms to classify cardiac imaging studies (e.g., echocardiograms, CT scans) into multiple diagnostic categories (e.g., valve disease, myocardial infarction), aiding in accurate disease characterization.</t>
+  </si>
+  <si>
+    <t>As an endocrinologist, I want to implement multi-label classification algorithms to classify patients with adrenal gland disorders into multiple categories (e.g., Cushing's syndrome, adrenal insufficiency), facilitating accurate diagnosis and tailored management approaches.</t>
+  </si>
+  <si>
+    <t>As a pediatric nutritionist, I want to implement a multi-label classification system to assess and classify pediatric patients' nutritional needs based on their dietary habits, medical conditions, and growth patterns, optimizing personalized nutrition plans.</t>
+  </si>
+  <si>
+    <t>As a pharmaceutical researcher, I want to implement multi-label classification algorithms to classify drugs into multiple therapeutic categories simultaneously, enabling comprehensive drug profiling and comparison studies.</t>
+  </si>
+  <si>
+    <t>As a pediatric cardiologist, I want to develop a neural network model to accurately predict cardiac anomalies in pediatric patients based on medical imaging data, enabling early detection and intervention for congenital heart conditions.</t>
+  </si>
+  <si>
+    <t>As a pharmaceutical researcher, I want to use neural networks to analyze high-dimensional molecular data and identify novel biomarkers associated with drug response variability across diverse patient populations.</t>
+  </si>
+  <si>
+    <t>As a pediatric pulmonologist, I want to develop a random forest model to predict the likelihood of asthma exacerbations in pediatric patients based on various clinical and environmental factors, guiding proactive management strategies and reducing hospitalizations.</t>
+  </si>
+  <si>
+    <t>As a pharmacologist, I want to build a random forest model to predict drug-drug interactions based on molecular features and patient-specific factors extracted from electronic health records (EHRs).</t>
+  </si>
+  <si>
+    <t>As an endocrinologist, I want to use semantic similarity techniques to match patient symptoms with known disease patterns in rare endocrine disorders, supporting early detection and personalized treatment approaches.</t>
+  </si>
+  <si>
+    <t>As a pediatrician, I want to use semantic similarity techniques to match reported symptoms from pediatric patients to a database of medical knowledge, aiding in accurate diagnosis and treatment recommendations.</t>
+  </si>
+  <si>
+    <t>As a pharmaceutical researcher, I want to use semantic similarity techniques to analyze biomedical literature and identify relationships between molecular pathways and disease mechanisms relevant to cardiovascular disorders.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to implement sentiment analysis on patient feedback from cardiac rehabilitation programs to assess overall patient satisfaction and identify areas for program improvement.</t>
+  </si>
+  <si>
+    <t>As a dermatologist, I want to develop a sentiment analysis model to analyze social media posts and reviews related to skincare products, identifying sentiments and trends among consumers to inform product recommendations.</t>
+  </si>
+  <si>
+    <t>As a nephrologist, I want to develop a sentiment analysis model to analyze social media discussions and patient forums related to kidney transplantation experiences, to gauge patient emotions and concerns post-surgery.</t>
+  </si>
+  <si>
+    <t>As a pediatric hospital administrator, I want to perform sentiment analysis on feedback and reviews provided by parents about pediatric healthcare services, identifying areas of satisfaction and areas needing improvement to enhance patient experience.</t>
+  </si>
+  <si>
+    <t>As a pharmaceutical researcher, I want to apply sentiment analysis techniques to analyze feedback from clinical trial participants regarding the tolerability and efficacy of a new heart disease treatment, aiding in drug development decisions.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to develop a speech to text system to transcribe cardiology consultations and patient histories accurately, improving documentation efficiency and clinical workflow.</t>
+  </si>
+  <si>
+    <t>As an endocrinologist, I want to use speech to text capabilities to convert endocrine conference recordings into text format, enabling easy access to discussions on recent research findings and clinical case studies.</t>
+  </si>
+  <si>
+    <t>As a pediatric speech therapist, I want to use speech-to-text systems to transcribe speech and language therapy sessions for pediatric patients, aiding in progress tracking, treatment planning, and communication with caregivers.</t>
+  </si>
+  <si>
+    <t>As a pharmaceutical researcher, I want to convert recorded interviews with key opinion leaders in cardiology into text format using speech to text technology, enabling detailed analysis of insights into emerging therapies and treatment guidelines.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to develop a text categorization model to classify medical literature and research articles on various cardiac conditions (e.g., myocardial infarction, arrhythmias) for easier access and knowledge synthesis.</t>
+  </si>
+  <si>
+    <t>As an endocrinologist, I want to use text categorization techniques to classify patient electronic health records based on different types of hormonal disorders (e.g., adrenal gland disorders, pituitary gland disorders), enabling efficient retrieval and analysis of relevant patient data.</t>
+  </si>
+  <si>
+    <t>As a nephrologist, I want to develop a text categorization system to classify nephrology research articles into categories such as chronic kidney disease epidemiology, renal replacement therapies, and nephrotoxicity studies, facilitating literature review and research synthesis.</t>
+  </si>
+  <si>
+    <t>As a pediatric researcher, I want to develop a text categorization system to classify research articles related to pediatric diseases and treatments into relevant categories (e.g., epidemiology, treatment outcomes), facilitating efficient literature review and research synthesis.</t>
+  </si>
+  <si>
+    <t>As a pharmacologist, I want to use text categorization to classify research articles into categories such as drug efficacy, adverse effects, and pharmacokinetics, so that I can quickly access relevant literature for my studies.</t>
+  </si>
+  <si>
+    <t>As an endocrinologist, I want to use unsupervised clustering techniques to cluster symptoms reported by patients with polycystic ovary syndrome (PCOS), identifying common symptom patterns and guiding individualized management plans.</t>
+  </si>
+  <si>
+    <t>As a pediatric geneticist, I want to use unsupervised clustering techniques to group and cluster pediatric genetic profiles based on similarities in genetic mutations and variations, aiding in the identification of novel genetic associations and disease pathways.</t>
+  </si>
+  <si>
+    <t>As a pharmacologist, I want to apply unsupervised clustering to group patient demographic data based on medical history, genetic markers, and lifestyle factors, so that I can identify subpopulations for personalized medicine approaches.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to develop a voice recognition system to accurately transcribe cardiology consultations and patient histories from audio recordings, improving documentation accuracy and efficiency.</t>
+  </si>
+  <si>
+    <t>As a dermatologist, I want to implement voice recognition technology to capture patient-reported symptoms and medical histories accurately during dermatological consultations, enhancing data quality and clinical decision-making.</t>
+  </si>
+  <si>
+    <t>As a pediatric surgeon, I want to use voice recognition systems to dictate operative and procedure notes during pediatric surgeries, ensuring timely and accurate documentation of surgical details for medical records.</t>
+  </si>
+  <si>
+    <t>As a clinical pharmacist, I want to implement voice recognition technology to transcribe patient consultations accurately, so that I can efficiently document medication histories and adherence behaviors.</t>
+  </si>
+  <si>
+    <t>As a cardiologist, I want to utilize word embedding techniques to represent clinical terms and medical concepts from cardiology literature, enabling more accurate semantic understanding and retrieval of relevant research findings.</t>
+  </si>
+  <si>
+    <t>As an endocrinologist, I want to use word embedding techniques to analyze similarities and relationships between medical terms in research literature on insulin resistance, aiding in the discovery of novel associations and mechanisms.</t>
+  </si>
+  <si>
+    <t>As a nephrologist, I want to deploy word embedding models to support automated summarization of nephrology research articles and clinical trials, extracting key concepts and findings to aid in evidence-based decision-making and research synthesis.</t>
+  </si>
+  <si>
+    <t>As a pediatric researcher, I want to utilize word embedding techniques to analyze medical texts related to pediatric diseases and treatments, extracting semantic similarities and patterns to uncover novel insights and research directions.</t>
+  </si>
+  <si>
+    <t>As a drug safety analyst, I want to utilize word embedding to map adverse event descriptions to vector spaces, facilitating automated signal detection and identification of potential safety issues associated with specific drug classes.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1115,6 +1241,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1167,7 +1298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1190,6 +1321,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1524,10 +1665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DF0B04-8323-4309-B759-D1CDDA1FBB0E}">
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C289" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C301" sqref="C301"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5163,16 +5304,16 @@
       <c r="A182" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B182" s="12">
-        <v>6</v>
-      </c>
-      <c r="C182" s="12" t="s">
+      <c r="B182" s="14">
+        <v>6</v>
+      </c>
+      <c r="C182" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D182" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E182" s="1" t="s">
+      <c r="E182" s="15" t="s">
         <v>130</v>
       </c>
       <c r="F182" s="1" t="s">
@@ -5192,47 +5333,47 @@
       <c r="D183" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E183" s="1" t="s">
-        <v>317</v>
+      <c r="E183" s="15" t="s">
+        <v>302</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B184" s="12">
-        <v>6</v>
-      </c>
-      <c r="C184" s="12" t="s">
+      <c r="A184" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B184" s="14">
+        <v>6</v>
+      </c>
+      <c r="C184" s="14" t="s">
         <v>150</v>
       </c>
       <c r="D184" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E184" s="1" t="s">
-        <v>324</v>
+      <c r="E184" s="15" t="s">
+        <v>303</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B185" s="12">
-        <v>6</v>
-      </c>
-      <c r="C185" s="12" t="s">
+      <c r="A185" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B185" s="14">
+        <v>6</v>
+      </c>
+      <c r="C185" s="14" t="s">
         <v>159</v>
       </c>
       <c r="D185" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E185" s="1" t="s">
+      <c r="E185" s="15" t="s">
         <v>160</v>
       </c>
       <c r="F185" s="1" t="s">
@@ -5240,20 +5381,20 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B186" s="12">
-        <v>6</v>
-      </c>
-      <c r="C186" s="12" t="s">
+      <c r="A186" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B186" s="14">
+        <v>6</v>
+      </c>
+      <c r="C186" s="14" t="s">
         <v>177</v>
       </c>
       <c r="D186" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E186" s="1" t="s">
-        <v>338</v>
+      <c r="E186" s="15" t="s">
+        <v>304</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>55</v>
@@ -5272,7 +5413,7 @@
       <c r="D187" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E187" s="1" t="s">
+      <c r="E187" s="15" t="s">
         <v>196</v>
       </c>
       <c r="F187" s="1" t="s">
@@ -5280,60 +5421,60 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B188" s="12">
-        <v>6</v>
-      </c>
-      <c r="C188" s="12" t="s">
+      <c r="A188" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B188" s="14">
+        <v>6</v>
+      </c>
+      <c r="C188" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D188" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E188" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B189" s="14">
+        <v>6</v>
+      </c>
+      <c r="C189" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D189" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E189" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B190" s="14">
+        <v>6</v>
+      </c>
+      <c r="C190" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="D188" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B189" s="12">
-        <v>6</v>
-      </c>
-      <c r="C189" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D189" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B190" s="12">
-        <v>6</v>
-      </c>
-      <c r="C190" s="12" t="s">
-        <v>150</v>
       </c>
       <c r="D190" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E190" s="1" t="s">
-        <v>151</v>
+      <c r="E190" s="15" t="s">
+        <v>309</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>55</v>
@@ -5347,73 +5488,73 @@
         <v>6</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="D191" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E191" s="1" t="s">
-        <v>161</v>
+      <c r="E191" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B192" s="12">
-        <v>6</v>
-      </c>
-      <c r="C192" s="12" t="s">
-        <v>177</v>
+      <c r="A192" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B192" s="14">
+        <v>6</v>
+      </c>
+      <c r="C192" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="D192" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E192" s="1" t="s">
-        <v>178</v>
+      <c r="E192" s="15" t="s">
+        <v>151</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B193" s="12">
-        <v>6</v>
-      </c>
-      <c r="C193" s="12" t="s">
-        <v>195</v>
+      <c r="A193" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B193" s="14">
+        <v>6</v>
+      </c>
+      <c r="C193" s="14" t="s">
+        <v>159</v>
       </c>
       <c r="D193" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E193" s="1" t="s">
-        <v>341</v>
+      <c r="E193" s="15" t="s">
+        <v>161</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B194" s="12">
-        <v>6</v>
-      </c>
-      <c r="C194" s="12" t="s">
-        <v>129</v>
+      <c r="A194" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B194" s="14">
+        <v>6</v>
+      </c>
+      <c r="C194" s="14" t="s">
+        <v>177</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>305</v>
+        <v>32</v>
+      </c>
+      <c r="E194" s="15" t="s">
+        <v>178</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>55</v>
@@ -5427,73 +5568,73 @@
         <v>6</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>137</v>
+        <v>32</v>
+      </c>
+      <c r="E195" s="15" t="s">
+        <v>310</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B196" s="12">
-        <v>6</v>
-      </c>
-      <c r="C196" s="12" t="s">
-        <v>150</v>
+      <c r="A196" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B196" s="14">
+        <v>6</v>
+      </c>
+      <c r="C196" s="14" t="s">
+        <v>305</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>325</v>
+        <v>32</v>
+      </c>
+      <c r="E196" s="15" t="s">
+        <v>311</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B197" s="12">
-        <v>6</v>
-      </c>
-      <c r="C197" s="12" t="s">
-        <v>159</v>
+      <c r="A197" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B197" s="14">
+        <v>6</v>
+      </c>
+      <c r="C197" s="14" t="s">
+        <v>307</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>335</v>
+        <v>32</v>
+      </c>
+      <c r="E197" s="15" t="s">
+        <v>312</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B198" s="12">
-        <v>6</v>
-      </c>
-      <c r="C198" s="12" t="s">
-        <v>177</v>
+      <c r="A198" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B198" s="14">
+        <v>6</v>
+      </c>
+      <c r="C198" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="D198" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E198" s="1" t="s">
-        <v>339</v>
+      <c r="E198" s="15" t="s">
+        <v>313</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>55</v>
@@ -5507,73 +5648,73 @@
         <v>6</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="D199" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E199" s="1" t="s">
-        <v>342</v>
+      <c r="E199" s="15" t="s">
+        <v>137</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B200" s="12">
-        <v>6</v>
-      </c>
-      <c r="C200" s="12" t="s">
-        <v>129</v>
+      <c r="A200" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B200" s="14">
+        <v>6</v>
+      </c>
+      <c r="C200" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>306</v>
+        <v>23</v>
+      </c>
+      <c r="E200" s="15" t="s">
+        <v>314</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B201" s="12">
-        <v>6</v>
-      </c>
-      <c r="C201" s="12" t="s">
-        <v>135</v>
+      <c r="A201" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B201" s="14">
+        <v>6</v>
+      </c>
+      <c r="C201" s="14" t="s">
+        <v>159</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>318</v>
+        <v>23</v>
+      </c>
+      <c r="E201" s="15" t="s">
+        <v>315</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B202" s="12">
-        <v>6</v>
-      </c>
-      <c r="C202" s="12" t="s">
-        <v>150</v>
+      <c r="A202" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B202" s="14">
+        <v>6</v>
+      </c>
+      <c r="C202" s="14" t="s">
+        <v>177</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>326</v>
+        <v>23</v>
+      </c>
+      <c r="E202" s="15" t="s">
+        <v>316</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>55</v>
@@ -5587,73 +5728,73 @@
         <v>6</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="D203" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E203" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B204" s="14">
+        <v>6</v>
+      </c>
+      <c r="C204" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E204" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B205" s="14">
+        <v>6</v>
+      </c>
+      <c r="C205" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D205" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E205" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B206" s="14">
+        <v>6</v>
+      </c>
+      <c r="C206" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D206" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E203" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F203" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B204" s="12">
-        <v>6</v>
-      </c>
-      <c r="C204" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="D204" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B205" s="12">
-        <v>6</v>
-      </c>
-      <c r="C205" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="D205" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B206" s="12">
-        <v>6</v>
-      </c>
-      <c r="C206" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D206" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>307</v>
+      <c r="E206" s="15" t="s">
+        <v>320</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>55</v>
@@ -5670,70 +5811,70 @@
         <v>135</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>319</v>
+        <v>12</v>
+      </c>
+      <c r="E207" s="15" t="s">
+        <v>321</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B208" s="12">
-        <v>6</v>
-      </c>
-      <c r="C208" s="12" t="s">
+      <c r="A208" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B208" s="14">
+        <v>6</v>
+      </c>
+      <c r="C208" s="14" t="s">
         <v>150</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>327</v>
+        <v>12</v>
+      </c>
+      <c r="E208" s="15" t="s">
+        <v>322</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B209" s="12">
-        <v>6</v>
-      </c>
-      <c r="C209" s="12" t="s">
+      <c r="A209" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B209" s="14">
+        <v>6</v>
+      </c>
+      <c r="C209" s="14" t="s">
         <v>159</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>336</v>
+        <v>12</v>
+      </c>
+      <c r="E209" s="15" t="s">
+        <v>162</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B210" s="12">
-        <v>6</v>
-      </c>
-      <c r="C210" s="12" t="s">
+      <c r="A210" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B210" s="14">
+        <v>6</v>
+      </c>
+      <c r="C210" s="14" t="s">
         <v>177</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>180</v>
+        <v>12</v>
+      </c>
+      <c r="E210" s="15" t="s">
+        <v>179</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>55</v>
@@ -5750,70 +5891,70 @@
         <v>195</v>
       </c>
       <c r="D211" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E211" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B212" s="14">
+        <v>6</v>
+      </c>
+      <c r="C212" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D212" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E212" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B213" s="14">
+        <v>6</v>
+      </c>
+      <c r="C213" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D213" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E213" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B214" s="14">
+        <v>6</v>
+      </c>
+      <c r="C214" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D214" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E211" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F211" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B212" s="12">
-        <v>6</v>
-      </c>
-      <c r="C212" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D212" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="F212" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B213" s="12">
-        <v>6</v>
-      </c>
-      <c r="C213" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D213" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F213" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B214" s="12">
-        <v>6</v>
-      </c>
-      <c r="C214" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D214" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>152</v>
+      <c r="E214" s="15" t="s">
+        <v>325</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>55</v>
@@ -5827,73 +5968,73 @@
         <v>6</v>
       </c>
       <c r="C215" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D215" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E215" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B216" s="14">
+        <v>6</v>
+      </c>
+      <c r="C216" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D216" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E216" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B217" s="14">
+        <v>6</v>
+      </c>
+      <c r="C217" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="D215" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F215" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B216" s="12">
-        <v>6</v>
-      </c>
-      <c r="C216" s="12" t="s">
+      <c r="D217" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E217" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B218" s="14">
+        <v>6</v>
+      </c>
+      <c r="C218" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D216" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B217" s="12">
-        <v>6</v>
-      </c>
-      <c r="C217" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="D217" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F217" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B218" s="12">
-        <v>6</v>
-      </c>
-      <c r="C218" s="12" t="s">
-        <v>129</v>
-      </c>
       <c r="D218" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>309</v>
+        <v>33</v>
+      </c>
+      <c r="E218" s="15" t="s">
+        <v>180</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>55</v>
@@ -5907,73 +6048,73 @@
         <v>6</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>320</v>
+        <v>33</v>
+      </c>
+      <c r="E219" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B220" s="12">
-        <v>6</v>
-      </c>
-      <c r="C220" s="12" t="s">
-        <v>150</v>
+      <c r="A220" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B220" s="14">
+        <v>6</v>
+      </c>
+      <c r="C220" s="14" t="s">
+        <v>305</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>328</v>
+        <v>33</v>
+      </c>
+      <c r="E220" s="15" t="s">
+        <v>329</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B221" s="12">
-        <v>6</v>
-      </c>
-      <c r="C221" s="12" t="s">
-        <v>159</v>
+      <c r="A221" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B221" s="14">
+        <v>6</v>
+      </c>
+      <c r="C221" s="14" t="s">
+        <v>307</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E221" s="1" t="s">
-        <v>163</v>
+        <v>33</v>
+      </c>
+      <c r="E221" s="15" t="s">
+        <v>330</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B222" s="12">
-        <v>6</v>
-      </c>
-      <c r="C222" s="12" t="s">
-        <v>177</v>
+      <c r="A222" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B222" s="14">
+        <v>6</v>
+      </c>
+      <c r="C222" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>181</v>
+        <v>25</v>
+      </c>
+      <c r="E222" s="15" t="s">
+        <v>331</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>55</v>
@@ -5987,73 +6128,73 @@
         <v>6</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>200</v>
+        <v>25</v>
+      </c>
+      <c r="E223" s="15" t="s">
+        <v>138</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A224" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B224" s="12">
-        <v>6</v>
-      </c>
-      <c r="C224" s="12" t="s">
-        <v>129</v>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B224" s="14">
+        <v>6</v>
+      </c>
+      <c r="C224" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E224" t="s">
-        <v>310</v>
+        <v>25</v>
+      </c>
+      <c r="E224" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B225" s="12">
-        <v>6</v>
-      </c>
-      <c r="C225" s="12" t="s">
-        <v>135</v>
+      <c r="A225" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B225" s="14">
+        <v>6</v>
+      </c>
+      <c r="C225" s="14" t="s">
+        <v>159</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>139</v>
+        <v>25</v>
+      </c>
+      <c r="E225" s="15" t="s">
+        <v>332</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B226" s="12">
-        <v>6</v>
-      </c>
-      <c r="C226" s="12" t="s">
-        <v>150</v>
+      <c r="A226" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B226" s="14">
+        <v>6</v>
+      </c>
+      <c r="C226" s="14" t="s">
+        <v>177</v>
       </c>
       <c r="D226" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>153</v>
+        <v>25</v>
+      </c>
+      <c r="E226" s="15" t="s">
+        <v>333</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>55</v>
@@ -6067,73 +6208,73 @@
         <v>6</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>164</v>
+        <v>25</v>
+      </c>
+      <c r="E227" s="15" t="s">
+        <v>199</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B228" s="12">
-        <v>6</v>
-      </c>
-      <c r="C228" s="12" t="s">
-        <v>177</v>
+      <c r="A228" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B228" s="14">
+        <v>6</v>
+      </c>
+      <c r="C228" s="14" t="s">
+        <v>305</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>182</v>
+        <v>25</v>
+      </c>
+      <c r="E228" s="15" t="s">
+        <v>334</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B229" s="12">
-        <v>6</v>
-      </c>
-      <c r="C229" s="12" t="s">
-        <v>195</v>
+      <c r="A229" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B229" s="14">
+        <v>6</v>
+      </c>
+      <c r="C229" s="14" t="s">
+        <v>307</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>201</v>
+        <v>25</v>
+      </c>
+      <c r="E229" s="15" t="s">
+        <v>335</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B230" s="12">
-        <v>6</v>
-      </c>
-      <c r="C230" s="12" t="s">
+      <c r="A230" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B230" s="14">
+        <v>6</v>
+      </c>
+      <c r="C230" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>312</v>
+        <v>28</v>
+      </c>
+      <c r="E230" s="15" t="s">
+        <v>336</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>55</v>
@@ -6150,70 +6291,70 @@
         <v>135</v>
       </c>
       <c r="D231" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>140</v>
+        <v>28</v>
+      </c>
+      <c r="E231" s="15" t="s">
+        <v>337</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B232" s="12">
-        <v>6</v>
-      </c>
-      <c r="C232" s="12" t="s">
+      <c r="A232" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B232" s="14">
+        <v>6</v>
+      </c>
+      <c r="C232" s="14" t="s">
         <v>150</v>
       </c>
       <c r="D232" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>329</v>
+        <v>28</v>
+      </c>
+      <c r="E232" s="15" t="s">
+        <v>338</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B233" s="12">
-        <v>6</v>
-      </c>
-      <c r="C233" s="12" t="s">
+      <c r="A233" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B233" s="14">
+        <v>6</v>
+      </c>
+      <c r="C233" s="14" t="s">
         <v>159</v>
       </c>
       <c r="D233" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>165</v>
+        <v>28</v>
+      </c>
+      <c r="E233" s="15" t="s">
+        <v>163</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B234" s="12">
-        <v>6</v>
-      </c>
-      <c r="C234" s="12" t="s">
+      <c r="A234" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B234" s="14">
+        <v>6</v>
+      </c>
+      <c r="C234" s="14" t="s">
         <v>177</v>
       </c>
       <c r="D234" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>183</v>
+        <v>28</v>
+      </c>
+      <c r="E234" s="15" t="s">
+        <v>181</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>55</v>
@@ -6230,70 +6371,70 @@
         <v>195</v>
       </c>
       <c r="D235" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>202</v>
+        <v>28</v>
+      </c>
+      <c r="E235" s="15" t="s">
+        <v>200</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B236" s="12">
-        <v>6</v>
-      </c>
-      <c r="C236" s="12" t="s">
+      <c r="A236" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B236" s="14">
+        <v>6</v>
+      </c>
+      <c r="C236" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D236" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E236" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B237" s="14">
+        <v>6</v>
+      </c>
+      <c r="C237" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D237" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E237" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B238" s="14">
+        <v>6</v>
+      </c>
+      <c r="C238" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D236" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="F236" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B237" s="12">
-        <v>6</v>
-      </c>
-      <c r="C237" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D237" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F237" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B238" s="12">
-        <v>6</v>
-      </c>
-      <c r="C238" s="12" t="s">
-        <v>150</v>
-      </c>
       <c r="D238" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>154</v>
+        <v>13</v>
+      </c>
+      <c r="E238" s="15" t="s">
+        <v>341</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>55</v>
@@ -6307,73 +6448,73 @@
         <v>6</v>
       </c>
       <c r="C239" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D239" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E239" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B240" s="14">
+        <v>6</v>
+      </c>
+      <c r="C240" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D240" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E240" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B241" s="14">
+        <v>6</v>
+      </c>
+      <c r="C241" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="D239" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F239" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B240" s="12">
-        <v>6</v>
-      </c>
-      <c r="C240" s="12" t="s">
+      <c r="D241" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E241" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B242" s="14">
+        <v>6</v>
+      </c>
+      <c r="C242" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D240" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F240" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B241" s="12">
-        <v>6</v>
-      </c>
-      <c r="C241" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="D241" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F241" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B242" s="12">
-        <v>6</v>
-      </c>
-      <c r="C242" s="12" t="s">
-        <v>129</v>
-      </c>
       <c r="D242" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>313</v>
+        <v>13</v>
+      </c>
+      <c r="E242" s="15" t="s">
+        <v>182</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>55</v>
@@ -6387,73 +6528,73 @@
         <v>6</v>
       </c>
       <c r="C243" s="12" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>142</v>
+        <v>13</v>
+      </c>
+      <c r="E243" s="15" t="s">
+        <v>201</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B244" s="12">
-        <v>6</v>
-      </c>
-      <c r="C244" s="12" t="s">
-        <v>150</v>
+      <c r="A244" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B244" s="14">
+        <v>6</v>
+      </c>
+      <c r="C244" s="14" t="s">
+        <v>305</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>330</v>
+        <v>13</v>
+      </c>
+      <c r="E244" s="15" t="s">
+        <v>342</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B245" s="12">
-        <v>6</v>
-      </c>
-      <c r="C245" s="12" t="s">
-        <v>159</v>
+      <c r="A245" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B245" s="14">
+        <v>6</v>
+      </c>
+      <c r="C245" s="14" t="s">
+        <v>307</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>167</v>
+        <v>13</v>
+      </c>
+      <c r="E245" s="15" t="s">
+        <v>343</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B246" s="12">
-        <v>6</v>
-      </c>
-      <c r="C246" s="12" t="s">
-        <v>177</v>
+      <c r="A246" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B246" s="14">
+        <v>6</v>
+      </c>
+      <c r="C246" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>185</v>
+        <v>26</v>
+      </c>
+      <c r="E246" s="15" t="s">
+        <v>344</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>55</v>
@@ -6467,73 +6608,73 @@
         <v>6</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>203</v>
+        <v>26</v>
+      </c>
+      <c r="E247" s="15" t="s">
+        <v>140</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B248" s="12">
-        <v>6</v>
-      </c>
-      <c r="C248" s="12" t="s">
-        <v>129</v>
+      <c r="A248" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B248" s="14">
+        <v>6</v>
+      </c>
+      <c r="C248" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="D248" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>131</v>
+        <v>26</v>
+      </c>
+      <c r="E248" s="15" t="s">
+        <v>345</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B249" s="12">
-        <v>6</v>
-      </c>
-      <c r="C249" s="12" t="s">
-        <v>135</v>
+      <c r="A249" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B249" s="14">
+        <v>6</v>
+      </c>
+      <c r="C249" s="14" t="s">
+        <v>159</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>143</v>
+        <v>26</v>
+      </c>
+      <c r="E249" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B250" s="12">
-        <v>6</v>
-      </c>
-      <c r="C250" s="12" t="s">
-        <v>150</v>
+      <c r="A250" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B250" s="14">
+        <v>6</v>
+      </c>
+      <c r="C250" s="14" t="s">
+        <v>177</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>155</v>
+        <v>26</v>
+      </c>
+      <c r="E250" s="15" t="s">
+        <v>183</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>55</v>
@@ -6547,73 +6688,73 @@
         <v>6</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>168</v>
+        <v>26</v>
+      </c>
+      <c r="E251" s="15" t="s">
+        <v>202</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B252" s="12">
-        <v>6</v>
-      </c>
-      <c r="C252" s="12" t="s">
-        <v>177</v>
+      <c r="A252" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B252" s="14">
+        <v>6</v>
+      </c>
+      <c r="C252" s="14" t="s">
+        <v>305</v>
       </c>
       <c r="D252" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>186</v>
+        <v>26</v>
+      </c>
+      <c r="E252" s="15" t="s">
+        <v>346</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B253" s="12">
-        <v>6</v>
-      </c>
-      <c r="C253" s="12" t="s">
-        <v>195</v>
+      <c r="A253" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B253" s="14">
+        <v>6</v>
+      </c>
+      <c r="C253" s="14" t="s">
+        <v>307</v>
       </c>
       <c r="D253" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>204</v>
+        <v>26</v>
+      </c>
+      <c r="E253" s="15" t="s">
+        <v>347</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B254" s="12">
-        <v>6</v>
-      </c>
-      <c r="C254" s="12" t="s">
+      <c r="A254" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B254" s="14">
+        <v>6</v>
+      </c>
+      <c r="C254" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D254" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>132</v>
+        <v>14</v>
+      </c>
+      <c r="E254" s="15" t="s">
+        <v>348</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>55</v>
@@ -6630,70 +6771,70 @@
         <v>135</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>144</v>
+        <v>14</v>
+      </c>
+      <c r="E255" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B256" s="12">
-        <v>6</v>
-      </c>
-      <c r="C256" s="12" t="s">
+      <c r="A256" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B256" s="14">
+        <v>6</v>
+      </c>
+      <c r="C256" s="14" t="s">
         <v>150</v>
       </c>
       <c r="D256" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E256" s="1" t="s">
-        <v>156</v>
+        <v>14</v>
+      </c>
+      <c r="E256" s="15" t="s">
+        <v>154</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B257" s="12">
-        <v>6</v>
-      </c>
-      <c r="C257" s="12" t="s">
+      <c r="A257" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B257" s="14">
+        <v>6</v>
+      </c>
+      <c r="C257" s="14" t="s">
         <v>159</v>
       </c>
       <c r="D257" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>169</v>
+        <v>14</v>
+      </c>
+      <c r="E257" s="15" t="s">
+        <v>166</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B258" s="12">
-        <v>6</v>
-      </c>
-      <c r="C258" s="12" t="s">
+      <c r="A258" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B258" s="14">
+        <v>6</v>
+      </c>
+      <c r="C258" s="14" t="s">
         <v>177</v>
       </c>
       <c r="D258" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>187</v>
+        <v>14</v>
+      </c>
+      <c r="E258" s="15" t="s">
+        <v>184</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>55</v>
@@ -6710,70 +6851,70 @@
         <v>195</v>
       </c>
       <c r="D259" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>205</v>
+        <v>14</v>
+      </c>
+      <c r="E259" s="15" t="s">
+        <v>349</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B260" s="12">
-        <v>6</v>
-      </c>
-      <c r="C260" s="12" t="s">
+      <c r="A260" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B260" s="14">
+        <v>6</v>
+      </c>
+      <c r="C260" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D260" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E260" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B261" s="14">
+        <v>6</v>
+      </c>
+      <c r="C261" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D261" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E261" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B262" s="14">
+        <v>6</v>
+      </c>
+      <c r="C262" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D260" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F260" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B261" s="12">
-        <v>6</v>
-      </c>
-      <c r="C261" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D261" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F261" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B262" s="12">
-        <v>6</v>
-      </c>
-      <c r="C262" s="12" t="s">
-        <v>150</v>
-      </c>
       <c r="D262" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E262" s="6" t="s">
-        <v>331</v>
+        <v>30</v>
+      </c>
+      <c r="E262" s="15" t="s">
+        <v>352</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>55</v>
@@ -6787,73 +6928,73 @@
         <v>6</v>
       </c>
       <c r="C263" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D263" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E263" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B264" s="14">
+        <v>6</v>
+      </c>
+      <c r="C264" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D264" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E264" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B265" s="14">
+        <v>6</v>
+      </c>
+      <c r="C265" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="D263" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F263" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B264" s="12">
-        <v>6</v>
-      </c>
-      <c r="C264" s="12" t="s">
+      <c r="D265" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E265" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B266" s="14">
+        <v>6</v>
+      </c>
+      <c r="C266" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="D264" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F264" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B265" s="12">
-        <v>6</v>
-      </c>
-      <c r="C265" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="D265" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F265" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B266" s="12">
-        <v>6</v>
-      </c>
-      <c r="C266" s="12" t="s">
-        <v>129</v>
-      </c>
       <c r="D266" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>314</v>
+        <v>30</v>
+      </c>
+      <c r="E266" s="15" t="s">
+        <v>185</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>55</v>
@@ -6867,73 +7008,73 @@
         <v>6</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="D267" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>321</v>
+        <v>30</v>
+      </c>
+      <c r="E267" s="15" t="s">
+        <v>203</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B268" s="12">
-        <v>6</v>
-      </c>
-      <c r="C268" s="12" t="s">
-        <v>150</v>
+      <c r="A268" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B268" s="14">
+        <v>6</v>
+      </c>
+      <c r="C268" s="14" t="s">
+        <v>305</v>
       </c>
       <c r="D268" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>157</v>
+        <v>30</v>
+      </c>
+      <c r="E268" s="15" t="s">
+        <v>354</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B269" s="12">
-        <v>6</v>
-      </c>
-      <c r="C269" s="12" t="s">
-        <v>159</v>
+      <c r="A269" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B269" s="14">
+        <v>6</v>
+      </c>
+      <c r="C269" s="14" t="s">
+        <v>307</v>
       </c>
       <c r="D269" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>171</v>
+        <v>30</v>
+      </c>
+      <c r="E269" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B270" s="12">
-        <v>6</v>
-      </c>
-      <c r="C270" s="12" t="s">
-        <v>177</v>
+      <c r="A270" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B270" s="14">
+        <v>6</v>
+      </c>
+      <c r="C270" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="D270" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>189</v>
+        <v>15</v>
+      </c>
+      <c r="E270" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>55</v>
@@ -6947,73 +7088,73 @@
         <v>6</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="D271" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>344</v>
+        <v>15</v>
+      </c>
+      <c r="E271" s="15" t="s">
+        <v>143</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B272" s="12">
-        <v>6</v>
-      </c>
-      <c r="C272" s="12" t="s">
-        <v>129</v>
+      <c r="A272" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B272" s="14">
+        <v>6</v>
+      </c>
+      <c r="C272" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="D272" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>315</v>
+        <v>15</v>
+      </c>
+      <c r="E272" s="15" t="s">
+        <v>155</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B273" s="12">
-        <v>6</v>
-      </c>
-      <c r="C273" s="12" t="s">
-        <v>135</v>
+      <c r="A273" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B273" s="14">
+        <v>6</v>
+      </c>
+      <c r="C273" s="14" t="s">
+        <v>159</v>
       </c>
       <c r="D273" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>146</v>
+        <v>15</v>
+      </c>
+      <c r="E273" s="15" t="s">
+        <v>168</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B274" s="12">
-        <v>6</v>
-      </c>
-      <c r="C274" s="12" t="s">
-        <v>150</v>
+      <c r="A274" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B274" s="14">
+        <v>6</v>
+      </c>
+      <c r="C274" s="14" t="s">
+        <v>177</v>
       </c>
       <c r="D274" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>332</v>
+        <v>15</v>
+      </c>
+      <c r="E274" s="15" t="s">
+        <v>186</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>55</v>
@@ -7027,73 +7168,73 @@
         <v>6</v>
       </c>
       <c r="C275" s="12" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="D275" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E275" s="1" t="s">
-        <v>172</v>
+        <v>15</v>
+      </c>
+      <c r="E275" s="15" t="s">
+        <v>204</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B276" s="12">
-        <v>6</v>
-      </c>
-      <c r="C276" s="12" t="s">
-        <v>177</v>
+      <c r="A276" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B276" s="14">
+        <v>6</v>
+      </c>
+      <c r="C276" s="14" t="s">
+        <v>305</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E276" s="1" t="s">
-        <v>190</v>
+        <v>15</v>
+      </c>
+      <c r="E276" s="15" t="s">
+        <v>356</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B277" s="12">
-        <v>6</v>
-      </c>
-      <c r="C277" s="12" t="s">
-        <v>195</v>
+      <c r="A277" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B277" s="14">
+        <v>6</v>
+      </c>
+      <c r="C277" s="14" t="s">
+        <v>307</v>
       </c>
       <c r="D277" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E277" s="1" t="s">
-        <v>207</v>
+        <v>15</v>
+      </c>
+      <c r="E277" s="15" t="s">
+        <v>357</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B278" s="12">
-        <v>6</v>
-      </c>
-      <c r="C278" s="12" t="s">
+      <c r="A278" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B278" s="14">
+        <v>6</v>
+      </c>
+      <c r="C278" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D278" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E278" s="1" t="s">
-        <v>316</v>
+        <v>16</v>
+      </c>
+      <c r="E278" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>55</v>
@@ -7110,70 +7251,70 @@
         <v>135</v>
       </c>
       <c r="D279" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E279" s="1" t="s">
-        <v>147</v>
+        <v>16</v>
+      </c>
+      <c r="E279" s="15" t="s">
+        <v>144</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B280" s="12">
-        <v>6</v>
-      </c>
-      <c r="C280" s="12" t="s">
+      <c r="A280" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B280" s="14">
+        <v>6</v>
+      </c>
+      <c r="C280" s="14" t="s">
         <v>150</v>
       </c>
       <c r="D280" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>323</v>
+        <v>16</v>
+      </c>
+      <c r="E280" s="15" t="s">
+        <v>156</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A281" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B281" s="12">
-        <v>6</v>
-      </c>
-      <c r="C281" s="12" t="s">
+      <c r="A281" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B281" s="14">
+        <v>6</v>
+      </c>
+      <c r="C281" s="14" t="s">
         <v>159</v>
       </c>
       <c r="D281" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E281" s="1" t="s">
-        <v>173</v>
+        <v>16</v>
+      </c>
+      <c r="E281" s="15" t="s">
+        <v>169</v>
       </c>
       <c r="F281